--- a/Factures_Excel/1388 - 9307-2411 Québec Inc..xlsx
+++ b/Factures_Excel/1388 - 9307-2411 Québec Inc..xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\Factures_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A51A7DC-D8FA-44FC-AE65-CFEE5AF23407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17490F2E-D0E9-4E4E-AF49-BB4E58B536B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" firstSheet="3" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" firstSheet="3" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="26-04-18" sheetId="4" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="2024-10-15 - 24-24530" sheetId="17" r:id="rId14"/>
     <sheet name="2024-11-02 - 24-24588" sheetId="18" r:id="rId15"/>
     <sheet name="2024-12-21 - 24-24689" sheetId="19" r:id="rId16"/>
+    <sheet name="2025-03-01 - 25-24750" sheetId="20" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="dnrServices">OFFSET(#REF!,,,COUNTA(#REF!)-1,1)</definedName>
@@ -53,6 +54,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="13">'2024-10-15 - 24-24530'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="14">'2024-11-02 - 24-24588'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="15">'2024-12-21 - 24-24689'!$A$1:$F$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="16">'2025-03-01 - 25-24750'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'21-03-23'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'24-03-24'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'26-04-18'!$A$1:$F$89</definedName>
@@ -78,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="182">
   <si>
     <t>NOTE D'HONORAIRES</t>
   </si>
@@ -587,6 +589,45 @@
   </si>
   <si>
     <t xml:space="preserve"> - Préparation d'un courriel sommaire résumant les résultats de nos analyses de juste valeurs marchandes ;</t>
+  </si>
+  <si>
+    <t>Le 1 MARS 2025</t>
+  </si>
+  <si>
+    <t>25-24750</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Travail avec votre comptable à la modification de la comptabilité au 31/12 dans l'ensemble des différentes entités pour </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> régulariser les problématiques et optimisations fiscales ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Préparation des diverses déclarations de revenus requises dans l'ensemble de toutes les entités ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Diverses discussions téléphoniques avec vous et vos comptables relativement aux états financiers;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Analyse et recherches fiscales entourant les états financiers annuels ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Travail entourant la vente des différentes sociétés: analyse et préparation de différents tableaux requis, analyse de la lettre d'intention,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  rencontre avec les fiscalistes des acheteurs, analyse de tableaux, discussions téléphoniques, travail de sollicitation de nouveaux acheteurs, etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Diverses discussions téléphoniques avec vous, vos juristes et votre comptable relativement à divers sujets;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Répondre aux demandes de renseignements des gouvernements ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Préparation aux diverses rencontres et rencontres avec diverses personnes par Vidéoconférence;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Préparation d'organigrammes corporatifs requis;</t>
   </si>
 </sst>
 </file>
@@ -604,7 +645,7 @@
     <numFmt numFmtId="170" formatCode="#,##0.00\ &quot;$&quot;"/>
     <numFmt numFmtId="171" formatCode="##0.00"/>
   </numFmts>
-  <fonts count="50" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -938,6 +979,15 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1178,7 +1228,7 @@
     <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1593,6 +1643,21 @@
     <xf numFmtId="170" fontId="48" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1605,25 +1670,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1682,6 +1732,21 @@
     </xf>
     <xf numFmtId="0" fontId="48" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2155,6 +2220,72 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16385" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86B0F4D3-A40C-2CF6-E6E7-ADCC13271F5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="11678161" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3030,14 +3161,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="179" t="s">
+      <c r="A30" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="179"/>
-      <c r="C30" s="179"/>
-      <c r="D30" s="179"/>
-      <c r="E30" s="179"/>
-      <c r="F30" s="179"/>
+      <c r="B30" s="175"/>
+      <c r="C30" s="175"/>
+      <c r="D30" s="175"/>
+      <c r="E30" s="175"/>
+      <c r="F30" s="175"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -3058,261 +3189,261 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="176"/>
-      <c r="C33" s="176"/>
-      <c r="D33" s="176"/>
+      <c r="B33" s="174"/>
+      <c r="C33" s="174"/>
+      <c r="D33" s="174"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="176"/>
-      <c r="C34" s="176"/>
-      <c r="D34" s="176"/>
+      <c r="B34" s="174"/>
+      <c r="C34" s="174"/>
+      <c r="D34" s="174"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="176" t="s">
+      <c r="B35" s="174" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="176"/>
-      <c r="D35" s="176"/>
+      <c r="C35" s="174"/>
+      <c r="D35" s="174"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="176"/>
-      <c r="C36" s="176"/>
-      <c r="D36" s="176"/>
+      <c r="B36" s="174"/>
+      <c r="C36" s="174"/>
+      <c r="D36" s="174"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="176"/>
-      <c r="C37" s="176"/>
-      <c r="D37" s="176"/>
+      <c r="B37" s="174"/>
+      <c r="C37" s="174"/>
+      <c r="D37" s="174"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="176" t="s">
+      <c r="B38" s="174" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="176"/>
-      <c r="D38" s="176"/>
+      <c r="C38" s="174"/>
+      <c r="D38" s="174"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="176"/>
-      <c r="C39" s="176"/>
-      <c r="D39" s="176"/>
+      <c r="B39" s="174"/>
+      <c r="C39" s="174"/>
+      <c r="D39" s="174"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="176"/>
-      <c r="C40" s="176"/>
-      <c r="D40" s="176"/>
+      <c r="B40" s="174"/>
+      <c r="C40" s="174"/>
+      <c r="D40" s="174"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="176"/>
-      <c r="C41" s="176"/>
-      <c r="D41" s="176"/>
+      <c r="B41" s="174"/>
+      <c r="C41" s="174"/>
+      <c r="D41" s="174"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="176"/>
-      <c r="C42" s="176"/>
-      <c r="D42" s="176"/>
+      <c r="B42" s="174"/>
+      <c r="C42" s="174"/>
+      <c r="D42" s="174"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="176"/>
-      <c r="C43" s="176"/>
-      <c r="D43" s="176"/>
+      <c r="B43" s="174"/>
+      <c r="C43" s="174"/>
+      <c r="D43" s="174"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="176"/>
-      <c r="C44" s="176"/>
-      <c r="D44" s="176"/>
+      <c r="B44" s="174"/>
+      <c r="C44" s="174"/>
+      <c r="D44" s="174"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="176"/>
-      <c r="C45" s="176"/>
-      <c r="D45" s="176"/>
+      <c r="B45" s="174"/>
+      <c r="C45" s="174"/>
+      <c r="D45" s="174"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="176"/>
-      <c r="C46" s="176"/>
-      <c r="D46" s="176"/>
+      <c r="B46" s="174"/>
+      <c r="C46" s="174"/>
+      <c r="D46" s="174"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="176"/>
-      <c r="C47" s="176"/>
-      <c r="D47" s="176"/>
+      <c r="B47" s="174"/>
+      <c r="C47" s="174"/>
+      <c r="D47" s="174"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="176"/>
-      <c r="C48" s="176"/>
-      <c r="D48" s="176"/>
+      <c r="B48" s="174"/>
+      <c r="C48" s="174"/>
+      <c r="D48" s="174"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="176"/>
-      <c r="C49" s="176"/>
-      <c r="D49" s="176"/>
+      <c r="B49" s="174"/>
+      <c r="C49" s="174"/>
+      <c r="D49" s="174"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="176"/>
-      <c r="C50" s="176"/>
-      <c r="D50" s="176"/>
+      <c r="B50" s="174"/>
+      <c r="C50" s="174"/>
+      <c r="D50" s="174"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="176"/>
-      <c r="C51" s="176"/>
-      <c r="D51" s="176"/>
+      <c r="B51" s="174"/>
+      <c r="C51" s="174"/>
+      <c r="D51" s="174"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="176"/>
-      <c r="C52" s="176"/>
-      <c r="D52" s="176"/>
+      <c r="B52" s="174"/>
+      <c r="C52" s="174"/>
+      <c r="D52" s="174"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="176"/>
-      <c r="C53" s="176"/>
-      <c r="D53" s="176"/>
+      <c r="B53" s="174"/>
+      <c r="C53" s="174"/>
+      <c r="D53" s="174"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="176"/>
-      <c r="C54" s="176"/>
-      <c r="D54" s="176"/>
+      <c r="B54" s="174"/>
+      <c r="C54" s="174"/>
+      <c r="D54" s="174"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="176"/>
-      <c r="C55" s="176"/>
-      <c r="D55" s="176"/>
+      <c r="B55" s="174"/>
+      <c r="C55" s="174"/>
+      <c r="D55" s="174"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="176"/>
-      <c r="C56" s="176"/>
-      <c r="D56" s="176"/>
+      <c r="B56" s="174"/>
+      <c r="C56" s="174"/>
+      <c r="D56" s="174"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="176"/>
-      <c r="C57" s="176"/>
-      <c r="D57" s="176"/>
+      <c r="B57" s="174"/>
+      <c r="C57" s="174"/>
+      <c r="D57" s="174"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="176"/>
-      <c r="C58" s="176"/>
-      <c r="D58" s="176"/>
+      <c r="B58" s="174"/>
+      <c r="C58" s="174"/>
+      <c r="D58" s="174"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="176"/>
-      <c r="C59" s="176"/>
-      <c r="D59" s="176"/>
+      <c r="B59" s="174"/>
+      <c r="C59" s="174"/>
+      <c r="D59" s="174"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="176"/>
-      <c r="C60" s="176"/>
-      <c r="D60" s="176"/>
+      <c r="B60" s="174"/>
+      <c r="C60" s="174"/>
+      <c r="D60" s="174"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="176"/>
-      <c r="C61" s="176"/>
-      <c r="D61" s="176"/>
+      <c r="B61" s="174"/>
+      <c r="C61" s="174"/>
+      <c r="D61" s="174"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="176"/>
-      <c r="C62" s="176"/>
-      <c r="D62" s="176"/>
+      <c r="B62" s="174"/>
+      <c r="C62" s="174"/>
+      <c r="D62" s="174"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="176"/>
-      <c r="C63" s="176"/>
-      <c r="D63" s="176"/>
+      <c r="B63" s="174"/>
+      <c r="C63" s="174"/>
+      <c r="D63" s="174"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="176"/>
-      <c r="C64" s="176"/>
-      <c r="D64" s="176"/>
+      <c r="B64" s="174"/>
+      <c r="C64" s="174"/>
+      <c r="D64" s="174"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -3342,17 +3473,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="176"/>
-      <c r="C67" s="176"/>
-      <c r="D67" s="176"/>
+      <c r="B67" s="174"/>
+      <c r="C67" s="174"/>
+      <c r="D67" s="174"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="176"/>
-      <c r="C68" s="176"/>
-      <c r="D68" s="176"/>
+      <c r="B68" s="174"/>
+      <c r="C68" s="174"/>
+      <c r="D68" s="174"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -3459,19 +3590,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="180"/>
-      <c r="C77" s="180"/>
-      <c r="D77" s="180"/>
+      <c r="B77" s="176"/>
+      <c r="C77" s="176"/>
+      <c r="D77" s="176"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="177" t="s">
+      <c r="B78" s="181" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="177"/>
-      <c r="D78" s="177"/>
+      <c r="C78" s="181"/>
+      <c r="D78" s="181"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -3479,9 +3610,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="180"/>
-      <c r="C79" s="180"/>
-      <c r="D79" s="180"/>
+      <c r="B79" s="176"/>
+      <c r="C79" s="176"/>
+      <c r="D79" s="176"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -3516,31 +3647,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="174"/>
-      <c r="C83" s="174"/>
-      <c r="D83" s="174"/>
-      <c r="E83" s="174"/>
+      <c r="B83" s="179"/>
+      <c r="C83" s="179"/>
+      <c r="D83" s="179"/>
+      <c r="E83" s="179"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="182" t="s">
+      <c r="A84" s="173" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="182"/>
-      <c r="C84" s="182"/>
-      <c r="D84" s="182"/>
-      <c r="E84" s="182"/>
-      <c r="F84" s="182"/>
+      <c r="B84" s="173"/>
+      <c r="C84" s="173"/>
+      <c r="D84" s="173"/>
+      <c r="E84" s="173"/>
+      <c r="F84" s="173"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="178" t="s">
+      <c r="A85" s="182" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="178"/>
-      <c r="C85" s="178"/>
-      <c r="D85" s="178"/>
-      <c r="E85" s="178"/>
-      <c r="F85" s="178"/>
+      <c r="B85" s="182"/>
+      <c r="C85" s="182"/>
+      <c r="D85" s="182"/>
+      <c r="E85" s="182"/>
+      <c r="F85" s="182"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -3552,26 +3683,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="175"/>
-      <c r="C87" s="175"/>
-      <c r="D87" s="175"/>
-      <c r="E87" s="175"/>
+      <c r="B87" s="180"/>
+      <c r="C87" s="180"/>
+      <c r="D87" s="180"/>
+      <c r="E87" s="180"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="181" t="s">
+      <c r="A88" s="172" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="181"/>
-      <c r="C88" s="181"/>
-      <c r="D88" s="181"/>
-      <c r="E88" s="181"/>
-      <c r="F88" s="181"/>
+      <c r="B88" s="172"/>
+      <c r="C88" s="172"/>
+      <c r="D88" s="172"/>
+      <c r="E88" s="172"/>
+      <c r="F88" s="172"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="172"/>
-      <c r="C90" s="173"/>
-      <c r="D90" s="173"/>
+      <c r="B90" s="177"/>
+      <c r="C90" s="178"/>
+      <c r="D90" s="178"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -3581,34 +3712,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B55:D55"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="B83:E83"/>
     <mergeCell ref="B87:E87"/>
@@ -3625,6 +3728,34 @@
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B53:D53"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -3783,14 +3914,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="179" t="s">
+      <c r="A30" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="179"/>
-      <c r="C30" s="179"/>
-      <c r="D30" s="179"/>
-      <c r="E30" s="179"/>
-      <c r="F30" s="179"/>
+      <c r="B30" s="175"/>
+      <c r="C30" s="175"/>
+      <c r="D30" s="175"/>
+      <c r="E30" s="175"/>
+      <c r="F30" s="175"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -3811,259 +3942,259 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="176"/>
-      <c r="C33" s="176"/>
-      <c r="D33" s="176"/>
+      <c r="B33" s="174"/>
+      <c r="C33" s="174"/>
+      <c r="D33" s="174"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="176"/>
-      <c r="C34" s="176"/>
-      <c r="D34" s="176"/>
+      <c r="B34" s="174"/>
+      <c r="C34" s="174"/>
+      <c r="D34" s="174"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="176" t="s">
+      <c r="B35" s="174" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="176"/>
-      <c r="D35" s="176"/>
+      <c r="C35" s="174"/>
+      <c r="D35" s="174"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="176"/>
-      <c r="C36" s="176"/>
-      <c r="D36" s="176"/>
+      <c r="B36" s="174"/>
+      <c r="C36" s="174"/>
+      <c r="D36" s="174"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="176" t="s">
+      <c r="B37" s="174" t="s">
         <v>122</v>
       </c>
-      <c r="C37" s="176"/>
-      <c r="D37" s="176"/>
+      <c r="C37" s="174"/>
+      <c r="D37" s="174"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="176"/>
-      <c r="C38" s="176"/>
-      <c r="D38" s="176"/>
+      <c r="B38" s="174"/>
+      <c r="C38" s="174"/>
+      <c r="D38" s="174"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="176" t="s">
+      <c r="B39" s="174" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="176"/>
-      <c r="D39" s="176"/>
+      <c r="C39" s="174"/>
+      <c r="D39" s="174"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="176"/>
-      <c r="C40" s="176"/>
-      <c r="D40" s="176"/>
+      <c r="B40" s="174"/>
+      <c r="C40" s="174"/>
+      <c r="D40" s="174"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="176" t="s">
+      <c r="B41" s="174" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="176"/>
-      <c r="D41" s="176"/>
+      <c r="C41" s="174"/>
+      <c r="D41" s="174"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="176"/>
-      <c r="C42" s="176"/>
-      <c r="D42" s="176"/>
+      <c r="B42" s="174"/>
+      <c r="C42" s="174"/>
+      <c r="D42" s="174"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="176" t="s">
+      <c r="B43" s="174" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="176"/>
-      <c r="D43" s="176"/>
+      <c r="C43" s="174"/>
+      <c r="D43" s="174"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="176"/>
-      <c r="C44" s="176"/>
-      <c r="D44" s="176"/>
+      <c r="B44" s="174"/>
+      <c r="C44" s="174"/>
+      <c r="D44" s="174"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="176"/>
-      <c r="C45" s="176"/>
-      <c r="D45" s="176"/>
+      <c r="B45" s="174"/>
+      <c r="C45" s="174"/>
+      <c r="D45" s="174"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="176"/>
-      <c r="C46" s="176"/>
-      <c r="D46" s="176"/>
+      <c r="B46" s="174"/>
+      <c r="C46" s="174"/>
+      <c r="D46" s="174"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="176"/>
-      <c r="C47" s="176"/>
-      <c r="D47" s="176"/>
+      <c r="B47" s="174"/>
+      <c r="C47" s="174"/>
+      <c r="D47" s="174"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="176"/>
-      <c r="C48" s="176"/>
-      <c r="D48" s="176"/>
+      <c r="B48" s="174"/>
+      <c r="C48" s="174"/>
+      <c r="D48" s="174"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="176"/>
-      <c r="C49" s="176"/>
-      <c r="D49" s="176"/>
+      <c r="B49" s="174"/>
+      <c r="C49" s="174"/>
+      <c r="D49" s="174"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="176"/>
-      <c r="C50" s="176"/>
-      <c r="D50" s="176"/>
+      <c r="B50" s="174"/>
+      <c r="C50" s="174"/>
+      <c r="D50" s="174"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="176"/>
-      <c r="C51" s="176"/>
-      <c r="D51" s="176"/>
+      <c r="B51" s="174"/>
+      <c r="C51" s="174"/>
+      <c r="D51" s="174"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="176"/>
-      <c r="C52" s="176"/>
-      <c r="D52" s="176"/>
+      <c r="B52" s="174"/>
+      <c r="C52" s="174"/>
+      <c r="D52" s="174"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="176"/>
-      <c r="C53" s="176"/>
-      <c r="D53" s="176"/>
+      <c r="B53" s="174"/>
+      <c r="C53" s="174"/>
+      <c r="D53" s="174"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="176"/>
-      <c r="C54" s="176"/>
-      <c r="D54" s="176"/>
+      <c r="B54" s="174"/>
+      <c r="C54" s="174"/>
+      <c r="D54" s="174"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="176"/>
-      <c r="C55" s="176"/>
-      <c r="D55" s="176"/>
+      <c r="B55" s="174"/>
+      <c r="C55" s="174"/>
+      <c r="D55" s="174"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="176"/>
-      <c r="C56" s="176"/>
-      <c r="D56" s="176"/>
+      <c r="B56" s="174"/>
+      <c r="C56" s="174"/>
+      <c r="D56" s="174"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="176"/>
-      <c r="C57" s="176"/>
-      <c r="D57" s="176"/>
+      <c r="B57" s="174"/>
+      <c r="C57" s="174"/>
+      <c r="D57" s="174"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="176"/>
-      <c r="C58" s="176"/>
-      <c r="D58" s="176"/>
+      <c r="B58" s="174"/>
+      <c r="C58" s="174"/>
+      <c r="D58" s="174"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="176"/>
-      <c r="C59" s="176"/>
-      <c r="D59" s="176"/>
+      <c r="B59" s="174"/>
+      <c r="C59" s="174"/>
+      <c r="D59" s="174"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="176"/>
-      <c r="C60" s="176"/>
-      <c r="D60" s="176"/>
+      <c r="B60" s="174"/>
+      <c r="C60" s="174"/>
+      <c r="D60" s="174"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="176"/>
-      <c r="C61" s="176"/>
-      <c r="D61" s="176"/>
+      <c r="B61" s="174"/>
+      <c r="C61" s="174"/>
+      <c r="D61" s="174"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="176"/>
-      <c r="C62" s="176"/>
-      <c r="D62" s="176"/>
+      <c r="B62" s="174"/>
+      <c r="C62" s="174"/>
+      <c r="D62" s="174"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="176"/>
-      <c r="C63" s="176"/>
-      <c r="D63" s="176"/>
+      <c r="B63" s="174"/>
+      <c r="C63" s="174"/>
+      <c r="D63" s="174"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
@@ -4093,17 +4224,17 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="176"/>
-      <c r="C66" s="176"/>
-      <c r="D66" s="176"/>
+      <c r="B66" s="174"/>
+      <c r="C66" s="174"/>
+      <c r="D66" s="174"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="176"/>
-      <c r="C67" s="176"/>
-      <c r="D67" s="176"/>
+      <c r="B67" s="174"/>
+      <c r="C67" s="174"/>
+      <c r="D67" s="174"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
@@ -4210,19 +4341,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="180"/>
-      <c r="C76" s="180"/>
-      <c r="D76" s="180"/>
+      <c r="B76" s="176"/>
+      <c r="C76" s="176"/>
+      <c r="D76" s="176"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="177" t="s">
+      <c r="B77" s="181" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="177"/>
-      <c r="D77" s="177"/>
+      <c r="C77" s="181"/>
+      <c r="D77" s="181"/>
       <c r="E77" s="36">
         <v>0</v>
       </c>
@@ -4230,9 +4361,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="180"/>
-      <c r="C78" s="180"/>
-      <c r="D78" s="180"/>
+      <c r="B78" s="176"/>
+      <c r="C78" s="176"/>
+      <c r="D78" s="176"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
@@ -4267,31 +4398,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="174"/>
-      <c r="C82" s="174"/>
-      <c r="D82" s="174"/>
-      <c r="E82" s="174"/>
+      <c r="B82" s="179"/>
+      <c r="C82" s="179"/>
+      <c r="D82" s="179"/>
+      <c r="E82" s="179"/>
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="182" t="s">
+      <c r="A83" s="173" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="182"/>
-      <c r="C83" s="182"/>
-      <c r="D83" s="182"/>
-      <c r="E83" s="182"/>
-      <c r="F83" s="182"/>
+      <c r="B83" s="173"/>
+      <c r="C83" s="173"/>
+      <c r="D83" s="173"/>
+      <c r="E83" s="173"/>
+      <c r="F83" s="173"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="178" t="s">
+      <c r="A84" s="182" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="178"/>
-      <c r="C84" s="178"/>
-      <c r="D84" s="178"/>
-      <c r="E84" s="178"/>
-      <c r="F84" s="178"/>
+      <c r="B84" s="182"/>
+      <c r="C84" s="182"/>
+      <c r="D84" s="182"/>
+      <c r="E84" s="182"/>
+      <c r="F84" s="182"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
@@ -4303,26 +4434,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="175"/>
-      <c r="C86" s="175"/>
-      <c r="D86" s="175"/>
-      <c r="E86" s="175"/>
+      <c r="B86" s="180"/>
+      <c r="C86" s="180"/>
+      <c r="D86" s="180"/>
+      <c r="E86" s="180"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="181" t="s">
+      <c r="A87" s="172" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="181"/>
-      <c r="C87" s="181"/>
-      <c r="D87" s="181"/>
-      <c r="E87" s="181"/>
-      <c r="F87" s="181"/>
+      <c r="B87" s="172"/>
+      <c r="C87" s="172"/>
+      <c r="D87" s="172"/>
+      <c r="E87" s="172"/>
+      <c r="F87" s="172"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="172"/>
-      <c r="C89" s="173"/>
-      <c r="D89" s="173"/>
+      <c r="B89" s="177"/>
+      <c r="C89" s="178"/>
+      <c r="D89" s="178"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -4332,6 +4463,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
     <mergeCell ref="B89:D89"/>
     <mergeCell ref="B53:D53"/>
     <mergeCell ref="B78:D78"/>
@@ -4348,33 +4506,6 @@
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76:B78 B12:B20 B33:B67" xr:uid="{743360A5-2982-45B1-812D-8A0230F16C44}">
@@ -4532,14 +4663,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="179" t="s">
+      <c r="A30" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="179"/>
-      <c r="C30" s="179"/>
-      <c r="D30" s="179"/>
-      <c r="E30" s="179"/>
-      <c r="F30" s="179"/>
+      <c r="B30" s="175"/>
+      <c r="C30" s="175"/>
+      <c r="D30" s="175"/>
+      <c r="E30" s="175"/>
+      <c r="F30" s="175"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -4560,265 +4691,265 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="176"/>
-      <c r="C33" s="176"/>
-      <c r="D33" s="176"/>
+      <c r="B33" s="174"/>
+      <c r="C33" s="174"/>
+      <c r="D33" s="174"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="176"/>
-      <c r="C34" s="176"/>
-      <c r="D34" s="176"/>
+      <c r="B34" s="174"/>
+      <c r="C34" s="174"/>
+      <c r="D34" s="174"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="176" t="s">
+      <c r="B35" s="174" t="s">
         <v>126</v>
       </c>
-      <c r="C35" s="176"/>
-      <c r="D35" s="176"/>
+      <c r="C35" s="174"/>
+      <c r="D35" s="174"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="176"/>
-      <c r="C36" s="176"/>
-      <c r="D36" s="176"/>
+      <c r="B36" s="174"/>
+      <c r="C36" s="174"/>
+      <c r="D36" s="174"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="176" t="s">
+      <c r="B37" s="174" t="s">
         <v>127</v>
       </c>
-      <c r="C37" s="176"/>
-      <c r="D37" s="176"/>
+      <c r="C37" s="174"/>
+      <c r="D37" s="174"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="176"/>
-      <c r="C38" s="176"/>
-      <c r="D38" s="176"/>
+      <c r="B38" s="174"/>
+      <c r="C38" s="174"/>
+      <c r="D38" s="174"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="176" t="s">
+      <c r="B39" s="174" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="176"/>
-      <c r="D39" s="176"/>
+      <c r="C39" s="174"/>
+      <c r="D39" s="174"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="176"/>
-      <c r="C40" s="176"/>
-      <c r="D40" s="176"/>
+      <c r="B40" s="174"/>
+      <c r="C40" s="174"/>
+      <c r="D40" s="174"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="176" t="s">
+      <c r="B41" s="174" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="176"/>
-      <c r="D41" s="176"/>
+      <c r="C41" s="174"/>
+      <c r="D41" s="174"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="176"/>
-      <c r="C42" s="176"/>
-      <c r="D42" s="176"/>
+      <c r="B42" s="174"/>
+      <c r="C42" s="174"/>
+      <c r="D42" s="174"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="176"/>
-      <c r="C43" s="176"/>
-      <c r="D43" s="176"/>
+      <c r="B43" s="174"/>
+      <c r="C43" s="174"/>
+      <c r="D43" s="174"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="176"/>
-      <c r="C44" s="176"/>
-      <c r="D44" s="176"/>
+      <c r="B44" s="174"/>
+      <c r="C44" s="174"/>
+      <c r="D44" s="174"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="176"/>
-      <c r="C45" s="176"/>
-      <c r="D45" s="176"/>
+      <c r="B45" s="174"/>
+      <c r="C45" s="174"/>
+      <c r="D45" s="174"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="176"/>
-      <c r="C46" s="176"/>
-      <c r="D46" s="176"/>
+      <c r="B46" s="174"/>
+      <c r="C46" s="174"/>
+      <c r="D46" s="174"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="176"/>
-      <c r="C47" s="176"/>
-      <c r="D47" s="176"/>
+      <c r="B47" s="174"/>
+      <c r="C47" s="174"/>
+      <c r="D47" s="174"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="176"/>
-      <c r="C48" s="176"/>
-      <c r="D48" s="176"/>
+      <c r="B48" s="174"/>
+      <c r="C48" s="174"/>
+      <c r="D48" s="174"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="176"/>
-      <c r="C49" s="176"/>
-      <c r="D49" s="176"/>
+      <c r="B49" s="174"/>
+      <c r="C49" s="174"/>
+      <c r="D49" s="174"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="176"/>
-      <c r="C50" s="176"/>
-      <c r="D50" s="176"/>
+      <c r="B50" s="174"/>
+      <c r="C50" s="174"/>
+      <c r="D50" s="174"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="176"/>
-      <c r="C51" s="176"/>
-      <c r="D51" s="176"/>
+      <c r="B51" s="174"/>
+      <c r="C51" s="174"/>
+      <c r="D51" s="174"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="176"/>
-      <c r="C52" s="176"/>
-      <c r="D52" s="176"/>
+      <c r="B52" s="174"/>
+      <c r="C52" s="174"/>
+      <c r="D52" s="174"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="176"/>
-      <c r="C53" s="176"/>
-      <c r="D53" s="176"/>
+      <c r="B53" s="174"/>
+      <c r="C53" s="174"/>
+      <c r="D53" s="174"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="176"/>
-      <c r="C54" s="176"/>
-      <c r="D54" s="176"/>
+      <c r="B54" s="174"/>
+      <c r="C54" s="174"/>
+      <c r="D54" s="174"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="176"/>
-      <c r="C55" s="176"/>
-      <c r="D55" s="176"/>
+      <c r="B55" s="174"/>
+      <c r="C55" s="174"/>
+      <c r="D55" s="174"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="176"/>
-      <c r="C56" s="176"/>
-      <c r="D56" s="176"/>
+      <c r="B56" s="174"/>
+      <c r="C56" s="174"/>
+      <c r="D56" s="174"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="176"/>
-      <c r="C57" s="176"/>
-      <c r="D57" s="176"/>
+      <c r="B57" s="174"/>
+      <c r="C57" s="174"/>
+      <c r="D57" s="174"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="176"/>
-      <c r="C58" s="176"/>
-      <c r="D58" s="176"/>
+      <c r="B58" s="174"/>
+      <c r="C58" s="174"/>
+      <c r="D58" s="174"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="176"/>
-      <c r="C59" s="176"/>
-      <c r="D59" s="176"/>
+      <c r="B59" s="174"/>
+      <c r="C59" s="174"/>
+      <c r="D59" s="174"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="176"/>
-      <c r="C60" s="176"/>
-      <c r="D60" s="176"/>
+      <c r="B60" s="174"/>
+      <c r="C60" s="174"/>
+      <c r="D60" s="174"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="176"/>
-      <c r="C61" s="176"/>
-      <c r="D61" s="176"/>
+      <c r="B61" s="174"/>
+      <c r="C61" s="174"/>
+      <c r="D61" s="174"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="176"/>
-      <c r="C62" s="176"/>
-      <c r="D62" s="176"/>
+      <c r="B62" s="174"/>
+      <c r="C62" s="174"/>
+      <c r="D62" s="174"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="176"/>
-      <c r="C63" s="176"/>
-      <c r="D63" s="176"/>
+      <c r="B63" s="174"/>
+      <c r="C63" s="174"/>
+      <c r="D63" s="174"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="176"/>
-      <c r="C64" s="176"/>
-      <c r="D64" s="176"/>
+      <c r="B64" s="174"/>
+      <c r="C64" s="174"/>
+      <c r="D64" s="174"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -4848,17 +4979,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="176"/>
-      <c r="C67" s="176"/>
-      <c r="D67" s="176"/>
+      <c r="B67" s="174"/>
+      <c r="C67" s="174"/>
+      <c r="D67" s="174"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="176"/>
-      <c r="C68" s="176"/>
-      <c r="D68" s="176"/>
+      <c r="B68" s="174"/>
+      <c r="C68" s="174"/>
+      <c r="D68" s="174"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -4965,19 +5096,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="180"/>
-      <c r="C77" s="180"/>
-      <c r="D77" s="180"/>
+      <c r="B77" s="176"/>
+      <c r="C77" s="176"/>
+      <c r="D77" s="176"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="177" t="s">
+      <c r="B78" s="181" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="177"/>
-      <c r="D78" s="177"/>
+      <c r="C78" s="181"/>
+      <c r="D78" s="181"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -4985,9 +5116,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="180"/>
-      <c r="C79" s="180"/>
-      <c r="D79" s="180"/>
+      <c r="B79" s="176"/>
+      <c r="C79" s="176"/>
+      <c r="D79" s="176"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -5022,31 +5153,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="174"/>
-      <c r="C83" s="174"/>
-      <c r="D83" s="174"/>
-      <c r="E83" s="174"/>
+      <c r="B83" s="179"/>
+      <c r="C83" s="179"/>
+      <c r="D83" s="179"/>
+      <c r="E83" s="179"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="182" t="s">
+      <c r="A84" s="173" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="182"/>
-      <c r="C84" s="182"/>
-      <c r="D84" s="182"/>
-      <c r="E84" s="182"/>
-      <c r="F84" s="182"/>
+      <c r="B84" s="173"/>
+      <c r="C84" s="173"/>
+      <c r="D84" s="173"/>
+      <c r="E84" s="173"/>
+      <c r="F84" s="173"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="178" t="s">
+      <c r="A85" s="182" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="178"/>
-      <c r="C85" s="178"/>
-      <c r="D85" s="178"/>
-      <c r="E85" s="178"/>
-      <c r="F85" s="178"/>
+      <c r="B85" s="182"/>
+      <c r="C85" s="182"/>
+      <c r="D85" s="182"/>
+      <c r="E85" s="182"/>
+      <c r="F85" s="182"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -5058,26 +5189,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="175"/>
-      <c r="C87" s="175"/>
-      <c r="D87" s="175"/>
-      <c r="E87" s="175"/>
+      <c r="B87" s="180"/>
+      <c r="C87" s="180"/>
+      <c r="D87" s="180"/>
+      <c r="E87" s="180"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="181" t="s">
+      <c r="A88" s="172" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="181"/>
-      <c r="C88" s="181"/>
-      <c r="D88" s="181"/>
-      <c r="E88" s="181"/>
-      <c r="F88" s="181"/>
+      <c r="B88" s="172"/>
+      <c r="C88" s="172"/>
+      <c r="D88" s="172"/>
+      <c r="E88" s="172"/>
+      <c r="F88" s="172"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="172"/>
-      <c r="C90" s="173"/>
-      <c r="D90" s="173"/>
+      <c r="B90" s="177"/>
+      <c r="C90" s="178"/>
+      <c r="D90" s="178"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -5087,34 +5218,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="B46:D46"/>
     <mergeCell ref="B79:D79"/>
@@ -5131,6 +5234,34 @@
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{DDF02C27-F714-4464-8831-89B8C9416227}">
@@ -6340,14 +6471,14 @@
       <c r="F87" s="50"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="181" t="s">
+      <c r="A88" s="172" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="181"/>
-      <c r="C88" s="181"/>
-      <c r="D88" s="181"/>
-      <c r="E88" s="181"/>
-      <c r="F88" s="181"/>
+      <c r="B88" s="172"/>
+      <c r="C88" s="172"/>
+      <c r="D88" s="172"/>
+      <c r="E88" s="172"/>
+      <c r="F88" s="172"/>
     </row>
     <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="62"/>
@@ -8056,7 +8187,7 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection sqref="A1:F88"/>
     </sheetView>
   </sheetViews>
@@ -8839,6 +8970,879 @@
       <c r="D81" s="170"/>
       <c r="E81" s="171">
         <v>16700.12</v>
+      </c>
+      <c r="F81" s="61"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="62"/>
+      <c r="B82" s="62"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="134"/>
+      <c r="B83" s="191"/>
+      <c r="C83" s="192"/>
+      <c r="D83" s="192"/>
+      <c r="E83" s="192"/>
+      <c r="F83" s="159"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="194" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" s="194"/>
+      <c r="C84" s="194"/>
+      <c r="D84" s="194"/>
+      <c r="E84" s="194"/>
+      <c r="F84" s="117"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="196" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="196"/>
+      <c r="C85" s="196"/>
+      <c r="D85" s="196"/>
+      <c r="E85" s="196"/>
+      <c r="F85" s="46"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="136"/>
+      <c r="B86" s="136"/>
+      <c r="C86" s="136"/>
+      <c r="D86" s="136"/>
+      <c r="E86" s="136"/>
+      <c r="F86" s="46"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="136"/>
+      <c r="B87" s="136"/>
+      <c r="C87" s="136"/>
+      <c r="D87" s="136"/>
+      <c r="E87" s="136"/>
+      <c r="F87" s="46"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="198" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="198"/>
+      <c r="C88" s="198"/>
+      <c r="D88" s="198"/>
+      <c r="E88" s="198"/>
+      <c r="F88" s="198"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="119" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43118E2F-0D28-4CC1-933F-8C2F5E0F6926}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="54"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="54"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="54"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="54"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="54"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="54"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="54"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="54"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="54"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="62"/>
+      <c r="B21" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="62"/>
+      <c r="B23" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="62"/>
+      <c r="B24" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="62"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="62"/>
+      <c r="B25" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="62"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="62"/>
+      <c r="B26" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="62"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="59"/>
+      <c r="B27" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" s="62"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="62"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="67" t="s">
+        <v>170</v>
+      </c>
+      <c r="F28" s="67"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="140"/>
+      <c r="B29" s="140"/>
+      <c r="C29" s="140"/>
+      <c r="D29" s="141"/>
+      <c r="E29" s="142"/>
+      <c r="F29" s="142"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="199"/>
+      <c r="C30" s="199"/>
+      <c r="D30" s="199"/>
+      <c r="E30" s="199"/>
+      <c r="F30" s="143"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="144"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="144"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="78"/>
+      <c r="B32" s="117" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="145"/>
+      <c r="D32" s="146"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="78"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="146"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="78"/>
+      <c r="B34" s="147" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="202"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="148"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="78"/>
+      <c r="B35" s="147" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="203"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="148"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="78"/>
+      <c r="B36" s="147" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="202"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="148"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="78"/>
+      <c r="B37" s="147" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="202"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="148"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="78"/>
+      <c r="B38" s="147" t="s">
+        <v>171</v>
+      </c>
+      <c r="C38" s="202"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="148"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="78"/>
+      <c r="B39" s="147" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39" s="202"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="83"/>
+      <c r="F39" s="148"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="78"/>
+      <c r="B40" s="147" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" s="203"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="148"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="78"/>
+      <c r="B41" s="147" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="202"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="83"/>
+      <c r="F41" s="148"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="78"/>
+      <c r="B42" s="147" t="s">
+        <v>145</v>
+      </c>
+      <c r="C42" s="202"/>
+      <c r="D42" s="83"/>
+      <c r="E42" s="83"/>
+      <c r="F42" s="148"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="78"/>
+      <c r="B43" s="147" t="s">
+        <v>173</v>
+      </c>
+      <c r="C43" s="202"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="148"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="78"/>
+      <c r="B44" s="147" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" s="202"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="148"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="78"/>
+      <c r="B45" s="147" t="s">
+        <v>174</v>
+      </c>
+      <c r="C45" s="202"/>
+      <c r="D45" s="83"/>
+      <c r="E45" s="83"/>
+      <c r="F45" s="148"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="78"/>
+      <c r="B46" s="147" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="202"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="83"/>
+      <c r="F46" s="148"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="78"/>
+      <c r="B47" s="147" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="202"/>
+      <c r="D47" s="83"/>
+      <c r="E47" s="83"/>
+      <c r="F47" s="148"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="78"/>
+      <c r="B48" s="147" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48" s="202"/>
+      <c r="D48" s="83"/>
+      <c r="E48" s="83"/>
+      <c r="F48" s="148"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="78"/>
+      <c r="B49" s="147" t="s">
+        <v>175</v>
+      </c>
+      <c r="C49" s="202"/>
+      <c r="D49" s="83"/>
+      <c r="E49" s="83"/>
+      <c r="F49" s="148"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="78"/>
+      <c r="B50" s="147" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" s="204"/>
+      <c r="D50" s="204"/>
+      <c r="E50" s="83"/>
+      <c r="F50" s="148"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="78"/>
+      <c r="B51" s="147" t="s">
+        <v>176</v>
+      </c>
+      <c r="C51" s="202"/>
+      <c r="D51" s="83"/>
+      <c r="E51" s="83"/>
+      <c r="F51" s="148"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="78"/>
+      <c r="B52" s="147" t="s">
+        <v>177</v>
+      </c>
+      <c r="C52" s="202"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="148"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="78"/>
+      <c r="B53" s="147" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53" s="202"/>
+      <c r="D53" s="83"/>
+      <c r="E53" s="83"/>
+      <c r="F53" s="148"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="78"/>
+      <c r="B54" s="147" t="s">
+        <v>178</v>
+      </c>
+      <c r="C54" s="202"/>
+      <c r="D54" s="83"/>
+      <c r="E54" s="83"/>
+      <c r="F54" s="148"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="78"/>
+      <c r="B55" s="147" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55" s="202"/>
+      <c r="D55" s="83"/>
+      <c r="E55" s="83"/>
+      <c r="F55" s="148"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="78"/>
+      <c r="B56" s="147" t="s">
+        <v>179</v>
+      </c>
+      <c r="C56" s="202"/>
+      <c r="D56" s="83"/>
+      <c r="E56" s="83"/>
+      <c r="F56" s="148"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="78"/>
+      <c r="B57" s="147" t="s">
+        <v>145</v>
+      </c>
+      <c r="C57" s="202"/>
+      <c r="D57" s="83"/>
+      <c r="E57" s="83"/>
+      <c r="F57" s="148"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="78"/>
+      <c r="B58" s="147" t="s">
+        <v>180</v>
+      </c>
+      <c r="C58" s="202"/>
+      <c r="D58" s="83"/>
+      <c r="E58" s="83"/>
+      <c r="F58" s="148"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="78"/>
+      <c r="B59" s="147" t="s">
+        <v>145</v>
+      </c>
+      <c r="C59" s="202"/>
+      <c r="D59" s="83"/>
+      <c r="E59" s="83"/>
+      <c r="F59" s="148"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="78"/>
+      <c r="B60" s="147" t="s">
+        <v>181</v>
+      </c>
+      <c r="C60" s="202"/>
+      <c r="D60" s="83"/>
+      <c r="E60" s="83"/>
+      <c r="F60" s="148"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="78"/>
+      <c r="B61" s="147"/>
+      <c r="C61" s="202"/>
+      <c r="D61" s="83"/>
+      <c r="E61" s="83"/>
+      <c r="F61" s="148"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="78"/>
+      <c r="B62" s="147"/>
+      <c r="C62" s="202"/>
+      <c r="D62" s="83"/>
+      <c r="E62" s="83"/>
+      <c r="F62" s="148"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="78"/>
+      <c r="B63" s="163"/>
+      <c r="C63" s="205"/>
+      <c r="D63" s="206"/>
+      <c r="E63" s="83"/>
+      <c r="F63" s="148"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="78"/>
+      <c r="B64" s="163"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="93"/>
+      <c r="E64" s="148"/>
+      <c r="F64" s="148"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="78"/>
+      <c r="B65" s="147"/>
+      <c r="C65" s="166" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="167" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" s="148"/>
+      <c r="F65" s="148"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="78"/>
+      <c r="B66" s="147"/>
+      <c r="C66" s="98">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="D66" s="99">
+        <v>400</v>
+      </c>
+      <c r="E66" s="168"/>
+      <c r="F66" s="168"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="78"/>
+      <c r="B67" s="163"/>
+      <c r="C67" s="98"/>
+      <c r="D67" s="99"/>
+      <c r="E67" s="148"/>
+      <c r="F67" s="148"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="78"/>
+      <c r="B68" s="163"/>
+      <c r="C68" s="156"/>
+      <c r="D68" s="156"/>
+      <c r="E68" s="156"/>
+      <c r="F68" s="78"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="62"/>
+      <c r="B69" s="103" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="103"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="104">
+        <v>28960</v>
+      </c>
+      <c r="F69" s="104"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="62"/>
+      <c r="B70" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="107"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="108">
+        <v>0</v>
+      </c>
+      <c r="F70" s="108"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="62"/>
+      <c r="B71" s="169" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" s="107"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="108">
+        <v>0</v>
+      </c>
+      <c r="F71" s="108"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="62"/>
+      <c r="B72" s="169" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="107"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="108">
+        <v>0</v>
+      </c>
+      <c r="F72" s="108"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="62"/>
+      <c r="B73" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="103"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="110">
+        <v>28960</v>
+      </c>
+      <c r="F73" s="110"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="62"/>
+      <c r="B74" s="107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="112">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="107"/>
+      <c r="E74" s="114">
+        <v>1448</v>
+      </c>
+      <c r="F74" s="114"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="62"/>
+      <c r="B75" s="115" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="116">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="107"/>
+      <c r="E75" s="118">
+        <v>2888.76</v>
+      </c>
+      <c r="F75" s="114"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="62"/>
+      <c r="B76" s="117"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="62"/>
+      <c r="B77" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="103"/>
+      <c r="D77" s="121"/>
+      <c r="E77" s="157">
+        <v>33296.76</v>
+      </c>
+      <c r="F77" s="123"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="62"/>
+      <c r="B78" s="115"/>
+      <c r="C78" s="115"/>
+      <c r="D78" s="115"/>
+      <c r="E78" s="158"/>
+      <c r="F78" s="115"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="62"/>
+      <c r="B79" s="117" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="115"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="61">
+        <v>0</v>
+      </c>
+      <c r="F79" s="61"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="62"/>
+      <c r="B80" s="103"/>
+      <c r="C80" s="115"/>
+      <c r="D80" s="115"/>
+      <c r="E80" s="158"/>
+      <c r="F80" s="115"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="62"/>
+      <c r="B81" s="200" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="201"/>
+      <c r="D81" s="170"/>
+      <c r="E81" s="171">
+        <v>33296.76</v>
       </c>
       <c r="F81" s="61"/>
     </row>
@@ -9063,14 +10067,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="179" t="s">
+      <c r="A30" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="179"/>
-      <c r="C30" s="179"/>
-      <c r="D30" s="179"/>
-      <c r="E30" s="179"/>
-      <c r="F30" s="179"/>
+      <c r="B30" s="175"/>
+      <c r="C30" s="175"/>
+      <c r="D30" s="175"/>
+      <c r="E30" s="175"/>
+      <c r="F30" s="175"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -9091,271 +10095,271 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="176"/>
-      <c r="C33" s="176"/>
-      <c r="D33" s="176"/>
+      <c r="B33" s="174"/>
+      <c r="C33" s="174"/>
+      <c r="D33" s="174"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="176" t="s">
+      <c r="B34" s="174" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="176"/>
-      <c r="D34" s="176"/>
+      <c r="C34" s="174"/>
+      <c r="D34" s="174"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="176"/>
-      <c r="C35" s="176"/>
-      <c r="D35" s="176"/>
+      <c r="B35" s="174"/>
+      <c r="C35" s="174"/>
+      <c r="D35" s="174"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="176" t="s">
+      <c r="B36" s="174" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="176"/>
-      <c r="D36" s="176"/>
+      <c r="C36" s="174"/>
+      <c r="D36" s="174"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="176"/>
-      <c r="C37" s="176"/>
-      <c r="D37" s="176"/>
+      <c r="B37" s="174"/>
+      <c r="C37" s="174"/>
+      <c r="D37" s="174"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="176" t="s">
+      <c r="B38" s="174" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="176"/>
-      <c r="D38" s="176"/>
+      <c r="C38" s="174"/>
+      <c r="D38" s="174"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="176"/>
-      <c r="C39" s="176"/>
-      <c r="D39" s="176"/>
+      <c r="B39" s="174"/>
+      <c r="C39" s="174"/>
+      <c r="D39" s="174"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="176" t="s">
+      <c r="B40" s="174" t="s">
         <v>68</v>
       </c>
-      <c r="C40" s="176"/>
-      <c r="D40" s="176"/>
+      <c r="C40" s="174"/>
+      <c r="D40" s="174"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="176"/>
-      <c r="C41" s="176"/>
-      <c r="D41" s="176"/>
+      <c r="B41" s="174"/>
+      <c r="C41" s="174"/>
+      <c r="D41" s="174"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="176" t="s">
+      <c r="B42" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="C42" s="176"/>
-      <c r="D42" s="176"/>
+      <c r="C42" s="174"/>
+      <c r="D42" s="174"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="176"/>
-      <c r="C43" s="176"/>
-      <c r="D43" s="176"/>
+      <c r="B43" s="174"/>
+      <c r="C43" s="174"/>
+      <c r="D43" s="174"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="176" t="s">
+      <c r="B44" s="174" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="176"/>
-      <c r="D44" s="176"/>
+      <c r="C44" s="174"/>
+      <c r="D44" s="174"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="176"/>
-      <c r="C45" s="176"/>
-      <c r="D45" s="176"/>
+      <c r="B45" s="174"/>
+      <c r="C45" s="174"/>
+      <c r="D45" s="174"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="176" t="s">
+      <c r="B46" s="174" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="176"/>
-      <c r="D46" s="176"/>
+      <c r="C46" s="174"/>
+      <c r="D46" s="174"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="176"/>
-      <c r="C47" s="176"/>
-      <c r="D47" s="176"/>
+      <c r="B47" s="174"/>
+      <c r="C47" s="174"/>
+      <c r="D47" s="174"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="176"/>
-      <c r="C48" s="176"/>
-      <c r="D48" s="176"/>
+      <c r="B48" s="174"/>
+      <c r="C48" s="174"/>
+      <c r="D48" s="174"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="176"/>
-      <c r="C49" s="176"/>
-      <c r="D49" s="176"/>
+      <c r="B49" s="174"/>
+      <c r="C49" s="174"/>
+      <c r="D49" s="174"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="176"/>
-      <c r="C50" s="176"/>
-      <c r="D50" s="176"/>
+      <c r="B50" s="174"/>
+      <c r="C50" s="174"/>
+      <c r="D50" s="174"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="176"/>
-      <c r="C51" s="176"/>
-      <c r="D51" s="176"/>
+      <c r="B51" s="174"/>
+      <c r="C51" s="174"/>
+      <c r="D51" s="174"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="176"/>
-      <c r="C52" s="176"/>
-      <c r="D52" s="176"/>
+      <c r="B52" s="174"/>
+      <c r="C52" s="174"/>
+      <c r="D52" s="174"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="176"/>
-      <c r="C53" s="176"/>
-      <c r="D53" s="176"/>
+      <c r="B53" s="174"/>
+      <c r="C53" s="174"/>
+      <c r="D53" s="174"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="176"/>
-      <c r="C54" s="176"/>
-      <c r="D54" s="176"/>
+      <c r="B54" s="174"/>
+      <c r="C54" s="174"/>
+      <c r="D54" s="174"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="176"/>
-      <c r="C55" s="176"/>
-      <c r="D55" s="176"/>
+      <c r="B55" s="174"/>
+      <c r="C55" s="174"/>
+      <c r="D55" s="174"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="176"/>
-      <c r="C56" s="176"/>
-      <c r="D56" s="176"/>
+      <c r="B56" s="174"/>
+      <c r="C56" s="174"/>
+      <c r="D56" s="174"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="176"/>
-      <c r="C57" s="176"/>
-      <c r="D57" s="176"/>
+      <c r="B57" s="174"/>
+      <c r="C57" s="174"/>
+      <c r="D57" s="174"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="176"/>
-      <c r="C58" s="176"/>
-      <c r="D58" s="176"/>
+      <c r="B58" s="174"/>
+      <c r="C58" s="174"/>
+      <c r="D58" s="174"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="176"/>
-      <c r="C59" s="176"/>
-      <c r="D59" s="176"/>
+      <c r="B59" s="174"/>
+      <c r="C59" s="174"/>
+      <c r="D59" s="174"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="176"/>
-      <c r="C60" s="176"/>
-      <c r="D60" s="176"/>
+      <c r="B60" s="174"/>
+      <c r="C60" s="174"/>
+      <c r="D60" s="174"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="176"/>
-      <c r="C61" s="176"/>
-      <c r="D61" s="176"/>
+      <c r="B61" s="174"/>
+      <c r="C61" s="174"/>
+      <c r="D61" s="174"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="176"/>
-      <c r="C62" s="176"/>
-      <c r="D62" s="176"/>
+      <c r="B62" s="174"/>
+      <c r="C62" s="174"/>
+      <c r="D62" s="174"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="176"/>
-      <c r="C63" s="176"/>
-      <c r="D63" s="176"/>
+      <c r="B63" s="174"/>
+      <c r="C63" s="174"/>
+      <c r="D63" s="174"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="176"/>
-      <c r="C64" s="176"/>
-      <c r="D64" s="176"/>
+      <c r="B64" s="174"/>
+      <c r="C64" s="174"/>
+      <c r="D64" s="174"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -9385,17 +10389,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="176"/>
-      <c r="C67" s="176"/>
-      <c r="D67" s="176"/>
+      <c r="B67" s="174"/>
+      <c r="C67" s="174"/>
+      <c r="D67" s="174"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="176"/>
-      <c r="C68" s="176"/>
-      <c r="D68" s="176"/>
+      <c r="B68" s="174"/>
+      <c r="C68" s="174"/>
+      <c r="D68" s="174"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -9502,19 +10506,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="180"/>
-      <c r="C77" s="180"/>
-      <c r="D77" s="180"/>
+      <c r="B77" s="176"/>
+      <c r="C77" s="176"/>
+      <c r="D77" s="176"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="177" t="s">
+      <c r="B78" s="181" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="177"/>
-      <c r="D78" s="177"/>
+      <c r="C78" s="181"/>
+      <c r="D78" s="181"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -9522,9 +10526,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="180"/>
-      <c r="C79" s="180"/>
-      <c r="D79" s="180"/>
+      <c r="B79" s="176"/>
+      <c r="C79" s="176"/>
+      <c r="D79" s="176"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -9559,31 +10563,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="174"/>
-      <c r="C83" s="174"/>
-      <c r="D83" s="174"/>
-      <c r="E83" s="174"/>
+      <c r="B83" s="179"/>
+      <c r="C83" s="179"/>
+      <c r="D83" s="179"/>
+      <c r="E83" s="179"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="182" t="s">
+      <c r="A84" s="173" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="182"/>
-      <c r="C84" s="182"/>
-      <c r="D84" s="182"/>
-      <c r="E84" s="182"/>
-      <c r="F84" s="182"/>
+      <c r="B84" s="173"/>
+      <c r="C84" s="173"/>
+      <c r="D84" s="173"/>
+      <c r="E84" s="173"/>
+      <c r="F84" s="173"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="178" t="s">
+      <c r="A85" s="182" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="178"/>
-      <c r="C85" s="178"/>
-      <c r="D85" s="178"/>
-      <c r="E85" s="178"/>
-      <c r="F85" s="178"/>
+      <c r="B85" s="182"/>
+      <c r="C85" s="182"/>
+      <c r="D85" s="182"/>
+      <c r="E85" s="182"/>
+      <c r="F85" s="182"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -9595,26 +10599,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="175"/>
-      <c r="C87" s="175"/>
-      <c r="D87" s="175"/>
-      <c r="E87" s="175"/>
+      <c r="B87" s="180"/>
+      <c r="C87" s="180"/>
+      <c r="D87" s="180"/>
+      <c r="E87" s="180"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="181" t="s">
+      <c r="A88" s="172" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="181"/>
-      <c r="C88" s="181"/>
-      <c r="D88" s="181"/>
-      <c r="E88" s="181"/>
-      <c r="F88" s="181"/>
+      <c r="B88" s="172"/>
+      <c r="C88" s="172"/>
+      <c r="D88" s="172"/>
+      <c r="E88" s="172"/>
+      <c r="F88" s="172"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="172"/>
-      <c r="C90" s="173"/>
-      <c r="D90" s="173"/>
+      <c r="B90" s="177"/>
+      <c r="C90" s="178"/>
+      <c r="D90" s="178"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -9624,14 +10628,30 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B57:D57"/>
@@ -9644,30 +10664,14 @@
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="B67:D67"/>
     <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B87:E87"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{A933239C-CD30-4F99-944A-7F3D055C8C4E}">
@@ -9825,14 +10829,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="179" t="s">
+      <c r="A30" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="179"/>
-      <c r="C30" s="179"/>
-      <c r="D30" s="179"/>
-      <c r="E30" s="179"/>
-      <c r="F30" s="179"/>
+      <c r="B30" s="175"/>
+      <c r="C30" s="175"/>
+      <c r="D30" s="175"/>
+      <c r="E30" s="175"/>
+      <c r="F30" s="175"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -9853,71 +10857,71 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="176"/>
-      <c r="C33" s="176"/>
-      <c r="D33" s="176"/>
+      <c r="B33" s="174"/>
+      <c r="C33" s="174"/>
+      <c r="D33" s="174"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="176"/>
-      <c r="C34" s="176"/>
-      <c r="D34" s="176"/>
+      <c r="B34" s="174"/>
+      <c r="C34" s="174"/>
+      <c r="D34" s="174"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="176" t="s">
+      <c r="B35" s="174" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="176"/>
-      <c r="D35" s="176"/>
+      <c r="C35" s="174"/>
+      <c r="D35" s="174"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="176"/>
-      <c r="C36" s="176"/>
-      <c r="D36" s="176"/>
+      <c r="B36" s="174"/>
+      <c r="C36" s="174"/>
+      <c r="D36" s="174"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="176" t="s">
+      <c r="B37" s="174" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="176"/>
-      <c r="D37" s="176"/>
+      <c r="C37" s="174"/>
+      <c r="D37" s="174"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="176"/>
-      <c r="C38" s="176"/>
-      <c r="D38" s="176"/>
+      <c r="B38" s="174"/>
+      <c r="C38" s="174"/>
+      <c r="D38" s="174"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="176" t="s">
+      <c r="B39" s="174" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="176"/>
-      <c r="D39" s="176"/>
+      <c r="C39" s="174"/>
+      <c r="D39" s="174"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="176"/>
-      <c r="C40" s="176"/>
-      <c r="D40" s="176"/>
+      <c r="B40" s="174"/>
+      <c r="C40" s="174"/>
+      <c r="D40" s="174"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
@@ -9963,165 +10967,165 @@
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="176"/>
-      <c r="C45" s="176"/>
-      <c r="D45" s="176"/>
+      <c r="B45" s="174"/>
+      <c r="C45" s="174"/>
+      <c r="D45" s="174"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="176" t="s">
+      <c r="B46" s="174" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="176"/>
-      <c r="D46" s="176"/>
+      <c r="C46" s="174"/>
+      <c r="D46" s="174"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="176"/>
-      <c r="C47" s="176"/>
-      <c r="D47" s="176"/>
+      <c r="B47" s="174"/>
+      <c r="C47" s="174"/>
+      <c r="D47" s="174"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="176" t="s">
+      <c r="B48" s="174" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="176"/>
-      <c r="D48" s="176"/>
+      <c r="C48" s="174"/>
+      <c r="D48" s="174"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="176"/>
-      <c r="C49" s="176"/>
-      <c r="D49" s="176"/>
+      <c r="B49" s="174"/>
+      <c r="C49" s="174"/>
+      <c r="D49" s="174"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="176"/>
-      <c r="C50" s="176"/>
-      <c r="D50" s="176"/>
+      <c r="B50" s="174"/>
+      <c r="C50" s="174"/>
+      <c r="D50" s="174"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="176"/>
-      <c r="C51" s="176"/>
-      <c r="D51" s="176"/>
+      <c r="B51" s="174"/>
+      <c r="C51" s="174"/>
+      <c r="D51" s="174"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="176"/>
-      <c r="C52" s="176"/>
-      <c r="D52" s="176"/>
+      <c r="B52" s="174"/>
+      <c r="C52" s="174"/>
+      <c r="D52" s="174"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="176"/>
-      <c r="C53" s="176"/>
-      <c r="D53" s="176"/>
+      <c r="B53" s="174"/>
+      <c r="C53" s="174"/>
+      <c r="D53" s="174"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="176"/>
-      <c r="C54" s="176"/>
-      <c r="D54" s="176"/>
+      <c r="B54" s="174"/>
+      <c r="C54" s="174"/>
+      <c r="D54" s="174"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="176"/>
-      <c r="C55" s="176"/>
-      <c r="D55" s="176"/>
+      <c r="B55" s="174"/>
+      <c r="C55" s="174"/>
+      <c r="D55" s="174"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="176"/>
-      <c r="C56" s="176"/>
-      <c r="D56" s="176"/>
+      <c r="B56" s="174"/>
+      <c r="C56" s="174"/>
+      <c r="D56" s="174"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="176"/>
-      <c r="C57" s="176"/>
-      <c r="D57" s="176"/>
+      <c r="B57" s="174"/>
+      <c r="C57" s="174"/>
+      <c r="D57" s="174"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="176"/>
-      <c r="C58" s="176"/>
-      <c r="D58" s="176"/>
+      <c r="B58" s="174"/>
+      <c r="C58" s="174"/>
+      <c r="D58" s="174"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="176"/>
-      <c r="C59" s="176"/>
-      <c r="D59" s="176"/>
+      <c r="B59" s="174"/>
+      <c r="C59" s="174"/>
+      <c r="D59" s="174"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="176"/>
-      <c r="C60" s="176"/>
-      <c r="D60" s="176"/>
+      <c r="B60" s="174"/>
+      <c r="C60" s="174"/>
+      <c r="D60" s="174"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="176"/>
-      <c r="C61" s="176"/>
-      <c r="D61" s="176"/>
+      <c r="B61" s="174"/>
+      <c r="C61" s="174"/>
+      <c r="D61" s="174"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="176"/>
-      <c r="C62" s="176"/>
-      <c r="D62" s="176"/>
+      <c r="B62" s="174"/>
+      <c r="C62" s="174"/>
+      <c r="D62" s="174"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="176"/>
-      <c r="C63" s="176"/>
-      <c r="D63" s="176"/>
+      <c r="B63" s="174"/>
+      <c r="C63" s="174"/>
+      <c r="D63" s="174"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="176"/>
-      <c r="C64" s="176"/>
-      <c r="D64" s="176"/>
+      <c r="B64" s="174"/>
+      <c r="C64" s="174"/>
+      <c r="D64" s="174"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -10151,17 +11155,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="176"/>
-      <c r="C67" s="176"/>
-      <c r="D67" s="176"/>
+      <c r="B67" s="174"/>
+      <c r="C67" s="174"/>
+      <c r="D67" s="174"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="176"/>
-      <c r="C68" s="176"/>
-      <c r="D68" s="176"/>
+      <c r="B68" s="174"/>
+      <c r="C68" s="174"/>
+      <c r="D68" s="174"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -10268,19 +11272,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="180"/>
-      <c r="C77" s="180"/>
-      <c r="D77" s="180"/>
+      <c r="B77" s="176"/>
+      <c r="C77" s="176"/>
+      <c r="D77" s="176"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="177" t="s">
+      <c r="B78" s="181" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="177"/>
-      <c r="D78" s="177"/>
+      <c r="C78" s="181"/>
+      <c r="D78" s="181"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -10288,9 +11292,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="180"/>
-      <c r="C79" s="180"/>
-      <c r="D79" s="180"/>
+      <c r="B79" s="176"/>
+      <c r="C79" s="176"/>
+      <c r="D79" s="176"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -10325,31 +11329,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="174"/>
-      <c r="C83" s="174"/>
-      <c r="D83" s="174"/>
-      <c r="E83" s="174"/>
+      <c r="B83" s="179"/>
+      <c r="C83" s="179"/>
+      <c r="D83" s="179"/>
+      <c r="E83" s="179"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="182" t="s">
+      <c r="A84" s="173" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="182"/>
-      <c r="C84" s="182"/>
-      <c r="D84" s="182"/>
-      <c r="E84" s="182"/>
-      <c r="F84" s="182"/>
+      <c r="B84" s="173"/>
+      <c r="C84" s="173"/>
+      <c r="D84" s="173"/>
+      <c r="E84" s="173"/>
+      <c r="F84" s="173"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="178" t="s">
+      <c r="A85" s="182" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="178"/>
-      <c r="C85" s="178"/>
-      <c r="D85" s="178"/>
-      <c r="E85" s="178"/>
-      <c r="F85" s="178"/>
+      <c r="B85" s="182"/>
+      <c r="C85" s="182"/>
+      <c r="D85" s="182"/>
+      <c r="E85" s="182"/>
+      <c r="F85" s="182"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -10361,26 +11365,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="175"/>
-      <c r="C87" s="175"/>
-      <c r="D87" s="175"/>
-      <c r="E87" s="175"/>
+      <c r="B87" s="180"/>
+      <c r="C87" s="180"/>
+      <c r="D87" s="180"/>
+      <c r="E87" s="180"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="181" t="s">
+      <c r="A88" s="172" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="181"/>
-      <c r="C88" s="181"/>
-      <c r="D88" s="181"/>
-      <c r="E88" s="181"/>
-      <c r="F88" s="181"/>
+      <c r="B88" s="172"/>
+      <c r="C88" s="172"/>
+      <c r="D88" s="172"/>
+      <c r="E88" s="172"/>
+      <c r="F88" s="172"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="172"/>
-      <c r="C90" s="173"/>
-      <c r="D90" s="173"/>
+      <c r="B90" s="177"/>
+      <c r="C90" s="178"/>
+      <c r="D90" s="178"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -10390,17 +11394,26 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B45:D45"/>
@@ -10414,26 +11427,17 @@
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B53:D53"/>
     <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B45:B68 B33:B44" xr:uid="{2942E94F-4523-4EA9-8C7A-408C391C1D17}">
@@ -10591,14 +11595,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="179" t="s">
+      <c r="A30" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="179"/>
-      <c r="C30" s="179"/>
-      <c r="D30" s="179"/>
-      <c r="E30" s="179"/>
-      <c r="F30" s="179"/>
+      <c r="B30" s="175"/>
+      <c r="C30" s="175"/>
+      <c r="D30" s="175"/>
+      <c r="E30" s="175"/>
+      <c r="F30" s="175"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -10619,35 +11623,35 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="176"/>
-      <c r="C33" s="176"/>
-      <c r="D33" s="176"/>
+      <c r="B33" s="174"/>
+      <c r="C33" s="174"/>
+      <c r="D33" s="174"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="176"/>
-      <c r="C34" s="176"/>
-      <c r="D34" s="176"/>
+      <c r="B34" s="174"/>
+      <c r="C34" s="174"/>
+      <c r="D34" s="174"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="176" t="s">
+      <c r="B35" s="174" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="176"/>
-      <c r="D35" s="176"/>
+      <c r="C35" s="174"/>
+      <c r="D35" s="174"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="176"/>
-      <c r="C36" s="176"/>
-      <c r="D36" s="176"/>
+      <c r="B36" s="174"/>
+      <c r="C36" s="174"/>
+      <c r="D36" s="174"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
@@ -10691,195 +11695,195 @@
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="176"/>
-      <c r="C41" s="176"/>
-      <c r="D41" s="176"/>
+      <c r="B41" s="174"/>
+      <c r="C41" s="174"/>
+      <c r="D41" s="174"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="176" t="s">
+      <c r="B42" s="174" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="176"/>
-      <c r="D42" s="176"/>
+      <c r="C42" s="174"/>
+      <c r="D42" s="174"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="176"/>
-      <c r="C43" s="176"/>
-      <c r="D43" s="176"/>
+      <c r="B43" s="174"/>
+      <c r="C43" s="174"/>
+      <c r="D43" s="174"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="176"/>
-      <c r="C44" s="176"/>
-      <c r="D44" s="176"/>
+      <c r="B44" s="174"/>
+      <c r="C44" s="174"/>
+      <c r="D44" s="174"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="176"/>
-      <c r="C45" s="176"/>
-      <c r="D45" s="176"/>
+      <c r="B45" s="174"/>
+      <c r="C45" s="174"/>
+      <c r="D45" s="174"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="176"/>
-      <c r="C46" s="176"/>
-      <c r="D46" s="176"/>
+      <c r="B46" s="174"/>
+      <c r="C46" s="174"/>
+      <c r="D46" s="174"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="176"/>
-      <c r="C47" s="176"/>
-      <c r="D47" s="176"/>
+      <c r="B47" s="174"/>
+      <c r="C47" s="174"/>
+      <c r="D47" s="174"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="176"/>
-      <c r="C48" s="176"/>
-      <c r="D48" s="176"/>
+      <c r="B48" s="174"/>
+      <c r="C48" s="174"/>
+      <c r="D48" s="174"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="176"/>
-      <c r="C49" s="176"/>
-      <c r="D49" s="176"/>
+      <c r="B49" s="174"/>
+      <c r="C49" s="174"/>
+      <c r="D49" s="174"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="176"/>
-      <c r="C50" s="176"/>
-      <c r="D50" s="176"/>
+      <c r="B50" s="174"/>
+      <c r="C50" s="174"/>
+      <c r="D50" s="174"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="176"/>
-      <c r="C51" s="176"/>
-      <c r="D51" s="176"/>
+      <c r="B51" s="174"/>
+      <c r="C51" s="174"/>
+      <c r="D51" s="174"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="176"/>
-      <c r="C52" s="176"/>
-      <c r="D52" s="176"/>
+      <c r="B52" s="174"/>
+      <c r="C52" s="174"/>
+      <c r="D52" s="174"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="176"/>
-      <c r="C53" s="176"/>
-      <c r="D53" s="176"/>
+      <c r="B53" s="174"/>
+      <c r="C53" s="174"/>
+      <c r="D53" s="174"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="176"/>
-      <c r="C54" s="176"/>
-      <c r="D54" s="176"/>
+      <c r="B54" s="174"/>
+      <c r="C54" s="174"/>
+      <c r="D54" s="174"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="176"/>
-      <c r="C55" s="176"/>
-      <c r="D55" s="176"/>
+      <c r="B55" s="174"/>
+      <c r="C55" s="174"/>
+      <c r="D55" s="174"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="176"/>
-      <c r="C56" s="176"/>
-      <c r="D56" s="176"/>
+      <c r="B56" s="174"/>
+      <c r="C56" s="174"/>
+      <c r="D56" s="174"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="176"/>
-      <c r="C57" s="176"/>
-      <c r="D57" s="176"/>
+      <c r="B57" s="174"/>
+      <c r="C57" s="174"/>
+      <c r="D57" s="174"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="176"/>
-      <c r="C58" s="176"/>
-      <c r="D58" s="176"/>
+      <c r="B58" s="174"/>
+      <c r="C58" s="174"/>
+      <c r="D58" s="174"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="176"/>
-      <c r="C59" s="176"/>
-      <c r="D59" s="176"/>
+      <c r="B59" s="174"/>
+      <c r="C59" s="174"/>
+      <c r="D59" s="174"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="176"/>
-      <c r="C60" s="176"/>
-      <c r="D60" s="176"/>
+      <c r="B60" s="174"/>
+      <c r="C60" s="174"/>
+      <c r="D60" s="174"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="176"/>
-      <c r="C61" s="176"/>
-      <c r="D61" s="176"/>
+      <c r="B61" s="174"/>
+      <c r="C61" s="174"/>
+      <c r="D61" s="174"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="176"/>
-      <c r="C62" s="176"/>
-      <c r="D62" s="176"/>
+      <c r="B62" s="174"/>
+      <c r="C62" s="174"/>
+      <c r="D62" s="174"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="176"/>
-      <c r="C63" s="176"/>
-      <c r="D63" s="176"/>
+      <c r="B63" s="174"/>
+      <c r="C63" s="174"/>
+      <c r="D63" s="174"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="176"/>
-      <c r="C64" s="176"/>
-      <c r="D64" s="176"/>
+      <c r="B64" s="174"/>
+      <c r="C64" s="174"/>
+      <c r="D64" s="174"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -10909,17 +11913,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="176"/>
-      <c r="C67" s="176"/>
-      <c r="D67" s="176"/>
+      <c r="B67" s="174"/>
+      <c r="C67" s="174"/>
+      <c r="D67" s="174"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="176"/>
-      <c r="C68" s="176"/>
-      <c r="D68" s="176"/>
+      <c r="B68" s="174"/>
+      <c r="C68" s="174"/>
+      <c r="D68" s="174"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -11026,19 +12030,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="180"/>
-      <c r="C77" s="180"/>
-      <c r="D77" s="180"/>
+      <c r="B77" s="176"/>
+      <c r="C77" s="176"/>
+      <c r="D77" s="176"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="177" t="s">
+      <c r="B78" s="181" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="177"/>
-      <c r="D78" s="177"/>
+      <c r="C78" s="181"/>
+      <c r="D78" s="181"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -11046,9 +12050,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="180"/>
-      <c r="C79" s="180"/>
-      <c r="D79" s="180"/>
+      <c r="B79" s="176"/>
+      <c r="C79" s="176"/>
+      <c r="D79" s="176"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -11083,31 +12087,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="174"/>
-      <c r="C83" s="174"/>
-      <c r="D83" s="174"/>
-      <c r="E83" s="174"/>
+      <c r="B83" s="179"/>
+      <c r="C83" s="179"/>
+      <c r="D83" s="179"/>
+      <c r="E83" s="179"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="182" t="s">
+      <c r="A84" s="173" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="182"/>
-      <c r="C84" s="182"/>
-      <c r="D84" s="182"/>
-      <c r="E84" s="182"/>
-      <c r="F84" s="182"/>
+      <c r="B84" s="173"/>
+      <c r="C84" s="173"/>
+      <c r="D84" s="173"/>
+      <c r="E84" s="173"/>
+      <c r="F84" s="173"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="178" t="s">
+      <c r="A85" s="182" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="178"/>
-      <c r="C85" s="178"/>
-      <c r="D85" s="178"/>
-      <c r="E85" s="178"/>
-      <c r="F85" s="178"/>
+      <c r="B85" s="182"/>
+      <c r="C85" s="182"/>
+      <c r="D85" s="182"/>
+      <c r="E85" s="182"/>
+      <c r="F85" s="182"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -11119,26 +12123,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="175"/>
-      <c r="C87" s="175"/>
-      <c r="D87" s="175"/>
-      <c r="E87" s="175"/>
+      <c r="B87" s="180"/>
+      <c r="C87" s="180"/>
+      <c r="D87" s="180"/>
+      <c r="E87" s="180"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="181" t="s">
+      <c r="A88" s="172" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="181"/>
-      <c r="C88" s="181"/>
-      <c r="D88" s="181"/>
-      <c r="E88" s="181"/>
-      <c r="F88" s="181"/>
+      <c r="B88" s="172"/>
+      <c r="C88" s="172"/>
+      <c r="D88" s="172"/>
+      <c r="E88" s="172"/>
+      <c r="F88" s="172"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="172"/>
-      <c r="C90" s="173"/>
-      <c r="D90" s="173"/>
+      <c r="B90" s="177"/>
+      <c r="C90" s="178"/>
+      <c r="D90" s="178"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -11148,26 +12152,16 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
@@ -11182,16 +12176,26 @@
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B53:D53"/>
     <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B87:E87"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33 B34:B68" xr:uid="{B576DF63-9EDE-4B6F-A0AE-0767607073D7}">
@@ -11349,14 +12353,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="179" t="s">
+      <c r="A30" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="179"/>
-      <c r="C30" s="179"/>
-      <c r="D30" s="179"/>
-      <c r="E30" s="179"/>
-      <c r="F30" s="179"/>
+      <c r="B30" s="175"/>
+      <c r="C30" s="175"/>
+      <c r="D30" s="175"/>
+      <c r="E30" s="175"/>
+      <c r="F30" s="175"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -11377,267 +12381,267 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="176"/>
-      <c r="C33" s="176"/>
-      <c r="D33" s="176"/>
+      <c r="B33" s="174"/>
+      <c r="C33" s="174"/>
+      <c r="D33" s="174"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="176"/>
-      <c r="C34" s="176"/>
-      <c r="D34" s="176"/>
+      <c r="B34" s="174"/>
+      <c r="C34" s="174"/>
+      <c r="D34" s="174"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="176" t="s">
+      <c r="B35" s="174" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="176"/>
-      <c r="D35" s="176"/>
+      <c r="C35" s="174"/>
+      <c r="D35" s="174"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="176"/>
-      <c r="C36" s="176"/>
-      <c r="D36" s="176"/>
+      <c r="B36" s="174"/>
+      <c r="C36" s="174"/>
+      <c r="D36" s="174"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="176" t="s">
+      <c r="B37" s="174" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="176"/>
-      <c r="D37" s="176"/>
+      <c r="C37" s="174"/>
+      <c r="D37" s="174"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="176"/>
-      <c r="C38" s="176"/>
-      <c r="D38" s="176"/>
+      <c r="B38" s="174"/>
+      <c r="C38" s="174"/>
+      <c r="D38" s="174"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="176" t="s">
+      <c r="B39" s="174" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="176"/>
-      <c r="D39" s="176"/>
+      <c r="C39" s="174"/>
+      <c r="D39" s="174"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="176"/>
-      <c r="C40" s="176"/>
-      <c r="D40" s="176"/>
+      <c r="B40" s="174"/>
+      <c r="C40" s="174"/>
+      <c r="D40" s="174"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="176" t="s">
+      <c r="B41" s="174" t="s">
         <v>93</v>
       </c>
-      <c r="C41" s="176"/>
-      <c r="D41" s="176"/>
+      <c r="C41" s="174"/>
+      <c r="D41" s="174"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="176"/>
-      <c r="C42" s="176"/>
-      <c r="D42" s="176"/>
+      <c r="B42" s="174"/>
+      <c r="C42" s="174"/>
+      <c r="D42" s="174"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="176" t="s">
+      <c r="B43" s="174" t="s">
         <v>94</v>
       </c>
-      <c r="C43" s="176"/>
-      <c r="D43" s="176"/>
+      <c r="C43" s="174"/>
+      <c r="D43" s="174"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="176"/>
-      <c r="C44" s="176"/>
-      <c r="D44" s="176"/>
+      <c r="B44" s="174"/>
+      <c r="C44" s="174"/>
+      <c r="D44" s="174"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="176" t="s">
+      <c r="B45" s="174" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="176"/>
-      <c r="D45" s="176"/>
+      <c r="C45" s="174"/>
+      <c r="D45" s="174"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="176"/>
-      <c r="C46" s="176"/>
-      <c r="D46" s="176"/>
+      <c r="B46" s="174"/>
+      <c r="C46" s="174"/>
+      <c r="D46" s="174"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="176" t="s">
+      <c r="B47" s="174" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="176"/>
-      <c r="D47" s="176"/>
+      <c r="C47" s="174"/>
+      <c r="D47" s="174"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="176"/>
-      <c r="C48" s="176"/>
-      <c r="D48" s="176"/>
+      <c r="B48" s="174"/>
+      <c r="C48" s="174"/>
+      <c r="D48" s="174"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="176" t="s">
+      <c r="B49" s="174" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="176"/>
-      <c r="D49" s="176"/>
+      <c r="C49" s="174"/>
+      <c r="D49" s="174"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="176"/>
-      <c r="C50" s="176"/>
-      <c r="D50" s="176"/>
+      <c r="B50" s="174"/>
+      <c r="C50" s="174"/>
+      <c r="D50" s="174"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="176" t="s">
+      <c r="B51" s="174" t="s">
         <v>86</v>
       </c>
-      <c r="C51" s="176"/>
-      <c r="D51" s="176"/>
+      <c r="C51" s="174"/>
+      <c r="D51" s="174"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="176"/>
-      <c r="C52" s="176"/>
-      <c r="D52" s="176"/>
+      <c r="B52" s="174"/>
+      <c r="C52" s="174"/>
+      <c r="D52" s="174"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="176"/>
-      <c r="C53" s="176"/>
-      <c r="D53" s="176"/>
+      <c r="B53" s="174"/>
+      <c r="C53" s="174"/>
+      <c r="D53" s="174"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="176"/>
-      <c r="C54" s="176"/>
-      <c r="D54" s="176"/>
+      <c r="B54" s="174"/>
+      <c r="C54" s="174"/>
+      <c r="D54" s="174"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="176"/>
-      <c r="C55" s="176"/>
-      <c r="D55" s="176"/>
+      <c r="B55" s="174"/>
+      <c r="C55" s="174"/>
+      <c r="D55" s="174"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="176"/>
-      <c r="C56" s="176"/>
-      <c r="D56" s="176"/>
+      <c r="B56" s="174"/>
+      <c r="C56" s="174"/>
+      <c r="D56" s="174"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="176"/>
-      <c r="C57" s="176"/>
-      <c r="D57" s="176"/>
+      <c r="B57" s="174"/>
+      <c r="C57" s="174"/>
+      <c r="D57" s="174"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="176"/>
-      <c r="C58" s="176"/>
-      <c r="D58" s="176"/>
+      <c r="B58" s="174"/>
+      <c r="C58" s="174"/>
+      <c r="D58" s="174"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="176"/>
-      <c r="C59" s="176"/>
-      <c r="D59" s="176"/>
+      <c r="B59" s="174"/>
+      <c r="C59" s="174"/>
+      <c r="D59" s="174"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="176"/>
-      <c r="C60" s="176"/>
-      <c r="D60" s="176"/>
+      <c r="B60" s="174"/>
+      <c r="C60" s="174"/>
+      <c r="D60" s="174"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="176"/>
-      <c r="C61" s="176"/>
-      <c r="D61" s="176"/>
+      <c r="B61" s="174"/>
+      <c r="C61" s="174"/>
+      <c r="D61" s="174"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="176"/>
-      <c r="C62" s="176"/>
-      <c r="D62" s="176"/>
+      <c r="B62" s="174"/>
+      <c r="C62" s="174"/>
+      <c r="D62" s="174"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="176"/>
-      <c r="C63" s="176"/>
-      <c r="D63" s="176"/>
+      <c r="B63" s="174"/>
+      <c r="C63" s="174"/>
+      <c r="D63" s="174"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
@@ -11667,17 +12671,17 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="176"/>
-      <c r="C66" s="176"/>
-      <c r="D66" s="176"/>
+      <c r="B66" s="174"/>
+      <c r="C66" s="174"/>
+      <c r="D66" s="174"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="176"/>
-      <c r="C67" s="176"/>
-      <c r="D67" s="176"/>
+      <c r="B67" s="174"/>
+      <c r="C67" s="174"/>
+      <c r="D67" s="174"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
@@ -11784,19 +12788,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="180"/>
-      <c r="C76" s="180"/>
-      <c r="D76" s="180"/>
+      <c r="B76" s="176"/>
+      <c r="C76" s="176"/>
+      <c r="D76" s="176"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="177" t="s">
+      <c r="B77" s="181" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="177"/>
-      <c r="D77" s="177"/>
+      <c r="C77" s="181"/>
+      <c r="D77" s="181"/>
       <c r="E77" s="36">
         <v>0</v>
       </c>
@@ -11804,9 +12808,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="180"/>
-      <c r="C78" s="180"/>
-      <c r="D78" s="180"/>
+      <c r="B78" s="176"/>
+      <c r="C78" s="176"/>
+      <c r="D78" s="176"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
@@ -11841,31 +12845,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="174"/>
-      <c r="C82" s="174"/>
-      <c r="D82" s="174"/>
-      <c r="E82" s="174"/>
+      <c r="B82" s="179"/>
+      <c r="C82" s="179"/>
+      <c r="D82" s="179"/>
+      <c r="E82" s="179"/>
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="182" t="s">
+      <c r="A83" s="173" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="182"/>
-      <c r="C83" s="182"/>
-      <c r="D83" s="182"/>
-      <c r="E83" s="182"/>
-      <c r="F83" s="182"/>
+      <c r="B83" s="173"/>
+      <c r="C83" s="173"/>
+      <c r="D83" s="173"/>
+      <c r="E83" s="173"/>
+      <c r="F83" s="173"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="178" t="s">
+      <c r="A84" s="182" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="178"/>
-      <c r="C84" s="178"/>
-      <c r="D84" s="178"/>
-      <c r="E84" s="178"/>
-      <c r="F84" s="178"/>
+      <c r="B84" s="182"/>
+      <c r="C84" s="182"/>
+      <c r="D84" s="182"/>
+      <c r="E84" s="182"/>
+      <c r="F84" s="182"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
@@ -11877,26 +12881,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="175"/>
-      <c r="C86" s="175"/>
-      <c r="D86" s="175"/>
-      <c r="E86" s="175"/>
+      <c r="B86" s="180"/>
+      <c r="C86" s="180"/>
+      <c r="D86" s="180"/>
+      <c r="E86" s="180"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="181" t="s">
+      <c r="A87" s="172" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="181"/>
-      <c r="C87" s="181"/>
-      <c r="D87" s="181"/>
-      <c r="E87" s="181"/>
-      <c r="F87" s="181"/>
+      <c r="B87" s="172"/>
+      <c r="C87" s="172"/>
+      <c r="D87" s="172"/>
+      <c r="E87" s="172"/>
+      <c r="F87" s="172"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="172"/>
-      <c r="C89" s="173"/>
-      <c r="D89" s="173"/>
+      <c r="B89" s="177"/>
+      <c r="C89" s="178"/>
+      <c r="D89" s="178"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -11906,17 +12910,26 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:D44"/>
@@ -11929,26 +12942,17 @@
     <mergeCell ref="B51:D51"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76:B78 B12:B20 B33:B67" xr:uid="{9ABD2951-3AF1-4F8A-A4E8-DBE3AEA4B2D9}">
@@ -12106,14 +13110,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="179" t="s">
+      <c r="A30" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="179"/>
-      <c r="C30" s="179"/>
-      <c r="D30" s="179"/>
-      <c r="E30" s="179"/>
-      <c r="F30" s="179"/>
+      <c r="B30" s="175"/>
+      <c r="C30" s="175"/>
+      <c r="D30" s="175"/>
+      <c r="E30" s="175"/>
+      <c r="F30" s="175"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -12134,283 +13138,283 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="176"/>
-      <c r="C33" s="176"/>
-      <c r="D33" s="176"/>
+      <c r="B33" s="174"/>
+      <c r="C33" s="174"/>
+      <c r="D33" s="174"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="176" t="s">
+      <c r="B34" s="174" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="176"/>
-      <c r="D34" s="176"/>
+      <c r="C34" s="174"/>
+      <c r="D34" s="174"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="176"/>
-      <c r="C35" s="176"/>
-      <c r="D35" s="176"/>
+      <c r="B35" s="174"/>
+      <c r="C35" s="174"/>
+      <c r="D35" s="174"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="176" t="s">
+      <c r="B36" s="174" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="176"/>
-      <c r="D36" s="176"/>
+      <c r="C36" s="174"/>
+      <c r="D36" s="174"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="176"/>
-      <c r="C37" s="176"/>
-      <c r="D37" s="176"/>
+      <c r="B37" s="174"/>
+      <c r="C37" s="174"/>
+      <c r="D37" s="174"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="176" t="s">
+      <c r="B38" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="176"/>
-      <c r="D38" s="176"/>
+      <c r="C38" s="174"/>
+      <c r="D38" s="174"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="176"/>
-      <c r="C39" s="176"/>
-      <c r="D39" s="176"/>
+      <c r="B39" s="174"/>
+      <c r="C39" s="174"/>
+      <c r="D39" s="174"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="176" t="s">
+      <c r="B40" s="174" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="176"/>
-      <c r="D40" s="176"/>
+      <c r="C40" s="174"/>
+      <c r="D40" s="174"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="176"/>
-      <c r="C41" s="176"/>
-      <c r="D41" s="176"/>
+      <c r="B41" s="174"/>
+      <c r="C41" s="174"/>
+      <c r="D41" s="174"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="176" t="s">
+      <c r="B42" s="174" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="176"/>
-      <c r="D42" s="176"/>
+      <c r="C42" s="174"/>
+      <c r="D42" s="174"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="176"/>
-      <c r="C43" s="176"/>
-      <c r="D43" s="176"/>
+      <c r="B43" s="174"/>
+      <c r="C43" s="174"/>
+      <c r="D43" s="174"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="176" t="s">
+      <c r="B44" s="174" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="176"/>
-      <c r="D44" s="176"/>
+      <c r="C44" s="174"/>
+      <c r="D44" s="174"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="176"/>
-      <c r="C45" s="176"/>
-      <c r="D45" s="176"/>
+      <c r="B45" s="174"/>
+      <c r="C45" s="174"/>
+      <c r="D45" s="174"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="176" t="s">
+      <c r="B46" s="174" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="176"/>
-      <c r="D46" s="176"/>
+      <c r="C46" s="174"/>
+      <c r="D46" s="174"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="176"/>
-      <c r="C47" s="176"/>
-      <c r="D47" s="176"/>
+      <c r="B47" s="174"/>
+      <c r="C47" s="174"/>
+      <c r="D47" s="174"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="176" t="s">
+      <c r="B48" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="C48" s="176"/>
-      <c r="D48" s="176"/>
+      <c r="C48" s="174"/>
+      <c r="D48" s="174"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="176"/>
-      <c r="C49" s="176"/>
-      <c r="D49" s="176"/>
+      <c r="B49" s="174"/>
+      <c r="C49" s="174"/>
+      <c r="D49" s="174"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="176" t="s">
+      <c r="B50" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="176"/>
-      <c r="D50" s="176"/>
+      <c r="C50" s="174"/>
+      <c r="D50" s="174"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="176"/>
-      <c r="C51" s="176"/>
-      <c r="D51" s="176"/>
+      <c r="B51" s="174"/>
+      <c r="C51" s="174"/>
+      <c r="D51" s="174"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="176" t="s">
+      <c r="B52" s="174" t="s">
         <v>100</v>
       </c>
-      <c r="C52" s="176"/>
-      <c r="D52" s="176"/>
+      <c r="C52" s="174"/>
+      <c r="D52" s="174"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="176"/>
-      <c r="C53" s="176"/>
-      <c r="D53" s="176"/>
+      <c r="B53" s="174"/>
+      <c r="C53" s="174"/>
+      <c r="D53" s="174"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="176" t="s">
+      <c r="B54" s="174" t="s">
         <v>33</v>
       </c>
-      <c r="C54" s="176"/>
-      <c r="D54" s="176"/>
+      <c r="C54" s="174"/>
+      <c r="D54" s="174"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="176"/>
-      <c r="C55" s="176"/>
-      <c r="D55" s="176"/>
+      <c r="B55" s="174"/>
+      <c r="C55" s="174"/>
+      <c r="D55" s="174"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="176" t="s">
+      <c r="B56" s="174" t="s">
         <v>35</v>
       </c>
-      <c r="C56" s="176"/>
-      <c r="D56" s="176"/>
+      <c r="C56" s="174"/>
+      <c r="D56" s="174"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="176"/>
-      <c r="C57" s="176"/>
-      <c r="D57" s="176"/>
+      <c r="B57" s="174"/>
+      <c r="C57" s="174"/>
+      <c r="D57" s="174"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="176" t="s">
+      <c r="B58" s="174" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="176"/>
-      <c r="D58" s="176"/>
+      <c r="C58" s="174"/>
+      <c r="D58" s="174"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="176"/>
-      <c r="C59" s="176"/>
-      <c r="D59" s="176"/>
+      <c r="B59" s="174"/>
+      <c r="C59" s="174"/>
+      <c r="D59" s="174"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="176"/>
-      <c r="C60" s="176"/>
-      <c r="D60" s="176"/>
+      <c r="B60" s="174"/>
+      <c r="C60" s="174"/>
+      <c r="D60" s="174"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="176"/>
-      <c r="C61" s="176"/>
-      <c r="D61" s="176"/>
+      <c r="B61" s="174"/>
+      <c r="C61" s="174"/>
+      <c r="D61" s="174"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="176"/>
-      <c r="C62" s="176"/>
-      <c r="D62" s="176"/>
+      <c r="B62" s="174"/>
+      <c r="C62" s="174"/>
+      <c r="D62" s="174"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="176"/>
-      <c r="C63" s="176"/>
-      <c r="D63" s="176"/>
+      <c r="B63" s="174"/>
+      <c r="C63" s="174"/>
+      <c r="D63" s="174"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="176"/>
-      <c r="C64" s="176"/>
-      <c r="D64" s="176"/>
+      <c r="B64" s="174"/>
+      <c r="C64" s="174"/>
+      <c r="D64" s="174"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -12440,17 +13444,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="176"/>
-      <c r="C67" s="176"/>
-      <c r="D67" s="176"/>
+      <c r="B67" s="174"/>
+      <c r="C67" s="174"/>
+      <c r="D67" s="174"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="176"/>
-      <c r="C68" s="176"/>
-      <c r="D68" s="176"/>
+      <c r="B68" s="174"/>
+      <c r="C68" s="174"/>
+      <c r="D68" s="174"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -12557,19 +13561,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="180"/>
-      <c r="C77" s="180"/>
-      <c r="D77" s="180"/>
+      <c r="B77" s="176"/>
+      <c r="C77" s="176"/>
+      <c r="D77" s="176"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="177" t="s">
+      <c r="B78" s="181" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="177"/>
-      <c r="D78" s="177"/>
+      <c r="C78" s="181"/>
+      <c r="D78" s="181"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -12577,9 +13581,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="180"/>
-      <c r="C79" s="180"/>
-      <c r="D79" s="180"/>
+      <c r="B79" s="176"/>
+      <c r="C79" s="176"/>
+      <c r="D79" s="176"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -12614,31 +13618,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="174"/>
-      <c r="C83" s="174"/>
-      <c r="D83" s="174"/>
-      <c r="E83" s="174"/>
+      <c r="B83" s="179"/>
+      <c r="C83" s="179"/>
+      <c r="D83" s="179"/>
+      <c r="E83" s="179"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="182" t="s">
+      <c r="A84" s="173" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="182"/>
-      <c r="C84" s="182"/>
-      <c r="D84" s="182"/>
-      <c r="E84" s="182"/>
-      <c r="F84" s="182"/>
+      <c r="B84" s="173"/>
+      <c r="C84" s="173"/>
+      <c r="D84" s="173"/>
+      <c r="E84" s="173"/>
+      <c r="F84" s="173"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="178" t="s">
+      <c r="A85" s="182" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="178"/>
-      <c r="C85" s="178"/>
-      <c r="D85" s="178"/>
-      <c r="E85" s="178"/>
-      <c r="F85" s="178"/>
+      <c r="B85" s="182"/>
+      <c r="C85" s="182"/>
+      <c r="D85" s="182"/>
+      <c r="E85" s="182"/>
+      <c r="F85" s="182"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -12650,26 +13654,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="175"/>
-      <c r="C87" s="175"/>
-      <c r="D87" s="175"/>
-      <c r="E87" s="175"/>
+      <c r="B87" s="180"/>
+      <c r="C87" s="180"/>
+      <c r="D87" s="180"/>
+      <c r="E87" s="180"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="181" t="s">
+      <c r="A88" s="172" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="181"/>
-      <c r="C88" s="181"/>
-      <c r="D88" s="181"/>
-      <c r="E88" s="181"/>
-      <c r="F88" s="181"/>
+      <c r="B88" s="172"/>
+      <c r="C88" s="172"/>
+      <c r="D88" s="172"/>
+      <c r="E88" s="172"/>
+      <c r="F88" s="172"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="172"/>
-      <c r="C90" s="173"/>
-      <c r="D90" s="173"/>
+      <c r="B90" s="177"/>
+      <c r="C90" s="178"/>
+      <c r="D90" s="178"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -12679,6 +13683,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B79:D79"/>
@@ -12695,34 +13727,6 @@
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{9B275453-8B23-4F41-89E6-BD37E6FA3764}">
@@ -12880,14 +13884,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="179" t="s">
+      <c r="A30" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="179"/>
-      <c r="C30" s="179"/>
-      <c r="D30" s="179"/>
-      <c r="E30" s="179"/>
-      <c r="F30" s="179"/>
+      <c r="B30" s="175"/>
+      <c r="C30" s="175"/>
+      <c r="D30" s="175"/>
+      <c r="E30" s="175"/>
+      <c r="F30" s="175"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -12908,259 +13912,259 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="176"/>
-      <c r="C33" s="176"/>
-      <c r="D33" s="176"/>
+      <c r="B33" s="174"/>
+      <c r="C33" s="174"/>
+      <c r="D33" s="174"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="176" t="s">
+      <c r="B34" s="174" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="176"/>
-      <c r="D34" s="176"/>
+      <c r="C34" s="174"/>
+      <c r="D34" s="174"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="176"/>
-      <c r="C35" s="176"/>
-      <c r="D35" s="176"/>
+      <c r="B35" s="174"/>
+      <c r="C35" s="174"/>
+      <c r="D35" s="174"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="176" t="s">
+      <c r="B36" s="174" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="176"/>
-      <c r="D36" s="176"/>
+      <c r="C36" s="174"/>
+      <c r="D36" s="174"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="176"/>
-      <c r="C37" s="176"/>
-      <c r="D37" s="176"/>
+      <c r="B37" s="174"/>
+      <c r="C37" s="174"/>
+      <c r="D37" s="174"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="176" t="s">
+      <c r="B38" s="174" t="s">
         <v>105</v>
       </c>
-      <c r="C38" s="176"/>
-      <c r="D38" s="176"/>
+      <c r="C38" s="174"/>
+      <c r="D38" s="174"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="176"/>
-      <c r="C39" s="176"/>
-      <c r="D39" s="176"/>
+      <c r="B39" s="174"/>
+      <c r="C39" s="174"/>
+      <c r="D39" s="174"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="176" t="s">
+      <c r="B40" s="174" t="s">
         <v>106</v>
       </c>
-      <c r="C40" s="176"/>
-      <c r="D40" s="176"/>
+      <c r="C40" s="174"/>
+      <c r="D40" s="174"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="176"/>
-      <c r="C41" s="176"/>
-      <c r="D41" s="176"/>
+      <c r="B41" s="174"/>
+      <c r="C41" s="174"/>
+      <c r="D41" s="174"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="176" t="s">
+      <c r="B42" s="174" t="s">
         <v>107</v>
       </c>
-      <c r="C42" s="176"/>
-      <c r="D42" s="176"/>
+      <c r="C42" s="174"/>
+      <c r="D42" s="174"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="176"/>
-      <c r="C43" s="176"/>
-      <c r="D43" s="176"/>
+      <c r="B43" s="174"/>
+      <c r="C43" s="174"/>
+      <c r="D43" s="174"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="176"/>
-      <c r="C44" s="176"/>
-      <c r="D44" s="176"/>
+      <c r="B44" s="174"/>
+      <c r="C44" s="174"/>
+      <c r="D44" s="174"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="176"/>
-      <c r="C45" s="176"/>
-      <c r="D45" s="176"/>
+      <c r="B45" s="174"/>
+      <c r="C45" s="174"/>
+      <c r="D45" s="174"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="176"/>
-      <c r="C46" s="176"/>
-      <c r="D46" s="176"/>
+      <c r="B46" s="174"/>
+      <c r="C46" s="174"/>
+      <c r="D46" s="174"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="176"/>
-      <c r="C47" s="176"/>
-      <c r="D47" s="176"/>
+      <c r="B47" s="174"/>
+      <c r="C47" s="174"/>
+      <c r="D47" s="174"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="176"/>
-      <c r="C48" s="176"/>
-      <c r="D48" s="176"/>
+      <c r="B48" s="174"/>
+      <c r="C48" s="174"/>
+      <c r="D48" s="174"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="176"/>
-      <c r="C49" s="176"/>
-      <c r="D49" s="176"/>
+      <c r="B49" s="174"/>
+      <c r="C49" s="174"/>
+      <c r="D49" s="174"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="176"/>
-      <c r="C50" s="176"/>
-      <c r="D50" s="176"/>
+      <c r="B50" s="174"/>
+      <c r="C50" s="174"/>
+      <c r="D50" s="174"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="176"/>
-      <c r="C51" s="176"/>
-      <c r="D51" s="176"/>
+      <c r="B51" s="174"/>
+      <c r="C51" s="174"/>
+      <c r="D51" s="174"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="176"/>
-      <c r="C52" s="176"/>
-      <c r="D52" s="176"/>
+      <c r="B52" s="174"/>
+      <c r="C52" s="174"/>
+      <c r="D52" s="174"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="176"/>
-      <c r="C53" s="176"/>
-      <c r="D53" s="176"/>
+      <c r="B53" s="174"/>
+      <c r="C53" s="174"/>
+      <c r="D53" s="174"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="176"/>
-      <c r="C54" s="176"/>
-      <c r="D54" s="176"/>
+      <c r="B54" s="174"/>
+      <c r="C54" s="174"/>
+      <c r="D54" s="174"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="176"/>
-      <c r="C55" s="176"/>
-      <c r="D55" s="176"/>
+      <c r="B55" s="174"/>
+      <c r="C55" s="174"/>
+      <c r="D55" s="174"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="176"/>
-      <c r="C56" s="176"/>
-      <c r="D56" s="176"/>
+      <c r="B56" s="174"/>
+      <c r="C56" s="174"/>
+      <c r="D56" s="174"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="176"/>
-      <c r="C57" s="176"/>
-      <c r="D57" s="176"/>
+      <c r="B57" s="174"/>
+      <c r="C57" s="174"/>
+      <c r="D57" s="174"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="176"/>
-      <c r="C58" s="176"/>
-      <c r="D58" s="176"/>
+      <c r="B58" s="174"/>
+      <c r="C58" s="174"/>
+      <c r="D58" s="174"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="176"/>
-      <c r="C59" s="176"/>
-      <c r="D59" s="176"/>
+      <c r="B59" s="174"/>
+      <c r="C59" s="174"/>
+      <c r="D59" s="174"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="176"/>
-      <c r="C60" s="176"/>
-      <c r="D60" s="176"/>
+      <c r="B60" s="174"/>
+      <c r="C60" s="174"/>
+      <c r="D60" s="174"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="176"/>
-      <c r="C61" s="176"/>
-      <c r="D61" s="176"/>
+      <c r="B61" s="174"/>
+      <c r="C61" s="174"/>
+      <c r="D61" s="174"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="176"/>
-      <c r="C62" s="176"/>
-      <c r="D62" s="176"/>
+      <c r="B62" s="174"/>
+      <c r="C62" s="174"/>
+      <c r="D62" s="174"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="176"/>
-      <c r="C63" s="176"/>
-      <c r="D63" s="176"/>
+      <c r="B63" s="174"/>
+      <c r="C63" s="174"/>
+      <c r="D63" s="174"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
@@ -13190,17 +14194,17 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="176"/>
-      <c r="C66" s="176"/>
-      <c r="D66" s="176"/>
+      <c r="B66" s="174"/>
+      <c r="C66" s="174"/>
+      <c r="D66" s="174"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="176"/>
-      <c r="C67" s="176"/>
-      <c r="D67" s="176"/>
+      <c r="B67" s="174"/>
+      <c r="C67" s="174"/>
+      <c r="D67" s="174"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
@@ -13307,19 +14311,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="180"/>
-      <c r="C76" s="180"/>
-      <c r="D76" s="180"/>
+      <c r="B76" s="176"/>
+      <c r="C76" s="176"/>
+      <c r="D76" s="176"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="177" t="s">
+      <c r="B77" s="181" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="177"/>
-      <c r="D77" s="177"/>
+      <c r="C77" s="181"/>
+      <c r="D77" s="181"/>
       <c r="E77" s="36">
         <v>0</v>
       </c>
@@ -13327,9 +14331,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="180"/>
-      <c r="C78" s="180"/>
-      <c r="D78" s="180"/>
+      <c r="B78" s="176"/>
+      <c r="C78" s="176"/>
+      <c r="D78" s="176"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
@@ -13364,31 +14368,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="174"/>
-      <c r="C82" s="174"/>
-      <c r="D82" s="174"/>
-      <c r="E82" s="174"/>
+      <c r="B82" s="179"/>
+      <c r="C82" s="179"/>
+      <c r="D82" s="179"/>
+      <c r="E82" s="179"/>
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="182" t="s">
+      <c r="A83" s="173" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="182"/>
-      <c r="C83" s="182"/>
-      <c r="D83" s="182"/>
-      <c r="E83" s="182"/>
-      <c r="F83" s="182"/>
+      <c r="B83" s="173"/>
+      <c r="C83" s="173"/>
+      <c r="D83" s="173"/>
+      <c r="E83" s="173"/>
+      <c r="F83" s="173"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="178" t="s">
+      <c r="A84" s="182" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="178"/>
-      <c r="C84" s="178"/>
-      <c r="D84" s="178"/>
-      <c r="E84" s="178"/>
-      <c r="F84" s="178"/>
+      <c r="B84" s="182"/>
+      <c r="C84" s="182"/>
+      <c r="D84" s="182"/>
+      <c r="E84" s="182"/>
+      <c r="F84" s="182"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
@@ -13400,26 +14404,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="175"/>
-      <c r="C86" s="175"/>
-      <c r="D86" s="175"/>
-      <c r="E86" s="175"/>
+      <c r="B86" s="180"/>
+      <c r="C86" s="180"/>
+      <c r="D86" s="180"/>
+      <c r="E86" s="180"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="181" t="s">
+      <c r="A87" s="172" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="181"/>
-      <c r="C87" s="181"/>
-      <c r="D87" s="181"/>
-      <c r="E87" s="181"/>
-      <c r="F87" s="181"/>
+      <c r="B87" s="172"/>
+      <c r="C87" s="172"/>
+      <c r="D87" s="172"/>
+      <c r="E87" s="172"/>
+      <c r="F87" s="172"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="172"/>
-      <c r="C89" s="173"/>
-      <c r="D89" s="173"/>
+      <c r="B89" s="177"/>
+      <c r="C89" s="178"/>
+      <c r="D89" s="178"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -13429,6 +14433,37 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="B33:D33"/>
@@ -13441,37 +14476,6 @@
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B86:E86"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76:B78 B12:B20 B33:B67" xr:uid="{4F3C79A0-2001-4510-8784-730DC1E8C638}">
@@ -13629,14 +14633,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="179" t="s">
+      <c r="A30" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="179"/>
-      <c r="C30" s="179"/>
-      <c r="D30" s="179"/>
-      <c r="E30" s="179"/>
-      <c r="F30" s="179"/>
+      <c r="B30" s="175"/>
+      <c r="C30" s="175"/>
+      <c r="D30" s="175"/>
+      <c r="E30" s="175"/>
+      <c r="F30" s="175"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -13657,269 +14661,269 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="176"/>
-      <c r="C33" s="176"/>
-      <c r="D33" s="176"/>
+      <c r="B33" s="174"/>
+      <c r="C33" s="174"/>
+      <c r="D33" s="174"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="176" t="s">
+      <c r="B34" s="174" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="176"/>
-      <c r="D34" s="176"/>
+      <c r="C34" s="174"/>
+      <c r="D34" s="174"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="176"/>
-      <c r="C35" s="176"/>
-      <c r="D35" s="176"/>
+      <c r="B35" s="174"/>
+      <c r="C35" s="174"/>
+      <c r="D35" s="174"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="176" t="s">
+      <c r="B36" s="174" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="176"/>
-      <c r="D36" s="176"/>
+      <c r="C36" s="174"/>
+      <c r="D36" s="174"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="176"/>
-      <c r="C37" s="176"/>
-      <c r="D37" s="176"/>
+      <c r="B37" s="174"/>
+      <c r="C37" s="174"/>
+      <c r="D37" s="174"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="176" t="s">
+      <c r="B38" s="174" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="176"/>
-      <c r="D38" s="176"/>
+      <c r="C38" s="174"/>
+      <c r="D38" s="174"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="176"/>
-      <c r="C39" s="176"/>
-      <c r="D39" s="176"/>
+      <c r="B39" s="174"/>
+      <c r="C39" s="174"/>
+      <c r="D39" s="174"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="176" t="s">
+      <c r="B40" s="174" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="176"/>
-      <c r="D40" s="176"/>
+      <c r="C40" s="174"/>
+      <c r="D40" s="174"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="176"/>
-      <c r="C41" s="176"/>
-      <c r="D41" s="176"/>
+      <c r="B41" s="174"/>
+      <c r="C41" s="174"/>
+      <c r="D41" s="174"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="176" t="s">
+      <c r="B42" s="174" t="s">
         <v>114</v>
       </c>
-      <c r="C42" s="176"/>
-      <c r="D42" s="176"/>
+      <c r="C42" s="174"/>
+      <c r="D42" s="174"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="176"/>
-      <c r="C43" s="176"/>
-      <c r="D43" s="176"/>
+      <c r="B43" s="174"/>
+      <c r="C43" s="174"/>
+      <c r="D43" s="174"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="176" t="s">
+      <c r="B44" s="174" t="s">
         <v>113</v>
       </c>
-      <c r="C44" s="176"/>
-      <c r="D44" s="176"/>
+      <c r="C44" s="174"/>
+      <c r="D44" s="174"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="176"/>
-      <c r="C45" s="176"/>
-      <c r="D45" s="176"/>
+      <c r="B45" s="174"/>
+      <c r="C45" s="174"/>
+      <c r="D45" s="174"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="176"/>
-      <c r="C46" s="176"/>
-      <c r="D46" s="176"/>
+      <c r="B46" s="174"/>
+      <c r="C46" s="174"/>
+      <c r="D46" s="174"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="176"/>
-      <c r="C47" s="176"/>
-      <c r="D47" s="176"/>
+      <c r="B47" s="174"/>
+      <c r="C47" s="174"/>
+      <c r="D47" s="174"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="176"/>
-      <c r="C48" s="176"/>
-      <c r="D48" s="176"/>
+      <c r="B48" s="174"/>
+      <c r="C48" s="174"/>
+      <c r="D48" s="174"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="176"/>
-      <c r="C49" s="176"/>
-      <c r="D49" s="176"/>
+      <c r="B49" s="174"/>
+      <c r="C49" s="174"/>
+      <c r="D49" s="174"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="176"/>
-      <c r="C50" s="176"/>
-      <c r="D50" s="176"/>
+      <c r="B50" s="174"/>
+      <c r="C50" s="174"/>
+      <c r="D50" s="174"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="176"/>
-      <c r="C51" s="176"/>
-      <c r="D51" s="176"/>
+      <c r="B51" s="174"/>
+      <c r="C51" s="174"/>
+      <c r="D51" s="174"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="176"/>
-      <c r="C52" s="176"/>
-      <c r="D52" s="176"/>
+      <c r="B52" s="174"/>
+      <c r="C52" s="174"/>
+      <c r="D52" s="174"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="176"/>
-      <c r="C53" s="176"/>
-      <c r="D53" s="176"/>
+      <c r="B53" s="174"/>
+      <c r="C53" s="174"/>
+      <c r="D53" s="174"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="176"/>
-      <c r="C54" s="176"/>
-      <c r="D54" s="176"/>
+      <c r="B54" s="174"/>
+      <c r="C54" s="174"/>
+      <c r="D54" s="174"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="176"/>
-      <c r="C55" s="176"/>
-      <c r="D55" s="176"/>
+      <c r="B55" s="174"/>
+      <c r="C55" s="174"/>
+      <c r="D55" s="174"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="176"/>
-      <c r="C56" s="176"/>
-      <c r="D56" s="176"/>
+      <c r="B56" s="174"/>
+      <c r="C56" s="174"/>
+      <c r="D56" s="174"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="176"/>
-      <c r="C57" s="176"/>
-      <c r="D57" s="176"/>
+      <c r="B57" s="174"/>
+      <c r="C57" s="174"/>
+      <c r="D57" s="174"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="176"/>
-      <c r="C58" s="176"/>
-      <c r="D58" s="176"/>
+      <c r="B58" s="174"/>
+      <c r="C58" s="174"/>
+      <c r="D58" s="174"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="176"/>
-      <c r="C59" s="176"/>
-      <c r="D59" s="176"/>
+      <c r="B59" s="174"/>
+      <c r="C59" s="174"/>
+      <c r="D59" s="174"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="176"/>
-      <c r="C60" s="176"/>
-      <c r="D60" s="176"/>
+      <c r="B60" s="174"/>
+      <c r="C60" s="174"/>
+      <c r="D60" s="174"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="176"/>
-      <c r="C61" s="176"/>
-      <c r="D61" s="176"/>
+      <c r="B61" s="174"/>
+      <c r="C61" s="174"/>
+      <c r="D61" s="174"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="176"/>
-      <c r="C62" s="176"/>
-      <c r="D62" s="176"/>
+      <c r="B62" s="174"/>
+      <c r="C62" s="174"/>
+      <c r="D62" s="174"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="176"/>
-      <c r="C63" s="176"/>
-      <c r="D63" s="176"/>
+      <c r="B63" s="174"/>
+      <c r="C63" s="174"/>
+      <c r="D63" s="174"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="176"/>
-      <c r="C64" s="176"/>
-      <c r="D64" s="176"/>
+      <c r="B64" s="174"/>
+      <c r="C64" s="174"/>
+      <c r="D64" s="174"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -13949,17 +14953,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="176"/>
-      <c r="C67" s="176"/>
-      <c r="D67" s="176"/>
+      <c r="B67" s="174"/>
+      <c r="C67" s="174"/>
+      <c r="D67" s="174"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="176"/>
-      <c r="C68" s="176"/>
-      <c r="D68" s="176"/>
+      <c r="B68" s="174"/>
+      <c r="C68" s="174"/>
+      <c r="D68" s="174"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -14066,19 +15070,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="180"/>
-      <c r="C77" s="180"/>
-      <c r="D77" s="180"/>
+      <c r="B77" s="176"/>
+      <c r="C77" s="176"/>
+      <c r="D77" s="176"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="177" t="s">
+      <c r="B78" s="181" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="177"/>
-      <c r="D78" s="177"/>
+      <c r="C78" s="181"/>
+      <c r="D78" s="181"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -14086,9 +15090,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="180"/>
-      <c r="C79" s="180"/>
-      <c r="D79" s="180"/>
+      <c r="B79" s="176"/>
+      <c r="C79" s="176"/>
+      <c r="D79" s="176"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -14123,31 +15127,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="174"/>
-      <c r="C83" s="174"/>
-      <c r="D83" s="174"/>
-      <c r="E83" s="174"/>
+      <c r="B83" s="179"/>
+      <c r="C83" s="179"/>
+      <c r="D83" s="179"/>
+      <c r="E83" s="179"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="182" t="s">
+      <c r="A84" s="173" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="182"/>
-      <c r="C84" s="182"/>
-      <c r="D84" s="182"/>
-      <c r="E84" s="182"/>
-      <c r="F84" s="182"/>
+      <c r="B84" s="173"/>
+      <c r="C84" s="173"/>
+      <c r="D84" s="173"/>
+      <c r="E84" s="173"/>
+      <c r="F84" s="173"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="178" t="s">
+      <c r="A85" s="182" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="178"/>
-      <c r="C85" s="178"/>
-      <c r="D85" s="178"/>
-      <c r="E85" s="178"/>
-      <c r="F85" s="178"/>
+      <c r="B85" s="182"/>
+      <c r="C85" s="182"/>
+      <c r="D85" s="182"/>
+      <c r="E85" s="182"/>
+      <c r="F85" s="182"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -14159,26 +15163,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="175"/>
-      <c r="C87" s="175"/>
-      <c r="D87" s="175"/>
-      <c r="E87" s="175"/>
+      <c r="B87" s="180"/>
+      <c r="C87" s="180"/>
+      <c r="D87" s="180"/>
+      <c r="E87" s="180"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="181" t="s">
+      <c r="A88" s="172" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="181"/>
-      <c r="C88" s="181"/>
-      <c r="D88" s="181"/>
-      <c r="E88" s="181"/>
-      <c r="F88" s="181"/>
+      <c r="B88" s="172"/>
+      <c r="C88" s="172"/>
+      <c r="D88" s="172"/>
+      <c r="E88" s="172"/>
+      <c r="F88" s="172"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="172"/>
-      <c r="C90" s="173"/>
-      <c r="D90" s="173"/>
+      <c r="B90" s="177"/>
+      <c r="C90" s="178"/>
+      <c r="D90" s="178"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -14188,6 +15192,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B79:D79"/>
@@ -14204,34 +15236,6 @@
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{38BACF9C-0519-4039-8665-66BC4E1B76DA}">
@@ -14389,14 +15393,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="179" t="s">
+      <c r="A30" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="179"/>
-      <c r="C30" s="179"/>
-      <c r="D30" s="179"/>
-      <c r="E30" s="179"/>
-      <c r="F30" s="179"/>
+      <c r="B30" s="175"/>
+      <c r="C30" s="175"/>
+      <c r="D30" s="175"/>
+      <c r="E30" s="175"/>
+      <c r="F30" s="175"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -14417,267 +15421,267 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="176"/>
-      <c r="C33" s="176"/>
-      <c r="D33" s="176"/>
+      <c r="B33" s="174"/>
+      <c r="C33" s="174"/>
+      <c r="D33" s="174"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="176"/>
-      <c r="C34" s="176"/>
-      <c r="D34" s="176"/>
+      <c r="B34" s="174"/>
+      <c r="C34" s="174"/>
+      <c r="D34" s="174"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="176" t="s">
+      <c r="B35" s="174" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="176"/>
-      <c r="D35" s="176"/>
+      <c r="C35" s="174"/>
+      <c r="D35" s="174"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="176"/>
-      <c r="C36" s="176"/>
-      <c r="D36" s="176"/>
+      <c r="B36" s="174"/>
+      <c r="C36" s="174"/>
+      <c r="D36" s="174"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="176" t="s">
+      <c r="B37" s="174" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="176"/>
-      <c r="D37" s="176"/>
+      <c r="C37" s="174"/>
+      <c r="D37" s="174"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="176"/>
-      <c r="C38" s="176"/>
-      <c r="D38" s="176"/>
+      <c r="B38" s="174"/>
+      <c r="C38" s="174"/>
+      <c r="D38" s="174"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="176" t="s">
+      <c r="B39" s="174" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="176"/>
-      <c r="D39" s="176"/>
+      <c r="C39" s="174"/>
+      <c r="D39" s="174"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="176"/>
-      <c r="C40" s="176"/>
-      <c r="D40" s="176"/>
+      <c r="B40" s="174"/>
+      <c r="C40" s="174"/>
+      <c r="D40" s="174"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="176" t="s">
+      <c r="B41" s="174" t="s">
         <v>93</v>
       </c>
-      <c r="C41" s="176"/>
-      <c r="D41" s="176"/>
+      <c r="C41" s="174"/>
+      <c r="D41" s="174"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="176"/>
-      <c r="C42" s="176"/>
-      <c r="D42" s="176"/>
+      <c r="B42" s="174"/>
+      <c r="C42" s="174"/>
+      <c r="D42" s="174"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="176" t="s">
+      <c r="B43" s="174" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="176"/>
-      <c r="D43" s="176"/>
+      <c r="C43" s="174"/>
+      <c r="D43" s="174"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="176"/>
-      <c r="C44" s="176"/>
-      <c r="D44" s="176"/>
+      <c r="B44" s="174"/>
+      <c r="C44" s="174"/>
+      <c r="D44" s="174"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="176" t="s">
+      <c r="B45" s="174" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="176"/>
-      <c r="D45" s="176"/>
+      <c r="C45" s="174"/>
+      <c r="D45" s="174"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="176"/>
-      <c r="C46" s="176"/>
-      <c r="D46" s="176"/>
+      <c r="B46" s="174"/>
+      <c r="C46" s="174"/>
+      <c r="D46" s="174"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="176" t="s">
+      <c r="B47" s="174" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="176"/>
-      <c r="D47" s="176"/>
+      <c r="C47" s="174"/>
+      <c r="D47" s="174"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="176"/>
-      <c r="C48" s="176"/>
-      <c r="D48" s="176"/>
+      <c r="B48" s="174"/>
+      <c r="C48" s="174"/>
+      <c r="D48" s="174"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="176" t="s">
+      <c r="B49" s="174" t="s">
         <v>118</v>
       </c>
-      <c r="C49" s="176"/>
-      <c r="D49" s="176"/>
+      <c r="C49" s="174"/>
+      <c r="D49" s="174"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="176"/>
-      <c r="C50" s="176"/>
-      <c r="D50" s="176"/>
+      <c r="B50" s="174"/>
+      <c r="C50" s="174"/>
+      <c r="D50" s="174"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="176" t="s">
+      <c r="B51" s="174" t="s">
         <v>119</v>
       </c>
-      <c r="C51" s="176"/>
-      <c r="D51" s="176"/>
+      <c r="C51" s="174"/>
+      <c r="D51" s="174"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="176"/>
-      <c r="C52" s="176"/>
-      <c r="D52" s="176"/>
+      <c r="B52" s="174"/>
+      <c r="C52" s="174"/>
+      <c r="D52" s="174"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="176"/>
-      <c r="C53" s="176"/>
-      <c r="D53" s="176"/>
+      <c r="B53" s="174"/>
+      <c r="C53" s="174"/>
+      <c r="D53" s="174"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="176"/>
-      <c r="C54" s="176"/>
-      <c r="D54" s="176"/>
+      <c r="B54" s="174"/>
+      <c r="C54" s="174"/>
+      <c r="D54" s="174"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="176"/>
-      <c r="C55" s="176"/>
-      <c r="D55" s="176"/>
+      <c r="B55" s="174"/>
+      <c r="C55" s="174"/>
+      <c r="D55" s="174"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="176"/>
-      <c r="C56" s="176"/>
-      <c r="D56" s="176"/>
+      <c r="B56" s="174"/>
+      <c r="C56" s="174"/>
+      <c r="D56" s="174"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="176"/>
-      <c r="C57" s="176"/>
-      <c r="D57" s="176"/>
+      <c r="B57" s="174"/>
+      <c r="C57" s="174"/>
+      <c r="D57" s="174"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="176"/>
-      <c r="C58" s="176"/>
-      <c r="D58" s="176"/>
+      <c r="B58" s="174"/>
+      <c r="C58" s="174"/>
+      <c r="D58" s="174"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="176"/>
-      <c r="C59" s="176"/>
-      <c r="D59" s="176"/>
+      <c r="B59" s="174"/>
+      <c r="C59" s="174"/>
+      <c r="D59" s="174"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="176"/>
-      <c r="C60" s="176"/>
-      <c r="D60" s="176"/>
+      <c r="B60" s="174"/>
+      <c r="C60" s="174"/>
+      <c r="D60" s="174"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="176"/>
-      <c r="C61" s="176"/>
-      <c r="D61" s="176"/>
+      <c r="B61" s="174"/>
+      <c r="C61" s="174"/>
+      <c r="D61" s="174"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="176"/>
-      <c r="C62" s="176"/>
-      <c r="D62" s="176"/>
+      <c r="B62" s="174"/>
+      <c r="C62" s="174"/>
+      <c r="D62" s="174"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="176"/>
-      <c r="C63" s="176"/>
-      <c r="D63" s="176"/>
+      <c r="B63" s="174"/>
+      <c r="C63" s="174"/>
+      <c r="D63" s="174"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
@@ -14707,17 +15711,17 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="176"/>
-      <c r="C66" s="176"/>
-      <c r="D66" s="176"/>
+      <c r="B66" s="174"/>
+      <c r="C66" s="174"/>
+      <c r="D66" s="174"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="176"/>
-      <c r="C67" s="176"/>
-      <c r="D67" s="176"/>
+      <c r="B67" s="174"/>
+      <c r="C67" s="174"/>
+      <c r="D67" s="174"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
@@ -14824,19 +15828,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="180"/>
-      <c r="C76" s="180"/>
-      <c r="D76" s="180"/>
+      <c r="B76" s="176"/>
+      <c r="C76" s="176"/>
+      <c r="D76" s="176"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="177" t="s">
+      <c r="B77" s="181" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="177"/>
-      <c r="D77" s="177"/>
+      <c r="C77" s="181"/>
+      <c r="D77" s="181"/>
       <c r="E77" s="36">
         <v>0</v>
       </c>
@@ -14844,9 +15848,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="180"/>
-      <c r="C78" s="180"/>
-      <c r="D78" s="180"/>
+      <c r="B78" s="176"/>
+      <c r="C78" s="176"/>
+      <c r="D78" s="176"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
@@ -14881,31 +15885,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="174"/>
-      <c r="C82" s="174"/>
-      <c r="D82" s="174"/>
-      <c r="E82" s="174"/>
+      <c r="B82" s="179"/>
+      <c r="C82" s="179"/>
+      <c r="D82" s="179"/>
+      <c r="E82" s="179"/>
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="182" t="s">
+      <c r="A83" s="173" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="182"/>
-      <c r="C83" s="182"/>
-      <c r="D83" s="182"/>
-      <c r="E83" s="182"/>
-      <c r="F83" s="182"/>
+      <c r="B83" s="173"/>
+      <c r="C83" s="173"/>
+      <c r="D83" s="173"/>
+      <c r="E83" s="173"/>
+      <c r="F83" s="173"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="178" t="s">
+      <c r="A84" s="182" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="178"/>
-      <c r="C84" s="178"/>
-      <c r="D84" s="178"/>
-      <c r="E84" s="178"/>
-      <c r="F84" s="178"/>
+      <c r="B84" s="182"/>
+      <c r="C84" s="182"/>
+      <c r="D84" s="182"/>
+      <c r="E84" s="182"/>
+      <c r="F84" s="182"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
@@ -14917,26 +15921,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="175"/>
-      <c r="C86" s="175"/>
-      <c r="D86" s="175"/>
-      <c r="E86" s="175"/>
+      <c r="B86" s="180"/>
+      <c r="C86" s="180"/>
+      <c r="D86" s="180"/>
+      <c r="E86" s="180"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="181" t="s">
+      <c r="A87" s="172" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="181"/>
-      <c r="C87" s="181"/>
-      <c r="D87" s="181"/>
-      <c r="E87" s="181"/>
-      <c r="F87" s="181"/>
+      <c r="B87" s="172"/>
+      <c r="C87" s="172"/>
+      <c r="D87" s="172"/>
+      <c r="E87" s="172"/>
+      <c r="F87" s="172"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="172"/>
-      <c r="C89" s="173"/>
-      <c r="D89" s="173"/>
+      <c r="B89" s="177"/>
+      <c r="C89" s="178"/>
+      <c r="D89" s="178"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -14946,6 +15950,37 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="B33:D33"/>
@@ -14958,37 +15993,6 @@
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="A87:F87"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76:B78 B12:B20 B33:B67" xr:uid="{C7E65DEC-BCCC-4AE1-BB5C-3D439F535B6F}">

--- a/Factures_Excel/1388 - 9307-2411 Québec Inc..xlsx
+++ b/Factures_Excel/1388 - 9307-2411 Québec Inc..xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\Factures_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17490F2E-D0E9-4E4E-AF49-BB4E58B536B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0385D0F-756B-458B-A79F-3A3D595C42C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" firstSheet="3" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" firstSheet="3" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="26-04-18" sheetId="4" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="2024-11-02 - 24-24588" sheetId="18" r:id="rId15"/>
     <sheet name="2024-12-21 - 24-24689" sheetId="19" r:id="rId16"/>
     <sheet name="2025-03-01 - 25-24750" sheetId="20" r:id="rId17"/>
+    <sheet name="2025-03-30 - 25-24839" sheetId="21" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="dnrServices">OFFSET(#REF!,,,COUNTA(#REF!)-1,1)</definedName>
@@ -55,6 +56,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="14">'2024-11-02 - 24-24588'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="15">'2024-12-21 - 24-24689'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="16">'2025-03-01 - 25-24750'!$A$1:$F$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="17">'2025-03-30 - 25-24839'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'21-03-23'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'24-03-24'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'26-04-18'!$A$1:$F$89</definedName>
@@ -80,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="195">
   <si>
     <t>NOTE D'HONORAIRES</t>
   </si>
@@ -628,6 +630,45 @@
   </si>
   <si>
     <t xml:space="preserve"> - Préparation d'organigrammes corporatifs requis;</t>
+  </si>
+  <si>
+    <t>Le 30 MARS 2025</t>
+  </si>
+  <si>
+    <t>25-24839</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Préparation d'organigramme corporatif;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Analyse des différentes analyses soumises par les conseillers des acheteurs et travail sur le fonds de roulement cible et divers ajustements ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Analyse et répondre aux diverses questions des conseillers de Raphael ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Travail avec votre comptable à la comptabilité et à la préparation/révision des états financiers des diverses entités ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Préparation des déclarations de revenus des diverses entités ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Révision des diverses versions de lettres d'intention et commentaires ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Travail divers en lien avec la vente des entreprises ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Diverses communications avec des acheteurs potentiels ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Divers échanges relativement à remplacement d'administrateurs;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Préparer et fournir tous les documents et répondre à toutes les questions des acheteurs potentiels ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Analyse de divers documents soumis et commentaires ;</t>
   </si>
 </sst>
 </file>
@@ -989,7 +1030,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1011,6 +1052,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1228,7 +1275,7 @@
     <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1643,20 +1690,20 @@
     <xf numFmtId="170" fontId="48" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="4" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="170" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1670,10 +1717,25 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1733,20 +1795,8 @@
     <xf numFmtId="0" fontId="48" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="4" fontId="24" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2248,6 +2298,72 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86B0F4D3-A40C-2CF6-E6E7-ADCC13271F5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="11678161" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17409" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{228114AE-920D-F46E-B816-5089830E3780}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3161,14 +3277,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="175" t="s">
+      <c r="A30" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="175"/>
-      <c r="C30" s="175"/>
-      <c r="D30" s="175"/>
-      <c r="E30" s="175"/>
-      <c r="F30" s="175"/>
+      <c r="B30" s="184"/>
+      <c r="C30" s="184"/>
+      <c r="D30" s="184"/>
+      <c r="E30" s="184"/>
+      <c r="F30" s="184"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -3189,261 +3305,261 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="174"/>
-      <c r="C33" s="174"/>
-      <c r="D33" s="174"/>
+      <c r="B33" s="181"/>
+      <c r="C33" s="181"/>
+      <c r="D33" s="181"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="174"/>
-      <c r="C34" s="174"/>
-      <c r="D34" s="174"/>
+      <c r="B34" s="181"/>
+      <c r="C34" s="181"/>
+      <c r="D34" s="181"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="174" t="s">
+      <c r="B35" s="181" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="174"/>
-      <c r="D35" s="174"/>
+      <c r="C35" s="181"/>
+      <c r="D35" s="181"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="174"/>
-      <c r="C36" s="174"/>
-      <c r="D36" s="174"/>
+      <c r="B36" s="181"/>
+      <c r="C36" s="181"/>
+      <c r="D36" s="181"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="174"/>
-      <c r="C37" s="174"/>
-      <c r="D37" s="174"/>
+      <c r="B37" s="181"/>
+      <c r="C37" s="181"/>
+      <c r="D37" s="181"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="174" t="s">
+      <c r="B38" s="181" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="174"/>
-      <c r="D38" s="174"/>
+      <c r="C38" s="181"/>
+      <c r="D38" s="181"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="174"/>
-      <c r="C39" s="174"/>
-      <c r="D39" s="174"/>
+      <c r="B39" s="181"/>
+      <c r="C39" s="181"/>
+      <c r="D39" s="181"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="174"/>
-      <c r="C40" s="174"/>
-      <c r="D40" s="174"/>
+      <c r="B40" s="181"/>
+      <c r="C40" s="181"/>
+      <c r="D40" s="181"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="174"/>
-      <c r="C41" s="174"/>
-      <c r="D41" s="174"/>
+      <c r="B41" s="181"/>
+      <c r="C41" s="181"/>
+      <c r="D41" s="181"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="174"/>
-      <c r="C42" s="174"/>
-      <c r="D42" s="174"/>
+      <c r="B42" s="181"/>
+      <c r="C42" s="181"/>
+      <c r="D42" s="181"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="174"/>
-      <c r="C43" s="174"/>
-      <c r="D43" s="174"/>
+      <c r="B43" s="181"/>
+      <c r="C43" s="181"/>
+      <c r="D43" s="181"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="174"/>
-      <c r="C44" s="174"/>
-      <c r="D44" s="174"/>
+      <c r="B44" s="181"/>
+      <c r="C44" s="181"/>
+      <c r="D44" s="181"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="174"/>
-      <c r="C45" s="174"/>
-      <c r="D45" s="174"/>
+      <c r="B45" s="181"/>
+      <c r="C45" s="181"/>
+      <c r="D45" s="181"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="174"/>
-      <c r="C46" s="174"/>
-      <c r="D46" s="174"/>
+      <c r="B46" s="181"/>
+      <c r="C46" s="181"/>
+      <c r="D46" s="181"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="174"/>
-      <c r="C47" s="174"/>
-      <c r="D47" s="174"/>
+      <c r="B47" s="181"/>
+      <c r="C47" s="181"/>
+      <c r="D47" s="181"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="174"/>
-      <c r="C48" s="174"/>
-      <c r="D48" s="174"/>
+      <c r="B48" s="181"/>
+      <c r="C48" s="181"/>
+      <c r="D48" s="181"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="174"/>
-      <c r="C49" s="174"/>
-      <c r="D49" s="174"/>
+      <c r="B49" s="181"/>
+      <c r="C49" s="181"/>
+      <c r="D49" s="181"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="174"/>
-      <c r="C50" s="174"/>
-      <c r="D50" s="174"/>
+      <c r="B50" s="181"/>
+      <c r="C50" s="181"/>
+      <c r="D50" s="181"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="174"/>
-      <c r="C51" s="174"/>
-      <c r="D51" s="174"/>
+      <c r="B51" s="181"/>
+      <c r="C51" s="181"/>
+      <c r="D51" s="181"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="174"/>
-      <c r="C52" s="174"/>
-      <c r="D52" s="174"/>
+      <c r="B52" s="181"/>
+      <c r="C52" s="181"/>
+      <c r="D52" s="181"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="174"/>
-      <c r="C53" s="174"/>
-      <c r="D53" s="174"/>
+      <c r="B53" s="181"/>
+      <c r="C53" s="181"/>
+      <c r="D53" s="181"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="174"/>
-      <c r="C54" s="174"/>
-      <c r="D54" s="174"/>
+      <c r="B54" s="181"/>
+      <c r="C54" s="181"/>
+      <c r="D54" s="181"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="174"/>
-      <c r="C55" s="174"/>
-      <c r="D55" s="174"/>
+      <c r="B55" s="181"/>
+      <c r="C55" s="181"/>
+      <c r="D55" s="181"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="174"/>
-      <c r="C56" s="174"/>
-      <c r="D56" s="174"/>
+      <c r="B56" s="181"/>
+      <c r="C56" s="181"/>
+      <c r="D56" s="181"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="174"/>
-      <c r="C57" s="174"/>
-      <c r="D57" s="174"/>
+      <c r="B57" s="181"/>
+      <c r="C57" s="181"/>
+      <c r="D57" s="181"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="174"/>
-      <c r="C58" s="174"/>
-      <c r="D58" s="174"/>
+      <c r="B58" s="181"/>
+      <c r="C58" s="181"/>
+      <c r="D58" s="181"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="174"/>
-      <c r="C59" s="174"/>
-      <c r="D59" s="174"/>
+      <c r="B59" s="181"/>
+      <c r="C59" s="181"/>
+      <c r="D59" s="181"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="174"/>
-      <c r="C60" s="174"/>
-      <c r="D60" s="174"/>
+      <c r="B60" s="181"/>
+      <c r="C60" s="181"/>
+      <c r="D60" s="181"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="174"/>
-      <c r="C61" s="174"/>
-      <c r="D61" s="174"/>
+      <c r="B61" s="181"/>
+      <c r="C61" s="181"/>
+      <c r="D61" s="181"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="174"/>
-      <c r="C62" s="174"/>
-      <c r="D62" s="174"/>
+      <c r="B62" s="181"/>
+      <c r="C62" s="181"/>
+      <c r="D62" s="181"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="174"/>
-      <c r="C63" s="174"/>
-      <c r="D63" s="174"/>
+      <c r="B63" s="181"/>
+      <c r="C63" s="181"/>
+      <c r="D63" s="181"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="174"/>
-      <c r="C64" s="174"/>
-      <c r="D64" s="174"/>
+      <c r="B64" s="181"/>
+      <c r="C64" s="181"/>
+      <c r="D64" s="181"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -3473,17 +3589,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="174"/>
-      <c r="C67" s="174"/>
-      <c r="D67" s="174"/>
+      <c r="B67" s="181"/>
+      <c r="C67" s="181"/>
+      <c r="D67" s="181"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="174"/>
-      <c r="C68" s="174"/>
-      <c r="D68" s="174"/>
+      <c r="B68" s="181"/>
+      <c r="C68" s="181"/>
+      <c r="D68" s="181"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -3590,19 +3706,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="176"/>
-      <c r="C77" s="176"/>
-      <c r="D77" s="176"/>
+      <c r="B77" s="185"/>
+      <c r="C77" s="185"/>
+      <c r="D77" s="185"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="181" t="s">
+      <c r="B78" s="182" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="181"/>
-      <c r="D78" s="181"/>
+      <c r="C78" s="182"/>
+      <c r="D78" s="182"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -3610,9 +3726,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="176"/>
-      <c r="C79" s="176"/>
-      <c r="D79" s="176"/>
+      <c r="B79" s="185"/>
+      <c r="C79" s="185"/>
+      <c r="D79" s="185"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -3654,24 +3770,24 @@
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="173" t="s">
+      <c r="A84" s="187" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="173"/>
-      <c r="C84" s="173"/>
-      <c r="D84" s="173"/>
-      <c r="E84" s="173"/>
-      <c r="F84" s="173"/>
+      <c r="B84" s="187"/>
+      <c r="C84" s="187"/>
+      <c r="D84" s="187"/>
+      <c r="E84" s="187"/>
+      <c r="F84" s="187"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="182" t="s">
+      <c r="A85" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="182"/>
-      <c r="C85" s="182"/>
-      <c r="D85" s="182"/>
-      <c r="E85" s="182"/>
-      <c r="F85" s="182"/>
+      <c r="B85" s="183"/>
+      <c r="C85" s="183"/>
+      <c r="D85" s="183"/>
+      <c r="E85" s="183"/>
+      <c r="F85" s="183"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -3690,14 +3806,14 @@
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="172" t="s">
+      <c r="A88" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="172"/>
-      <c r="C88" s="172"/>
-      <c r="D88" s="172"/>
-      <c r="E88" s="172"/>
-      <c r="F88" s="172"/>
+      <c r="B88" s="186"/>
+      <c r="C88" s="186"/>
+      <c r="D88" s="186"/>
+      <c r="E88" s="186"/>
+      <c r="F88" s="186"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="177"/>
@@ -3712,6 +3828,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B55:D55"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="B83:E83"/>
     <mergeCell ref="B87:E87"/>
@@ -3728,34 +3872,6 @@
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="A85:F85"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B53:D53"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -3914,14 +4030,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="175" t="s">
+      <c r="A30" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="175"/>
-      <c r="C30" s="175"/>
-      <c r="D30" s="175"/>
-      <c r="E30" s="175"/>
-      <c r="F30" s="175"/>
+      <c r="B30" s="184"/>
+      <c r="C30" s="184"/>
+      <c r="D30" s="184"/>
+      <c r="E30" s="184"/>
+      <c r="F30" s="184"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -3942,259 +4058,259 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="174"/>
-      <c r="C33" s="174"/>
-      <c r="D33" s="174"/>
+      <c r="B33" s="181"/>
+      <c r="C33" s="181"/>
+      <c r="D33" s="181"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="174"/>
-      <c r="C34" s="174"/>
-      <c r="D34" s="174"/>
+      <c r="B34" s="181"/>
+      <c r="C34" s="181"/>
+      <c r="D34" s="181"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="174" t="s">
+      <c r="B35" s="181" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="174"/>
-      <c r="D35" s="174"/>
+      <c r="C35" s="181"/>
+      <c r="D35" s="181"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="174"/>
-      <c r="C36" s="174"/>
-      <c r="D36" s="174"/>
+      <c r="B36" s="181"/>
+      <c r="C36" s="181"/>
+      <c r="D36" s="181"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="174" t="s">
+      <c r="B37" s="181" t="s">
         <v>122</v>
       </c>
-      <c r="C37" s="174"/>
-      <c r="D37" s="174"/>
+      <c r="C37" s="181"/>
+      <c r="D37" s="181"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="174"/>
-      <c r="C38" s="174"/>
-      <c r="D38" s="174"/>
+      <c r="B38" s="181"/>
+      <c r="C38" s="181"/>
+      <c r="D38" s="181"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="174" t="s">
+      <c r="B39" s="181" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="174"/>
-      <c r="D39" s="174"/>
+      <c r="C39" s="181"/>
+      <c r="D39" s="181"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="174"/>
-      <c r="C40" s="174"/>
-      <c r="D40" s="174"/>
+      <c r="B40" s="181"/>
+      <c r="C40" s="181"/>
+      <c r="D40" s="181"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="174" t="s">
+      <c r="B41" s="181" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="174"/>
-      <c r="D41" s="174"/>
+      <c r="C41" s="181"/>
+      <c r="D41" s="181"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="174"/>
-      <c r="C42" s="174"/>
-      <c r="D42" s="174"/>
+      <c r="B42" s="181"/>
+      <c r="C42" s="181"/>
+      <c r="D42" s="181"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="174" t="s">
+      <c r="B43" s="181" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="174"/>
-      <c r="D43" s="174"/>
+      <c r="C43" s="181"/>
+      <c r="D43" s="181"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="174"/>
-      <c r="C44" s="174"/>
-      <c r="D44" s="174"/>
+      <c r="B44" s="181"/>
+      <c r="C44" s="181"/>
+      <c r="D44" s="181"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="174"/>
-      <c r="C45" s="174"/>
-      <c r="D45" s="174"/>
+      <c r="B45" s="181"/>
+      <c r="C45" s="181"/>
+      <c r="D45" s="181"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="174"/>
-      <c r="C46" s="174"/>
-      <c r="D46" s="174"/>
+      <c r="B46" s="181"/>
+      <c r="C46" s="181"/>
+      <c r="D46" s="181"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="174"/>
-      <c r="C47" s="174"/>
-      <c r="D47" s="174"/>
+      <c r="B47" s="181"/>
+      <c r="C47" s="181"/>
+      <c r="D47" s="181"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="174"/>
-      <c r="C48" s="174"/>
-      <c r="D48" s="174"/>
+      <c r="B48" s="181"/>
+      <c r="C48" s="181"/>
+      <c r="D48" s="181"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="174"/>
-      <c r="C49" s="174"/>
-      <c r="D49" s="174"/>
+      <c r="B49" s="181"/>
+      <c r="C49" s="181"/>
+      <c r="D49" s="181"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="174"/>
-      <c r="C50" s="174"/>
-      <c r="D50" s="174"/>
+      <c r="B50" s="181"/>
+      <c r="C50" s="181"/>
+      <c r="D50" s="181"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="174"/>
-      <c r="C51" s="174"/>
-      <c r="D51" s="174"/>
+      <c r="B51" s="181"/>
+      <c r="C51" s="181"/>
+      <c r="D51" s="181"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="174"/>
-      <c r="C52" s="174"/>
-      <c r="D52" s="174"/>
+      <c r="B52" s="181"/>
+      <c r="C52" s="181"/>
+      <c r="D52" s="181"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="174"/>
-      <c r="C53" s="174"/>
-      <c r="D53" s="174"/>
+      <c r="B53" s="181"/>
+      <c r="C53" s="181"/>
+      <c r="D53" s="181"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="174"/>
-      <c r="C54" s="174"/>
-      <c r="D54" s="174"/>
+      <c r="B54" s="181"/>
+      <c r="C54" s="181"/>
+      <c r="D54" s="181"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="174"/>
-      <c r="C55" s="174"/>
-      <c r="D55" s="174"/>
+      <c r="B55" s="181"/>
+      <c r="C55" s="181"/>
+      <c r="D55" s="181"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="174"/>
-      <c r="C56" s="174"/>
-      <c r="D56" s="174"/>
+      <c r="B56" s="181"/>
+      <c r="C56" s="181"/>
+      <c r="D56" s="181"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="174"/>
-      <c r="C57" s="174"/>
-      <c r="D57" s="174"/>
+      <c r="B57" s="181"/>
+      <c r="C57" s="181"/>
+      <c r="D57" s="181"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="174"/>
-      <c r="C58" s="174"/>
-      <c r="D58" s="174"/>
+      <c r="B58" s="181"/>
+      <c r="C58" s="181"/>
+      <c r="D58" s="181"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="174"/>
-      <c r="C59" s="174"/>
-      <c r="D59" s="174"/>
+      <c r="B59" s="181"/>
+      <c r="C59" s="181"/>
+      <c r="D59" s="181"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="174"/>
-      <c r="C60" s="174"/>
-      <c r="D60" s="174"/>
+      <c r="B60" s="181"/>
+      <c r="C60" s="181"/>
+      <c r="D60" s="181"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="174"/>
-      <c r="C61" s="174"/>
-      <c r="D61" s="174"/>
+      <c r="B61" s="181"/>
+      <c r="C61" s="181"/>
+      <c r="D61" s="181"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="174"/>
-      <c r="C62" s="174"/>
-      <c r="D62" s="174"/>
+      <c r="B62" s="181"/>
+      <c r="C62" s="181"/>
+      <c r="D62" s="181"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="174"/>
-      <c r="C63" s="174"/>
-      <c r="D63" s="174"/>
+      <c r="B63" s="181"/>
+      <c r="C63" s="181"/>
+      <c r="D63" s="181"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
@@ -4224,17 +4340,17 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="174"/>
-      <c r="C66" s="174"/>
-      <c r="D66" s="174"/>
+      <c r="B66" s="181"/>
+      <c r="C66" s="181"/>
+      <c r="D66" s="181"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="174"/>
-      <c r="C67" s="174"/>
-      <c r="D67" s="174"/>
+      <c r="B67" s="181"/>
+      <c r="C67" s="181"/>
+      <c r="D67" s="181"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
@@ -4341,19 +4457,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="176"/>
-      <c r="C76" s="176"/>
-      <c r="D76" s="176"/>
+      <c r="B76" s="185"/>
+      <c r="C76" s="185"/>
+      <c r="D76" s="185"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="181" t="s">
+      <c r="B77" s="182" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="181"/>
-      <c r="D77" s="181"/>
+      <c r="C77" s="182"/>
+      <c r="D77" s="182"/>
       <c r="E77" s="36">
         <v>0</v>
       </c>
@@ -4361,9 +4477,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="176"/>
-      <c r="C78" s="176"/>
-      <c r="D78" s="176"/>
+      <c r="B78" s="185"/>
+      <c r="C78" s="185"/>
+      <c r="D78" s="185"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
@@ -4405,24 +4521,24 @@
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="173" t="s">
+      <c r="A83" s="187" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="173"/>
-      <c r="C83" s="173"/>
-      <c r="D83" s="173"/>
-      <c r="E83" s="173"/>
-      <c r="F83" s="173"/>
+      <c r="B83" s="187"/>
+      <c r="C83" s="187"/>
+      <c r="D83" s="187"/>
+      <c r="E83" s="187"/>
+      <c r="F83" s="187"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="182" t="s">
+      <c r="A84" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="182"/>
-      <c r="C84" s="182"/>
-      <c r="D84" s="182"/>
-      <c r="E84" s="182"/>
-      <c r="F84" s="182"/>
+      <c r="B84" s="183"/>
+      <c r="C84" s="183"/>
+      <c r="D84" s="183"/>
+      <c r="E84" s="183"/>
+      <c r="F84" s="183"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
@@ -4441,14 +4557,14 @@
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="172" t="s">
+      <c r="A87" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="172"/>
-      <c r="C87" s="172"/>
-      <c r="D87" s="172"/>
-      <c r="E87" s="172"/>
-      <c r="F87" s="172"/>
+      <c r="B87" s="186"/>
+      <c r="C87" s="186"/>
+      <c r="D87" s="186"/>
+      <c r="E87" s="186"/>
+      <c r="F87" s="186"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="177"/>
@@ -4463,33 +4579,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
     <mergeCell ref="B89:D89"/>
     <mergeCell ref="B53:D53"/>
     <mergeCell ref="B78:D78"/>
@@ -4506,6 +4595,33 @@
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76:B78 B12:B20 B33:B67" xr:uid="{743360A5-2982-45B1-812D-8A0230F16C44}">
@@ -4663,14 +4779,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="175" t="s">
+      <c r="A30" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="175"/>
-      <c r="C30" s="175"/>
-      <c r="D30" s="175"/>
-      <c r="E30" s="175"/>
-      <c r="F30" s="175"/>
+      <c r="B30" s="184"/>
+      <c r="C30" s="184"/>
+      <c r="D30" s="184"/>
+      <c r="E30" s="184"/>
+      <c r="F30" s="184"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -4691,265 +4807,265 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="174"/>
-      <c r="C33" s="174"/>
-      <c r="D33" s="174"/>
+      <c r="B33" s="181"/>
+      <c r="C33" s="181"/>
+      <c r="D33" s="181"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="174"/>
-      <c r="C34" s="174"/>
-      <c r="D34" s="174"/>
+      <c r="B34" s="181"/>
+      <c r="C34" s="181"/>
+      <c r="D34" s="181"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="174" t="s">
+      <c r="B35" s="181" t="s">
         <v>126</v>
       </c>
-      <c r="C35" s="174"/>
-      <c r="D35" s="174"/>
+      <c r="C35" s="181"/>
+      <c r="D35" s="181"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="174"/>
-      <c r="C36" s="174"/>
-      <c r="D36" s="174"/>
+      <c r="B36" s="181"/>
+      <c r="C36" s="181"/>
+      <c r="D36" s="181"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="174" t="s">
+      <c r="B37" s="181" t="s">
         <v>127</v>
       </c>
-      <c r="C37" s="174"/>
-      <c r="D37" s="174"/>
+      <c r="C37" s="181"/>
+      <c r="D37" s="181"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="174"/>
-      <c r="C38" s="174"/>
-      <c r="D38" s="174"/>
+      <c r="B38" s="181"/>
+      <c r="C38" s="181"/>
+      <c r="D38" s="181"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="174" t="s">
+      <c r="B39" s="181" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="174"/>
-      <c r="D39" s="174"/>
+      <c r="C39" s="181"/>
+      <c r="D39" s="181"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="174"/>
-      <c r="C40" s="174"/>
-      <c r="D40" s="174"/>
+      <c r="B40" s="181"/>
+      <c r="C40" s="181"/>
+      <c r="D40" s="181"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="174" t="s">
+      <c r="B41" s="181" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="174"/>
-      <c r="D41" s="174"/>
+      <c r="C41" s="181"/>
+      <c r="D41" s="181"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="174"/>
-      <c r="C42" s="174"/>
-      <c r="D42" s="174"/>
+      <c r="B42" s="181"/>
+      <c r="C42" s="181"/>
+      <c r="D42" s="181"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="174"/>
-      <c r="C43" s="174"/>
-      <c r="D43" s="174"/>
+      <c r="B43" s="181"/>
+      <c r="C43" s="181"/>
+      <c r="D43" s="181"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="174"/>
-      <c r="C44" s="174"/>
-      <c r="D44" s="174"/>
+      <c r="B44" s="181"/>
+      <c r="C44" s="181"/>
+      <c r="D44" s="181"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="174"/>
-      <c r="C45" s="174"/>
-      <c r="D45" s="174"/>
+      <c r="B45" s="181"/>
+      <c r="C45" s="181"/>
+      <c r="D45" s="181"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="174"/>
-      <c r="C46" s="174"/>
-      <c r="D46" s="174"/>
+      <c r="B46" s="181"/>
+      <c r="C46" s="181"/>
+      <c r="D46" s="181"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="174"/>
-      <c r="C47" s="174"/>
-      <c r="D47" s="174"/>
+      <c r="B47" s="181"/>
+      <c r="C47" s="181"/>
+      <c r="D47" s="181"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="174"/>
-      <c r="C48" s="174"/>
-      <c r="D48" s="174"/>
+      <c r="B48" s="181"/>
+      <c r="C48" s="181"/>
+      <c r="D48" s="181"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="174"/>
-      <c r="C49" s="174"/>
-      <c r="D49" s="174"/>
+      <c r="B49" s="181"/>
+      <c r="C49" s="181"/>
+      <c r="D49" s="181"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="174"/>
-      <c r="C50" s="174"/>
-      <c r="D50" s="174"/>
+      <c r="B50" s="181"/>
+      <c r="C50" s="181"/>
+      <c r="D50" s="181"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="174"/>
-      <c r="C51" s="174"/>
-      <c r="D51" s="174"/>
+      <c r="B51" s="181"/>
+      <c r="C51" s="181"/>
+      <c r="D51" s="181"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="174"/>
-      <c r="C52" s="174"/>
-      <c r="D52" s="174"/>
+      <c r="B52" s="181"/>
+      <c r="C52" s="181"/>
+      <c r="D52" s="181"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="174"/>
-      <c r="C53" s="174"/>
-      <c r="D53" s="174"/>
+      <c r="B53" s="181"/>
+      <c r="C53" s="181"/>
+      <c r="D53" s="181"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="174"/>
-      <c r="C54" s="174"/>
-      <c r="D54" s="174"/>
+      <c r="B54" s="181"/>
+      <c r="C54" s="181"/>
+      <c r="D54" s="181"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="174"/>
-      <c r="C55" s="174"/>
-      <c r="D55" s="174"/>
+      <c r="B55" s="181"/>
+      <c r="C55" s="181"/>
+      <c r="D55" s="181"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="174"/>
-      <c r="C56" s="174"/>
-      <c r="D56" s="174"/>
+      <c r="B56" s="181"/>
+      <c r="C56" s="181"/>
+      <c r="D56" s="181"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="174"/>
-      <c r="C57" s="174"/>
-      <c r="D57" s="174"/>
+      <c r="B57" s="181"/>
+      <c r="C57" s="181"/>
+      <c r="D57" s="181"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="174"/>
-      <c r="C58" s="174"/>
-      <c r="D58" s="174"/>
+      <c r="B58" s="181"/>
+      <c r="C58" s="181"/>
+      <c r="D58" s="181"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="174"/>
-      <c r="C59" s="174"/>
-      <c r="D59" s="174"/>
+      <c r="B59" s="181"/>
+      <c r="C59" s="181"/>
+      <c r="D59" s="181"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="174"/>
-      <c r="C60" s="174"/>
-      <c r="D60" s="174"/>
+      <c r="B60" s="181"/>
+      <c r="C60" s="181"/>
+      <c r="D60" s="181"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="174"/>
-      <c r="C61" s="174"/>
-      <c r="D61" s="174"/>
+      <c r="B61" s="181"/>
+      <c r="C61" s="181"/>
+      <c r="D61" s="181"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="174"/>
-      <c r="C62" s="174"/>
-      <c r="D62" s="174"/>
+      <c r="B62" s="181"/>
+      <c r="C62" s="181"/>
+      <c r="D62" s="181"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="174"/>
-      <c r="C63" s="174"/>
-      <c r="D63" s="174"/>
+      <c r="B63" s="181"/>
+      <c r="C63" s="181"/>
+      <c r="D63" s="181"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="174"/>
-      <c r="C64" s="174"/>
-      <c r="D64" s="174"/>
+      <c r="B64" s="181"/>
+      <c r="C64" s="181"/>
+      <c r="D64" s="181"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -4979,17 +5095,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="174"/>
-      <c r="C67" s="174"/>
-      <c r="D67" s="174"/>
+      <c r="B67" s="181"/>
+      <c r="C67" s="181"/>
+      <c r="D67" s="181"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="174"/>
-      <c r="C68" s="174"/>
-      <c r="D68" s="174"/>
+      <c r="B68" s="181"/>
+      <c r="C68" s="181"/>
+      <c r="D68" s="181"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -5096,19 +5212,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="176"/>
-      <c r="C77" s="176"/>
-      <c r="D77" s="176"/>
+      <c r="B77" s="185"/>
+      <c r="C77" s="185"/>
+      <c r="D77" s="185"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="181" t="s">
+      <c r="B78" s="182" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="181"/>
-      <c r="D78" s="181"/>
+      <c r="C78" s="182"/>
+      <c r="D78" s="182"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -5116,9 +5232,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="176"/>
-      <c r="C79" s="176"/>
-      <c r="D79" s="176"/>
+      <c r="B79" s="185"/>
+      <c r="C79" s="185"/>
+      <c r="D79" s="185"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -5160,24 +5276,24 @@
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="173" t="s">
+      <c r="A84" s="187" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="173"/>
-      <c r="C84" s="173"/>
-      <c r="D84" s="173"/>
-      <c r="E84" s="173"/>
-      <c r="F84" s="173"/>
+      <c r="B84" s="187"/>
+      <c r="C84" s="187"/>
+      <c r="D84" s="187"/>
+      <c r="E84" s="187"/>
+      <c r="F84" s="187"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="182" t="s">
+      <c r="A85" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="182"/>
-      <c r="C85" s="182"/>
-      <c r="D85" s="182"/>
-      <c r="E85" s="182"/>
-      <c r="F85" s="182"/>
+      <c r="B85" s="183"/>
+      <c r="C85" s="183"/>
+      <c r="D85" s="183"/>
+      <c r="E85" s="183"/>
+      <c r="F85" s="183"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -5196,14 +5312,14 @@
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="172" t="s">
+      <c r="A88" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="172"/>
-      <c r="C88" s="172"/>
-      <c r="D88" s="172"/>
-      <c r="E88" s="172"/>
-      <c r="F88" s="172"/>
+      <c r="B88" s="186"/>
+      <c r="C88" s="186"/>
+      <c r="D88" s="186"/>
+      <c r="E88" s="186"/>
+      <c r="F88" s="186"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="177"/>
@@ -5218,6 +5334,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="B46:D46"/>
     <mergeCell ref="B79:D79"/>
@@ -5234,34 +5378,6 @@
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{DDF02C27-F714-4464-8831-89B8C9416227}">
@@ -5297,10 +5413,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
-      <c r="B1" s="184" t="s">
+      <c r="B1" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="184"/>
+      <c r="C1" s="189"/>
       <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5935,13 +6051,13 @@
       <c r="F29" s="70"/>
     </row>
     <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="187" t="s">
+      <c r="A30" s="192" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="187"/>
-      <c r="C30" s="187"/>
-      <c r="D30" s="187"/>
-      <c r="E30" s="187"/>
+      <c r="B30" s="192"/>
+      <c r="C30" s="192"/>
+      <c r="D30" s="192"/>
+      <c r="E30" s="192"/>
       <c r="F30" s="71"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -6404,10 +6520,10 @@
     </row>
     <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="62"/>
-      <c r="B81" s="188" t="s">
+      <c r="B81" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="188"/>
+      <c r="C81" s="193"/>
       <c r="D81" s="129"/>
       <c r="E81" s="130">
         <v>3018.09</v>
@@ -6416,10 +6532,10 @@
     </row>
     <row r="82" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="62"/>
-      <c r="B82" s="189" t="s">
+      <c r="B82" s="194" t="s">
         <v>17</v>
       </c>
-      <c r="C82" s="190"/>
+      <c r="C82" s="195"/>
       <c r="D82" s="132"/>
       <c r="E82" s="133">
         <v>3018.09</v>
@@ -6428,30 +6544,30 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="134"/>
-      <c r="B83" s="191"/>
-      <c r="C83" s="192"/>
-      <c r="D83" s="193"/>
-      <c r="E83" s="193"/>
+      <c r="B83" s="196"/>
+      <c r="C83" s="197"/>
+      <c r="D83" s="198"/>
+      <c r="E83" s="198"/>
       <c r="F83" s="135"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="194" t="s">
+      <c r="A84" s="199" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="194"/>
-      <c r="C84" s="194"/>
-      <c r="D84" s="195"/>
-      <c r="E84" s="195"/>
+      <c r="B84" s="199"/>
+      <c r="C84" s="199"/>
+      <c r="D84" s="200"/>
+      <c r="E84" s="200"/>
       <c r="F84" s="54"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="196" t="s">
+      <c r="A85" s="201" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="196"/>
-      <c r="C85" s="196"/>
-      <c r="D85" s="197"/>
-      <c r="E85" s="197"/>
+      <c r="B85" s="201"/>
+      <c r="C85" s="201"/>
+      <c r="D85" s="202"/>
+      <c r="E85" s="202"/>
       <c r="F85" s="50"/>
     </row>
     <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -6471,21 +6587,21 @@
       <c r="F87" s="50"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="172" t="s">
+      <c r="A88" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="172"/>
-      <c r="C88" s="172"/>
-      <c r="D88" s="172"/>
-      <c r="E88" s="172"/>
-      <c r="F88" s="172"/>
+      <c r="B88" s="186"/>
+      <c r="C88" s="186"/>
+      <c r="D88" s="186"/>
+      <c r="E88" s="186"/>
+      <c r="F88" s="186"/>
     </row>
     <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="62"/>
-      <c r="B89" s="185"/>
-      <c r="C89" s="185"/>
-      <c r="D89" s="186"/>
-      <c r="E89" s="186"/>
+      <c r="B89" s="190"/>
+      <c r="C89" s="190"/>
+      <c r="D89" s="191"/>
+      <c r="E89" s="191"/>
       <c r="F89" s="50"/>
     </row>
   </sheetData>
@@ -6782,13 +6898,13 @@
       <c r="F29" s="142"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="199" t="s">
+      <c r="A30" s="204" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="199"/>
-      <c r="C30" s="199"/>
-      <c r="D30" s="199"/>
-      <c r="E30" s="199"/>
+      <c r="B30" s="204"/>
+      <c r="C30" s="204"/>
+      <c r="D30" s="204"/>
+      <c r="E30" s="204"/>
       <c r="F30" s="143"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7255,10 +7371,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="62"/>
-      <c r="B81" s="189" t="s">
+      <c r="B81" s="194" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="190"/>
+      <c r="C81" s="195"/>
       <c r="D81" s="132"/>
       <c r="E81" s="133">
         <v>1509.0500000000002</v>
@@ -7275,30 +7391,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="134"/>
-      <c r="B83" s="191"/>
-      <c r="C83" s="192"/>
-      <c r="D83" s="192"/>
-      <c r="E83" s="192"/>
+      <c r="B83" s="196"/>
+      <c r="C83" s="197"/>
+      <c r="D83" s="197"/>
+      <c r="E83" s="197"/>
       <c r="F83" s="159"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="194" t="s">
+      <c r="A84" s="199" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="194"/>
-      <c r="C84" s="194"/>
-      <c r="D84" s="194"/>
-      <c r="E84" s="194"/>
+      <c r="B84" s="199"/>
+      <c r="C84" s="199"/>
+      <c r="D84" s="199"/>
+      <c r="E84" s="199"/>
       <c r="F84" s="117"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="196" t="s">
+      <c r="A85" s="201" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="196"/>
-      <c r="C85" s="196"/>
-      <c r="D85" s="196"/>
-      <c r="E85" s="196"/>
+      <c r="B85" s="201"/>
+      <c r="C85" s="201"/>
+      <c r="D85" s="201"/>
+      <c r="E85" s="201"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7318,14 +7434,14 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="198" t="s">
+      <c r="A88" s="203" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="198"/>
-      <c r="C88" s="198"/>
-      <c r="D88" s="198"/>
-      <c r="E88" s="198"/>
-      <c r="F88" s="198"/>
+      <c r="B88" s="203"/>
+      <c r="C88" s="203"/>
+      <c r="D88" s="203"/>
+      <c r="E88" s="203"/>
+      <c r="F88" s="203"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7613,13 +7729,13 @@
       <c r="F29" s="142"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="199" t="s">
+      <c r="A30" s="204" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="199"/>
-      <c r="C30" s="199"/>
-      <c r="D30" s="199"/>
-      <c r="E30" s="199"/>
+      <c r="B30" s="204"/>
+      <c r="C30" s="204"/>
+      <c r="D30" s="204"/>
+      <c r="E30" s="204"/>
       <c r="F30" s="143"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8092,10 +8208,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="62"/>
-      <c r="B81" s="200" t="s">
+      <c r="B81" s="205" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="201"/>
+      <c r="C81" s="206"/>
       <c r="D81" s="170"/>
       <c r="E81" s="171">
         <v>4426.54</v>
@@ -8112,30 +8228,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="134"/>
-      <c r="B83" s="191"/>
-      <c r="C83" s="192"/>
-      <c r="D83" s="192"/>
-      <c r="E83" s="192"/>
+      <c r="B83" s="196"/>
+      <c r="C83" s="197"/>
+      <c r="D83" s="197"/>
+      <c r="E83" s="197"/>
       <c r="F83" s="159"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="194" t="s">
+      <c r="A84" s="199" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="194"/>
-      <c r="C84" s="194"/>
-      <c r="D84" s="194"/>
-      <c r="E84" s="194"/>
+      <c r="B84" s="199"/>
+      <c r="C84" s="199"/>
+      <c r="D84" s="199"/>
+      <c r="E84" s="199"/>
       <c r="F84" s="117"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="196" t="s">
+      <c r="A85" s="201" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="196"/>
-      <c r="C85" s="196"/>
-      <c r="D85" s="196"/>
-      <c r="E85" s="196"/>
+      <c r="B85" s="201"/>
+      <c r="C85" s="201"/>
+      <c r="D85" s="201"/>
+      <c r="E85" s="201"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8155,14 +8271,14 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="198" t="s">
+      <c r="A88" s="203" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="198"/>
-      <c r="C88" s="198"/>
-      <c r="D88" s="198"/>
-      <c r="E88" s="198"/>
-      <c r="F88" s="198"/>
+      <c r="B88" s="203"/>
+      <c r="C88" s="203"/>
+      <c r="D88" s="203"/>
+      <c r="E88" s="203"/>
+      <c r="F88" s="203"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8450,13 +8566,13 @@
       <c r="F29" s="142"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="199" t="s">
+      <c r="A30" s="204" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="199"/>
-      <c r="C30" s="199"/>
-      <c r="D30" s="199"/>
-      <c r="E30" s="199"/>
+      <c r="B30" s="204"/>
+      <c r="C30" s="204"/>
+      <c r="D30" s="204"/>
+      <c r="E30" s="204"/>
       <c r="F30" s="143"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8963,10 +9079,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="62"/>
-      <c r="B81" s="200" t="s">
+      <c r="B81" s="205" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="201"/>
+      <c r="C81" s="206"/>
       <c r="D81" s="170"/>
       <c r="E81" s="171">
         <v>16700.12</v>
@@ -8983,30 +9099,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="134"/>
-      <c r="B83" s="191"/>
-      <c r="C83" s="192"/>
-      <c r="D83" s="192"/>
-      <c r="E83" s="192"/>
+      <c r="B83" s="196"/>
+      <c r="C83" s="197"/>
+      <c r="D83" s="197"/>
+      <c r="E83" s="197"/>
       <c r="F83" s="159"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="194" t="s">
+      <c r="A84" s="199" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="194"/>
-      <c r="C84" s="194"/>
-      <c r="D84" s="194"/>
-      <c r="E84" s="194"/>
+      <c r="B84" s="199"/>
+      <c r="C84" s="199"/>
+      <c r="D84" s="199"/>
+      <c r="E84" s="199"/>
       <c r="F84" s="117"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="196" t="s">
+      <c r="A85" s="201" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="196"/>
-      <c r="C85" s="196"/>
-      <c r="D85" s="196"/>
-      <c r="E85" s="196"/>
+      <c r="B85" s="201"/>
+      <c r="C85" s="201"/>
+      <c r="D85" s="201"/>
+      <c r="E85" s="201"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -9026,14 +9142,14 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="198" t="s">
+      <c r="A88" s="203" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="198"/>
-      <c r="C88" s="198"/>
-      <c r="D88" s="198"/>
-      <c r="E88" s="198"/>
-      <c r="F88" s="198"/>
+      <c r="B88" s="203"/>
+      <c r="C88" s="203"/>
+      <c r="D88" s="203"/>
+      <c r="E88" s="203"/>
+      <c r="F88" s="203"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -9058,7 +9174,7 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F88"/>
     </sheetView>
   </sheetViews>
@@ -9321,13 +9437,13 @@
       <c r="F29" s="142"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="199" t="s">
+      <c r="A30" s="204" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="199"/>
-      <c r="C30" s="199"/>
-      <c r="D30" s="199"/>
-      <c r="E30" s="199"/>
+      <c r="B30" s="204"/>
+      <c r="C30" s="204"/>
+      <c r="D30" s="204"/>
+      <c r="E30" s="204"/>
       <c r="F30" s="143"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9361,7 +9477,7 @@
       <c r="B34" s="147" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="202"/>
+      <c r="C34" s="172"/>
       <c r="D34" s="83"/>
       <c r="E34" s="83"/>
       <c r="F34" s="148"/>
@@ -9371,7 +9487,7 @@
       <c r="B35" s="147" t="s">
         <v>145</v>
       </c>
-      <c r="C35" s="203"/>
+      <c r="C35" s="173"/>
       <c r="D35" s="83"/>
       <c r="E35" s="83"/>
       <c r="F35" s="148"/>
@@ -9381,7 +9497,7 @@
       <c r="B36" s="147" t="s">
         <v>91</v>
       </c>
-      <c r="C36" s="202"/>
+      <c r="C36" s="172"/>
       <c r="D36" s="83"/>
       <c r="E36" s="83"/>
       <c r="F36" s="148"/>
@@ -9391,7 +9507,7 @@
       <c r="B37" s="147" t="s">
         <v>145</v>
       </c>
-      <c r="C37" s="202"/>
+      <c r="C37" s="172"/>
       <c r="D37" s="83"/>
       <c r="E37" s="83"/>
       <c r="F37" s="148"/>
@@ -9401,7 +9517,7 @@
       <c r="B38" s="147" t="s">
         <v>171</v>
       </c>
-      <c r="C38" s="202"/>
+      <c r="C38" s="172"/>
       <c r="D38" s="83"/>
       <c r="E38" s="83"/>
       <c r="F38" s="148"/>
@@ -9411,7 +9527,7 @@
       <c r="B39" s="147" t="s">
         <v>172</v>
       </c>
-      <c r="C39" s="202"/>
+      <c r="C39" s="172"/>
       <c r="D39" s="83"/>
       <c r="E39" s="83"/>
       <c r="F39" s="148"/>
@@ -9421,7 +9537,7 @@
       <c r="B40" s="147" t="s">
         <v>145</v>
       </c>
-      <c r="C40" s="203"/>
+      <c r="C40" s="173"/>
       <c r="D40" s="83"/>
       <c r="E40" s="83"/>
       <c r="F40" s="148"/>
@@ -9431,7 +9547,7 @@
       <c r="B41" s="147" t="s">
         <v>93</v>
       </c>
-      <c r="C41" s="202"/>
+      <c r="C41" s="172"/>
       <c r="D41" s="83"/>
       <c r="E41" s="83"/>
       <c r="F41" s="148"/>
@@ -9441,7 +9557,7 @@
       <c r="B42" s="147" t="s">
         <v>145</v>
       </c>
-      <c r="C42" s="202"/>
+      <c r="C42" s="172"/>
       <c r="D42" s="83"/>
       <c r="E42" s="83"/>
       <c r="F42" s="148"/>
@@ -9451,7 +9567,7 @@
       <c r="B43" s="147" t="s">
         <v>173</v>
       </c>
-      <c r="C43" s="202"/>
+      <c r="C43" s="172"/>
       <c r="D43" s="83"/>
       <c r="E43" s="83"/>
       <c r="F43" s="148"/>
@@ -9461,7 +9577,7 @@
       <c r="B44" s="147" t="s">
         <v>145</v>
       </c>
-      <c r="C44" s="202"/>
+      <c r="C44" s="172"/>
       <c r="D44" s="83"/>
       <c r="E44" s="83"/>
       <c r="F44" s="148"/>
@@ -9471,7 +9587,7 @@
       <c r="B45" s="147" t="s">
         <v>174</v>
       </c>
-      <c r="C45" s="202"/>
+      <c r="C45" s="172"/>
       <c r="D45" s="83"/>
       <c r="E45" s="83"/>
       <c r="F45" s="148"/>
@@ -9481,7 +9597,7 @@
       <c r="B46" s="147" t="s">
         <v>145</v>
       </c>
-      <c r="C46" s="202"/>
+      <c r="C46" s="172"/>
       <c r="D46" s="83"/>
       <c r="E46" s="83"/>
       <c r="F46" s="148"/>
@@ -9491,7 +9607,7 @@
       <c r="B47" s="147" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="202"/>
+      <c r="C47" s="172"/>
       <c r="D47" s="83"/>
       <c r="E47" s="83"/>
       <c r="F47" s="148"/>
@@ -9501,7 +9617,7 @@
       <c r="B48" s="147" t="s">
         <v>145</v>
       </c>
-      <c r="C48" s="202"/>
+      <c r="C48" s="172"/>
       <c r="D48" s="83"/>
       <c r="E48" s="83"/>
       <c r="F48" s="148"/>
@@ -9511,7 +9627,7 @@
       <c r="B49" s="147" t="s">
         <v>175</v>
       </c>
-      <c r="C49" s="202"/>
+      <c r="C49" s="172"/>
       <c r="D49" s="83"/>
       <c r="E49" s="83"/>
       <c r="F49" s="148"/>
@@ -9521,8 +9637,8 @@
       <c r="B50" s="147" t="s">
         <v>145</v>
       </c>
-      <c r="C50" s="204"/>
-      <c r="D50" s="204"/>
+      <c r="C50" s="174"/>
+      <c r="D50" s="174"/>
       <c r="E50" s="83"/>
       <c r="F50" s="148"/>
     </row>
@@ -9531,7 +9647,7 @@
       <c r="B51" s="147" t="s">
         <v>176</v>
       </c>
-      <c r="C51" s="202"/>
+      <c r="C51" s="172"/>
       <c r="D51" s="83"/>
       <c r="E51" s="83"/>
       <c r="F51" s="148"/>
@@ -9541,7 +9657,7 @@
       <c r="B52" s="147" t="s">
         <v>177</v>
       </c>
-      <c r="C52" s="202"/>
+      <c r="C52" s="172"/>
       <c r="D52" s="83"/>
       <c r="E52" s="83"/>
       <c r="F52" s="148"/>
@@ -9551,7 +9667,7 @@
       <c r="B53" s="147" t="s">
         <v>145</v>
       </c>
-      <c r="C53" s="202"/>
+      <c r="C53" s="172"/>
       <c r="D53" s="83"/>
       <c r="E53" s="83"/>
       <c r="F53" s="148"/>
@@ -9561,7 +9677,7 @@
       <c r="B54" s="147" t="s">
         <v>178</v>
       </c>
-      <c r="C54" s="202"/>
+      <c r="C54" s="172"/>
       <c r="D54" s="83"/>
       <c r="E54" s="83"/>
       <c r="F54" s="148"/>
@@ -9571,7 +9687,7 @@
       <c r="B55" s="147" t="s">
         <v>145</v>
       </c>
-      <c r="C55" s="202"/>
+      <c r="C55" s="172"/>
       <c r="D55" s="83"/>
       <c r="E55" s="83"/>
       <c r="F55" s="148"/>
@@ -9581,7 +9697,7 @@
       <c r="B56" s="147" t="s">
         <v>179</v>
       </c>
-      <c r="C56" s="202"/>
+      <c r="C56" s="172"/>
       <c r="D56" s="83"/>
       <c r="E56" s="83"/>
       <c r="F56" s="148"/>
@@ -9591,7 +9707,7 @@
       <c r="B57" s="147" t="s">
         <v>145</v>
       </c>
-      <c r="C57" s="202"/>
+      <c r="C57" s="172"/>
       <c r="D57" s="83"/>
       <c r="E57" s="83"/>
       <c r="F57" s="148"/>
@@ -9601,7 +9717,7 @@
       <c r="B58" s="147" t="s">
         <v>180</v>
       </c>
-      <c r="C58" s="202"/>
+      <c r="C58" s="172"/>
       <c r="D58" s="83"/>
       <c r="E58" s="83"/>
       <c r="F58" s="148"/>
@@ -9611,7 +9727,7 @@
       <c r="B59" s="147" t="s">
         <v>145</v>
       </c>
-      <c r="C59" s="202"/>
+      <c r="C59" s="172"/>
       <c r="D59" s="83"/>
       <c r="E59" s="83"/>
       <c r="F59" s="148"/>
@@ -9621,7 +9737,7 @@
       <c r="B60" s="147" t="s">
         <v>181</v>
       </c>
-      <c r="C60" s="202"/>
+      <c r="C60" s="172"/>
       <c r="D60" s="83"/>
       <c r="E60" s="83"/>
       <c r="F60" s="148"/>
@@ -9629,7 +9745,7 @@
     <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="78"/>
       <c r="B61" s="147"/>
-      <c r="C61" s="202"/>
+      <c r="C61" s="172"/>
       <c r="D61" s="83"/>
       <c r="E61" s="83"/>
       <c r="F61" s="148"/>
@@ -9637,7 +9753,7 @@
     <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="78"/>
       <c r="B62" s="147"/>
-      <c r="C62" s="202"/>
+      <c r="C62" s="172"/>
       <c r="D62" s="83"/>
       <c r="E62" s="83"/>
       <c r="F62" s="148"/>
@@ -9645,8 +9761,8 @@
     <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="78"/>
       <c r="B63" s="163"/>
-      <c r="C63" s="205"/>
-      <c r="D63" s="206"/>
+      <c r="C63" s="175"/>
+      <c r="D63" s="176"/>
       <c r="E63" s="83"/>
       <c r="F63" s="148"/>
     </row>
@@ -9836,10 +9952,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="62"/>
-      <c r="B81" s="200" t="s">
+      <c r="B81" s="205" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="201"/>
+      <c r="C81" s="206"/>
       <c r="D81" s="170"/>
       <c r="E81" s="171">
         <v>33296.76</v>
@@ -9856,30 +9972,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="134"/>
-      <c r="B83" s="191"/>
-      <c r="C83" s="192"/>
-      <c r="D83" s="192"/>
-      <c r="E83" s="192"/>
+      <c r="B83" s="196"/>
+      <c r="C83" s="197"/>
+      <c r="D83" s="197"/>
+      <c r="E83" s="197"/>
       <c r="F83" s="159"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="194" t="s">
+      <c r="A84" s="199" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="194"/>
-      <c r="C84" s="194"/>
-      <c r="D84" s="194"/>
-      <c r="E84" s="194"/>
+      <c r="B84" s="199"/>
+      <c r="C84" s="199"/>
+      <c r="D84" s="199"/>
+      <c r="E84" s="199"/>
       <c r="F84" s="117"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="196" t="s">
+      <c r="A85" s="201" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="196"/>
-      <c r="C85" s="196"/>
-      <c r="D85" s="196"/>
-      <c r="E85" s="196"/>
+      <c r="B85" s="201"/>
+      <c r="C85" s="201"/>
+      <c r="D85" s="201"/>
+      <c r="E85" s="201"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -9899,14 +10015,883 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="198" t="s">
+      <c r="A88" s="203" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="198"/>
-      <c r="C88" s="198"/>
-      <c r="D88" s="198"/>
-      <c r="E88" s="198"/>
-      <c r="F88" s="198"/>
+      <c r="B88" s="203"/>
+      <c r="C88" s="203"/>
+      <c r="D88" s="203"/>
+      <c r="E88" s="203"/>
+      <c r="F88" s="203"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="119" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9911D33-25DC-4807-912E-734C6C2535D9}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:F88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="207"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="54"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="54"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="54"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="54"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="54"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="54"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="54"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="54"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="54"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="62"/>
+      <c r="B21" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="62"/>
+      <c r="B23" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="62"/>
+      <c r="B24" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="62"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="62"/>
+      <c r="B25" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="62"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="62"/>
+      <c r="B26" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="62"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="59"/>
+      <c r="B27" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" s="62"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="62"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="67" t="s">
+        <v>183</v>
+      </c>
+      <c r="F28" s="67"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="140"/>
+      <c r="B29" s="140"/>
+      <c r="C29" s="140"/>
+      <c r="D29" s="141"/>
+      <c r="E29" s="142"/>
+      <c r="F29" s="142"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="204" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="204"/>
+      <c r="C30" s="204"/>
+      <c r="D30" s="204"/>
+      <c r="E30" s="204"/>
+      <c r="F30" s="143"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="144"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="144"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="78"/>
+      <c r="B32" s="117" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="145"/>
+      <c r="D32" s="146"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="78"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="146"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="78"/>
+      <c r="B34" s="147" t="s">
+        <v>184</v>
+      </c>
+      <c r="C34" s="160"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="78"/>
+      <c r="B35" s="147" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="161"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="78"/>
+      <c r="B36" s="147" t="s">
+        <v>185</v>
+      </c>
+      <c r="C36" s="160"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="78"/>
+      <c r="B37" s="147" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="160"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="78"/>
+      <c r="B38" s="147" t="s">
+        <v>186</v>
+      </c>
+      <c r="C38" s="160"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="78"/>
+      <c r="B39" s="147" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" s="160"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="78"/>
+      <c r="B40" s="147" t="s">
+        <v>187</v>
+      </c>
+      <c r="C40" s="161"/>
+      <c r="D40" s="148"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="78"/>
+      <c r="B41" s="147" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" s="160"/>
+      <c r="D41" s="148"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="78"/>
+      <c r="B42" s="147" t="s">
+        <v>188</v>
+      </c>
+      <c r="C42" s="160"/>
+      <c r="D42" s="148"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="78"/>
+      <c r="B43" s="147" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" s="160"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="78"/>
+      <c r="B44" s="147" t="s">
+        <v>189</v>
+      </c>
+      <c r="C44" s="160"/>
+      <c r="D44" s="148"/>
+      <c r="E44" s="148"/>
+      <c r="F44" s="148"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="78"/>
+      <c r="B45" s="147" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" s="160"/>
+      <c r="D45" s="148"/>
+      <c r="E45" s="148"/>
+      <c r="F45" s="148"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="78"/>
+      <c r="B46" s="147" t="s">
+        <v>190</v>
+      </c>
+      <c r="C46" s="160"/>
+      <c r="D46" s="148"/>
+      <c r="E46" s="148"/>
+      <c r="F46" s="148"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="78"/>
+      <c r="B47" s="147" t="s">
+        <v>145</v>
+      </c>
+      <c r="C47" s="160"/>
+      <c r="D47" s="148"/>
+      <c r="E47" s="148"/>
+      <c r="F47" s="148"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="78"/>
+      <c r="B48" s="147" t="s">
+        <v>191</v>
+      </c>
+      <c r="C48" s="160"/>
+      <c r="D48" s="148"/>
+      <c r="E48" s="148"/>
+      <c r="F48" s="148"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="78"/>
+      <c r="B49" s="147" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" s="160"/>
+      <c r="D49" s="148"/>
+      <c r="E49" s="148"/>
+      <c r="F49" s="148"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="78"/>
+      <c r="B50" s="147" t="s">
+        <v>192</v>
+      </c>
+      <c r="C50" s="162"/>
+      <c r="D50" s="162"/>
+      <c r="E50" s="148"/>
+      <c r="F50" s="148"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="78"/>
+      <c r="B51" s="147" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" s="160"/>
+      <c r="D51" s="148"/>
+      <c r="E51" s="148"/>
+      <c r="F51" s="148"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="78"/>
+      <c r="B52" s="147" t="s">
+        <v>193</v>
+      </c>
+      <c r="C52" s="160"/>
+      <c r="D52" s="148"/>
+      <c r="E52" s="148"/>
+      <c r="F52" s="148"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="78"/>
+      <c r="B53" s="147" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53" s="160"/>
+      <c r="D53" s="148"/>
+      <c r="E53" s="148"/>
+      <c r="F53" s="148"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="78"/>
+      <c r="B54" s="147" t="s">
+        <v>194</v>
+      </c>
+      <c r="C54" s="160"/>
+      <c r="D54" s="148"/>
+      <c r="E54" s="148"/>
+      <c r="F54" s="148"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="78"/>
+      <c r="B55" s="147" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55" s="160"/>
+      <c r="D55" s="148"/>
+      <c r="E55" s="148"/>
+      <c r="F55" s="148"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="78"/>
+      <c r="B56" s="147" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" s="160"/>
+      <c r="D56" s="148"/>
+      <c r="E56" s="148"/>
+      <c r="F56" s="148"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="78"/>
+      <c r="B57" s="147" t="s">
+        <v>145</v>
+      </c>
+      <c r="C57" s="160"/>
+      <c r="D57" s="148"/>
+      <c r="E57" s="148"/>
+      <c r="F57" s="148"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="78"/>
+      <c r="B58" s="147" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" s="160"/>
+      <c r="D58" s="148"/>
+      <c r="E58" s="148"/>
+      <c r="F58" s="148"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="78"/>
+      <c r="B59" s="147"/>
+      <c r="C59" s="160"/>
+      <c r="D59" s="148"/>
+      <c r="E59" s="148"/>
+      <c r="F59" s="148"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="78"/>
+      <c r="B60" s="147"/>
+      <c r="C60" s="160"/>
+      <c r="D60" s="148"/>
+      <c r="E60" s="148"/>
+      <c r="F60" s="148"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="78"/>
+      <c r="B61" s="147"/>
+      <c r="C61" s="160"/>
+      <c r="D61" s="148"/>
+      <c r="E61" s="148"/>
+      <c r="F61" s="148"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="78"/>
+      <c r="B62" s="147"/>
+      <c r="C62" s="160"/>
+      <c r="D62" s="148"/>
+      <c r="E62" s="148"/>
+      <c r="F62" s="148"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="78"/>
+      <c r="B63" s="163"/>
+      <c r="C63" s="164"/>
+      <c r="D63" s="165"/>
+      <c r="E63" s="148"/>
+      <c r="F63" s="148"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="78"/>
+      <c r="B64" s="163"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="93"/>
+      <c r="E64" s="148"/>
+      <c r="F64" s="148"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="78"/>
+      <c r="B65" s="147"/>
+      <c r="C65" s="166" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="167" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" s="148"/>
+      <c r="F65" s="148"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="78"/>
+      <c r="B66" s="147"/>
+      <c r="C66" s="98">
+        <v>67.5</v>
+      </c>
+      <c r="D66" s="99">
+        <v>385</v>
+      </c>
+      <c r="E66" s="168"/>
+      <c r="F66" s="168"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="78"/>
+      <c r="B67" s="163"/>
+      <c r="C67" s="98"/>
+      <c r="D67" s="99"/>
+      <c r="E67" s="148"/>
+      <c r="F67" s="148"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="78"/>
+      <c r="B68" s="163"/>
+      <c r="C68" s="156"/>
+      <c r="D68" s="156"/>
+      <c r="E68" s="156"/>
+      <c r="F68" s="78"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="62"/>
+      <c r="B69" s="103" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="103"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="104">
+        <v>25987.5</v>
+      </c>
+      <c r="F69" s="104"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="62"/>
+      <c r="B70" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="107"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="108">
+        <v>75</v>
+      </c>
+      <c r="F70" s="108"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="62"/>
+      <c r="B71" s="169" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" s="107"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="108">
+        <v>0</v>
+      </c>
+      <c r="F71" s="108"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="62"/>
+      <c r="B72" s="169" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="107"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="108">
+        <v>0</v>
+      </c>
+      <c r="F72" s="108"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="62"/>
+      <c r="B73" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="103"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="110">
+        <v>26062.5</v>
+      </c>
+      <c r="F73" s="110"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="62"/>
+      <c r="B74" s="107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="112">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="107"/>
+      <c r="E74" s="114">
+        <v>1303.1300000000001</v>
+      </c>
+      <c r="F74" s="114"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="62"/>
+      <c r="B75" s="115" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="116">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="107"/>
+      <c r="E75" s="118">
+        <v>2599.73</v>
+      </c>
+      <c r="F75" s="114"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="62"/>
+      <c r="B76" s="117"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="62"/>
+      <c r="B77" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="103"/>
+      <c r="D77" s="121"/>
+      <c r="E77" s="157">
+        <v>29965.360000000001</v>
+      </c>
+      <c r="F77" s="123"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="62"/>
+      <c r="B78" s="115"/>
+      <c r="C78" s="115"/>
+      <c r="D78" s="115"/>
+      <c r="E78" s="158"/>
+      <c r="F78" s="115"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="62"/>
+      <c r="B79" s="117" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="115"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="61">
+        <v>0</v>
+      </c>
+      <c r="F79" s="61"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="62"/>
+      <c r="B80" s="103"/>
+      <c r="C80" s="115"/>
+      <c r="D80" s="115"/>
+      <c r="E80" s="158"/>
+      <c r="F80" s="115"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="62"/>
+      <c r="B81" s="205" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="206"/>
+      <c r="D81" s="170"/>
+      <c r="E81" s="171">
+        <v>29965.360000000001</v>
+      </c>
+      <c r="F81" s="61"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="62"/>
+      <c r="B82" s="62"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="134"/>
+      <c r="B83" s="196"/>
+      <c r="C83" s="197"/>
+      <c r="D83" s="197"/>
+      <c r="E83" s="197"/>
+      <c r="F83" s="159"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="199" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" s="199"/>
+      <c r="C84" s="199"/>
+      <c r="D84" s="199"/>
+      <c r="E84" s="199"/>
+      <c r="F84" s="117"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="201" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="201"/>
+      <c r="C85" s="201"/>
+      <c r="D85" s="201"/>
+      <c r="E85" s="201"/>
+      <c r="F85" s="46"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="136"/>
+      <c r="B86" s="136"/>
+      <c r="C86" s="136"/>
+      <c r="D86" s="136"/>
+      <c r="E86" s="136"/>
+      <c r="F86" s="46"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="136"/>
+      <c r="B87" s="136"/>
+      <c r="C87" s="136"/>
+      <c r="D87" s="136"/>
+      <c r="E87" s="136"/>
+      <c r="F87" s="46"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="203" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="203"/>
+      <c r="C88" s="203"/>
+      <c r="D88" s="203"/>
+      <c r="E88" s="203"/>
+      <c r="F88" s="203"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -10067,14 +11052,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="175" t="s">
+      <c r="A30" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="175"/>
-      <c r="C30" s="175"/>
-      <c r="D30" s="175"/>
-      <c r="E30" s="175"/>
-      <c r="F30" s="175"/>
+      <c r="B30" s="184"/>
+      <c r="C30" s="184"/>
+      <c r="D30" s="184"/>
+      <c r="E30" s="184"/>
+      <c r="F30" s="184"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -10095,271 +11080,271 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="174"/>
-      <c r="C33" s="174"/>
-      <c r="D33" s="174"/>
+      <c r="B33" s="181"/>
+      <c r="C33" s="181"/>
+      <c r="D33" s="181"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="174" t="s">
+      <c r="B34" s="181" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="174"/>
-      <c r="D34" s="174"/>
+      <c r="C34" s="181"/>
+      <c r="D34" s="181"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="174"/>
-      <c r="C35" s="174"/>
-      <c r="D35" s="174"/>
+      <c r="B35" s="181"/>
+      <c r="C35" s="181"/>
+      <c r="D35" s="181"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="174" t="s">
+      <c r="B36" s="181" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="174"/>
-      <c r="D36" s="174"/>
+      <c r="C36" s="181"/>
+      <c r="D36" s="181"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="174"/>
-      <c r="C37" s="174"/>
-      <c r="D37" s="174"/>
+      <c r="B37" s="181"/>
+      <c r="C37" s="181"/>
+      <c r="D37" s="181"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="174" t="s">
+      <c r="B38" s="181" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="174"/>
-      <c r="D38" s="174"/>
+      <c r="C38" s="181"/>
+      <c r="D38" s="181"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="174"/>
-      <c r="C39" s="174"/>
-      <c r="D39" s="174"/>
+      <c r="B39" s="181"/>
+      <c r="C39" s="181"/>
+      <c r="D39" s="181"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="174" t="s">
+      <c r="B40" s="181" t="s">
         <v>68</v>
       </c>
-      <c r="C40" s="174"/>
-      <c r="D40" s="174"/>
+      <c r="C40" s="181"/>
+      <c r="D40" s="181"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="174"/>
-      <c r="C41" s="174"/>
-      <c r="D41" s="174"/>
+      <c r="B41" s="181"/>
+      <c r="C41" s="181"/>
+      <c r="D41" s="181"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="174" t="s">
+      <c r="B42" s="181" t="s">
         <v>69</v>
       </c>
-      <c r="C42" s="174"/>
-      <c r="D42" s="174"/>
+      <c r="C42" s="181"/>
+      <c r="D42" s="181"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="174"/>
-      <c r="C43" s="174"/>
-      <c r="D43" s="174"/>
+      <c r="B43" s="181"/>
+      <c r="C43" s="181"/>
+      <c r="D43" s="181"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="174" t="s">
+      <c r="B44" s="181" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="174"/>
-      <c r="D44" s="174"/>
+      <c r="C44" s="181"/>
+      <c r="D44" s="181"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="174"/>
-      <c r="C45" s="174"/>
-      <c r="D45" s="174"/>
+      <c r="B45" s="181"/>
+      <c r="C45" s="181"/>
+      <c r="D45" s="181"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="174" t="s">
+      <c r="B46" s="181" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="174"/>
-      <c r="D46" s="174"/>
+      <c r="C46" s="181"/>
+      <c r="D46" s="181"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="174"/>
-      <c r="C47" s="174"/>
-      <c r="D47" s="174"/>
+      <c r="B47" s="181"/>
+      <c r="C47" s="181"/>
+      <c r="D47" s="181"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="174"/>
-      <c r="C48" s="174"/>
-      <c r="D48" s="174"/>
+      <c r="B48" s="181"/>
+      <c r="C48" s="181"/>
+      <c r="D48" s="181"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="174"/>
-      <c r="C49" s="174"/>
-      <c r="D49" s="174"/>
+      <c r="B49" s="181"/>
+      <c r="C49" s="181"/>
+      <c r="D49" s="181"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="174"/>
-      <c r="C50" s="174"/>
-      <c r="D50" s="174"/>
+      <c r="B50" s="181"/>
+      <c r="C50" s="181"/>
+      <c r="D50" s="181"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="174"/>
-      <c r="C51" s="174"/>
-      <c r="D51" s="174"/>
+      <c r="B51" s="181"/>
+      <c r="C51" s="181"/>
+      <c r="D51" s="181"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="174"/>
-      <c r="C52" s="174"/>
-      <c r="D52" s="174"/>
+      <c r="B52" s="181"/>
+      <c r="C52" s="181"/>
+      <c r="D52" s="181"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="174"/>
-      <c r="C53" s="174"/>
-      <c r="D53" s="174"/>
+      <c r="B53" s="181"/>
+      <c r="C53" s="181"/>
+      <c r="D53" s="181"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="174"/>
-      <c r="C54" s="174"/>
-      <c r="D54" s="174"/>
+      <c r="B54" s="181"/>
+      <c r="C54" s="181"/>
+      <c r="D54" s="181"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="174"/>
-      <c r="C55" s="174"/>
-      <c r="D55" s="174"/>
+      <c r="B55" s="181"/>
+      <c r="C55" s="181"/>
+      <c r="D55" s="181"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="174"/>
-      <c r="C56" s="174"/>
-      <c r="D56" s="174"/>
+      <c r="B56" s="181"/>
+      <c r="C56" s="181"/>
+      <c r="D56" s="181"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="174"/>
-      <c r="C57" s="174"/>
-      <c r="D57" s="174"/>
+      <c r="B57" s="181"/>
+      <c r="C57" s="181"/>
+      <c r="D57" s="181"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="174"/>
-      <c r="C58" s="174"/>
-      <c r="D58" s="174"/>
+      <c r="B58" s="181"/>
+      <c r="C58" s="181"/>
+      <c r="D58" s="181"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="174"/>
-      <c r="C59" s="174"/>
-      <c r="D59" s="174"/>
+      <c r="B59" s="181"/>
+      <c r="C59" s="181"/>
+      <c r="D59" s="181"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="174"/>
-      <c r="C60" s="174"/>
-      <c r="D60" s="174"/>
+      <c r="B60" s="181"/>
+      <c r="C60" s="181"/>
+      <c r="D60" s="181"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="174"/>
-      <c r="C61" s="174"/>
-      <c r="D61" s="174"/>
+      <c r="B61" s="181"/>
+      <c r="C61" s="181"/>
+      <c r="D61" s="181"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="174"/>
-      <c r="C62" s="174"/>
-      <c r="D62" s="174"/>
+      <c r="B62" s="181"/>
+      <c r="C62" s="181"/>
+      <c r="D62" s="181"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="174"/>
-      <c r="C63" s="174"/>
-      <c r="D63" s="174"/>
+      <c r="B63" s="181"/>
+      <c r="C63" s="181"/>
+      <c r="D63" s="181"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="174"/>
-      <c r="C64" s="174"/>
-      <c r="D64" s="174"/>
+      <c r="B64" s="181"/>
+      <c r="C64" s="181"/>
+      <c r="D64" s="181"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -10389,17 +11374,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="174"/>
-      <c r="C67" s="174"/>
-      <c r="D67" s="174"/>
+      <c r="B67" s="181"/>
+      <c r="C67" s="181"/>
+      <c r="D67" s="181"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="174"/>
-      <c r="C68" s="174"/>
-      <c r="D68" s="174"/>
+      <c r="B68" s="181"/>
+      <c r="C68" s="181"/>
+      <c r="D68" s="181"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -10506,19 +11491,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="176"/>
-      <c r="C77" s="176"/>
-      <c r="D77" s="176"/>
+      <c r="B77" s="185"/>
+      <c r="C77" s="185"/>
+      <c r="D77" s="185"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="181" t="s">
+      <c r="B78" s="182" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="181"/>
-      <c r="D78" s="181"/>
+      <c r="C78" s="182"/>
+      <c r="D78" s="182"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -10526,9 +11511,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="176"/>
-      <c r="C79" s="176"/>
-      <c r="D79" s="176"/>
+      <c r="B79" s="185"/>
+      <c r="C79" s="185"/>
+      <c r="D79" s="185"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -10570,24 +11555,24 @@
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="173" t="s">
+      <c r="A84" s="187" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="173"/>
-      <c r="C84" s="173"/>
-      <c r="D84" s="173"/>
-      <c r="E84" s="173"/>
-      <c r="F84" s="173"/>
+      <c r="B84" s="187"/>
+      <c r="C84" s="187"/>
+      <c r="D84" s="187"/>
+      <c r="E84" s="187"/>
+      <c r="F84" s="187"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="182" t="s">
+      <c r="A85" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="182"/>
-      <c r="C85" s="182"/>
-      <c r="D85" s="182"/>
-      <c r="E85" s="182"/>
-      <c r="F85" s="182"/>
+      <c r="B85" s="183"/>
+      <c r="C85" s="183"/>
+      <c r="D85" s="183"/>
+      <c r="E85" s="183"/>
+      <c r="F85" s="183"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -10606,14 +11591,14 @@
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="172" t="s">
+      <c r="A88" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="172"/>
-      <c r="C88" s="172"/>
-      <c r="D88" s="172"/>
-      <c r="E88" s="172"/>
-      <c r="F88" s="172"/>
+      <c r="B88" s="186"/>
+      <c r="C88" s="186"/>
+      <c r="D88" s="186"/>
+      <c r="E88" s="186"/>
+      <c r="F88" s="186"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="177"/>
@@ -10628,6 +11613,38 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="B33:D33"/>
@@ -10640,38 +11657,6 @@
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B87:E87"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{A933239C-CD30-4F99-944A-7F3D055C8C4E}">
@@ -10829,14 +11814,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="175" t="s">
+      <c r="A30" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="175"/>
-      <c r="C30" s="175"/>
-      <c r="D30" s="175"/>
-      <c r="E30" s="175"/>
-      <c r="F30" s="175"/>
+      <c r="B30" s="184"/>
+      <c r="C30" s="184"/>
+      <c r="D30" s="184"/>
+      <c r="E30" s="184"/>
+      <c r="F30" s="184"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -10857,275 +11842,275 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="174"/>
-      <c r="C33" s="174"/>
-      <c r="D33" s="174"/>
+      <c r="B33" s="181"/>
+      <c r="C33" s="181"/>
+      <c r="D33" s="181"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="174"/>
-      <c r="C34" s="174"/>
-      <c r="D34" s="174"/>
+      <c r="B34" s="181"/>
+      <c r="C34" s="181"/>
+      <c r="D34" s="181"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="174" t="s">
+      <c r="B35" s="181" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="174"/>
-      <c r="D35" s="174"/>
+      <c r="C35" s="181"/>
+      <c r="D35" s="181"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="174"/>
-      <c r="C36" s="174"/>
-      <c r="D36" s="174"/>
+      <c r="B36" s="181"/>
+      <c r="C36" s="181"/>
+      <c r="D36" s="181"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="174" t="s">
+      <c r="B37" s="181" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="174"/>
-      <c r="D37" s="174"/>
+      <c r="C37" s="181"/>
+      <c r="D37" s="181"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="174"/>
-      <c r="C38" s="174"/>
-      <c r="D38" s="174"/>
+      <c r="B38" s="181"/>
+      <c r="C38" s="181"/>
+      <c r="D38" s="181"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="174" t="s">
+      <c r="B39" s="181" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="174"/>
-      <c r="D39" s="174"/>
+      <c r="C39" s="181"/>
+      <c r="D39" s="181"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="174"/>
-      <c r="C40" s="174"/>
-      <c r="D40" s="174"/>
+      <c r="B40" s="181"/>
+      <c r="C40" s="181"/>
+      <c r="D40" s="181"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="183" t="s">
+      <c r="B41" s="188" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="183"/>
-      <c r="D41" s="183"/>
+      <c r="C41" s="188"/>
+      <c r="D41" s="188"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="183" t="s">
+      <c r="B42" s="188" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="183"/>
-      <c r="D42" s="183"/>
+      <c r="C42" s="188"/>
+      <c r="D42" s="188"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="183" t="s">
+      <c r="B43" s="188" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="183"/>
-      <c r="D43" s="183"/>
+      <c r="C43" s="188"/>
+      <c r="D43" s="188"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="183" t="s">
+      <c r="B44" s="188" t="s">
         <v>75</v>
       </c>
-      <c r="C44" s="183"/>
-      <c r="D44" s="183"/>
+      <c r="C44" s="188"/>
+      <c r="D44" s="188"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="174"/>
-      <c r="C45" s="174"/>
-      <c r="D45" s="174"/>
+      <c r="B45" s="181"/>
+      <c r="C45" s="181"/>
+      <c r="D45" s="181"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="174" t="s">
+      <c r="B46" s="181" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="174"/>
-      <c r="D46" s="174"/>
+      <c r="C46" s="181"/>
+      <c r="D46" s="181"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="174"/>
-      <c r="C47" s="174"/>
-      <c r="D47" s="174"/>
+      <c r="B47" s="181"/>
+      <c r="C47" s="181"/>
+      <c r="D47" s="181"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="174" t="s">
+      <c r="B48" s="181" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="174"/>
-      <c r="D48" s="174"/>
+      <c r="C48" s="181"/>
+      <c r="D48" s="181"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="174"/>
-      <c r="C49" s="174"/>
-      <c r="D49" s="174"/>
+      <c r="B49" s="181"/>
+      <c r="C49" s="181"/>
+      <c r="D49" s="181"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="174"/>
-      <c r="C50" s="174"/>
-      <c r="D50" s="174"/>
+      <c r="B50" s="181"/>
+      <c r="C50" s="181"/>
+      <c r="D50" s="181"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="174"/>
-      <c r="C51" s="174"/>
-      <c r="D51" s="174"/>
+      <c r="B51" s="181"/>
+      <c r="C51" s="181"/>
+      <c r="D51" s="181"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="174"/>
-      <c r="C52" s="174"/>
-      <c r="D52" s="174"/>
+      <c r="B52" s="181"/>
+      <c r="C52" s="181"/>
+      <c r="D52" s="181"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="174"/>
-      <c r="C53" s="174"/>
-      <c r="D53" s="174"/>
+      <c r="B53" s="181"/>
+      <c r="C53" s="181"/>
+      <c r="D53" s="181"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="174"/>
-      <c r="C54" s="174"/>
-      <c r="D54" s="174"/>
+      <c r="B54" s="181"/>
+      <c r="C54" s="181"/>
+      <c r="D54" s="181"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="174"/>
-      <c r="C55" s="174"/>
-      <c r="D55" s="174"/>
+      <c r="B55" s="181"/>
+      <c r="C55" s="181"/>
+      <c r="D55" s="181"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="174"/>
-      <c r="C56" s="174"/>
-      <c r="D56" s="174"/>
+      <c r="B56" s="181"/>
+      <c r="C56" s="181"/>
+      <c r="D56" s="181"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="174"/>
-      <c r="C57" s="174"/>
-      <c r="D57" s="174"/>
+      <c r="B57" s="181"/>
+      <c r="C57" s="181"/>
+      <c r="D57" s="181"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="174"/>
-      <c r="C58" s="174"/>
-      <c r="D58" s="174"/>
+      <c r="B58" s="181"/>
+      <c r="C58" s="181"/>
+      <c r="D58" s="181"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="174"/>
-      <c r="C59" s="174"/>
-      <c r="D59" s="174"/>
+      <c r="B59" s="181"/>
+      <c r="C59" s="181"/>
+      <c r="D59" s="181"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="174"/>
-      <c r="C60" s="174"/>
-      <c r="D60" s="174"/>
+      <c r="B60" s="181"/>
+      <c r="C60" s="181"/>
+      <c r="D60" s="181"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="174"/>
-      <c r="C61" s="174"/>
-      <c r="D61" s="174"/>
+      <c r="B61" s="181"/>
+      <c r="C61" s="181"/>
+      <c r="D61" s="181"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="174"/>
-      <c r="C62" s="174"/>
-      <c r="D62" s="174"/>
+      <c r="B62" s="181"/>
+      <c r="C62" s="181"/>
+      <c r="D62" s="181"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="174"/>
-      <c r="C63" s="174"/>
-      <c r="D63" s="174"/>
+      <c r="B63" s="181"/>
+      <c r="C63" s="181"/>
+      <c r="D63" s="181"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="174"/>
-      <c r="C64" s="174"/>
-      <c r="D64" s="174"/>
+      <c r="B64" s="181"/>
+      <c r="C64" s="181"/>
+      <c r="D64" s="181"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -11155,17 +12140,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="174"/>
-      <c r="C67" s="174"/>
-      <c r="D67" s="174"/>
+      <c r="B67" s="181"/>
+      <c r="C67" s="181"/>
+      <c r="D67" s="181"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="174"/>
-      <c r="C68" s="174"/>
-      <c r="D68" s="174"/>
+      <c r="B68" s="181"/>
+      <c r="C68" s="181"/>
+      <c r="D68" s="181"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -11272,19 +12257,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="176"/>
-      <c r="C77" s="176"/>
-      <c r="D77" s="176"/>
+      <c r="B77" s="185"/>
+      <c r="C77" s="185"/>
+      <c r="D77" s="185"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="181" t="s">
+      <c r="B78" s="182" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="181"/>
-      <c r="D78" s="181"/>
+      <c r="C78" s="182"/>
+      <c r="D78" s="182"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -11292,9 +12277,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="176"/>
-      <c r="C79" s="176"/>
-      <c r="D79" s="176"/>
+      <c r="B79" s="185"/>
+      <c r="C79" s="185"/>
+      <c r="D79" s="185"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -11336,24 +12321,24 @@
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="173" t="s">
+      <c r="A84" s="187" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="173"/>
-      <c r="C84" s="173"/>
-      <c r="D84" s="173"/>
-      <c r="E84" s="173"/>
-      <c r="F84" s="173"/>
+      <c r="B84" s="187"/>
+      <c r="C84" s="187"/>
+      <c r="D84" s="187"/>
+      <c r="E84" s="187"/>
+      <c r="F84" s="187"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="182" t="s">
+      <c r="A85" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="182"/>
-      <c r="C85" s="182"/>
-      <c r="D85" s="182"/>
-      <c r="E85" s="182"/>
-      <c r="F85" s="182"/>
+      <c r="B85" s="183"/>
+      <c r="C85" s="183"/>
+      <c r="D85" s="183"/>
+      <c r="E85" s="183"/>
+      <c r="F85" s="183"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -11372,14 +12357,14 @@
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="172" t="s">
+      <c r="A88" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="172"/>
-      <c r="C88" s="172"/>
-      <c r="D88" s="172"/>
-      <c r="E88" s="172"/>
-      <c r="F88" s="172"/>
+      <c r="B88" s="186"/>
+      <c r="C88" s="186"/>
+      <c r="D88" s="186"/>
+      <c r="E88" s="186"/>
+      <c r="F88" s="186"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="177"/>
@@ -11394,26 +12379,17 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B45:D45"/>
@@ -11427,17 +12403,26 @@
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B53:D53"/>
     <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B87:E87"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B45:B68 B33:B44" xr:uid="{2942E94F-4523-4EA9-8C7A-408C391C1D17}">
@@ -11595,14 +12580,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="175" t="s">
+      <c r="A30" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="175"/>
-      <c r="C30" s="175"/>
-      <c r="D30" s="175"/>
-      <c r="E30" s="175"/>
-      <c r="F30" s="175"/>
+      <c r="B30" s="184"/>
+      <c r="C30" s="184"/>
+      <c r="D30" s="184"/>
+      <c r="E30" s="184"/>
+      <c r="F30" s="184"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -11623,267 +12608,267 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="174"/>
-      <c r="C33" s="174"/>
-      <c r="D33" s="174"/>
+      <c r="B33" s="181"/>
+      <c r="C33" s="181"/>
+      <c r="D33" s="181"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="174"/>
-      <c r="C34" s="174"/>
-      <c r="D34" s="174"/>
+      <c r="B34" s="181"/>
+      <c r="C34" s="181"/>
+      <c r="D34" s="181"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="174" t="s">
+      <c r="B35" s="181" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="174"/>
-      <c r="D35" s="174"/>
+      <c r="C35" s="181"/>
+      <c r="D35" s="181"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="174"/>
-      <c r="C36" s="174"/>
-      <c r="D36" s="174"/>
+      <c r="B36" s="181"/>
+      <c r="C36" s="181"/>
+      <c r="D36" s="181"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="183" t="s">
+      <c r="B37" s="188" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="183"/>
-      <c r="D37" s="183"/>
+      <c r="C37" s="188"/>
+      <c r="D37" s="188"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="183" t="s">
+      <c r="B38" s="188" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="183"/>
-      <c r="D38" s="183"/>
+      <c r="C38" s="188"/>
+      <c r="D38" s="188"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="183" t="s">
+      <c r="B39" s="188" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="183"/>
-      <c r="D39" s="183"/>
+      <c r="C39" s="188"/>
+      <c r="D39" s="188"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="183"/>
-      <c r="C40" s="183"/>
-      <c r="D40" s="183"/>
+      <c r="B40" s="188"/>
+      <c r="C40" s="188"/>
+      <c r="D40" s="188"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="174"/>
-      <c r="C41" s="174"/>
-      <c r="D41" s="174"/>
+      <c r="B41" s="181"/>
+      <c r="C41" s="181"/>
+      <c r="D41" s="181"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="174" t="s">
+      <c r="B42" s="181" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="174"/>
-      <c r="D42" s="174"/>
+      <c r="C42" s="181"/>
+      <c r="D42" s="181"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="174"/>
-      <c r="C43" s="174"/>
-      <c r="D43" s="174"/>
+      <c r="B43" s="181"/>
+      <c r="C43" s="181"/>
+      <c r="D43" s="181"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="174"/>
-      <c r="C44" s="174"/>
-      <c r="D44" s="174"/>
+      <c r="B44" s="181"/>
+      <c r="C44" s="181"/>
+      <c r="D44" s="181"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="174"/>
-      <c r="C45" s="174"/>
-      <c r="D45" s="174"/>
+      <c r="B45" s="181"/>
+      <c r="C45" s="181"/>
+      <c r="D45" s="181"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="174"/>
-      <c r="C46" s="174"/>
-      <c r="D46" s="174"/>
+      <c r="B46" s="181"/>
+      <c r="C46" s="181"/>
+      <c r="D46" s="181"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="174"/>
-      <c r="C47" s="174"/>
-      <c r="D47" s="174"/>
+      <c r="B47" s="181"/>
+      <c r="C47" s="181"/>
+      <c r="D47" s="181"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="174"/>
-      <c r="C48" s="174"/>
-      <c r="D48" s="174"/>
+      <c r="B48" s="181"/>
+      <c r="C48" s="181"/>
+      <c r="D48" s="181"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="174"/>
-      <c r="C49" s="174"/>
-      <c r="D49" s="174"/>
+      <c r="B49" s="181"/>
+      <c r="C49" s="181"/>
+      <c r="D49" s="181"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="174"/>
-      <c r="C50" s="174"/>
-      <c r="D50" s="174"/>
+      <c r="B50" s="181"/>
+      <c r="C50" s="181"/>
+      <c r="D50" s="181"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="174"/>
-      <c r="C51" s="174"/>
-      <c r="D51" s="174"/>
+      <c r="B51" s="181"/>
+      <c r="C51" s="181"/>
+      <c r="D51" s="181"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="174"/>
-      <c r="C52" s="174"/>
-      <c r="D52" s="174"/>
+      <c r="B52" s="181"/>
+      <c r="C52" s="181"/>
+      <c r="D52" s="181"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="174"/>
-      <c r="C53" s="174"/>
-      <c r="D53" s="174"/>
+      <c r="B53" s="181"/>
+      <c r="C53" s="181"/>
+      <c r="D53" s="181"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="174"/>
-      <c r="C54" s="174"/>
-      <c r="D54" s="174"/>
+      <c r="B54" s="181"/>
+      <c r="C54" s="181"/>
+      <c r="D54" s="181"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="174"/>
-      <c r="C55" s="174"/>
-      <c r="D55" s="174"/>
+      <c r="B55" s="181"/>
+      <c r="C55" s="181"/>
+      <c r="D55" s="181"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="174"/>
-      <c r="C56" s="174"/>
-      <c r="D56" s="174"/>
+      <c r="B56" s="181"/>
+      <c r="C56" s="181"/>
+      <c r="D56" s="181"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="174"/>
-      <c r="C57" s="174"/>
-      <c r="D57" s="174"/>
+      <c r="B57" s="181"/>
+      <c r="C57" s="181"/>
+      <c r="D57" s="181"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="174"/>
-      <c r="C58" s="174"/>
-      <c r="D58" s="174"/>
+      <c r="B58" s="181"/>
+      <c r="C58" s="181"/>
+      <c r="D58" s="181"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="174"/>
-      <c r="C59" s="174"/>
-      <c r="D59" s="174"/>
+      <c r="B59" s="181"/>
+      <c r="C59" s="181"/>
+      <c r="D59" s="181"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="174"/>
-      <c r="C60" s="174"/>
-      <c r="D60" s="174"/>
+      <c r="B60" s="181"/>
+      <c r="C60" s="181"/>
+      <c r="D60" s="181"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="174"/>
-      <c r="C61" s="174"/>
-      <c r="D61" s="174"/>
+      <c r="B61" s="181"/>
+      <c r="C61" s="181"/>
+      <c r="D61" s="181"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="174"/>
-      <c r="C62" s="174"/>
-      <c r="D62" s="174"/>
+      <c r="B62" s="181"/>
+      <c r="C62" s="181"/>
+      <c r="D62" s="181"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="174"/>
-      <c r="C63" s="174"/>
-      <c r="D63" s="174"/>
+      <c r="B63" s="181"/>
+      <c r="C63" s="181"/>
+      <c r="D63" s="181"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="174"/>
-      <c r="C64" s="174"/>
-      <c r="D64" s="174"/>
+      <c r="B64" s="181"/>
+      <c r="C64" s="181"/>
+      <c r="D64" s="181"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -11913,17 +12898,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="174"/>
-      <c r="C67" s="174"/>
-      <c r="D67" s="174"/>
+      <c r="B67" s="181"/>
+      <c r="C67" s="181"/>
+      <c r="D67" s="181"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="174"/>
-      <c r="C68" s="174"/>
-      <c r="D68" s="174"/>
+      <c r="B68" s="181"/>
+      <c r="C68" s="181"/>
+      <c r="D68" s="181"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -12030,19 +13015,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="176"/>
-      <c r="C77" s="176"/>
-      <c r="D77" s="176"/>
+      <c r="B77" s="185"/>
+      <c r="C77" s="185"/>
+      <c r="D77" s="185"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="181" t="s">
+      <c r="B78" s="182" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="181"/>
-      <c r="D78" s="181"/>
+      <c r="C78" s="182"/>
+      <c r="D78" s="182"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -12050,9 +13035,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="176"/>
-      <c r="C79" s="176"/>
-      <c r="D79" s="176"/>
+      <c r="B79" s="185"/>
+      <c r="C79" s="185"/>
+      <c r="D79" s="185"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -12094,24 +13079,24 @@
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="173" t="s">
+      <c r="A84" s="187" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="173"/>
-      <c r="C84" s="173"/>
-      <c r="D84" s="173"/>
-      <c r="E84" s="173"/>
-      <c r="F84" s="173"/>
+      <c r="B84" s="187"/>
+      <c r="C84" s="187"/>
+      <c r="D84" s="187"/>
+      <c r="E84" s="187"/>
+      <c r="F84" s="187"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="182" t="s">
+      <c r="A85" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="182"/>
-      <c r="C85" s="182"/>
-      <c r="D85" s="182"/>
-      <c r="E85" s="182"/>
-      <c r="F85" s="182"/>
+      <c r="B85" s="183"/>
+      <c r="C85" s="183"/>
+      <c r="D85" s="183"/>
+      <c r="E85" s="183"/>
+      <c r="F85" s="183"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -12130,14 +13115,14 @@
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="172" t="s">
+      <c r="A88" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="172"/>
-      <c r="C88" s="172"/>
-      <c r="D88" s="172"/>
-      <c r="E88" s="172"/>
-      <c r="F88" s="172"/>
+      <c r="B88" s="186"/>
+      <c r="C88" s="186"/>
+      <c r="D88" s="186"/>
+      <c r="E88" s="186"/>
+      <c r="F88" s="186"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="177"/>
@@ -12152,16 +13137,26 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
@@ -12176,26 +13171,16 @@
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B53:D53"/>
     <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33 B34:B68" xr:uid="{B576DF63-9EDE-4B6F-A0AE-0767607073D7}">
@@ -12353,14 +13338,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="175" t="s">
+      <c r="A30" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="175"/>
-      <c r="C30" s="175"/>
-      <c r="D30" s="175"/>
-      <c r="E30" s="175"/>
-      <c r="F30" s="175"/>
+      <c r="B30" s="184"/>
+      <c r="C30" s="184"/>
+      <c r="D30" s="184"/>
+      <c r="E30" s="184"/>
+      <c r="F30" s="184"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -12381,267 +13366,267 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="174"/>
-      <c r="C33" s="174"/>
-      <c r="D33" s="174"/>
+      <c r="B33" s="181"/>
+      <c r="C33" s="181"/>
+      <c r="D33" s="181"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="174"/>
-      <c r="C34" s="174"/>
-      <c r="D34" s="174"/>
+      <c r="B34" s="181"/>
+      <c r="C34" s="181"/>
+      <c r="D34" s="181"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="174" t="s">
+      <c r="B35" s="181" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="174"/>
-      <c r="D35" s="174"/>
+      <c r="C35" s="181"/>
+      <c r="D35" s="181"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="174"/>
-      <c r="C36" s="174"/>
-      <c r="D36" s="174"/>
+      <c r="B36" s="181"/>
+      <c r="C36" s="181"/>
+      <c r="D36" s="181"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="174" t="s">
+      <c r="B37" s="181" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="174"/>
-      <c r="D37" s="174"/>
+      <c r="C37" s="181"/>
+      <c r="D37" s="181"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="174"/>
-      <c r="C38" s="174"/>
-      <c r="D38" s="174"/>
+      <c r="B38" s="181"/>
+      <c r="C38" s="181"/>
+      <c r="D38" s="181"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="174" t="s">
+      <c r="B39" s="181" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="174"/>
-      <c r="D39" s="174"/>
+      <c r="C39" s="181"/>
+      <c r="D39" s="181"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="174"/>
-      <c r="C40" s="174"/>
-      <c r="D40" s="174"/>
+      <c r="B40" s="181"/>
+      <c r="C40" s="181"/>
+      <c r="D40" s="181"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="174" t="s">
+      <c r="B41" s="181" t="s">
         <v>93</v>
       </c>
-      <c r="C41" s="174"/>
-      <c r="D41" s="174"/>
+      <c r="C41" s="181"/>
+      <c r="D41" s="181"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="174"/>
-      <c r="C42" s="174"/>
-      <c r="D42" s="174"/>
+      <c r="B42" s="181"/>
+      <c r="C42" s="181"/>
+      <c r="D42" s="181"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="174" t="s">
+      <c r="B43" s="181" t="s">
         <v>94</v>
       </c>
-      <c r="C43" s="174"/>
-      <c r="D43" s="174"/>
+      <c r="C43" s="181"/>
+      <c r="D43" s="181"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="174"/>
-      <c r="C44" s="174"/>
-      <c r="D44" s="174"/>
+      <c r="B44" s="181"/>
+      <c r="C44" s="181"/>
+      <c r="D44" s="181"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="174" t="s">
+      <c r="B45" s="181" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="174"/>
-      <c r="D45" s="174"/>
+      <c r="C45" s="181"/>
+      <c r="D45" s="181"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="174"/>
-      <c r="C46" s="174"/>
-      <c r="D46" s="174"/>
+      <c r="B46" s="181"/>
+      <c r="C46" s="181"/>
+      <c r="D46" s="181"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="174" t="s">
+      <c r="B47" s="181" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="174"/>
-      <c r="D47" s="174"/>
+      <c r="C47" s="181"/>
+      <c r="D47" s="181"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="174"/>
-      <c r="C48" s="174"/>
-      <c r="D48" s="174"/>
+      <c r="B48" s="181"/>
+      <c r="C48" s="181"/>
+      <c r="D48" s="181"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="174" t="s">
+      <c r="B49" s="181" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="174"/>
-      <c r="D49" s="174"/>
+      <c r="C49" s="181"/>
+      <c r="D49" s="181"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="174"/>
-      <c r="C50" s="174"/>
-      <c r="D50" s="174"/>
+      <c r="B50" s="181"/>
+      <c r="C50" s="181"/>
+      <c r="D50" s="181"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="174" t="s">
+      <c r="B51" s="181" t="s">
         <v>86</v>
       </c>
-      <c r="C51" s="174"/>
-      <c r="D51" s="174"/>
+      <c r="C51" s="181"/>
+      <c r="D51" s="181"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="174"/>
-      <c r="C52" s="174"/>
-      <c r="D52" s="174"/>
+      <c r="B52" s="181"/>
+      <c r="C52" s="181"/>
+      <c r="D52" s="181"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="174"/>
-      <c r="C53" s="174"/>
-      <c r="D53" s="174"/>
+      <c r="B53" s="181"/>
+      <c r="C53" s="181"/>
+      <c r="D53" s="181"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="174"/>
-      <c r="C54" s="174"/>
-      <c r="D54" s="174"/>
+      <c r="B54" s="181"/>
+      <c r="C54" s="181"/>
+      <c r="D54" s="181"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="174"/>
-      <c r="C55" s="174"/>
-      <c r="D55" s="174"/>
+      <c r="B55" s="181"/>
+      <c r="C55" s="181"/>
+      <c r="D55" s="181"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="174"/>
-      <c r="C56" s="174"/>
-      <c r="D56" s="174"/>
+      <c r="B56" s="181"/>
+      <c r="C56" s="181"/>
+      <c r="D56" s="181"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="174"/>
-      <c r="C57" s="174"/>
-      <c r="D57" s="174"/>
+      <c r="B57" s="181"/>
+      <c r="C57" s="181"/>
+      <c r="D57" s="181"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="174"/>
-      <c r="C58" s="174"/>
-      <c r="D58" s="174"/>
+      <c r="B58" s="181"/>
+      <c r="C58" s="181"/>
+      <c r="D58" s="181"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="174"/>
-      <c r="C59" s="174"/>
-      <c r="D59" s="174"/>
+      <c r="B59" s="181"/>
+      <c r="C59" s="181"/>
+      <c r="D59" s="181"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="174"/>
-      <c r="C60" s="174"/>
-      <c r="D60" s="174"/>
+      <c r="B60" s="181"/>
+      <c r="C60" s="181"/>
+      <c r="D60" s="181"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="174"/>
-      <c r="C61" s="174"/>
-      <c r="D61" s="174"/>
+      <c r="B61" s="181"/>
+      <c r="C61" s="181"/>
+      <c r="D61" s="181"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="174"/>
-      <c r="C62" s="174"/>
-      <c r="D62" s="174"/>
+      <c r="B62" s="181"/>
+      <c r="C62" s="181"/>
+      <c r="D62" s="181"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="174"/>
-      <c r="C63" s="174"/>
-      <c r="D63" s="174"/>
+      <c r="B63" s="181"/>
+      <c r="C63" s="181"/>
+      <c r="D63" s="181"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
@@ -12671,17 +13656,17 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="174"/>
-      <c r="C66" s="174"/>
-      <c r="D66" s="174"/>
+      <c r="B66" s="181"/>
+      <c r="C66" s="181"/>
+      <c r="D66" s="181"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="174"/>
-      <c r="C67" s="174"/>
-      <c r="D67" s="174"/>
+      <c r="B67" s="181"/>
+      <c r="C67" s="181"/>
+      <c r="D67" s="181"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
@@ -12788,19 +13773,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="176"/>
-      <c r="C76" s="176"/>
-      <c r="D76" s="176"/>
+      <c r="B76" s="185"/>
+      <c r="C76" s="185"/>
+      <c r="D76" s="185"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="181" t="s">
+      <c r="B77" s="182" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="181"/>
-      <c r="D77" s="181"/>
+      <c r="C77" s="182"/>
+      <c r="D77" s="182"/>
       <c r="E77" s="36">
         <v>0</v>
       </c>
@@ -12808,9 +13793,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="176"/>
-      <c r="C78" s="176"/>
-      <c r="D78" s="176"/>
+      <c r="B78" s="185"/>
+      <c r="C78" s="185"/>
+      <c r="D78" s="185"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
@@ -12852,24 +13837,24 @@
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="173" t="s">
+      <c r="A83" s="187" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="173"/>
-      <c r="C83" s="173"/>
-      <c r="D83" s="173"/>
-      <c r="E83" s="173"/>
-      <c r="F83" s="173"/>
+      <c r="B83" s="187"/>
+      <c r="C83" s="187"/>
+      <c r="D83" s="187"/>
+      <c r="E83" s="187"/>
+      <c r="F83" s="187"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="182" t="s">
+      <c r="A84" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="182"/>
-      <c r="C84" s="182"/>
-      <c r="D84" s="182"/>
-      <c r="E84" s="182"/>
-      <c r="F84" s="182"/>
+      <c r="B84" s="183"/>
+      <c r="C84" s="183"/>
+      <c r="D84" s="183"/>
+      <c r="E84" s="183"/>
+      <c r="F84" s="183"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
@@ -12888,14 +13873,14 @@
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="172" t="s">
+      <c r="A87" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="172"/>
-      <c r="C87" s="172"/>
-      <c r="D87" s="172"/>
-      <c r="E87" s="172"/>
-      <c r="F87" s="172"/>
+      <c r="B87" s="186"/>
+      <c r="C87" s="186"/>
+      <c r="D87" s="186"/>
+      <c r="E87" s="186"/>
+      <c r="F87" s="186"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="177"/>
@@ -12910,14 +13895,29 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
     <mergeCell ref="B76:D76"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B56:D56"/>
@@ -12930,29 +13930,14 @@
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B86:E86"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76:B78 B12:B20 B33:B67" xr:uid="{9ABD2951-3AF1-4F8A-A4E8-DBE3AEA4B2D9}">
@@ -13110,14 +14095,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="175" t="s">
+      <c r="A30" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="175"/>
-      <c r="C30" s="175"/>
-      <c r="D30" s="175"/>
-      <c r="E30" s="175"/>
-      <c r="F30" s="175"/>
+      <c r="B30" s="184"/>
+      <c r="C30" s="184"/>
+      <c r="D30" s="184"/>
+      <c r="E30" s="184"/>
+      <c r="F30" s="184"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -13138,283 +14123,283 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="174"/>
-      <c r="C33" s="174"/>
-      <c r="D33" s="174"/>
+      <c r="B33" s="181"/>
+      <c r="C33" s="181"/>
+      <c r="D33" s="181"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="174" t="s">
+      <c r="B34" s="181" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="174"/>
-      <c r="D34" s="174"/>
+      <c r="C34" s="181"/>
+      <c r="D34" s="181"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="174"/>
-      <c r="C35" s="174"/>
-      <c r="D35" s="174"/>
+      <c r="B35" s="181"/>
+      <c r="C35" s="181"/>
+      <c r="D35" s="181"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="174" t="s">
+      <c r="B36" s="181" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="174"/>
-      <c r="D36" s="174"/>
+      <c r="C36" s="181"/>
+      <c r="D36" s="181"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="174"/>
-      <c r="C37" s="174"/>
-      <c r="D37" s="174"/>
+      <c r="B37" s="181"/>
+      <c r="C37" s="181"/>
+      <c r="D37" s="181"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="174" t="s">
+      <c r="B38" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="174"/>
-      <c r="D38" s="174"/>
+      <c r="C38" s="181"/>
+      <c r="D38" s="181"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="174"/>
-      <c r="C39" s="174"/>
-      <c r="D39" s="174"/>
+      <c r="B39" s="181"/>
+      <c r="C39" s="181"/>
+      <c r="D39" s="181"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="174" t="s">
+      <c r="B40" s="181" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="174"/>
-      <c r="D40" s="174"/>
+      <c r="C40" s="181"/>
+      <c r="D40" s="181"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="174"/>
-      <c r="C41" s="174"/>
-      <c r="D41" s="174"/>
+      <c r="B41" s="181"/>
+      <c r="C41" s="181"/>
+      <c r="D41" s="181"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="174" t="s">
+      <c r="B42" s="181" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="174"/>
-      <c r="D42" s="174"/>
+      <c r="C42" s="181"/>
+      <c r="D42" s="181"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="174"/>
-      <c r="C43" s="174"/>
-      <c r="D43" s="174"/>
+      <c r="B43" s="181"/>
+      <c r="C43" s="181"/>
+      <c r="D43" s="181"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="174" t="s">
+      <c r="B44" s="181" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="174"/>
-      <c r="D44" s="174"/>
+      <c r="C44" s="181"/>
+      <c r="D44" s="181"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="174"/>
-      <c r="C45" s="174"/>
-      <c r="D45" s="174"/>
+      <c r="B45" s="181"/>
+      <c r="C45" s="181"/>
+      <c r="D45" s="181"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="174" t="s">
+      <c r="B46" s="181" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="174"/>
-      <c r="D46" s="174"/>
+      <c r="C46" s="181"/>
+      <c r="D46" s="181"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="174"/>
-      <c r="C47" s="174"/>
-      <c r="D47" s="174"/>
+      <c r="B47" s="181"/>
+      <c r="C47" s="181"/>
+      <c r="D47" s="181"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="174" t="s">
+      <c r="B48" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="C48" s="174"/>
-      <c r="D48" s="174"/>
+      <c r="C48" s="181"/>
+      <c r="D48" s="181"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="174"/>
-      <c r="C49" s="174"/>
-      <c r="D49" s="174"/>
+      <c r="B49" s="181"/>
+      <c r="C49" s="181"/>
+      <c r="D49" s="181"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="174" t="s">
+      <c r="B50" s="181" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="174"/>
-      <c r="D50" s="174"/>
+      <c r="C50" s="181"/>
+      <c r="D50" s="181"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="174"/>
-      <c r="C51" s="174"/>
-      <c r="D51" s="174"/>
+      <c r="B51" s="181"/>
+      <c r="C51" s="181"/>
+      <c r="D51" s="181"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="174" t="s">
+      <c r="B52" s="181" t="s">
         <v>100</v>
       </c>
-      <c r="C52" s="174"/>
-      <c r="D52" s="174"/>
+      <c r="C52" s="181"/>
+      <c r="D52" s="181"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="174"/>
-      <c r="C53" s="174"/>
-      <c r="D53" s="174"/>
+      <c r="B53" s="181"/>
+      <c r="C53" s="181"/>
+      <c r="D53" s="181"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="174" t="s">
+      <c r="B54" s="181" t="s">
         <v>33</v>
       </c>
-      <c r="C54" s="174"/>
-      <c r="D54" s="174"/>
+      <c r="C54" s="181"/>
+      <c r="D54" s="181"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="174"/>
-      <c r="C55" s="174"/>
-      <c r="D55" s="174"/>
+      <c r="B55" s="181"/>
+      <c r="C55" s="181"/>
+      <c r="D55" s="181"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="174" t="s">
+      <c r="B56" s="181" t="s">
         <v>35</v>
       </c>
-      <c r="C56" s="174"/>
-      <c r="D56" s="174"/>
+      <c r="C56" s="181"/>
+      <c r="D56" s="181"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="174"/>
-      <c r="C57" s="174"/>
-      <c r="D57" s="174"/>
+      <c r="B57" s="181"/>
+      <c r="C57" s="181"/>
+      <c r="D57" s="181"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="174" t="s">
+      <c r="B58" s="181" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="174"/>
-      <c r="D58" s="174"/>
+      <c r="C58" s="181"/>
+      <c r="D58" s="181"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="174"/>
-      <c r="C59" s="174"/>
-      <c r="D59" s="174"/>
+      <c r="B59" s="181"/>
+      <c r="C59" s="181"/>
+      <c r="D59" s="181"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="174"/>
-      <c r="C60" s="174"/>
-      <c r="D60" s="174"/>
+      <c r="B60" s="181"/>
+      <c r="C60" s="181"/>
+      <c r="D60" s="181"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="174"/>
-      <c r="C61" s="174"/>
-      <c r="D61" s="174"/>
+      <c r="B61" s="181"/>
+      <c r="C61" s="181"/>
+      <c r="D61" s="181"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="174"/>
-      <c r="C62" s="174"/>
-      <c r="D62" s="174"/>
+      <c r="B62" s="181"/>
+      <c r="C62" s="181"/>
+      <c r="D62" s="181"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="174"/>
-      <c r="C63" s="174"/>
-      <c r="D63" s="174"/>
+      <c r="B63" s="181"/>
+      <c r="C63" s="181"/>
+      <c r="D63" s="181"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="174"/>
-      <c r="C64" s="174"/>
-      <c r="D64" s="174"/>
+      <c r="B64" s="181"/>
+      <c r="C64" s="181"/>
+      <c r="D64" s="181"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -13444,17 +14429,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="174"/>
-      <c r="C67" s="174"/>
-      <c r="D67" s="174"/>
+      <c r="B67" s="181"/>
+      <c r="C67" s="181"/>
+      <c r="D67" s="181"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="174"/>
-      <c r="C68" s="174"/>
-      <c r="D68" s="174"/>
+      <c r="B68" s="181"/>
+      <c r="C68" s="181"/>
+      <c r="D68" s="181"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -13561,19 +14546,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="176"/>
-      <c r="C77" s="176"/>
-      <c r="D77" s="176"/>
+      <c r="B77" s="185"/>
+      <c r="C77" s="185"/>
+      <c r="D77" s="185"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="181" t="s">
+      <c r="B78" s="182" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="181"/>
-      <c r="D78" s="181"/>
+      <c r="C78" s="182"/>
+      <c r="D78" s="182"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -13581,9 +14566,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="176"/>
-      <c r="C79" s="176"/>
-      <c r="D79" s="176"/>
+      <c r="B79" s="185"/>
+      <c r="C79" s="185"/>
+      <c r="D79" s="185"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -13625,24 +14610,24 @@
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="173" t="s">
+      <c r="A84" s="187" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="173"/>
-      <c r="C84" s="173"/>
-      <c r="D84" s="173"/>
-      <c r="E84" s="173"/>
-      <c r="F84" s="173"/>
+      <c r="B84" s="187"/>
+      <c r="C84" s="187"/>
+      <c r="D84" s="187"/>
+      <c r="E84" s="187"/>
+      <c r="F84" s="187"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="182" t="s">
+      <c r="A85" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="182"/>
-      <c r="C85" s="182"/>
-      <c r="D85" s="182"/>
-      <c r="E85" s="182"/>
-      <c r="F85" s="182"/>
+      <c r="B85" s="183"/>
+      <c r="C85" s="183"/>
+      <c r="D85" s="183"/>
+      <c r="E85" s="183"/>
+      <c r="F85" s="183"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -13661,14 +14646,14 @@
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="172" t="s">
+      <c r="A88" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="172"/>
-      <c r="C88" s="172"/>
-      <c r="D88" s="172"/>
-      <c r="E88" s="172"/>
-      <c r="F88" s="172"/>
+      <c r="B88" s="186"/>
+      <c r="C88" s="186"/>
+      <c r="D88" s="186"/>
+      <c r="E88" s="186"/>
+      <c r="F88" s="186"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="177"/>
@@ -13683,34 +14668,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B79:D79"/>
@@ -13727,6 +14684,34 @@
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{9B275453-8B23-4F41-89E6-BD37E6FA3764}">
@@ -13884,14 +14869,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="175" t="s">
+      <c r="A30" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="175"/>
-      <c r="C30" s="175"/>
-      <c r="D30" s="175"/>
-      <c r="E30" s="175"/>
-      <c r="F30" s="175"/>
+      <c r="B30" s="184"/>
+      <c r="C30" s="184"/>
+      <c r="D30" s="184"/>
+      <c r="E30" s="184"/>
+      <c r="F30" s="184"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -13912,259 +14897,259 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="174"/>
-      <c r="C33" s="174"/>
-      <c r="D33" s="174"/>
+      <c r="B33" s="181"/>
+      <c r="C33" s="181"/>
+      <c r="D33" s="181"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="174" t="s">
+      <c r="B34" s="181" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="174"/>
-      <c r="D34" s="174"/>
+      <c r="C34" s="181"/>
+      <c r="D34" s="181"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="174"/>
-      <c r="C35" s="174"/>
-      <c r="D35" s="174"/>
+      <c r="B35" s="181"/>
+      <c r="C35" s="181"/>
+      <c r="D35" s="181"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="174" t="s">
+      <c r="B36" s="181" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="174"/>
-      <c r="D36" s="174"/>
+      <c r="C36" s="181"/>
+      <c r="D36" s="181"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="174"/>
-      <c r="C37" s="174"/>
-      <c r="D37" s="174"/>
+      <c r="B37" s="181"/>
+      <c r="C37" s="181"/>
+      <c r="D37" s="181"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="174" t="s">
+      <c r="B38" s="181" t="s">
         <v>105</v>
       </c>
-      <c r="C38" s="174"/>
-      <c r="D38" s="174"/>
+      <c r="C38" s="181"/>
+      <c r="D38" s="181"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="174"/>
-      <c r="C39" s="174"/>
-      <c r="D39" s="174"/>
+      <c r="B39" s="181"/>
+      <c r="C39" s="181"/>
+      <c r="D39" s="181"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="174" t="s">
+      <c r="B40" s="181" t="s">
         <v>106</v>
       </c>
-      <c r="C40" s="174"/>
-      <c r="D40" s="174"/>
+      <c r="C40" s="181"/>
+      <c r="D40" s="181"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="174"/>
-      <c r="C41" s="174"/>
-      <c r="D41" s="174"/>
+      <c r="B41" s="181"/>
+      <c r="C41" s="181"/>
+      <c r="D41" s="181"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="174" t="s">
+      <c r="B42" s="181" t="s">
         <v>107</v>
       </c>
-      <c r="C42" s="174"/>
-      <c r="D42" s="174"/>
+      <c r="C42" s="181"/>
+      <c r="D42" s="181"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="174"/>
-      <c r="C43" s="174"/>
-      <c r="D43" s="174"/>
+      <c r="B43" s="181"/>
+      <c r="C43" s="181"/>
+      <c r="D43" s="181"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="174"/>
-      <c r="C44" s="174"/>
-      <c r="D44" s="174"/>
+      <c r="B44" s="181"/>
+      <c r="C44" s="181"/>
+      <c r="D44" s="181"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="174"/>
-      <c r="C45" s="174"/>
-      <c r="D45" s="174"/>
+      <c r="B45" s="181"/>
+      <c r="C45" s="181"/>
+      <c r="D45" s="181"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="174"/>
-      <c r="C46" s="174"/>
-      <c r="D46" s="174"/>
+      <c r="B46" s="181"/>
+      <c r="C46" s="181"/>
+      <c r="D46" s="181"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="174"/>
-      <c r="C47" s="174"/>
-      <c r="D47" s="174"/>
+      <c r="B47" s="181"/>
+      <c r="C47" s="181"/>
+      <c r="D47" s="181"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="174"/>
-      <c r="C48" s="174"/>
-      <c r="D48" s="174"/>
+      <c r="B48" s="181"/>
+      <c r="C48" s="181"/>
+      <c r="D48" s="181"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="174"/>
-      <c r="C49" s="174"/>
-      <c r="D49" s="174"/>
+      <c r="B49" s="181"/>
+      <c r="C49" s="181"/>
+      <c r="D49" s="181"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="174"/>
-      <c r="C50" s="174"/>
-      <c r="D50" s="174"/>
+      <c r="B50" s="181"/>
+      <c r="C50" s="181"/>
+      <c r="D50" s="181"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="174"/>
-      <c r="C51" s="174"/>
-      <c r="D51" s="174"/>
+      <c r="B51" s="181"/>
+      <c r="C51" s="181"/>
+      <c r="D51" s="181"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="174"/>
-      <c r="C52" s="174"/>
-      <c r="D52" s="174"/>
+      <c r="B52" s="181"/>
+      <c r="C52" s="181"/>
+      <c r="D52" s="181"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="174"/>
-      <c r="C53" s="174"/>
-      <c r="D53" s="174"/>
+      <c r="B53" s="181"/>
+      <c r="C53" s="181"/>
+      <c r="D53" s="181"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="174"/>
-      <c r="C54" s="174"/>
-      <c r="D54" s="174"/>
+      <c r="B54" s="181"/>
+      <c r="C54" s="181"/>
+      <c r="D54" s="181"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="174"/>
-      <c r="C55" s="174"/>
-      <c r="D55" s="174"/>
+      <c r="B55" s="181"/>
+      <c r="C55" s="181"/>
+      <c r="D55" s="181"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="174"/>
-      <c r="C56" s="174"/>
-      <c r="D56" s="174"/>
+      <c r="B56" s="181"/>
+      <c r="C56" s="181"/>
+      <c r="D56" s="181"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="174"/>
-      <c r="C57" s="174"/>
-      <c r="D57" s="174"/>
+      <c r="B57" s="181"/>
+      <c r="C57" s="181"/>
+      <c r="D57" s="181"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="174"/>
-      <c r="C58" s="174"/>
-      <c r="D58" s="174"/>
+      <c r="B58" s="181"/>
+      <c r="C58" s="181"/>
+      <c r="D58" s="181"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="174"/>
-      <c r="C59" s="174"/>
-      <c r="D59" s="174"/>
+      <c r="B59" s="181"/>
+      <c r="C59" s="181"/>
+      <c r="D59" s="181"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="174"/>
-      <c r="C60" s="174"/>
-      <c r="D60" s="174"/>
+      <c r="B60" s="181"/>
+      <c r="C60" s="181"/>
+      <c r="D60" s="181"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="174"/>
-      <c r="C61" s="174"/>
-      <c r="D61" s="174"/>
+      <c r="B61" s="181"/>
+      <c r="C61" s="181"/>
+      <c r="D61" s="181"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="174"/>
-      <c r="C62" s="174"/>
-      <c r="D62" s="174"/>
+      <c r="B62" s="181"/>
+      <c r="C62" s="181"/>
+      <c r="D62" s="181"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="174"/>
-      <c r="C63" s="174"/>
-      <c r="D63" s="174"/>
+      <c r="B63" s="181"/>
+      <c r="C63" s="181"/>
+      <c r="D63" s="181"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
@@ -14194,17 +15179,17 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="174"/>
-      <c r="C66" s="174"/>
-      <c r="D66" s="174"/>
+      <c r="B66" s="181"/>
+      <c r="C66" s="181"/>
+      <c r="D66" s="181"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="174"/>
-      <c r="C67" s="174"/>
-      <c r="D67" s="174"/>
+      <c r="B67" s="181"/>
+      <c r="C67" s="181"/>
+      <c r="D67" s="181"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
@@ -14311,19 +15296,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="176"/>
-      <c r="C76" s="176"/>
-      <c r="D76" s="176"/>
+      <c r="B76" s="185"/>
+      <c r="C76" s="185"/>
+      <c r="D76" s="185"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="181" t="s">
+      <c r="B77" s="182" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="181"/>
-      <c r="D77" s="181"/>
+      <c r="C77" s="182"/>
+      <c r="D77" s="182"/>
       <c r="E77" s="36">
         <v>0</v>
       </c>
@@ -14331,9 +15316,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="176"/>
-      <c r="C78" s="176"/>
-      <c r="D78" s="176"/>
+      <c r="B78" s="185"/>
+      <c r="C78" s="185"/>
+      <c r="D78" s="185"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
@@ -14375,24 +15360,24 @@
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="173" t="s">
+      <c r="A83" s="187" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="173"/>
-      <c r="C83" s="173"/>
-      <c r="D83" s="173"/>
-      <c r="E83" s="173"/>
-      <c r="F83" s="173"/>
+      <c r="B83" s="187"/>
+      <c r="C83" s="187"/>
+      <c r="D83" s="187"/>
+      <c r="E83" s="187"/>
+      <c r="F83" s="187"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="182" t="s">
+      <c r="A84" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="182"/>
-      <c r="C84" s="182"/>
-      <c r="D84" s="182"/>
-      <c r="E84" s="182"/>
-      <c r="F84" s="182"/>
+      <c r="B84" s="183"/>
+      <c r="C84" s="183"/>
+      <c r="D84" s="183"/>
+      <c r="E84" s="183"/>
+      <c r="F84" s="183"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
@@ -14411,14 +15396,14 @@
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="172" t="s">
+      <c r="A87" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="172"/>
-      <c r="C87" s="172"/>
-      <c r="D87" s="172"/>
-      <c r="E87" s="172"/>
-      <c r="F87" s="172"/>
+      <c r="B87" s="186"/>
+      <c r="C87" s="186"/>
+      <c r="D87" s="186"/>
+      <c r="E87" s="186"/>
+      <c r="F87" s="186"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="177"/>
@@ -14433,25 +15418,18 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B45:D45"/>
@@ -14464,18 +15442,25 @@
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B53:D53"/>
     <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B86:E86"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76:B78 B12:B20 B33:B67" xr:uid="{4F3C79A0-2001-4510-8784-730DC1E8C638}">
@@ -14633,14 +15618,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="175" t="s">
+      <c r="A30" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="175"/>
-      <c r="C30" s="175"/>
-      <c r="D30" s="175"/>
-      <c r="E30" s="175"/>
-      <c r="F30" s="175"/>
+      <c r="B30" s="184"/>
+      <c r="C30" s="184"/>
+      <c r="D30" s="184"/>
+      <c r="E30" s="184"/>
+      <c r="F30" s="184"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -14661,269 +15646,269 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="174"/>
-      <c r="C33" s="174"/>
-      <c r="D33" s="174"/>
+      <c r="B33" s="181"/>
+      <c r="C33" s="181"/>
+      <c r="D33" s="181"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="174" t="s">
+      <c r="B34" s="181" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="174"/>
-      <c r="D34" s="174"/>
+      <c r="C34" s="181"/>
+      <c r="D34" s="181"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="174"/>
-      <c r="C35" s="174"/>
-      <c r="D35" s="174"/>
+      <c r="B35" s="181"/>
+      <c r="C35" s="181"/>
+      <c r="D35" s="181"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="174" t="s">
+      <c r="B36" s="181" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="174"/>
-      <c r="D36" s="174"/>
+      <c r="C36" s="181"/>
+      <c r="D36" s="181"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="174"/>
-      <c r="C37" s="174"/>
-      <c r="D37" s="174"/>
+      <c r="B37" s="181"/>
+      <c r="C37" s="181"/>
+      <c r="D37" s="181"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="174" t="s">
+      <c r="B38" s="181" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="174"/>
-      <c r="D38" s="174"/>
+      <c r="C38" s="181"/>
+      <c r="D38" s="181"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="174"/>
-      <c r="C39" s="174"/>
-      <c r="D39" s="174"/>
+      <c r="B39" s="181"/>
+      <c r="C39" s="181"/>
+      <c r="D39" s="181"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="174" t="s">
+      <c r="B40" s="181" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="174"/>
-      <c r="D40" s="174"/>
+      <c r="C40" s="181"/>
+      <c r="D40" s="181"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="174"/>
-      <c r="C41" s="174"/>
-      <c r="D41" s="174"/>
+      <c r="B41" s="181"/>
+      <c r="C41" s="181"/>
+      <c r="D41" s="181"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="174" t="s">
+      <c r="B42" s="181" t="s">
         <v>114</v>
       </c>
-      <c r="C42" s="174"/>
-      <c r="D42" s="174"/>
+      <c r="C42" s="181"/>
+      <c r="D42" s="181"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="174"/>
-      <c r="C43" s="174"/>
-      <c r="D43" s="174"/>
+      <c r="B43" s="181"/>
+      <c r="C43" s="181"/>
+      <c r="D43" s="181"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="174" t="s">
+      <c r="B44" s="181" t="s">
         <v>113</v>
       </c>
-      <c r="C44" s="174"/>
-      <c r="D44" s="174"/>
+      <c r="C44" s="181"/>
+      <c r="D44" s="181"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="174"/>
-      <c r="C45" s="174"/>
-      <c r="D45" s="174"/>
+      <c r="B45" s="181"/>
+      <c r="C45" s="181"/>
+      <c r="D45" s="181"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="174"/>
-      <c r="C46" s="174"/>
-      <c r="D46" s="174"/>
+      <c r="B46" s="181"/>
+      <c r="C46" s="181"/>
+      <c r="D46" s="181"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="174"/>
-      <c r="C47" s="174"/>
-      <c r="D47" s="174"/>
+      <c r="B47" s="181"/>
+      <c r="C47" s="181"/>
+      <c r="D47" s="181"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="174"/>
-      <c r="C48" s="174"/>
-      <c r="D48" s="174"/>
+      <c r="B48" s="181"/>
+      <c r="C48" s="181"/>
+      <c r="D48" s="181"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="174"/>
-      <c r="C49" s="174"/>
-      <c r="D49" s="174"/>
+      <c r="B49" s="181"/>
+      <c r="C49" s="181"/>
+      <c r="D49" s="181"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="174"/>
-      <c r="C50" s="174"/>
-      <c r="D50" s="174"/>
+      <c r="B50" s="181"/>
+      <c r="C50" s="181"/>
+      <c r="D50" s="181"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="174"/>
-      <c r="C51" s="174"/>
-      <c r="D51" s="174"/>
+      <c r="B51" s="181"/>
+      <c r="C51" s="181"/>
+      <c r="D51" s="181"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="174"/>
-      <c r="C52" s="174"/>
-      <c r="D52" s="174"/>
+      <c r="B52" s="181"/>
+      <c r="C52" s="181"/>
+      <c r="D52" s="181"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="174"/>
-      <c r="C53" s="174"/>
-      <c r="D53" s="174"/>
+      <c r="B53" s="181"/>
+      <c r="C53" s="181"/>
+      <c r="D53" s="181"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="174"/>
-      <c r="C54" s="174"/>
-      <c r="D54" s="174"/>
+      <c r="B54" s="181"/>
+      <c r="C54" s="181"/>
+      <c r="D54" s="181"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="174"/>
-      <c r="C55" s="174"/>
-      <c r="D55" s="174"/>
+      <c r="B55" s="181"/>
+      <c r="C55" s="181"/>
+      <c r="D55" s="181"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="174"/>
-      <c r="C56" s="174"/>
-      <c r="D56" s="174"/>
+      <c r="B56" s="181"/>
+      <c r="C56" s="181"/>
+      <c r="D56" s="181"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="174"/>
-      <c r="C57" s="174"/>
-      <c r="D57" s="174"/>
+      <c r="B57" s="181"/>
+      <c r="C57" s="181"/>
+      <c r="D57" s="181"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="174"/>
-      <c r="C58" s="174"/>
-      <c r="D58" s="174"/>
+      <c r="B58" s="181"/>
+      <c r="C58" s="181"/>
+      <c r="D58" s="181"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="174"/>
-      <c r="C59" s="174"/>
-      <c r="D59" s="174"/>
+      <c r="B59" s="181"/>
+      <c r="C59" s="181"/>
+      <c r="D59" s="181"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="174"/>
-      <c r="C60" s="174"/>
-      <c r="D60" s="174"/>
+      <c r="B60" s="181"/>
+      <c r="C60" s="181"/>
+      <c r="D60" s="181"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="174"/>
-      <c r="C61" s="174"/>
-      <c r="D61" s="174"/>
+      <c r="B61" s="181"/>
+      <c r="C61" s="181"/>
+      <c r="D61" s="181"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="174"/>
-      <c r="C62" s="174"/>
-      <c r="D62" s="174"/>
+      <c r="B62" s="181"/>
+      <c r="C62" s="181"/>
+      <c r="D62" s="181"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="174"/>
-      <c r="C63" s="174"/>
-      <c r="D63" s="174"/>
+      <c r="B63" s="181"/>
+      <c r="C63" s="181"/>
+      <c r="D63" s="181"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="174"/>
-      <c r="C64" s="174"/>
-      <c r="D64" s="174"/>
+      <c r="B64" s="181"/>
+      <c r="C64" s="181"/>
+      <c r="D64" s="181"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -14953,17 +15938,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="174"/>
-      <c r="C67" s="174"/>
-      <c r="D67" s="174"/>
+      <c r="B67" s="181"/>
+      <c r="C67" s="181"/>
+      <c r="D67" s="181"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="174"/>
-      <c r="C68" s="174"/>
-      <c r="D68" s="174"/>
+      <c r="B68" s="181"/>
+      <c r="C68" s="181"/>
+      <c r="D68" s="181"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -15070,19 +16055,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="176"/>
-      <c r="C77" s="176"/>
-      <c r="D77" s="176"/>
+      <c r="B77" s="185"/>
+      <c r="C77" s="185"/>
+      <c r="D77" s="185"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="181" t="s">
+      <c r="B78" s="182" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="181"/>
-      <c r="D78" s="181"/>
+      <c r="C78" s="182"/>
+      <c r="D78" s="182"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -15090,9 +16075,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="176"/>
-      <c r="C79" s="176"/>
-      <c r="D79" s="176"/>
+      <c r="B79" s="185"/>
+      <c r="C79" s="185"/>
+      <c r="D79" s="185"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -15134,24 +16119,24 @@
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="173" t="s">
+      <c r="A84" s="187" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="173"/>
-      <c r="C84" s="173"/>
-      <c r="D84" s="173"/>
-      <c r="E84" s="173"/>
-      <c r="F84" s="173"/>
+      <c r="B84" s="187"/>
+      <c r="C84" s="187"/>
+      <c r="D84" s="187"/>
+      <c r="E84" s="187"/>
+      <c r="F84" s="187"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="182" t="s">
+      <c r="A85" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="182"/>
-      <c r="C85" s="182"/>
-      <c r="D85" s="182"/>
-      <c r="E85" s="182"/>
-      <c r="F85" s="182"/>
+      <c r="B85" s="183"/>
+      <c r="C85" s="183"/>
+      <c r="D85" s="183"/>
+      <c r="E85" s="183"/>
+      <c r="F85" s="183"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -15170,14 +16155,14 @@
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="172" t="s">
+      <c r="A88" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="172"/>
-      <c r="C88" s="172"/>
-      <c r="D88" s="172"/>
-      <c r="E88" s="172"/>
-      <c r="F88" s="172"/>
+      <c r="B88" s="186"/>
+      <c r="C88" s="186"/>
+      <c r="D88" s="186"/>
+      <c r="E88" s="186"/>
+      <c r="F88" s="186"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="177"/>
@@ -15192,34 +16177,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B79:D79"/>
@@ -15236,6 +16193,34 @@
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{38BACF9C-0519-4039-8665-66BC4E1B76DA}">
@@ -15393,14 +16378,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="175" t="s">
+      <c r="A30" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="175"/>
-      <c r="C30" s="175"/>
-      <c r="D30" s="175"/>
-      <c r="E30" s="175"/>
-      <c r="F30" s="175"/>
+      <c r="B30" s="184"/>
+      <c r="C30" s="184"/>
+      <c r="D30" s="184"/>
+      <c r="E30" s="184"/>
+      <c r="F30" s="184"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -15421,267 +16406,267 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="174"/>
-      <c r="C33" s="174"/>
-      <c r="D33" s="174"/>
+      <c r="B33" s="181"/>
+      <c r="C33" s="181"/>
+      <c r="D33" s="181"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="174"/>
-      <c r="C34" s="174"/>
-      <c r="D34" s="174"/>
+      <c r="B34" s="181"/>
+      <c r="C34" s="181"/>
+      <c r="D34" s="181"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="174" t="s">
+      <c r="B35" s="181" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="174"/>
-      <c r="D35" s="174"/>
+      <c r="C35" s="181"/>
+      <c r="D35" s="181"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="174"/>
-      <c r="C36" s="174"/>
-      <c r="D36" s="174"/>
+      <c r="B36" s="181"/>
+      <c r="C36" s="181"/>
+      <c r="D36" s="181"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="174" t="s">
+      <c r="B37" s="181" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="174"/>
-      <c r="D37" s="174"/>
+      <c r="C37" s="181"/>
+      <c r="D37" s="181"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="174"/>
-      <c r="C38" s="174"/>
-      <c r="D38" s="174"/>
+      <c r="B38" s="181"/>
+      <c r="C38" s="181"/>
+      <c r="D38" s="181"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="174" t="s">
+      <c r="B39" s="181" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="174"/>
-      <c r="D39" s="174"/>
+      <c r="C39" s="181"/>
+      <c r="D39" s="181"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="174"/>
-      <c r="C40" s="174"/>
-      <c r="D40" s="174"/>
+      <c r="B40" s="181"/>
+      <c r="C40" s="181"/>
+      <c r="D40" s="181"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="174" t="s">
+      <c r="B41" s="181" t="s">
         <v>93</v>
       </c>
-      <c r="C41" s="174"/>
-      <c r="D41" s="174"/>
+      <c r="C41" s="181"/>
+      <c r="D41" s="181"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="174"/>
-      <c r="C42" s="174"/>
-      <c r="D42" s="174"/>
+      <c r="B42" s="181"/>
+      <c r="C42" s="181"/>
+      <c r="D42" s="181"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="174" t="s">
+      <c r="B43" s="181" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="174"/>
-      <c r="D43" s="174"/>
+      <c r="C43" s="181"/>
+      <c r="D43" s="181"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="174"/>
-      <c r="C44" s="174"/>
-      <c r="D44" s="174"/>
+      <c r="B44" s="181"/>
+      <c r="C44" s="181"/>
+      <c r="D44" s="181"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="174" t="s">
+      <c r="B45" s="181" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="174"/>
-      <c r="D45" s="174"/>
+      <c r="C45" s="181"/>
+      <c r="D45" s="181"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="174"/>
-      <c r="C46" s="174"/>
-      <c r="D46" s="174"/>
+      <c r="B46" s="181"/>
+      <c r="C46" s="181"/>
+      <c r="D46" s="181"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="174" t="s">
+      <c r="B47" s="181" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="174"/>
-      <c r="D47" s="174"/>
+      <c r="C47" s="181"/>
+      <c r="D47" s="181"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="174"/>
-      <c r="C48" s="174"/>
-      <c r="D48" s="174"/>
+      <c r="B48" s="181"/>
+      <c r="C48" s="181"/>
+      <c r="D48" s="181"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="174" t="s">
+      <c r="B49" s="181" t="s">
         <v>118</v>
       </c>
-      <c r="C49" s="174"/>
-      <c r="D49" s="174"/>
+      <c r="C49" s="181"/>
+      <c r="D49" s="181"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="174"/>
-      <c r="C50" s="174"/>
-      <c r="D50" s="174"/>
+      <c r="B50" s="181"/>
+      <c r="C50" s="181"/>
+      <c r="D50" s="181"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="174" t="s">
+      <c r="B51" s="181" t="s">
         <v>119</v>
       </c>
-      <c r="C51" s="174"/>
-      <c r="D51" s="174"/>
+      <c r="C51" s="181"/>
+      <c r="D51" s="181"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="174"/>
-      <c r="C52" s="174"/>
-      <c r="D52" s="174"/>
+      <c r="B52" s="181"/>
+      <c r="C52" s="181"/>
+      <c r="D52" s="181"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="174"/>
-      <c r="C53" s="174"/>
-      <c r="D53" s="174"/>
+      <c r="B53" s="181"/>
+      <c r="C53" s="181"/>
+      <c r="D53" s="181"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="174"/>
-      <c r="C54" s="174"/>
-      <c r="D54" s="174"/>
+      <c r="B54" s="181"/>
+      <c r="C54" s="181"/>
+      <c r="D54" s="181"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="174"/>
-      <c r="C55" s="174"/>
-      <c r="D55" s="174"/>
+      <c r="B55" s="181"/>
+      <c r="C55" s="181"/>
+      <c r="D55" s="181"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="174"/>
-      <c r="C56" s="174"/>
-      <c r="D56" s="174"/>
+      <c r="B56" s="181"/>
+      <c r="C56" s="181"/>
+      <c r="D56" s="181"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="174"/>
-      <c r="C57" s="174"/>
-      <c r="D57" s="174"/>
+      <c r="B57" s="181"/>
+      <c r="C57" s="181"/>
+      <c r="D57" s="181"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="174"/>
-      <c r="C58" s="174"/>
-      <c r="D58" s="174"/>
+      <c r="B58" s="181"/>
+      <c r="C58" s="181"/>
+      <c r="D58" s="181"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="174"/>
-      <c r="C59" s="174"/>
-      <c r="D59" s="174"/>
+      <c r="B59" s="181"/>
+      <c r="C59" s="181"/>
+      <c r="D59" s="181"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="174"/>
-      <c r="C60" s="174"/>
-      <c r="D60" s="174"/>
+      <c r="B60" s="181"/>
+      <c r="C60" s="181"/>
+      <c r="D60" s="181"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="174"/>
-      <c r="C61" s="174"/>
-      <c r="D61" s="174"/>
+      <c r="B61" s="181"/>
+      <c r="C61" s="181"/>
+      <c r="D61" s="181"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="174"/>
-      <c r="C62" s="174"/>
-      <c r="D62" s="174"/>
+      <c r="B62" s="181"/>
+      <c r="C62" s="181"/>
+      <c r="D62" s="181"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="174"/>
-      <c r="C63" s="174"/>
-      <c r="D63" s="174"/>
+      <c r="B63" s="181"/>
+      <c r="C63" s="181"/>
+      <c r="D63" s="181"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
@@ -15711,17 +16696,17 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="174"/>
-      <c r="C66" s="174"/>
-      <c r="D66" s="174"/>
+      <c r="B66" s="181"/>
+      <c r="C66" s="181"/>
+      <c r="D66" s="181"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="174"/>
-      <c r="C67" s="174"/>
-      <c r="D67" s="174"/>
+      <c r="B67" s="181"/>
+      <c r="C67" s="181"/>
+      <c r="D67" s="181"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
@@ -15828,19 +16813,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="176"/>
-      <c r="C76" s="176"/>
-      <c r="D76" s="176"/>
+      <c r="B76" s="185"/>
+      <c r="C76" s="185"/>
+      <c r="D76" s="185"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="181" t="s">
+      <c r="B77" s="182" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="181"/>
-      <c r="D77" s="181"/>
+      <c r="C77" s="182"/>
+      <c r="D77" s="182"/>
       <c r="E77" s="36">
         <v>0</v>
       </c>
@@ -15848,9 +16833,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="176"/>
-      <c r="C78" s="176"/>
-      <c r="D78" s="176"/>
+      <c r="B78" s="185"/>
+      <c r="C78" s="185"/>
+      <c r="D78" s="185"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
@@ -15892,24 +16877,24 @@
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="173" t="s">
+      <c r="A83" s="187" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="173"/>
-      <c r="C83" s="173"/>
-      <c r="D83" s="173"/>
-      <c r="E83" s="173"/>
-      <c r="F83" s="173"/>
+      <c r="B83" s="187"/>
+      <c r="C83" s="187"/>
+      <c r="D83" s="187"/>
+      <c r="E83" s="187"/>
+      <c r="F83" s="187"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="182" t="s">
+      <c r="A84" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="182"/>
-      <c r="C84" s="182"/>
-      <c r="D84" s="182"/>
-      <c r="E84" s="182"/>
-      <c r="F84" s="182"/>
+      <c r="B84" s="183"/>
+      <c r="C84" s="183"/>
+      <c r="D84" s="183"/>
+      <c r="E84" s="183"/>
+      <c r="F84" s="183"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
@@ -15928,14 +16913,14 @@
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="172" t="s">
+      <c r="A87" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="172"/>
-      <c r="C87" s="172"/>
-      <c r="D87" s="172"/>
-      <c r="E87" s="172"/>
-      <c r="F87" s="172"/>
+      <c r="B87" s="186"/>
+      <c r="C87" s="186"/>
+      <c r="D87" s="186"/>
+      <c r="E87" s="186"/>
+      <c r="F87" s="186"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="177"/>
@@ -15950,13 +16935,30 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B57:D57"/>
@@ -15969,30 +16971,13 @@
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B67:D67"/>
     <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="A87:F87"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76:B78 B12:B20 B33:B67" xr:uid="{C7E65DEC-BCCC-4AE1-BB5C-3D439F535B6F}">

--- a/Factures_Excel/1388 - 9307-2411 Québec Inc..xlsx
+++ b/Factures_Excel/1388 - 9307-2411 Québec Inc..xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\Factures_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0385D0F-756B-458B-A79F-3A3D595C42C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5C980F-EA1B-496F-8AEA-1A2ED6C2E8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" firstSheet="3" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" firstSheet="3" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="26-04-18" sheetId="4" r:id="rId1"/>
@@ -31,6 +31,8 @@
     <sheet name="2024-12-21 - 24-24689" sheetId="19" r:id="rId16"/>
     <sheet name="2025-03-01 - 25-24750" sheetId="20" r:id="rId17"/>
     <sheet name="2025-03-30 - 25-24839" sheetId="21" r:id="rId18"/>
+    <sheet name="2025-05-17 - 25-24935" sheetId="22" r:id="rId19"/>
+    <sheet name="2025-05-17 - 25-24936" sheetId="23" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="dnrServices">OFFSET(#REF!,,,COUNTA(#REF!)-1,1)</definedName>
@@ -57,6 +59,8 @@
     <definedName name="_xlnm.Print_Area" localSheetId="15">'2024-12-21 - 24-24689'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="16">'2025-03-01 - 25-24750'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="17">'2025-03-30 - 25-24839'!$A$1:$F$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="18">'2025-05-17 - 25-24935'!$A$1:$F$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="19">'2025-05-17 - 25-24936'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'21-03-23'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'24-03-24'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'26-04-18'!$A$1:$F$89</definedName>
@@ -82,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="228">
   <si>
     <t>NOTE D'HONORAIRES</t>
   </si>
@@ -669,6 +673,105 @@
   </si>
   <si>
     <t xml:space="preserve"> - Analyse de divers documents soumis et commentaires ;</t>
+  </si>
+  <si>
+    <t>Le 17 MAI 2025</t>
+  </si>
+  <si>
+    <t>Dany Borduas/Patrick Bilodeau et Nelson Wayne</t>
+  </si>
+  <si>
+    <t>Fiducie Familiale Dany Borduas, Fiducie Familiale Patrick Bilodeau et Nelson Declercq Family Trust</t>
+  </si>
+  <si>
+    <t>25-24935</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Préparation à diverses rencontres et rencontres avec vous par Vidéoconférence;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Recueullir les différentes informations pertinentes à l'élaboration de la planification fiscale;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Préparation des directives légales de mise à jours des différents livres des minutes ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Analyse, réflexions et recherches fiscales permettant de déterminer le plan d'action fiscal optimal;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Rédaction de directives aux juristes afin de mettre en place la planification fiscale;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Répondre aux diverses demandes de vérifications diligentes ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Support dans le cadre de la vente des actions des différentes sociétés ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Travail relativement aux avances inter-sociétés, analyse des transactions à mettre en place et directives ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Support comptable dans le cadre de la transaction de vente des actions ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Préparation d'organigrammes corporatifs demandés ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Recherches et analyses fiscales requises dans le cadre de la vente des diverses sociétés;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Révision de la documentation juridique afférente à la vente des diverses sociétés;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Divers calculs effectués en lien avec la mise en place, notamment sur la répartition du prix de vente et divers ajustements;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Préparation du formulaire T2027règlement de dette lors de la liquidation de filiale;</t>
+  </si>
+  <si>
+    <t>NELSON DECLERCQ</t>
+  </si>
+  <si>
+    <t>10178840 MANITOBA LTD</t>
+  </si>
+  <si>
+    <t>5, BEVERLEY BAY</t>
+  </si>
+  <si>
+    <t>OAKBANK, MANITOBA, R5N 0N3</t>
+  </si>
+  <si>
+    <t>25-24936</t>
+  </si>
+  <si>
+    <t>FEE NOTE</t>
+  </si>
+  <si>
+    <t>Billing for work carried out, including:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Various telephone discussions with you;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Reading, analyzing and writing various emails with various stakeholders;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Analysis, reflections and tax research to determine the optimal tax action plan;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Drafting guidelines for lawyers to implement tax planning;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Review of the legal documentation relating to this reorganization;</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Total - Professionnal Fees</t>
   </si>
 </sst>
 </file>
@@ -1705,6 +1808,9 @@
     <xf numFmtId="170" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="24" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1794,9 +1900,6 @@
     </xf>
     <xf numFmtId="0" fontId="48" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="24" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2364,6 +2467,138 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{228114AE-920D-F46E-B816-5089830E3780}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="11678161" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18433" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B575EDB-A928-0645-6653-6E50DAE02B1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="11678161" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19457" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72150B2D-EB2B-84FA-CFDF-5FA64EAA357B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3277,14 +3512,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="184" t="s">
+      <c r="A30" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="184"/>
-      <c r="C30" s="184"/>
-      <c r="D30" s="184"/>
-      <c r="E30" s="184"/>
-      <c r="F30" s="184"/>
+      <c r="B30" s="185"/>
+      <c r="C30" s="185"/>
+      <c r="D30" s="185"/>
+      <c r="E30" s="185"/>
+      <c r="F30" s="185"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -3305,261 +3540,261 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="181"/>
-      <c r="C33" s="181"/>
-      <c r="D33" s="181"/>
+      <c r="B33" s="182"/>
+      <c r="C33" s="182"/>
+      <c r="D33" s="182"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="181"/>
-      <c r="C34" s="181"/>
-      <c r="D34" s="181"/>
+      <c r="B34" s="182"/>
+      <c r="C34" s="182"/>
+      <c r="D34" s="182"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="181" t="s">
+      <c r="B35" s="182" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="181"/>
-      <c r="D35" s="181"/>
+      <c r="C35" s="182"/>
+      <c r="D35" s="182"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="181"/>
-      <c r="C36" s="181"/>
-      <c r="D36" s="181"/>
+      <c r="B36" s="182"/>
+      <c r="C36" s="182"/>
+      <c r="D36" s="182"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="181"/>
-      <c r="C37" s="181"/>
-      <c r="D37" s="181"/>
+      <c r="B37" s="182"/>
+      <c r="C37" s="182"/>
+      <c r="D37" s="182"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="181" t="s">
+      <c r="B38" s="182" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="181"/>
-      <c r="D38" s="181"/>
+      <c r="C38" s="182"/>
+      <c r="D38" s="182"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="181"/>
-      <c r="C39" s="181"/>
-      <c r="D39" s="181"/>
+      <c r="B39" s="182"/>
+      <c r="C39" s="182"/>
+      <c r="D39" s="182"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="181"/>
-      <c r="C40" s="181"/>
-      <c r="D40" s="181"/>
+      <c r="B40" s="182"/>
+      <c r="C40" s="182"/>
+      <c r="D40" s="182"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="181"/>
-      <c r="C41" s="181"/>
-      <c r="D41" s="181"/>
+      <c r="B41" s="182"/>
+      <c r="C41" s="182"/>
+      <c r="D41" s="182"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="181"/>
-      <c r="C42" s="181"/>
-      <c r="D42" s="181"/>
+      <c r="B42" s="182"/>
+      <c r="C42" s="182"/>
+      <c r="D42" s="182"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="181"/>
-      <c r="C43" s="181"/>
-      <c r="D43" s="181"/>
+      <c r="B43" s="182"/>
+      <c r="C43" s="182"/>
+      <c r="D43" s="182"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="181"/>
-      <c r="C44" s="181"/>
-      <c r="D44" s="181"/>
+      <c r="B44" s="182"/>
+      <c r="C44" s="182"/>
+      <c r="D44" s="182"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="181"/>
-      <c r="C45" s="181"/>
-      <c r="D45" s="181"/>
+      <c r="B45" s="182"/>
+      <c r="C45" s="182"/>
+      <c r="D45" s="182"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="181"/>
-      <c r="C46" s="181"/>
-      <c r="D46" s="181"/>
+      <c r="B46" s="182"/>
+      <c r="C46" s="182"/>
+      <c r="D46" s="182"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="181"/>
-      <c r="C47" s="181"/>
-      <c r="D47" s="181"/>
+      <c r="B47" s="182"/>
+      <c r="C47" s="182"/>
+      <c r="D47" s="182"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="181"/>
-      <c r="C48" s="181"/>
-      <c r="D48" s="181"/>
+      <c r="B48" s="182"/>
+      <c r="C48" s="182"/>
+      <c r="D48" s="182"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="181"/>
-      <c r="C49" s="181"/>
-      <c r="D49" s="181"/>
+      <c r="B49" s="182"/>
+      <c r="C49" s="182"/>
+      <c r="D49" s="182"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="181"/>
-      <c r="C50" s="181"/>
-      <c r="D50" s="181"/>
+      <c r="B50" s="182"/>
+      <c r="C50" s="182"/>
+      <c r="D50" s="182"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="181"/>
-      <c r="C51" s="181"/>
-      <c r="D51" s="181"/>
+      <c r="B51" s="182"/>
+      <c r="C51" s="182"/>
+      <c r="D51" s="182"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="181"/>
-      <c r="C52" s="181"/>
-      <c r="D52" s="181"/>
+      <c r="B52" s="182"/>
+      <c r="C52" s="182"/>
+      <c r="D52" s="182"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="181"/>
-      <c r="C53" s="181"/>
-      <c r="D53" s="181"/>
+      <c r="B53" s="182"/>
+      <c r="C53" s="182"/>
+      <c r="D53" s="182"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="181"/>
-      <c r="C54" s="181"/>
-      <c r="D54" s="181"/>
+      <c r="B54" s="182"/>
+      <c r="C54" s="182"/>
+      <c r="D54" s="182"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="181"/>
-      <c r="C55" s="181"/>
-      <c r="D55" s="181"/>
+      <c r="B55" s="182"/>
+      <c r="C55" s="182"/>
+      <c r="D55" s="182"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="181"/>
-      <c r="C56" s="181"/>
-      <c r="D56" s="181"/>
+      <c r="B56" s="182"/>
+      <c r="C56" s="182"/>
+      <c r="D56" s="182"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="181"/>
-      <c r="C57" s="181"/>
-      <c r="D57" s="181"/>
+      <c r="B57" s="182"/>
+      <c r="C57" s="182"/>
+      <c r="D57" s="182"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="181"/>
-      <c r="C58" s="181"/>
-      <c r="D58" s="181"/>
+      <c r="B58" s="182"/>
+      <c r="C58" s="182"/>
+      <c r="D58" s="182"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="181"/>
-      <c r="C59" s="181"/>
-      <c r="D59" s="181"/>
+      <c r="B59" s="182"/>
+      <c r="C59" s="182"/>
+      <c r="D59" s="182"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="181"/>
-      <c r="C60" s="181"/>
-      <c r="D60" s="181"/>
+      <c r="B60" s="182"/>
+      <c r="C60" s="182"/>
+      <c r="D60" s="182"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="181"/>
-      <c r="C61" s="181"/>
-      <c r="D61" s="181"/>
+      <c r="B61" s="182"/>
+      <c r="C61" s="182"/>
+      <c r="D61" s="182"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="181"/>
-      <c r="C62" s="181"/>
-      <c r="D62" s="181"/>
+      <c r="B62" s="182"/>
+      <c r="C62" s="182"/>
+      <c r="D62" s="182"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="181"/>
-      <c r="C63" s="181"/>
-      <c r="D63" s="181"/>
+      <c r="B63" s="182"/>
+      <c r="C63" s="182"/>
+      <c r="D63" s="182"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="181"/>
-      <c r="C64" s="181"/>
-      <c r="D64" s="181"/>
+      <c r="B64" s="182"/>
+      <c r="C64" s="182"/>
+      <c r="D64" s="182"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -3589,17 +3824,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="181"/>
-      <c r="C67" s="181"/>
-      <c r="D67" s="181"/>
+      <c r="B67" s="182"/>
+      <c r="C67" s="182"/>
+      <c r="D67" s="182"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="181"/>
-      <c r="C68" s="181"/>
-      <c r="D68" s="181"/>
+      <c r="B68" s="182"/>
+      <c r="C68" s="182"/>
+      <c r="D68" s="182"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -3706,19 +3941,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="185"/>
-      <c r="C77" s="185"/>
-      <c r="D77" s="185"/>
+      <c r="B77" s="186"/>
+      <c r="C77" s="186"/>
+      <c r="D77" s="186"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="182" t="s">
+      <c r="B78" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="182"/>
-      <c r="D78" s="182"/>
+      <c r="C78" s="183"/>
+      <c r="D78" s="183"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -3726,9 +3961,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="185"/>
-      <c r="C79" s="185"/>
-      <c r="D79" s="185"/>
+      <c r="B79" s="186"/>
+      <c r="C79" s="186"/>
+      <c r="D79" s="186"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -3763,31 +3998,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="179"/>
-      <c r="C83" s="179"/>
-      <c r="D83" s="179"/>
-      <c r="E83" s="179"/>
+      <c r="B83" s="180"/>
+      <c r="C83" s="180"/>
+      <c r="D83" s="180"/>
+      <c r="E83" s="180"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="187" t="s">
+      <c r="A84" s="188" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="187"/>
-      <c r="C84" s="187"/>
-      <c r="D84" s="187"/>
-      <c r="E84" s="187"/>
-      <c r="F84" s="187"/>
+      <c r="B84" s="188"/>
+      <c r="C84" s="188"/>
+      <c r="D84" s="188"/>
+      <c r="E84" s="188"/>
+      <c r="F84" s="188"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="183" t="s">
+      <c r="A85" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="183"/>
-      <c r="C85" s="183"/>
-      <c r="D85" s="183"/>
-      <c r="E85" s="183"/>
-      <c r="F85" s="183"/>
+      <c r="B85" s="184"/>
+      <c r="C85" s="184"/>
+      <c r="D85" s="184"/>
+      <c r="E85" s="184"/>
+      <c r="F85" s="184"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -3799,26 +4034,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="180"/>
-      <c r="C87" s="180"/>
-      <c r="D87" s="180"/>
-      <c r="E87" s="180"/>
+      <c r="B87" s="181"/>
+      <c r="C87" s="181"/>
+      <c r="D87" s="181"/>
+      <c r="E87" s="181"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="186" t="s">
+      <c r="A88" s="187" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="186"/>
-      <c r="C88" s="186"/>
-      <c r="D88" s="186"/>
-      <c r="E88" s="186"/>
-      <c r="F88" s="186"/>
+      <c r="B88" s="187"/>
+      <c r="C88" s="187"/>
+      <c r="D88" s="187"/>
+      <c r="E88" s="187"/>
+      <c r="F88" s="187"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="177"/>
-      <c r="C90" s="178"/>
-      <c r="D90" s="178"/>
+      <c r="B90" s="178"/>
+      <c r="C90" s="179"/>
+      <c r="D90" s="179"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -4030,14 +4265,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="184" t="s">
+      <c r="A30" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="184"/>
-      <c r="C30" s="184"/>
-      <c r="D30" s="184"/>
-      <c r="E30" s="184"/>
-      <c r="F30" s="184"/>
+      <c r="B30" s="185"/>
+      <c r="C30" s="185"/>
+      <c r="D30" s="185"/>
+      <c r="E30" s="185"/>
+      <c r="F30" s="185"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -4058,259 +4293,259 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="181"/>
-      <c r="C33" s="181"/>
-      <c r="D33" s="181"/>
+      <c r="B33" s="182"/>
+      <c r="C33" s="182"/>
+      <c r="D33" s="182"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="181"/>
-      <c r="C34" s="181"/>
-      <c r="D34" s="181"/>
+      <c r="B34" s="182"/>
+      <c r="C34" s="182"/>
+      <c r="D34" s="182"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="181" t="s">
+      <c r="B35" s="182" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="181"/>
-      <c r="D35" s="181"/>
+      <c r="C35" s="182"/>
+      <c r="D35" s="182"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="181"/>
-      <c r="C36" s="181"/>
-      <c r="D36" s="181"/>
+      <c r="B36" s="182"/>
+      <c r="C36" s="182"/>
+      <c r="D36" s="182"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="181" t="s">
+      <c r="B37" s="182" t="s">
         <v>122</v>
       </c>
-      <c r="C37" s="181"/>
-      <c r="D37" s="181"/>
+      <c r="C37" s="182"/>
+      <c r="D37" s="182"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="181"/>
-      <c r="C38" s="181"/>
-      <c r="D38" s="181"/>
+      <c r="B38" s="182"/>
+      <c r="C38" s="182"/>
+      <c r="D38" s="182"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="181" t="s">
+      <c r="B39" s="182" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="181"/>
-      <c r="D39" s="181"/>
+      <c r="C39" s="182"/>
+      <c r="D39" s="182"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="181"/>
-      <c r="C40" s="181"/>
-      <c r="D40" s="181"/>
+      <c r="B40" s="182"/>
+      <c r="C40" s="182"/>
+      <c r="D40" s="182"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="181" t="s">
+      <c r="B41" s="182" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="181"/>
-      <c r="D41" s="181"/>
+      <c r="C41" s="182"/>
+      <c r="D41" s="182"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="181"/>
-      <c r="C42" s="181"/>
-      <c r="D42" s="181"/>
+      <c r="B42" s="182"/>
+      <c r="C42" s="182"/>
+      <c r="D42" s="182"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="181" t="s">
+      <c r="B43" s="182" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="181"/>
-      <c r="D43" s="181"/>
+      <c r="C43" s="182"/>
+      <c r="D43" s="182"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="181"/>
-      <c r="C44" s="181"/>
-      <c r="D44" s="181"/>
+      <c r="B44" s="182"/>
+      <c r="C44" s="182"/>
+      <c r="D44" s="182"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="181"/>
-      <c r="C45" s="181"/>
-      <c r="D45" s="181"/>
+      <c r="B45" s="182"/>
+      <c r="C45" s="182"/>
+      <c r="D45" s="182"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="181"/>
-      <c r="C46" s="181"/>
-      <c r="D46" s="181"/>
+      <c r="B46" s="182"/>
+      <c r="C46" s="182"/>
+      <c r="D46" s="182"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="181"/>
-      <c r="C47" s="181"/>
-      <c r="D47" s="181"/>
+      <c r="B47" s="182"/>
+      <c r="C47" s="182"/>
+      <c r="D47" s="182"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="181"/>
-      <c r="C48" s="181"/>
-      <c r="D48" s="181"/>
+      <c r="B48" s="182"/>
+      <c r="C48" s="182"/>
+      <c r="D48" s="182"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="181"/>
-      <c r="C49" s="181"/>
-      <c r="D49" s="181"/>
+      <c r="B49" s="182"/>
+      <c r="C49" s="182"/>
+      <c r="D49" s="182"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="181"/>
-      <c r="C50" s="181"/>
-      <c r="D50" s="181"/>
+      <c r="B50" s="182"/>
+      <c r="C50" s="182"/>
+      <c r="D50" s="182"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="181"/>
-      <c r="C51" s="181"/>
-      <c r="D51" s="181"/>
+      <c r="B51" s="182"/>
+      <c r="C51" s="182"/>
+      <c r="D51" s="182"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="181"/>
-      <c r="C52" s="181"/>
-      <c r="D52" s="181"/>
+      <c r="B52" s="182"/>
+      <c r="C52" s="182"/>
+      <c r="D52" s="182"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="181"/>
-      <c r="C53" s="181"/>
-      <c r="D53" s="181"/>
+      <c r="B53" s="182"/>
+      <c r="C53" s="182"/>
+      <c r="D53" s="182"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="181"/>
-      <c r="C54" s="181"/>
-      <c r="D54" s="181"/>
+      <c r="B54" s="182"/>
+      <c r="C54" s="182"/>
+      <c r="D54" s="182"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="181"/>
-      <c r="C55" s="181"/>
-      <c r="D55" s="181"/>
+      <c r="B55" s="182"/>
+      <c r="C55" s="182"/>
+      <c r="D55" s="182"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="181"/>
-      <c r="C56" s="181"/>
-      <c r="D56" s="181"/>
+      <c r="B56" s="182"/>
+      <c r="C56" s="182"/>
+      <c r="D56" s="182"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="181"/>
-      <c r="C57" s="181"/>
-      <c r="D57" s="181"/>
+      <c r="B57" s="182"/>
+      <c r="C57" s="182"/>
+      <c r="D57" s="182"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="181"/>
-      <c r="C58" s="181"/>
-      <c r="D58" s="181"/>
+      <c r="B58" s="182"/>
+      <c r="C58" s="182"/>
+      <c r="D58" s="182"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="181"/>
-      <c r="C59" s="181"/>
-      <c r="D59" s="181"/>
+      <c r="B59" s="182"/>
+      <c r="C59" s="182"/>
+      <c r="D59" s="182"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="181"/>
-      <c r="C60" s="181"/>
-      <c r="D60" s="181"/>
+      <c r="B60" s="182"/>
+      <c r="C60" s="182"/>
+      <c r="D60" s="182"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="181"/>
-      <c r="C61" s="181"/>
-      <c r="D61" s="181"/>
+      <c r="B61" s="182"/>
+      <c r="C61" s="182"/>
+      <c r="D61" s="182"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="181"/>
-      <c r="C62" s="181"/>
-      <c r="D62" s="181"/>
+      <c r="B62" s="182"/>
+      <c r="C62" s="182"/>
+      <c r="D62" s="182"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="181"/>
-      <c r="C63" s="181"/>
-      <c r="D63" s="181"/>
+      <c r="B63" s="182"/>
+      <c r="C63" s="182"/>
+      <c r="D63" s="182"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
@@ -4340,17 +4575,17 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="181"/>
-      <c r="C66" s="181"/>
-      <c r="D66" s="181"/>
+      <c r="B66" s="182"/>
+      <c r="C66" s="182"/>
+      <c r="D66" s="182"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="181"/>
-      <c r="C67" s="181"/>
-      <c r="D67" s="181"/>
+      <c r="B67" s="182"/>
+      <c r="C67" s="182"/>
+      <c r="D67" s="182"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
@@ -4457,19 +4692,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="185"/>
-      <c r="C76" s="185"/>
-      <c r="D76" s="185"/>
+      <c r="B76" s="186"/>
+      <c r="C76" s="186"/>
+      <c r="D76" s="186"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="182" t="s">
+      <c r="B77" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="182"/>
-      <c r="D77" s="182"/>
+      <c r="C77" s="183"/>
+      <c r="D77" s="183"/>
       <c r="E77" s="36">
         <v>0</v>
       </c>
@@ -4477,9 +4712,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="185"/>
-      <c r="C78" s="185"/>
-      <c r="D78" s="185"/>
+      <c r="B78" s="186"/>
+      <c r="C78" s="186"/>
+      <c r="D78" s="186"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
@@ -4514,31 +4749,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="179"/>
-      <c r="C82" s="179"/>
-      <c r="D82" s="179"/>
-      <c r="E82" s="179"/>
+      <c r="B82" s="180"/>
+      <c r="C82" s="180"/>
+      <c r="D82" s="180"/>
+      <c r="E82" s="180"/>
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="187" t="s">
+      <c r="A83" s="188" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="187"/>
-      <c r="C83" s="187"/>
-      <c r="D83" s="187"/>
-      <c r="E83" s="187"/>
-      <c r="F83" s="187"/>
+      <c r="B83" s="188"/>
+      <c r="C83" s="188"/>
+      <c r="D83" s="188"/>
+      <c r="E83" s="188"/>
+      <c r="F83" s="188"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="183" t="s">
+      <c r="A84" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="183"/>
-      <c r="C84" s="183"/>
-      <c r="D84" s="183"/>
-      <c r="E84" s="183"/>
-      <c r="F84" s="183"/>
+      <c r="B84" s="184"/>
+      <c r="C84" s="184"/>
+      <c r="D84" s="184"/>
+      <c r="E84" s="184"/>
+      <c r="F84" s="184"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
@@ -4550,26 +4785,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="180"/>
-      <c r="C86" s="180"/>
-      <c r="D86" s="180"/>
-      <c r="E86" s="180"/>
+      <c r="B86" s="181"/>
+      <c r="C86" s="181"/>
+      <c r="D86" s="181"/>
+      <c r="E86" s="181"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="186" t="s">
+      <c r="A87" s="187" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="186"/>
-      <c r="C87" s="186"/>
-      <c r="D87" s="186"/>
-      <c r="E87" s="186"/>
-      <c r="F87" s="186"/>
+      <c r="B87" s="187"/>
+      <c r="C87" s="187"/>
+      <c r="D87" s="187"/>
+      <c r="E87" s="187"/>
+      <c r="F87" s="187"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="177"/>
-      <c r="C89" s="178"/>
-      <c r="D89" s="178"/>
+      <c r="B89" s="178"/>
+      <c r="C89" s="179"/>
+      <c r="D89" s="179"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -4779,14 +5014,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="184" t="s">
+      <c r="A30" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="184"/>
-      <c r="C30" s="184"/>
-      <c r="D30" s="184"/>
-      <c r="E30" s="184"/>
-      <c r="F30" s="184"/>
+      <c r="B30" s="185"/>
+      <c r="C30" s="185"/>
+      <c r="D30" s="185"/>
+      <c r="E30" s="185"/>
+      <c r="F30" s="185"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -4807,265 +5042,265 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="181"/>
-      <c r="C33" s="181"/>
-      <c r="D33" s="181"/>
+      <c r="B33" s="182"/>
+      <c r="C33" s="182"/>
+      <c r="D33" s="182"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="181"/>
-      <c r="C34" s="181"/>
-      <c r="D34" s="181"/>
+      <c r="B34" s="182"/>
+      <c r="C34" s="182"/>
+      <c r="D34" s="182"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="181" t="s">
+      <c r="B35" s="182" t="s">
         <v>126</v>
       </c>
-      <c r="C35" s="181"/>
-      <c r="D35" s="181"/>
+      <c r="C35" s="182"/>
+      <c r="D35" s="182"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="181"/>
-      <c r="C36" s="181"/>
-      <c r="D36" s="181"/>
+      <c r="B36" s="182"/>
+      <c r="C36" s="182"/>
+      <c r="D36" s="182"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="181" t="s">
+      <c r="B37" s="182" t="s">
         <v>127</v>
       </c>
-      <c r="C37" s="181"/>
-      <c r="D37" s="181"/>
+      <c r="C37" s="182"/>
+      <c r="D37" s="182"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="181"/>
-      <c r="C38" s="181"/>
-      <c r="D38" s="181"/>
+      <c r="B38" s="182"/>
+      <c r="C38" s="182"/>
+      <c r="D38" s="182"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="181" t="s">
+      <c r="B39" s="182" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="181"/>
-      <c r="D39" s="181"/>
+      <c r="C39" s="182"/>
+      <c r="D39" s="182"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="181"/>
-      <c r="C40" s="181"/>
-      <c r="D40" s="181"/>
+      <c r="B40" s="182"/>
+      <c r="C40" s="182"/>
+      <c r="D40" s="182"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="181" t="s">
+      <c r="B41" s="182" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="181"/>
-      <c r="D41" s="181"/>
+      <c r="C41" s="182"/>
+      <c r="D41" s="182"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="181"/>
-      <c r="C42" s="181"/>
-      <c r="D42" s="181"/>
+      <c r="B42" s="182"/>
+      <c r="C42" s="182"/>
+      <c r="D42" s="182"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="181"/>
-      <c r="C43" s="181"/>
-      <c r="D43" s="181"/>
+      <c r="B43" s="182"/>
+      <c r="C43" s="182"/>
+      <c r="D43" s="182"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="181"/>
-      <c r="C44" s="181"/>
-      <c r="D44" s="181"/>
+      <c r="B44" s="182"/>
+      <c r="C44" s="182"/>
+      <c r="D44" s="182"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="181"/>
-      <c r="C45" s="181"/>
-      <c r="D45" s="181"/>
+      <c r="B45" s="182"/>
+      <c r="C45" s="182"/>
+      <c r="D45" s="182"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="181"/>
-      <c r="C46" s="181"/>
-      <c r="D46" s="181"/>
+      <c r="B46" s="182"/>
+      <c r="C46" s="182"/>
+      <c r="D46" s="182"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="181"/>
-      <c r="C47" s="181"/>
-      <c r="D47" s="181"/>
+      <c r="B47" s="182"/>
+      <c r="C47" s="182"/>
+      <c r="D47" s="182"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="181"/>
-      <c r="C48" s="181"/>
-      <c r="D48" s="181"/>
+      <c r="B48" s="182"/>
+      <c r="C48" s="182"/>
+      <c r="D48" s="182"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="181"/>
-      <c r="C49" s="181"/>
-      <c r="D49" s="181"/>
+      <c r="B49" s="182"/>
+      <c r="C49" s="182"/>
+      <c r="D49" s="182"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="181"/>
-      <c r="C50" s="181"/>
-      <c r="D50" s="181"/>
+      <c r="B50" s="182"/>
+      <c r="C50" s="182"/>
+      <c r="D50" s="182"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="181"/>
-      <c r="C51" s="181"/>
-      <c r="D51" s="181"/>
+      <c r="B51" s="182"/>
+      <c r="C51" s="182"/>
+      <c r="D51" s="182"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="181"/>
-      <c r="C52" s="181"/>
-      <c r="D52" s="181"/>
+      <c r="B52" s="182"/>
+      <c r="C52" s="182"/>
+      <c r="D52" s="182"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="181"/>
-      <c r="C53" s="181"/>
-      <c r="D53" s="181"/>
+      <c r="B53" s="182"/>
+      <c r="C53" s="182"/>
+      <c r="D53" s="182"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="181"/>
-      <c r="C54" s="181"/>
-      <c r="D54" s="181"/>
+      <c r="B54" s="182"/>
+      <c r="C54" s="182"/>
+      <c r="D54" s="182"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="181"/>
-      <c r="C55" s="181"/>
-      <c r="D55" s="181"/>
+      <c r="B55" s="182"/>
+      <c r="C55" s="182"/>
+      <c r="D55" s="182"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="181"/>
-      <c r="C56" s="181"/>
-      <c r="D56" s="181"/>
+      <c r="B56" s="182"/>
+      <c r="C56" s="182"/>
+      <c r="D56" s="182"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="181"/>
-      <c r="C57" s="181"/>
-      <c r="D57" s="181"/>
+      <c r="B57" s="182"/>
+      <c r="C57" s="182"/>
+      <c r="D57" s="182"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="181"/>
-      <c r="C58" s="181"/>
-      <c r="D58" s="181"/>
+      <c r="B58" s="182"/>
+      <c r="C58" s="182"/>
+      <c r="D58" s="182"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="181"/>
-      <c r="C59" s="181"/>
-      <c r="D59" s="181"/>
+      <c r="B59" s="182"/>
+      <c r="C59" s="182"/>
+      <c r="D59" s="182"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="181"/>
-      <c r="C60" s="181"/>
-      <c r="D60" s="181"/>
+      <c r="B60" s="182"/>
+      <c r="C60" s="182"/>
+      <c r="D60" s="182"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="181"/>
-      <c r="C61" s="181"/>
-      <c r="D61" s="181"/>
+      <c r="B61" s="182"/>
+      <c r="C61" s="182"/>
+      <c r="D61" s="182"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="181"/>
-      <c r="C62" s="181"/>
-      <c r="D62" s="181"/>
+      <c r="B62" s="182"/>
+      <c r="C62" s="182"/>
+      <c r="D62" s="182"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="181"/>
-      <c r="C63" s="181"/>
-      <c r="D63" s="181"/>
+      <c r="B63" s="182"/>
+      <c r="C63" s="182"/>
+      <c r="D63" s="182"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="181"/>
-      <c r="C64" s="181"/>
-      <c r="D64" s="181"/>
+      <c r="B64" s="182"/>
+      <c r="C64" s="182"/>
+      <c r="D64" s="182"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -5095,17 +5330,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="181"/>
-      <c r="C67" s="181"/>
-      <c r="D67" s="181"/>
+      <c r="B67" s="182"/>
+      <c r="C67" s="182"/>
+      <c r="D67" s="182"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="181"/>
-      <c r="C68" s="181"/>
-      <c r="D68" s="181"/>
+      <c r="B68" s="182"/>
+      <c r="C68" s="182"/>
+      <c r="D68" s="182"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -5212,19 +5447,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="185"/>
-      <c r="C77" s="185"/>
-      <c r="D77" s="185"/>
+      <c r="B77" s="186"/>
+      <c r="C77" s="186"/>
+      <c r="D77" s="186"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="182" t="s">
+      <c r="B78" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="182"/>
-      <c r="D78" s="182"/>
+      <c r="C78" s="183"/>
+      <c r="D78" s="183"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -5232,9 +5467,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="185"/>
-      <c r="C79" s="185"/>
-      <c r="D79" s="185"/>
+      <c r="B79" s="186"/>
+      <c r="C79" s="186"/>
+      <c r="D79" s="186"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -5269,31 +5504,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="179"/>
-      <c r="C83" s="179"/>
-      <c r="D83" s="179"/>
-      <c r="E83" s="179"/>
+      <c r="B83" s="180"/>
+      <c r="C83" s="180"/>
+      <c r="D83" s="180"/>
+      <c r="E83" s="180"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="187" t="s">
+      <c r="A84" s="188" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="187"/>
-      <c r="C84" s="187"/>
-      <c r="D84" s="187"/>
-      <c r="E84" s="187"/>
-      <c r="F84" s="187"/>
+      <c r="B84" s="188"/>
+      <c r="C84" s="188"/>
+      <c r="D84" s="188"/>
+      <c r="E84" s="188"/>
+      <c r="F84" s="188"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="183" t="s">
+      <c r="A85" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="183"/>
-      <c r="C85" s="183"/>
-      <c r="D85" s="183"/>
-      <c r="E85" s="183"/>
-      <c r="F85" s="183"/>
+      <c r="B85" s="184"/>
+      <c r="C85" s="184"/>
+      <c r="D85" s="184"/>
+      <c r="E85" s="184"/>
+      <c r="F85" s="184"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -5305,26 +5540,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="180"/>
-      <c r="C87" s="180"/>
-      <c r="D87" s="180"/>
-      <c r="E87" s="180"/>
+      <c r="B87" s="181"/>
+      <c r="C87" s="181"/>
+      <c r="D87" s="181"/>
+      <c r="E87" s="181"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="186" t="s">
+      <c r="A88" s="187" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="186"/>
-      <c r="C88" s="186"/>
-      <c r="D88" s="186"/>
-      <c r="E88" s="186"/>
-      <c r="F88" s="186"/>
+      <c r="B88" s="187"/>
+      <c r="C88" s="187"/>
+      <c r="D88" s="187"/>
+      <c r="E88" s="187"/>
+      <c r="F88" s="187"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="177"/>
-      <c r="C90" s="178"/>
-      <c r="D90" s="178"/>
+      <c r="B90" s="178"/>
+      <c r="C90" s="179"/>
+      <c r="D90" s="179"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -5413,10 +5648,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
-      <c r="B1" s="189" t="s">
+      <c r="B1" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="189"/>
+      <c r="C1" s="190"/>
       <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -6051,13 +6286,13 @@
       <c r="F29" s="70"/>
     </row>
     <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="192" t="s">
+      <c r="A30" s="193" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="192"/>
-      <c r="C30" s="192"/>
-      <c r="D30" s="192"/>
-      <c r="E30" s="192"/>
+      <c r="B30" s="193"/>
+      <c r="C30" s="193"/>
+      <c r="D30" s="193"/>
+      <c r="E30" s="193"/>
       <c r="F30" s="71"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -6520,10 +6755,10 @@
     </row>
     <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="62"/>
-      <c r="B81" s="193" t="s">
+      <c r="B81" s="194" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="193"/>
+      <c r="C81" s="194"/>
       <c r="D81" s="129"/>
       <c r="E81" s="130">
         <v>3018.09</v>
@@ -6532,10 +6767,10 @@
     </row>
     <row r="82" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="62"/>
-      <c r="B82" s="194" t="s">
+      <c r="B82" s="195" t="s">
         <v>17</v>
       </c>
-      <c r="C82" s="195"/>
+      <c r="C82" s="196"/>
       <c r="D82" s="132"/>
       <c r="E82" s="133">
         <v>3018.09</v>
@@ -6544,30 +6779,30 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="134"/>
-      <c r="B83" s="196"/>
-      <c r="C83" s="197"/>
-      <c r="D83" s="198"/>
-      <c r="E83" s="198"/>
+      <c r="B83" s="197"/>
+      <c r="C83" s="198"/>
+      <c r="D83" s="199"/>
+      <c r="E83" s="199"/>
       <c r="F83" s="135"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="199" t="s">
+      <c r="A84" s="200" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="199"/>
-      <c r="C84" s="199"/>
-      <c r="D84" s="200"/>
-      <c r="E84" s="200"/>
+      <c r="B84" s="200"/>
+      <c r="C84" s="200"/>
+      <c r="D84" s="201"/>
+      <c r="E84" s="201"/>
       <c r="F84" s="54"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="201" t="s">
+      <c r="A85" s="202" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="201"/>
-      <c r="C85" s="201"/>
-      <c r="D85" s="202"/>
-      <c r="E85" s="202"/>
+      <c r="B85" s="202"/>
+      <c r="C85" s="202"/>
+      <c r="D85" s="203"/>
+      <c r="E85" s="203"/>
       <c r="F85" s="50"/>
     </row>
     <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -6587,21 +6822,21 @@
       <c r="F87" s="50"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="186" t="s">
+      <c r="A88" s="187" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="186"/>
-      <c r="C88" s="186"/>
-      <c r="D88" s="186"/>
-      <c r="E88" s="186"/>
-      <c r="F88" s="186"/>
+      <c r="B88" s="187"/>
+      <c r="C88" s="187"/>
+      <c r="D88" s="187"/>
+      <c r="E88" s="187"/>
+      <c r="F88" s="187"/>
     </row>
     <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="62"/>
-      <c r="B89" s="190"/>
-      <c r="C89" s="190"/>
-      <c r="D89" s="191"/>
-      <c r="E89" s="191"/>
+      <c r="B89" s="191"/>
+      <c r="C89" s="191"/>
+      <c r="D89" s="192"/>
+      <c r="E89" s="192"/>
       <c r="F89" s="50"/>
     </row>
   </sheetData>
@@ -6898,13 +7133,13 @@
       <c r="F29" s="142"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="204" t="s">
+      <c r="A30" s="205" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="204"/>
-      <c r="C30" s="204"/>
-      <c r="D30" s="204"/>
-      <c r="E30" s="204"/>
+      <c r="B30" s="205"/>
+      <c r="C30" s="205"/>
+      <c r="D30" s="205"/>
+      <c r="E30" s="205"/>
       <c r="F30" s="143"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7371,10 +7606,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="62"/>
-      <c r="B81" s="194" t="s">
+      <c r="B81" s="195" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="195"/>
+      <c r="C81" s="196"/>
       <c r="D81" s="132"/>
       <c r="E81" s="133">
         <v>1509.0500000000002</v>
@@ -7391,30 +7626,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="134"/>
-      <c r="B83" s="196"/>
-      <c r="C83" s="197"/>
-      <c r="D83" s="197"/>
-      <c r="E83" s="197"/>
+      <c r="B83" s="197"/>
+      <c r="C83" s="198"/>
+      <c r="D83" s="198"/>
+      <c r="E83" s="198"/>
       <c r="F83" s="159"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="199" t="s">
+      <c r="A84" s="200" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="199"/>
-      <c r="C84" s="199"/>
-      <c r="D84" s="199"/>
-      <c r="E84" s="199"/>
+      <c r="B84" s="200"/>
+      <c r="C84" s="200"/>
+      <c r="D84" s="200"/>
+      <c r="E84" s="200"/>
       <c r="F84" s="117"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="201" t="s">
+      <c r="A85" s="202" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="201"/>
-      <c r="C85" s="201"/>
-      <c r="D85" s="201"/>
-      <c r="E85" s="201"/>
+      <c r="B85" s="202"/>
+      <c r="C85" s="202"/>
+      <c r="D85" s="202"/>
+      <c r="E85" s="202"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7434,14 +7669,14 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="203" t="s">
+      <c r="A88" s="204" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="203"/>
-      <c r="C88" s="203"/>
-      <c r="D88" s="203"/>
-      <c r="E88" s="203"/>
-      <c r="F88" s="203"/>
+      <c r="B88" s="204"/>
+      <c r="C88" s="204"/>
+      <c r="D88" s="204"/>
+      <c r="E88" s="204"/>
+      <c r="F88" s="204"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7729,13 +7964,13 @@
       <c r="F29" s="142"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="204" t="s">
+      <c r="A30" s="205" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="204"/>
-      <c r="C30" s="204"/>
-      <c r="D30" s="204"/>
-      <c r="E30" s="204"/>
+      <c r="B30" s="205"/>
+      <c r="C30" s="205"/>
+      <c r="D30" s="205"/>
+      <c r="E30" s="205"/>
       <c r="F30" s="143"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8208,10 +8443,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="62"/>
-      <c r="B81" s="205" t="s">
+      <c r="B81" s="206" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="206"/>
+      <c r="C81" s="207"/>
       <c r="D81" s="170"/>
       <c r="E81" s="171">
         <v>4426.54</v>
@@ -8228,30 +8463,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="134"/>
-      <c r="B83" s="196"/>
-      <c r="C83" s="197"/>
-      <c r="D83" s="197"/>
-      <c r="E83" s="197"/>
+      <c r="B83" s="197"/>
+      <c r="C83" s="198"/>
+      <c r="D83" s="198"/>
+      <c r="E83" s="198"/>
       <c r="F83" s="159"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="199" t="s">
+      <c r="A84" s="200" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="199"/>
-      <c r="C84" s="199"/>
-      <c r="D84" s="199"/>
-      <c r="E84" s="199"/>
+      <c r="B84" s="200"/>
+      <c r="C84" s="200"/>
+      <c r="D84" s="200"/>
+      <c r="E84" s="200"/>
       <c r="F84" s="117"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="201" t="s">
+      <c r="A85" s="202" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="201"/>
-      <c r="C85" s="201"/>
-      <c r="D85" s="201"/>
-      <c r="E85" s="201"/>
+      <c r="B85" s="202"/>
+      <c r="C85" s="202"/>
+      <c r="D85" s="202"/>
+      <c r="E85" s="202"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8271,14 +8506,14 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="203" t="s">
+      <c r="A88" s="204" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="203"/>
-      <c r="C88" s="203"/>
-      <c r="D88" s="203"/>
-      <c r="E88" s="203"/>
-      <c r="F88" s="203"/>
+      <c r="B88" s="204"/>
+      <c r="C88" s="204"/>
+      <c r="D88" s="204"/>
+      <c r="E88" s="204"/>
+      <c r="F88" s="204"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8566,13 +8801,13 @@
       <c r="F29" s="142"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="204" t="s">
+      <c r="A30" s="205" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="204"/>
-      <c r="C30" s="204"/>
-      <c r="D30" s="204"/>
-      <c r="E30" s="204"/>
+      <c r="B30" s="205"/>
+      <c r="C30" s="205"/>
+      <c r="D30" s="205"/>
+      <c r="E30" s="205"/>
       <c r="F30" s="143"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9079,10 +9314,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="62"/>
-      <c r="B81" s="205" t="s">
+      <c r="B81" s="206" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="206"/>
+      <c r="C81" s="207"/>
       <c r="D81" s="170"/>
       <c r="E81" s="171">
         <v>16700.12</v>
@@ -9099,30 +9334,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="134"/>
-      <c r="B83" s="196"/>
-      <c r="C83" s="197"/>
-      <c r="D83" s="197"/>
-      <c r="E83" s="197"/>
+      <c r="B83" s="197"/>
+      <c r="C83" s="198"/>
+      <c r="D83" s="198"/>
+      <c r="E83" s="198"/>
       <c r="F83" s="159"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="199" t="s">
+      <c r="A84" s="200" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="199"/>
-      <c r="C84" s="199"/>
-      <c r="D84" s="199"/>
-      <c r="E84" s="199"/>
+      <c r="B84" s="200"/>
+      <c r="C84" s="200"/>
+      <c r="D84" s="200"/>
+      <c r="E84" s="200"/>
       <c r="F84" s="117"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="201" t="s">
+      <c r="A85" s="202" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="201"/>
-      <c r="C85" s="201"/>
-      <c r="D85" s="201"/>
-      <c r="E85" s="201"/>
+      <c r="B85" s="202"/>
+      <c r="C85" s="202"/>
+      <c r="D85" s="202"/>
+      <c r="E85" s="202"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -9142,14 +9377,14 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="203" t="s">
+      <c r="A88" s="204" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="203"/>
-      <c r="C88" s="203"/>
-      <c r="D88" s="203"/>
-      <c r="E88" s="203"/>
-      <c r="F88" s="203"/>
+      <c r="B88" s="204"/>
+      <c r="C88" s="204"/>
+      <c r="D88" s="204"/>
+      <c r="E88" s="204"/>
+      <c r="F88" s="204"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -9437,13 +9672,13 @@
       <c r="F29" s="142"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="204" t="s">
+      <c r="A30" s="205" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="204"/>
-      <c r="C30" s="204"/>
-      <c r="D30" s="204"/>
-      <c r="E30" s="204"/>
+      <c r="B30" s="205"/>
+      <c r="C30" s="205"/>
+      <c r="D30" s="205"/>
+      <c r="E30" s="205"/>
       <c r="F30" s="143"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9952,10 +10187,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="62"/>
-      <c r="B81" s="205" t="s">
+      <c r="B81" s="206" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="206"/>
+      <c r="C81" s="207"/>
       <c r="D81" s="170"/>
       <c r="E81" s="171">
         <v>33296.76</v>
@@ -9972,30 +10207,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="134"/>
-      <c r="B83" s="196"/>
-      <c r="C83" s="197"/>
-      <c r="D83" s="197"/>
-      <c r="E83" s="197"/>
+      <c r="B83" s="197"/>
+      <c r="C83" s="198"/>
+      <c r="D83" s="198"/>
+      <c r="E83" s="198"/>
       <c r="F83" s="159"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="199" t="s">
+      <c r="A84" s="200" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="199"/>
-      <c r="C84" s="199"/>
-      <c r="D84" s="199"/>
-      <c r="E84" s="199"/>
+      <c r="B84" s="200"/>
+      <c r="C84" s="200"/>
+      <c r="D84" s="200"/>
+      <c r="E84" s="200"/>
       <c r="F84" s="117"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="201" t="s">
+      <c r="A85" s="202" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="201"/>
-      <c r="C85" s="201"/>
-      <c r="D85" s="201"/>
-      <c r="E85" s="201"/>
+      <c r="B85" s="202"/>
+      <c r="C85" s="202"/>
+      <c r="D85" s="202"/>
+      <c r="E85" s="202"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -10015,14 +10250,14 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="203" t="s">
+      <c r="A88" s="204" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="203"/>
-      <c r="C88" s="203"/>
-      <c r="D88" s="203"/>
-      <c r="E88" s="203"/>
-      <c r="F88" s="203"/>
+      <c r="B88" s="204"/>
+      <c r="C88" s="204"/>
+      <c r="D88" s="204"/>
+      <c r="E88" s="204"/>
+      <c r="F88" s="204"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -10047,7 +10282,7 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection sqref="A1:F88"/>
     </sheetView>
   </sheetViews>
@@ -10129,7 +10364,7 @@
       <c r="A9" s="54"/>
       <c r="B9" s="54"/>
       <c r="C9" s="54"/>
-      <c r="D9" s="207"/>
+      <c r="D9" s="177"/>
       <c r="E9" s="56"/>
       <c r="F9" s="56"/>
     </row>
@@ -10310,13 +10545,13 @@
       <c r="F29" s="142"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="204" t="s">
+      <c r="A30" s="205" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="204"/>
-      <c r="C30" s="204"/>
-      <c r="D30" s="204"/>
-      <c r="E30" s="204"/>
+      <c r="B30" s="205"/>
+      <c r="C30" s="205"/>
+      <c r="D30" s="205"/>
+      <c r="E30" s="205"/>
       <c r="F30" s="143"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10821,10 +11056,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="62"/>
-      <c r="B81" s="205" t="s">
+      <c r="B81" s="206" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="206"/>
+      <c r="C81" s="207"/>
       <c r="D81" s="170"/>
       <c r="E81" s="171">
         <v>29965.360000000001</v>
@@ -10841,30 +11076,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="134"/>
-      <c r="B83" s="196"/>
-      <c r="C83" s="197"/>
-      <c r="D83" s="197"/>
-      <c r="E83" s="197"/>
+      <c r="B83" s="197"/>
+      <c r="C83" s="198"/>
+      <c r="D83" s="198"/>
+      <c r="E83" s="198"/>
       <c r="F83" s="159"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="199" t="s">
+      <c r="A84" s="200" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="199"/>
-      <c r="C84" s="199"/>
-      <c r="D84" s="199"/>
-      <c r="E84" s="199"/>
+      <c r="B84" s="200"/>
+      <c r="C84" s="200"/>
+      <c r="D84" s="200"/>
+      <c r="E84" s="200"/>
       <c r="F84" s="117"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="201" t="s">
+      <c r="A85" s="202" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="201"/>
-      <c r="C85" s="201"/>
-      <c r="D85" s="201"/>
-      <c r="E85" s="201"/>
+      <c r="B85" s="202"/>
+      <c r="C85" s="202"/>
+      <c r="D85" s="202"/>
+      <c r="E85" s="202"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -10884,23 +11119,912 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="203" t="s">
+      <c r="A88" s="204" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="203"/>
-      <c r="C88" s="203"/>
-      <c r="D88" s="203"/>
-      <c r="E88" s="203"/>
-      <c r="F88" s="203"/>
+      <c r="B88" s="204"/>
+      <c r="C88" s="204"/>
+      <c r="D88" s="204"/>
+      <c r="E88" s="204"/>
+      <c r="F88" s="204"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A88:F88"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="B81:C81"/>
     <mergeCell ref="B83:E83"/>
     <mergeCell ref="A84:E84"/>
     <mergeCell ref="A85:E85"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="119" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E956AB1A-358B-482B-9790-66A19532E699}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="177"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="54"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="54"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="54"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="54"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="54"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="54"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="54"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="54"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="54"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="62"/>
+      <c r="B21" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="62"/>
+      <c r="B23" s="59" t="s">
+        <v>196</v>
+      </c>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="62"/>
+      <c r="B24" s="63" t="s">
+        <v>197</v>
+      </c>
+      <c r="C24" s="62"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="62"/>
+      <c r="B25" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="62"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="62"/>
+      <c r="B26" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="62"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="59"/>
+      <c r="B27" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" s="62"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="62"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="67" t="s">
+        <v>198</v>
+      </c>
+      <c r="F28" s="67"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="140"/>
+      <c r="B29" s="140"/>
+      <c r="C29" s="140"/>
+      <c r="D29" s="141"/>
+      <c r="E29" s="142"/>
+      <c r="F29" s="142"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="205" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="205"/>
+      <c r="C30" s="205"/>
+      <c r="D30" s="205"/>
+      <c r="E30" s="205"/>
+      <c r="F30" s="143"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="144"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="144"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="78"/>
+      <c r="B32" s="117" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="145"/>
+      <c r="D32" s="146"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="78"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="146"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="78"/>
+      <c r="B34" s="147" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="160"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="78"/>
+      <c r="B35" s="147" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="161"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="78"/>
+      <c r="B36" s="147" t="s">
+        <v>199</v>
+      </c>
+      <c r="C36" s="160"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="78"/>
+      <c r="B37" s="147" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="160"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="78"/>
+      <c r="B38" s="147" t="s">
+        <v>200</v>
+      </c>
+      <c r="C38" s="160"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="78"/>
+      <c r="B39" s="147" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" s="160"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="78"/>
+      <c r="B40" s="147" t="s">
+        <v>201</v>
+      </c>
+      <c r="C40" s="161"/>
+      <c r="D40" s="148"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="78"/>
+      <c r="B41" s="147" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" s="160"/>
+      <c r="D41" s="148"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="78"/>
+      <c r="B42" s="147" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="160"/>
+      <c r="D42" s="148"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="78"/>
+      <c r="B43" s="147" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" s="160"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="78"/>
+      <c r="B44" s="147" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="160"/>
+      <c r="D44" s="148"/>
+      <c r="E44" s="148"/>
+      <c r="F44" s="148"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="78"/>
+      <c r="B45" s="147" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" s="160"/>
+      <c r="D45" s="148"/>
+      <c r="E45" s="148"/>
+      <c r="F45" s="148"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="78"/>
+      <c r="B46" s="147" t="s">
+        <v>202</v>
+      </c>
+      <c r="C46" s="160"/>
+      <c r="D46" s="148"/>
+      <c r="E46" s="148"/>
+      <c r="F46" s="148"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="78"/>
+      <c r="B47" s="147" t="s">
+        <v>145</v>
+      </c>
+      <c r="C47" s="160"/>
+      <c r="D47" s="148"/>
+      <c r="E47" s="148"/>
+      <c r="F47" s="148"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="78"/>
+      <c r="B48" s="147" t="s">
+        <v>203</v>
+      </c>
+      <c r="C48" s="160"/>
+      <c r="D48" s="148"/>
+      <c r="E48" s="148"/>
+      <c r="F48" s="148"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="78"/>
+      <c r="B49" s="147" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" s="160"/>
+      <c r="D49" s="148"/>
+      <c r="E49" s="148"/>
+      <c r="F49" s="148"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="78"/>
+      <c r="B50" s="147" t="s">
+        <v>204</v>
+      </c>
+      <c r="C50" s="162"/>
+      <c r="D50" s="162"/>
+      <c r="E50" s="148"/>
+      <c r="F50" s="148"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="78"/>
+      <c r="B51" s="147" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" s="160"/>
+      <c r="D51" s="148"/>
+      <c r="E51" s="148"/>
+      <c r="F51" s="148"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="78"/>
+      <c r="B52" s="147" t="s">
+        <v>205</v>
+      </c>
+      <c r="C52" s="160"/>
+      <c r="D52" s="148"/>
+      <c r="E52" s="148"/>
+      <c r="F52" s="148"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="78"/>
+      <c r="B53" s="147" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53" s="160"/>
+      <c r="D53" s="148"/>
+      <c r="E53" s="148"/>
+      <c r="F53" s="148"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="78"/>
+      <c r="B54" s="147" t="s">
+        <v>206</v>
+      </c>
+      <c r="C54" s="160"/>
+      <c r="D54" s="148"/>
+      <c r="E54" s="148"/>
+      <c r="F54" s="148"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="78"/>
+      <c r="B55" s="147" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55" s="160"/>
+      <c r="D55" s="148"/>
+      <c r="E55" s="148"/>
+      <c r="F55" s="148"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="78"/>
+      <c r="B56" s="147" t="s">
+        <v>207</v>
+      </c>
+      <c r="C56" s="160"/>
+      <c r="D56" s="148"/>
+      <c r="E56" s="148"/>
+      <c r="F56" s="148"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="78"/>
+      <c r="B57" s="147" t="s">
+        <v>145</v>
+      </c>
+      <c r="C57" s="160"/>
+      <c r="D57" s="148"/>
+      <c r="E57" s="148"/>
+      <c r="F57" s="148"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="78"/>
+      <c r="B58" s="147" t="s">
+        <v>208</v>
+      </c>
+      <c r="C58" s="160"/>
+      <c r="D58" s="148"/>
+      <c r="E58" s="148"/>
+      <c r="F58" s="148"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="78"/>
+      <c r="B59" s="147" t="s">
+        <v>145</v>
+      </c>
+      <c r="C59" s="160"/>
+      <c r="D59" s="148"/>
+      <c r="E59" s="148"/>
+      <c r="F59" s="148"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="78"/>
+      <c r="B60" s="147" t="s">
+        <v>209</v>
+      </c>
+      <c r="C60" s="160"/>
+      <c r="D60" s="148"/>
+      <c r="E60" s="148"/>
+      <c r="F60" s="148"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="78"/>
+      <c r="B61" s="147" t="s">
+        <v>145</v>
+      </c>
+      <c r="C61" s="160"/>
+      <c r="D61" s="148"/>
+      <c r="E61" s="148"/>
+      <c r="F61" s="148"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="78"/>
+      <c r="B62" s="147" t="s">
+        <v>210</v>
+      </c>
+      <c r="C62" s="160"/>
+      <c r="D62" s="148"/>
+      <c r="E62" s="148"/>
+      <c r="F62" s="148"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="78"/>
+      <c r="B63" s="163" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63" s="164"/>
+      <c r="D63" s="165"/>
+      <c r="E63" s="148"/>
+      <c r="F63" s="148"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="78"/>
+      <c r="B64" s="147" t="s">
+        <v>211</v>
+      </c>
+      <c r="C64" s="92"/>
+      <c r="D64" s="93"/>
+      <c r="E64" s="148"/>
+      <c r="F64" s="148"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="78"/>
+      <c r="B65" s="147" t="s">
+        <v>145</v>
+      </c>
+      <c r="C65" s="166" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="167" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" s="148"/>
+      <c r="F65" s="148"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="78"/>
+      <c r="B66" s="147" t="s">
+        <v>212</v>
+      </c>
+      <c r="C66" s="98">
+        <v>110</v>
+      </c>
+      <c r="D66" s="99">
+        <v>385</v>
+      </c>
+      <c r="E66" s="168"/>
+      <c r="F66" s="168"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="78"/>
+      <c r="B67" s="163" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" s="98"/>
+      <c r="D67" s="99"/>
+      <c r="E67" s="148"/>
+      <c r="F67" s="148"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="78"/>
+      <c r="B68" s="147" t="s">
+        <v>59</v>
+      </c>
+      <c r="C68" s="156"/>
+      <c r="D68" s="156"/>
+      <c r="E68" s="156"/>
+      <c r="F68" s="78"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="62"/>
+      <c r="B69" s="103" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="103"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="104">
+        <v>42350</v>
+      </c>
+      <c r="F69" s="104"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="62"/>
+      <c r="B70" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="107"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="108">
+        <v>0</v>
+      </c>
+      <c r="F70" s="108"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="62"/>
+      <c r="B71" s="169" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" s="107"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="108">
+        <v>0</v>
+      </c>
+      <c r="F71" s="108"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="62"/>
+      <c r="B72" s="169" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="107"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="108">
+        <v>0</v>
+      </c>
+      <c r="F72" s="108"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="62"/>
+      <c r="B73" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="103"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="110">
+        <v>42350</v>
+      </c>
+      <c r="F73" s="110"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="62"/>
+      <c r="B74" s="107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="112">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="107"/>
+      <c r="E74" s="114">
+        <v>2117.5</v>
+      </c>
+      <c r="F74" s="114"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="62"/>
+      <c r="B75" s="115" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="116">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="107"/>
+      <c r="E75" s="118">
+        <v>4224.41</v>
+      </c>
+      <c r="F75" s="114"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="62"/>
+      <c r="B76" s="117"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="62"/>
+      <c r="B77" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="103"/>
+      <c r="D77" s="121"/>
+      <c r="E77" s="157">
+        <v>48691.91</v>
+      </c>
+      <c r="F77" s="123"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="62"/>
+      <c r="B78" s="115"/>
+      <c r="C78" s="115"/>
+      <c r="D78" s="115"/>
+      <c r="E78" s="158"/>
+      <c r="F78" s="115"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="62"/>
+      <c r="B79" s="117" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="115"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="61">
+        <v>0</v>
+      </c>
+      <c r="F79" s="61"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="62"/>
+      <c r="B80" s="103"/>
+      <c r="C80" s="115"/>
+      <c r="D80" s="115"/>
+      <c r="E80" s="158"/>
+      <c r="F80" s="115"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="62"/>
+      <c r="B81" s="206" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="207"/>
+      <c r="D81" s="170"/>
+      <c r="E81" s="171">
+        <v>48691.91</v>
+      </c>
+      <c r="F81" s="61"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="62"/>
+      <c r="B82" s="62"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="134"/>
+      <c r="B83" s="197"/>
+      <c r="C83" s="198"/>
+      <c r="D83" s="198"/>
+      <c r="E83" s="198"/>
+      <c r="F83" s="159"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="200" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" s="200"/>
+      <c r="C84" s="200"/>
+      <c r="D84" s="200"/>
+      <c r="E84" s="200"/>
+      <c r="F84" s="117"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="202" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="202"/>
+      <c r="C85" s="202"/>
+      <c r="D85" s="202"/>
+      <c r="E85" s="202"/>
+      <c r="F85" s="46"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="136"/>
+      <c r="B86" s="136"/>
+      <c r="C86" s="136"/>
+      <c r="D86" s="136"/>
+      <c r="E86" s="136"/>
+      <c r="F86" s="46"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="136"/>
+      <c r="B87" s="136"/>
+      <c r="C87" s="136"/>
+      <c r="D87" s="136"/>
+      <c r="E87" s="136"/>
+      <c r="F87" s="46"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="204" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="204"/>
+      <c r="C88" s="204"/>
+      <c r="D88" s="204"/>
+      <c r="E88" s="204"/>
+      <c r="F88" s="204"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
     <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -11052,14 +12176,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="184" t="s">
+      <c r="A30" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="184"/>
-      <c r="C30" s="184"/>
-      <c r="D30" s="184"/>
-      <c r="E30" s="184"/>
-      <c r="F30" s="184"/>
+      <c r="B30" s="185"/>
+      <c r="C30" s="185"/>
+      <c r="D30" s="185"/>
+      <c r="E30" s="185"/>
+      <c r="F30" s="185"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -11080,271 +12204,271 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="181"/>
-      <c r="C33" s="181"/>
-      <c r="D33" s="181"/>
+      <c r="B33" s="182"/>
+      <c r="C33" s="182"/>
+      <c r="D33" s="182"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="181" t="s">
+      <c r="B34" s="182" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="181"/>
-      <c r="D34" s="181"/>
+      <c r="C34" s="182"/>
+      <c r="D34" s="182"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="181"/>
-      <c r="C35" s="181"/>
-      <c r="D35" s="181"/>
+      <c r="B35" s="182"/>
+      <c r="C35" s="182"/>
+      <c r="D35" s="182"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="181" t="s">
+      <c r="B36" s="182" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="181"/>
-      <c r="D36" s="181"/>
+      <c r="C36" s="182"/>
+      <c r="D36" s="182"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="181"/>
-      <c r="C37" s="181"/>
-      <c r="D37" s="181"/>
+      <c r="B37" s="182"/>
+      <c r="C37" s="182"/>
+      <c r="D37" s="182"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="181" t="s">
+      <c r="B38" s="182" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="181"/>
-      <c r="D38" s="181"/>
+      <c r="C38" s="182"/>
+      <c r="D38" s="182"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="181"/>
-      <c r="C39" s="181"/>
-      <c r="D39" s="181"/>
+      <c r="B39" s="182"/>
+      <c r="C39" s="182"/>
+      <c r="D39" s="182"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="181" t="s">
+      <c r="B40" s="182" t="s">
         <v>68</v>
       </c>
-      <c r="C40" s="181"/>
-      <c r="D40" s="181"/>
+      <c r="C40" s="182"/>
+      <c r="D40" s="182"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="181"/>
-      <c r="C41" s="181"/>
-      <c r="D41" s="181"/>
+      <c r="B41" s="182"/>
+      <c r="C41" s="182"/>
+      <c r="D41" s="182"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="181" t="s">
+      <c r="B42" s="182" t="s">
         <v>69</v>
       </c>
-      <c r="C42" s="181"/>
-      <c r="D42" s="181"/>
+      <c r="C42" s="182"/>
+      <c r="D42" s="182"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="181"/>
-      <c r="C43" s="181"/>
-      <c r="D43" s="181"/>
+      <c r="B43" s="182"/>
+      <c r="C43" s="182"/>
+      <c r="D43" s="182"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="181" t="s">
+      <c r="B44" s="182" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="181"/>
-      <c r="D44" s="181"/>
+      <c r="C44" s="182"/>
+      <c r="D44" s="182"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="181"/>
-      <c r="C45" s="181"/>
-      <c r="D45" s="181"/>
+      <c r="B45" s="182"/>
+      <c r="C45" s="182"/>
+      <c r="D45" s="182"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="181" t="s">
+      <c r="B46" s="182" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="181"/>
-      <c r="D46" s="181"/>
+      <c r="C46" s="182"/>
+      <c r="D46" s="182"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="181"/>
-      <c r="C47" s="181"/>
-      <c r="D47" s="181"/>
+      <c r="B47" s="182"/>
+      <c r="C47" s="182"/>
+      <c r="D47" s="182"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="181"/>
-      <c r="C48" s="181"/>
-      <c r="D48" s="181"/>
+      <c r="B48" s="182"/>
+      <c r="C48" s="182"/>
+      <c r="D48" s="182"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="181"/>
-      <c r="C49" s="181"/>
-      <c r="D49" s="181"/>
+      <c r="B49" s="182"/>
+      <c r="C49" s="182"/>
+      <c r="D49" s="182"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="181"/>
-      <c r="C50" s="181"/>
-      <c r="D50" s="181"/>
+      <c r="B50" s="182"/>
+      <c r="C50" s="182"/>
+      <c r="D50" s="182"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="181"/>
-      <c r="C51" s="181"/>
-      <c r="D51" s="181"/>
+      <c r="B51" s="182"/>
+      <c r="C51" s="182"/>
+      <c r="D51" s="182"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="181"/>
-      <c r="C52" s="181"/>
-      <c r="D52" s="181"/>
+      <c r="B52" s="182"/>
+      <c r="C52" s="182"/>
+      <c r="D52" s="182"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="181"/>
-      <c r="C53" s="181"/>
-      <c r="D53" s="181"/>
+      <c r="B53" s="182"/>
+      <c r="C53" s="182"/>
+      <c r="D53" s="182"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="181"/>
-      <c r="C54" s="181"/>
-      <c r="D54" s="181"/>
+      <c r="B54" s="182"/>
+      <c r="C54" s="182"/>
+      <c r="D54" s="182"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="181"/>
-      <c r="C55" s="181"/>
-      <c r="D55" s="181"/>
+      <c r="B55" s="182"/>
+      <c r="C55" s="182"/>
+      <c r="D55" s="182"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="181"/>
-      <c r="C56" s="181"/>
-      <c r="D56" s="181"/>
+      <c r="B56" s="182"/>
+      <c r="C56" s="182"/>
+      <c r="D56" s="182"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="181"/>
-      <c r="C57" s="181"/>
-      <c r="D57" s="181"/>
+      <c r="B57" s="182"/>
+      <c r="C57" s="182"/>
+      <c r="D57" s="182"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="181"/>
-      <c r="C58" s="181"/>
-      <c r="D58" s="181"/>
+      <c r="B58" s="182"/>
+      <c r="C58" s="182"/>
+      <c r="D58" s="182"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="181"/>
-      <c r="C59" s="181"/>
-      <c r="D59" s="181"/>
+      <c r="B59" s="182"/>
+      <c r="C59" s="182"/>
+      <c r="D59" s="182"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="181"/>
-      <c r="C60" s="181"/>
-      <c r="D60" s="181"/>
+      <c r="B60" s="182"/>
+      <c r="C60" s="182"/>
+      <c r="D60" s="182"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="181"/>
-      <c r="C61" s="181"/>
-      <c r="D61" s="181"/>
+      <c r="B61" s="182"/>
+      <c r="C61" s="182"/>
+      <c r="D61" s="182"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="181"/>
-      <c r="C62" s="181"/>
-      <c r="D62" s="181"/>
+      <c r="B62" s="182"/>
+      <c r="C62" s="182"/>
+      <c r="D62" s="182"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="181"/>
-      <c r="C63" s="181"/>
-      <c r="D63" s="181"/>
+      <c r="B63" s="182"/>
+      <c r="C63" s="182"/>
+      <c r="D63" s="182"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="181"/>
-      <c r="C64" s="181"/>
-      <c r="D64" s="181"/>
+      <c r="B64" s="182"/>
+      <c r="C64" s="182"/>
+      <c r="D64" s="182"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -11374,17 +12498,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="181"/>
-      <c r="C67" s="181"/>
-      <c r="D67" s="181"/>
+      <c r="B67" s="182"/>
+      <c r="C67" s="182"/>
+      <c r="D67" s="182"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="181"/>
-      <c r="C68" s="181"/>
-      <c r="D68" s="181"/>
+      <c r="B68" s="182"/>
+      <c r="C68" s="182"/>
+      <c r="D68" s="182"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -11491,19 +12615,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="185"/>
-      <c r="C77" s="185"/>
-      <c r="D77" s="185"/>
+      <c r="B77" s="186"/>
+      <c r="C77" s="186"/>
+      <c r="D77" s="186"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="182" t="s">
+      <c r="B78" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="182"/>
-      <c r="D78" s="182"/>
+      <c r="C78" s="183"/>
+      <c r="D78" s="183"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -11511,9 +12635,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="185"/>
-      <c r="C79" s="185"/>
-      <c r="D79" s="185"/>
+      <c r="B79" s="186"/>
+      <c r="C79" s="186"/>
+      <c r="D79" s="186"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -11548,31 +12672,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="179"/>
-      <c r="C83" s="179"/>
-      <c r="D83" s="179"/>
-      <c r="E83" s="179"/>
+      <c r="B83" s="180"/>
+      <c r="C83" s="180"/>
+      <c r="D83" s="180"/>
+      <c r="E83" s="180"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="187" t="s">
+      <c r="A84" s="188" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="187"/>
-      <c r="C84" s="187"/>
-      <c r="D84" s="187"/>
-      <c r="E84" s="187"/>
-      <c r="F84" s="187"/>
+      <c r="B84" s="188"/>
+      <c r="C84" s="188"/>
+      <c r="D84" s="188"/>
+      <c r="E84" s="188"/>
+      <c r="F84" s="188"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="183" t="s">
+      <c r="A85" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="183"/>
-      <c r="C85" s="183"/>
-      <c r="D85" s="183"/>
-      <c r="E85" s="183"/>
-      <c r="F85" s="183"/>
+      <c r="B85" s="184"/>
+      <c r="C85" s="184"/>
+      <c r="D85" s="184"/>
+      <c r="E85" s="184"/>
+      <c r="F85" s="184"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -11584,26 +12708,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="180"/>
-      <c r="C87" s="180"/>
-      <c r="D87" s="180"/>
-      <c r="E87" s="180"/>
+      <c r="B87" s="181"/>
+      <c r="C87" s="181"/>
+      <c r="D87" s="181"/>
+      <c r="E87" s="181"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="186" t="s">
+      <c r="A88" s="187" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="186"/>
-      <c r="C88" s="186"/>
-      <c r="D88" s="186"/>
-      <c r="E88" s="186"/>
-      <c r="F88" s="186"/>
+      <c r="B88" s="187"/>
+      <c r="C88" s="187"/>
+      <c r="D88" s="187"/>
+      <c r="E88" s="187"/>
+      <c r="F88" s="187"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="177"/>
-      <c r="C90" s="178"/>
-      <c r="D90" s="178"/>
+      <c r="B90" s="178"/>
+      <c r="C90" s="179"/>
+      <c r="D90" s="179"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -11671,6 +12795,845 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E09B44-E062-4C87-98AC-4A7ECC549128}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="177"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="54"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="54"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="54"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="54"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="54"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="54"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="54"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="54"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="54"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="62"/>
+      <c r="B21" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="62"/>
+      <c r="B23" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="62"/>
+      <c r="B24" s="63" t="s">
+        <v>214</v>
+      </c>
+      <c r="C24" s="62"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="62"/>
+      <c r="B25" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="C25" s="62"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="62"/>
+      <c r="B26" s="62" t="s">
+        <v>216</v>
+      </c>
+      <c r="C26" s="62"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="59"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="62"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="F28" s="67"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="140"/>
+      <c r="B29" s="140"/>
+      <c r="C29" s="140"/>
+      <c r="D29" s="141"/>
+      <c r="E29" s="142"/>
+      <c r="F29" s="142"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="205" t="s">
+        <v>218</v>
+      </c>
+      <c r="B30" s="205"/>
+      <c r="C30" s="205"/>
+      <c r="D30" s="205"/>
+      <c r="E30" s="205"/>
+      <c r="F30" s="143"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="144"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="144"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="78"/>
+      <c r="B32" s="117" t="s">
+        <v>219</v>
+      </c>
+      <c r="C32" s="145"/>
+      <c r="D32" s="146"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="78"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="146"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="78"/>
+      <c r="B34" s="147" t="s">
+        <v>220</v>
+      </c>
+      <c r="C34" s="160"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="78"/>
+      <c r="B35" s="147" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="161"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="78"/>
+      <c r="B36" s="147" t="s">
+        <v>221</v>
+      </c>
+      <c r="C36" s="160"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="78"/>
+      <c r="B37" s="147" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="160"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="78"/>
+      <c r="B38" s="147" t="s">
+        <v>222</v>
+      </c>
+      <c r="C38" s="160"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="78"/>
+      <c r="B39" s="147" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" s="160"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="78"/>
+      <c r="B40" s="147" t="s">
+        <v>203</v>
+      </c>
+      <c r="C40" s="161"/>
+      <c r="D40" s="148"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="78"/>
+      <c r="B41" s="147" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" s="160"/>
+      <c r="D41" s="148"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="78"/>
+      <c r="B42" s="147" t="s">
+        <v>223</v>
+      </c>
+      <c r="C42" s="160"/>
+      <c r="D42" s="148"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="78"/>
+      <c r="B43" s="147" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" s="160"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="78"/>
+      <c r="B44" s="147" t="s">
+        <v>224</v>
+      </c>
+      <c r="C44" s="160"/>
+      <c r="D44" s="148"/>
+      <c r="E44" s="148"/>
+      <c r="F44" s="148"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="78"/>
+      <c r="B45" s="147"/>
+      <c r="C45" s="160"/>
+      <c r="D45" s="148"/>
+      <c r="E45" s="148"/>
+      <c r="F45" s="148"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="78"/>
+      <c r="B46" s="147"/>
+      <c r="C46" s="160"/>
+      <c r="D46" s="148"/>
+      <c r="E46" s="148"/>
+      <c r="F46" s="148"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="78"/>
+      <c r="B47" s="147"/>
+      <c r="C47" s="160"/>
+      <c r="D47" s="148"/>
+      <c r="E47" s="148"/>
+      <c r="F47" s="148"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="78"/>
+      <c r="B48" s="147"/>
+      <c r="C48" s="160"/>
+      <c r="D48" s="148"/>
+      <c r="E48" s="148"/>
+      <c r="F48" s="148"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="78"/>
+      <c r="B49" s="147"/>
+      <c r="C49" s="160"/>
+      <c r="D49" s="148"/>
+      <c r="E49" s="148"/>
+      <c r="F49" s="148"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="78"/>
+      <c r="B50" s="147"/>
+      <c r="C50" s="162"/>
+      <c r="D50" s="162"/>
+      <c r="E50" s="148"/>
+      <c r="F50" s="148"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="78"/>
+      <c r="B51" s="147"/>
+      <c r="C51" s="160"/>
+      <c r="D51" s="148"/>
+      <c r="E51" s="148"/>
+      <c r="F51" s="148"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="78"/>
+      <c r="B52" s="147"/>
+      <c r="C52" s="160"/>
+      <c r="D52" s="148"/>
+      <c r="E52" s="148"/>
+      <c r="F52" s="148"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="78"/>
+      <c r="B53" s="147"/>
+      <c r="C53" s="160"/>
+      <c r="D53" s="148"/>
+      <c r="E53" s="148"/>
+      <c r="F53" s="148"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="78"/>
+      <c r="B54" s="147"/>
+      <c r="C54" s="160"/>
+      <c r="D54" s="148"/>
+      <c r="E54" s="148"/>
+      <c r="F54" s="148"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="78"/>
+      <c r="B55" s="147"/>
+      <c r="C55" s="160"/>
+      <c r="D55" s="148"/>
+      <c r="E55" s="148"/>
+      <c r="F55" s="148"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="78"/>
+      <c r="B56" s="147"/>
+      <c r="C56" s="160"/>
+      <c r="D56" s="148"/>
+      <c r="E56" s="148"/>
+      <c r="F56" s="148"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="78"/>
+      <c r="B57" s="147"/>
+      <c r="C57" s="160"/>
+      <c r="D57" s="148"/>
+      <c r="E57" s="148"/>
+      <c r="F57" s="148"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="78"/>
+      <c r="B58" s="147"/>
+      <c r="C58" s="160"/>
+      <c r="D58" s="148"/>
+      <c r="E58" s="148"/>
+      <c r="F58" s="148"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="78"/>
+      <c r="B59" s="147"/>
+      <c r="C59" s="160"/>
+      <c r="D59" s="148"/>
+      <c r="E59" s="148"/>
+      <c r="F59" s="148"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="78"/>
+      <c r="B60" s="147"/>
+      <c r="C60" s="160"/>
+      <c r="D60" s="148"/>
+      <c r="E60" s="148"/>
+      <c r="F60" s="148"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="78"/>
+      <c r="B61" s="147"/>
+      <c r="C61" s="160"/>
+      <c r="D61" s="148"/>
+      <c r="E61" s="148"/>
+      <c r="F61" s="148"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="78"/>
+      <c r="B62" s="147"/>
+      <c r="C62" s="160"/>
+      <c r="D62" s="148"/>
+      <c r="E62" s="148"/>
+      <c r="F62" s="148"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="78"/>
+      <c r="B63" s="163"/>
+      <c r="C63" s="164"/>
+      <c r="D63" s="165"/>
+      <c r="E63" s="148"/>
+      <c r="F63" s="148"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="78"/>
+      <c r="B64" s="147"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="93"/>
+      <c r="E64" s="148"/>
+      <c r="F64" s="148"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="78"/>
+      <c r="B65" s="147"/>
+      <c r="C65" s="166" t="s">
+        <v>225</v>
+      </c>
+      <c r="D65" s="167" t="s">
+        <v>226</v>
+      </c>
+      <c r="E65" s="148"/>
+      <c r="F65" s="148"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="78"/>
+      <c r="B66" s="147"/>
+      <c r="C66" s="98">
+        <v>5.75</v>
+      </c>
+      <c r="D66" s="99">
+        <v>385</v>
+      </c>
+      <c r="E66" s="168"/>
+      <c r="F66" s="168"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="78"/>
+      <c r="B67" s="163"/>
+      <c r="C67" s="98"/>
+      <c r="D67" s="99"/>
+      <c r="E67" s="148"/>
+      <c r="F67" s="148"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="78"/>
+      <c r="B68" s="147"/>
+      <c r="C68" s="156"/>
+      <c r="D68" s="156"/>
+      <c r="E68" s="156"/>
+      <c r="F68" s="78"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="62"/>
+      <c r="B69" s="103" t="s">
+        <v>227</v>
+      </c>
+      <c r="C69" s="103"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="104">
+        <v>2213.75</v>
+      </c>
+      <c r="F69" s="104"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="62"/>
+      <c r="B70" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="107"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="108">
+        <v>0</v>
+      </c>
+      <c r="F70" s="108"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="62"/>
+      <c r="B71" s="169" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" s="107"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="108">
+        <v>0</v>
+      </c>
+      <c r="F71" s="108"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="62"/>
+      <c r="B72" s="169" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="107"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="108">
+        <v>0</v>
+      </c>
+      <c r="F72" s="108"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="62"/>
+      <c r="B73" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="103"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="110">
+        <v>2213.75</v>
+      </c>
+      <c r="F73" s="110"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="62"/>
+      <c r="B74" s="107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="112">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="107"/>
+      <c r="E74" s="114">
+        <v>110.69</v>
+      </c>
+      <c r="F74" s="114"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="62"/>
+      <c r="B75" s="115" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="116">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="107"/>
+      <c r="E75" s="118">
+        <v>220.82</v>
+      </c>
+      <c r="F75" s="114"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="62"/>
+      <c r="B76" s="117"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="62"/>
+      <c r="B77" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="103"/>
+      <c r="D77" s="121"/>
+      <c r="E77" s="157">
+        <v>2545.2600000000002</v>
+      </c>
+      <c r="F77" s="123"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="62"/>
+      <c r="B78" s="115"/>
+      <c r="C78" s="115"/>
+      <c r="D78" s="115"/>
+      <c r="E78" s="158"/>
+      <c r="F78" s="115"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="62"/>
+      <c r="B79" s="117" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="115"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="61">
+        <v>0</v>
+      </c>
+      <c r="F79" s="61"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="62"/>
+      <c r="B80" s="103"/>
+      <c r="C80" s="115"/>
+      <c r="D80" s="115"/>
+      <c r="E80" s="158"/>
+      <c r="F80" s="115"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="62"/>
+      <c r="B81" s="206" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="207"/>
+      <c r="D81" s="170"/>
+      <c r="E81" s="171">
+        <v>2545.2600000000002</v>
+      </c>
+      <c r="F81" s="61"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="62"/>
+      <c r="B82" s="62"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="134"/>
+      <c r="B83" s="197"/>
+      <c r="C83" s="198"/>
+      <c r="D83" s="198"/>
+      <c r="E83" s="198"/>
+      <c r="F83" s="159"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="200" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" s="200"/>
+      <c r="C84" s="200"/>
+      <c r="D84" s="200"/>
+      <c r="E84" s="200"/>
+      <c r="F84" s="117"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="202" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="202"/>
+      <c r="C85" s="202"/>
+      <c r="D85" s="202"/>
+      <c r="E85" s="202"/>
+      <c r="F85" s="46"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="136"/>
+      <c r="B86" s="136"/>
+      <c r="C86" s="136"/>
+      <c r="D86" s="136"/>
+      <c r="E86" s="136"/>
+      <c r="F86" s="46"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="136"/>
+      <c r="B87" s="136"/>
+      <c r="C87" s="136"/>
+      <c r="D87" s="136"/>
+      <c r="E87" s="136"/>
+      <c r="F87" s="46"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="204" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="204"/>
+      <c r="C88" s="204"/>
+      <c r="D88" s="204"/>
+      <c r="E88" s="204"/>
+      <c r="F88" s="204"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A88:F88"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="119" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F6E177-C9E2-45EC-BE51-1402CED5DC26}">
   <sheetPr>
@@ -11814,14 +13777,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="184" t="s">
+      <c r="A30" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="184"/>
-      <c r="C30" s="184"/>
-      <c r="D30" s="184"/>
-      <c r="E30" s="184"/>
-      <c r="F30" s="184"/>
+      <c r="B30" s="185"/>
+      <c r="C30" s="185"/>
+      <c r="D30" s="185"/>
+      <c r="E30" s="185"/>
+      <c r="F30" s="185"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -11842,275 +13805,275 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="181"/>
-      <c r="C33" s="181"/>
-      <c r="D33" s="181"/>
+      <c r="B33" s="182"/>
+      <c r="C33" s="182"/>
+      <c r="D33" s="182"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="181"/>
-      <c r="C34" s="181"/>
-      <c r="D34" s="181"/>
+      <c r="B34" s="182"/>
+      <c r="C34" s="182"/>
+      <c r="D34" s="182"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="181" t="s">
+      <c r="B35" s="182" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="181"/>
-      <c r="D35" s="181"/>
+      <c r="C35" s="182"/>
+      <c r="D35" s="182"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="181"/>
-      <c r="C36" s="181"/>
-      <c r="D36" s="181"/>
+      <c r="B36" s="182"/>
+      <c r="C36" s="182"/>
+      <c r="D36" s="182"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="181" t="s">
+      <c r="B37" s="182" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="181"/>
-      <c r="D37" s="181"/>
+      <c r="C37" s="182"/>
+      <c r="D37" s="182"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="181"/>
-      <c r="C38" s="181"/>
-      <c r="D38" s="181"/>
+      <c r="B38" s="182"/>
+      <c r="C38" s="182"/>
+      <c r="D38" s="182"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="181" t="s">
+      <c r="B39" s="182" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="181"/>
-      <c r="D39" s="181"/>
+      <c r="C39" s="182"/>
+      <c r="D39" s="182"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="181"/>
-      <c r="C40" s="181"/>
-      <c r="D40" s="181"/>
+      <c r="B40" s="182"/>
+      <c r="C40" s="182"/>
+      <c r="D40" s="182"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="188" t="s">
+      <c r="B41" s="189" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="188"/>
-      <c r="D41" s="188"/>
+      <c r="C41" s="189"/>
+      <c r="D41" s="189"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="188" t="s">
+      <c r="B42" s="189" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="188"/>
-      <c r="D42" s="188"/>
+      <c r="C42" s="189"/>
+      <c r="D42" s="189"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="188" t="s">
+      <c r="B43" s="189" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="188"/>
-      <c r="D43" s="188"/>
+      <c r="C43" s="189"/>
+      <c r="D43" s="189"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="188" t="s">
+      <c r="B44" s="189" t="s">
         <v>75</v>
       </c>
-      <c r="C44" s="188"/>
-      <c r="D44" s="188"/>
+      <c r="C44" s="189"/>
+      <c r="D44" s="189"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="181"/>
-      <c r="C45" s="181"/>
-      <c r="D45" s="181"/>
+      <c r="B45" s="182"/>
+      <c r="C45" s="182"/>
+      <c r="D45" s="182"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="181" t="s">
+      <c r="B46" s="182" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="181"/>
-      <c r="D46" s="181"/>
+      <c r="C46" s="182"/>
+      <c r="D46" s="182"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="181"/>
-      <c r="C47" s="181"/>
-      <c r="D47" s="181"/>
+      <c r="B47" s="182"/>
+      <c r="C47" s="182"/>
+      <c r="D47" s="182"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="181" t="s">
+      <c r="B48" s="182" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="181"/>
-      <c r="D48" s="181"/>
+      <c r="C48" s="182"/>
+      <c r="D48" s="182"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="181"/>
-      <c r="C49" s="181"/>
-      <c r="D49" s="181"/>
+      <c r="B49" s="182"/>
+      <c r="C49" s="182"/>
+      <c r="D49" s="182"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="181"/>
-      <c r="C50" s="181"/>
-      <c r="D50" s="181"/>
+      <c r="B50" s="182"/>
+      <c r="C50" s="182"/>
+      <c r="D50" s="182"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="181"/>
-      <c r="C51" s="181"/>
-      <c r="D51" s="181"/>
+      <c r="B51" s="182"/>
+      <c r="C51" s="182"/>
+      <c r="D51" s="182"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="181"/>
-      <c r="C52" s="181"/>
-      <c r="D52" s="181"/>
+      <c r="B52" s="182"/>
+      <c r="C52" s="182"/>
+      <c r="D52" s="182"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="181"/>
-      <c r="C53" s="181"/>
-      <c r="D53" s="181"/>
+      <c r="B53" s="182"/>
+      <c r="C53" s="182"/>
+      <c r="D53" s="182"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="181"/>
-      <c r="C54" s="181"/>
-      <c r="D54" s="181"/>
+      <c r="B54" s="182"/>
+      <c r="C54" s="182"/>
+      <c r="D54" s="182"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="181"/>
-      <c r="C55" s="181"/>
-      <c r="D55" s="181"/>
+      <c r="B55" s="182"/>
+      <c r="C55" s="182"/>
+      <c r="D55" s="182"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="181"/>
-      <c r="C56" s="181"/>
-      <c r="D56" s="181"/>
+      <c r="B56" s="182"/>
+      <c r="C56" s="182"/>
+      <c r="D56" s="182"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="181"/>
-      <c r="C57" s="181"/>
-      <c r="D57" s="181"/>
+      <c r="B57" s="182"/>
+      <c r="C57" s="182"/>
+      <c r="D57" s="182"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="181"/>
-      <c r="C58" s="181"/>
-      <c r="D58" s="181"/>
+      <c r="B58" s="182"/>
+      <c r="C58" s="182"/>
+      <c r="D58" s="182"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="181"/>
-      <c r="C59" s="181"/>
-      <c r="D59" s="181"/>
+      <c r="B59" s="182"/>
+      <c r="C59" s="182"/>
+      <c r="D59" s="182"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="181"/>
-      <c r="C60" s="181"/>
-      <c r="D60" s="181"/>
+      <c r="B60" s="182"/>
+      <c r="C60" s="182"/>
+      <c r="D60" s="182"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="181"/>
-      <c r="C61" s="181"/>
-      <c r="D61" s="181"/>
+      <c r="B61" s="182"/>
+      <c r="C61" s="182"/>
+      <c r="D61" s="182"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="181"/>
-      <c r="C62" s="181"/>
-      <c r="D62" s="181"/>
+      <c r="B62" s="182"/>
+      <c r="C62" s="182"/>
+      <c r="D62" s="182"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="181"/>
-      <c r="C63" s="181"/>
-      <c r="D63" s="181"/>
+      <c r="B63" s="182"/>
+      <c r="C63" s="182"/>
+      <c r="D63" s="182"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="181"/>
-      <c r="C64" s="181"/>
-      <c r="D64" s="181"/>
+      <c r="B64" s="182"/>
+      <c r="C64" s="182"/>
+      <c r="D64" s="182"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -12140,17 +14103,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="181"/>
-      <c r="C67" s="181"/>
-      <c r="D67" s="181"/>
+      <c r="B67" s="182"/>
+      <c r="C67" s="182"/>
+      <c r="D67" s="182"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="181"/>
-      <c r="C68" s="181"/>
-      <c r="D68" s="181"/>
+      <c r="B68" s="182"/>
+      <c r="C68" s="182"/>
+      <c r="D68" s="182"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -12257,19 +14220,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="185"/>
-      <c r="C77" s="185"/>
-      <c r="D77" s="185"/>
+      <c r="B77" s="186"/>
+      <c r="C77" s="186"/>
+      <c r="D77" s="186"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="182" t="s">
+      <c r="B78" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="182"/>
-      <c r="D78" s="182"/>
+      <c r="C78" s="183"/>
+      <c r="D78" s="183"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -12277,9 +14240,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="185"/>
-      <c r="C79" s="185"/>
-      <c r="D79" s="185"/>
+      <c r="B79" s="186"/>
+      <c r="C79" s="186"/>
+      <c r="D79" s="186"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -12314,31 +14277,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="179"/>
-      <c r="C83" s="179"/>
-      <c r="D83" s="179"/>
-      <c r="E83" s="179"/>
+      <c r="B83" s="180"/>
+      <c r="C83" s="180"/>
+      <c r="D83" s="180"/>
+      <c r="E83" s="180"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="187" t="s">
+      <c r="A84" s="188" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="187"/>
-      <c r="C84" s="187"/>
-      <c r="D84" s="187"/>
-      <c r="E84" s="187"/>
-      <c r="F84" s="187"/>
+      <c r="B84" s="188"/>
+      <c r="C84" s="188"/>
+      <c r="D84" s="188"/>
+      <c r="E84" s="188"/>
+      <c r="F84" s="188"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="183" t="s">
+      <c r="A85" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="183"/>
-      <c r="C85" s="183"/>
-      <c r="D85" s="183"/>
-      <c r="E85" s="183"/>
-      <c r="F85" s="183"/>
+      <c r="B85" s="184"/>
+      <c r="C85" s="184"/>
+      <c r="D85" s="184"/>
+      <c r="E85" s="184"/>
+      <c r="F85" s="184"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -12350,26 +14313,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="180"/>
-      <c r="C87" s="180"/>
-      <c r="D87" s="180"/>
-      <c r="E87" s="180"/>
+      <c r="B87" s="181"/>
+      <c r="C87" s="181"/>
+      <c r="D87" s="181"/>
+      <c r="E87" s="181"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="186" t="s">
+      <c r="A88" s="187" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="186"/>
-      <c r="C88" s="186"/>
-      <c r="D88" s="186"/>
-      <c r="E88" s="186"/>
-      <c r="F88" s="186"/>
+      <c r="B88" s="187"/>
+      <c r="C88" s="187"/>
+      <c r="D88" s="187"/>
+      <c r="E88" s="187"/>
+      <c r="F88" s="187"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="177"/>
-      <c r="C90" s="178"/>
-      <c r="D90" s="178"/>
+      <c r="B90" s="178"/>
+      <c r="C90" s="179"/>
+      <c r="D90" s="179"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -12580,14 +14543,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="184" t="s">
+      <c r="A30" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="184"/>
-      <c r="C30" s="184"/>
-      <c r="D30" s="184"/>
-      <c r="E30" s="184"/>
-      <c r="F30" s="184"/>
+      <c r="B30" s="185"/>
+      <c r="C30" s="185"/>
+      <c r="D30" s="185"/>
+      <c r="E30" s="185"/>
+      <c r="F30" s="185"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -12608,267 +14571,267 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="181"/>
-      <c r="C33" s="181"/>
-      <c r="D33" s="181"/>
+      <c r="B33" s="182"/>
+      <c r="C33" s="182"/>
+      <c r="D33" s="182"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="181"/>
-      <c r="C34" s="181"/>
-      <c r="D34" s="181"/>
+      <c r="B34" s="182"/>
+      <c r="C34" s="182"/>
+      <c r="D34" s="182"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="181" t="s">
+      <c r="B35" s="182" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="181"/>
-      <c r="D35" s="181"/>
+      <c r="C35" s="182"/>
+      <c r="D35" s="182"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="181"/>
-      <c r="C36" s="181"/>
-      <c r="D36" s="181"/>
+      <c r="B36" s="182"/>
+      <c r="C36" s="182"/>
+      <c r="D36" s="182"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="188" t="s">
+      <c r="B37" s="189" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="188"/>
-      <c r="D37" s="188"/>
+      <c r="C37" s="189"/>
+      <c r="D37" s="189"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="188" t="s">
+      <c r="B38" s="189" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="188"/>
-      <c r="D38" s="188"/>
+      <c r="C38" s="189"/>
+      <c r="D38" s="189"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="188" t="s">
+      <c r="B39" s="189" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="188"/>
-      <c r="D39" s="188"/>
+      <c r="C39" s="189"/>
+      <c r="D39" s="189"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="188"/>
-      <c r="C40" s="188"/>
-      <c r="D40" s="188"/>
+      <c r="B40" s="189"/>
+      <c r="C40" s="189"/>
+      <c r="D40" s="189"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="181"/>
-      <c r="C41" s="181"/>
-      <c r="D41" s="181"/>
+      <c r="B41" s="182"/>
+      <c r="C41" s="182"/>
+      <c r="D41" s="182"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="181" t="s">
+      <c r="B42" s="182" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="181"/>
-      <c r="D42" s="181"/>
+      <c r="C42" s="182"/>
+      <c r="D42" s="182"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="181"/>
-      <c r="C43" s="181"/>
-      <c r="D43" s="181"/>
+      <c r="B43" s="182"/>
+      <c r="C43" s="182"/>
+      <c r="D43" s="182"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="181"/>
-      <c r="C44" s="181"/>
-      <c r="D44" s="181"/>
+      <c r="B44" s="182"/>
+      <c r="C44" s="182"/>
+      <c r="D44" s="182"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="181"/>
-      <c r="C45" s="181"/>
-      <c r="D45" s="181"/>
+      <c r="B45" s="182"/>
+      <c r="C45" s="182"/>
+      <c r="D45" s="182"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="181"/>
-      <c r="C46" s="181"/>
-      <c r="D46" s="181"/>
+      <c r="B46" s="182"/>
+      <c r="C46" s="182"/>
+      <c r="D46" s="182"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="181"/>
-      <c r="C47" s="181"/>
-      <c r="D47" s="181"/>
+      <c r="B47" s="182"/>
+      <c r="C47" s="182"/>
+      <c r="D47" s="182"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="181"/>
-      <c r="C48" s="181"/>
-      <c r="D48" s="181"/>
+      <c r="B48" s="182"/>
+      <c r="C48" s="182"/>
+      <c r="D48" s="182"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="181"/>
-      <c r="C49" s="181"/>
-      <c r="D49" s="181"/>
+      <c r="B49" s="182"/>
+      <c r="C49" s="182"/>
+      <c r="D49" s="182"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="181"/>
-      <c r="C50" s="181"/>
-      <c r="D50" s="181"/>
+      <c r="B50" s="182"/>
+      <c r="C50" s="182"/>
+      <c r="D50" s="182"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="181"/>
-      <c r="C51" s="181"/>
-      <c r="D51" s="181"/>
+      <c r="B51" s="182"/>
+      <c r="C51" s="182"/>
+      <c r="D51" s="182"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="181"/>
-      <c r="C52" s="181"/>
-      <c r="D52" s="181"/>
+      <c r="B52" s="182"/>
+      <c r="C52" s="182"/>
+      <c r="D52" s="182"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="181"/>
-      <c r="C53" s="181"/>
-      <c r="D53" s="181"/>
+      <c r="B53" s="182"/>
+      <c r="C53" s="182"/>
+      <c r="D53" s="182"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="181"/>
-      <c r="C54" s="181"/>
-      <c r="D54" s="181"/>
+      <c r="B54" s="182"/>
+      <c r="C54" s="182"/>
+      <c r="D54" s="182"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="181"/>
-      <c r="C55" s="181"/>
-      <c r="D55" s="181"/>
+      <c r="B55" s="182"/>
+      <c r="C55" s="182"/>
+      <c r="D55" s="182"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="181"/>
-      <c r="C56" s="181"/>
-      <c r="D56" s="181"/>
+      <c r="B56" s="182"/>
+      <c r="C56" s="182"/>
+      <c r="D56" s="182"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="181"/>
-      <c r="C57" s="181"/>
-      <c r="D57" s="181"/>
+      <c r="B57" s="182"/>
+      <c r="C57" s="182"/>
+      <c r="D57" s="182"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="181"/>
-      <c r="C58" s="181"/>
-      <c r="D58" s="181"/>
+      <c r="B58" s="182"/>
+      <c r="C58" s="182"/>
+      <c r="D58" s="182"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="181"/>
-      <c r="C59" s="181"/>
-      <c r="D59" s="181"/>
+      <c r="B59" s="182"/>
+      <c r="C59" s="182"/>
+      <c r="D59" s="182"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="181"/>
-      <c r="C60" s="181"/>
-      <c r="D60" s="181"/>
+      <c r="B60" s="182"/>
+      <c r="C60" s="182"/>
+      <c r="D60" s="182"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="181"/>
-      <c r="C61" s="181"/>
-      <c r="D61" s="181"/>
+      <c r="B61" s="182"/>
+      <c r="C61" s="182"/>
+      <c r="D61" s="182"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="181"/>
-      <c r="C62" s="181"/>
-      <c r="D62" s="181"/>
+      <c r="B62" s="182"/>
+      <c r="C62" s="182"/>
+      <c r="D62" s="182"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="181"/>
-      <c r="C63" s="181"/>
-      <c r="D63" s="181"/>
+      <c r="B63" s="182"/>
+      <c r="C63" s="182"/>
+      <c r="D63" s="182"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="181"/>
-      <c r="C64" s="181"/>
-      <c r="D64" s="181"/>
+      <c r="B64" s="182"/>
+      <c r="C64" s="182"/>
+      <c r="D64" s="182"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -12898,17 +14861,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="181"/>
-      <c r="C67" s="181"/>
-      <c r="D67" s="181"/>
+      <c r="B67" s="182"/>
+      <c r="C67" s="182"/>
+      <c r="D67" s="182"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="181"/>
-      <c r="C68" s="181"/>
-      <c r="D68" s="181"/>
+      <c r="B68" s="182"/>
+      <c r="C68" s="182"/>
+      <c r="D68" s="182"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -13015,19 +14978,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="185"/>
-      <c r="C77" s="185"/>
-      <c r="D77" s="185"/>
+      <c r="B77" s="186"/>
+      <c r="C77" s="186"/>
+      <c r="D77" s="186"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="182" t="s">
+      <c r="B78" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="182"/>
-      <c r="D78" s="182"/>
+      <c r="C78" s="183"/>
+      <c r="D78" s="183"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -13035,9 +14998,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="185"/>
-      <c r="C79" s="185"/>
-      <c r="D79" s="185"/>
+      <c r="B79" s="186"/>
+      <c r="C79" s="186"/>
+      <c r="D79" s="186"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -13072,31 +15035,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="179"/>
-      <c r="C83" s="179"/>
-      <c r="D83" s="179"/>
-      <c r="E83" s="179"/>
+      <c r="B83" s="180"/>
+      <c r="C83" s="180"/>
+      <c r="D83" s="180"/>
+      <c r="E83" s="180"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="187" t="s">
+      <c r="A84" s="188" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="187"/>
-      <c r="C84" s="187"/>
-      <c r="D84" s="187"/>
-      <c r="E84" s="187"/>
-      <c r="F84" s="187"/>
+      <c r="B84" s="188"/>
+      <c r="C84" s="188"/>
+      <c r="D84" s="188"/>
+      <c r="E84" s="188"/>
+      <c r="F84" s="188"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="183" t="s">
+      <c r="A85" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="183"/>
-      <c r="C85" s="183"/>
-      <c r="D85" s="183"/>
-      <c r="E85" s="183"/>
-      <c r="F85" s="183"/>
+      <c r="B85" s="184"/>
+      <c r="C85" s="184"/>
+      <c r="D85" s="184"/>
+      <c r="E85" s="184"/>
+      <c r="F85" s="184"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -13108,26 +15071,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="180"/>
-      <c r="C87" s="180"/>
-      <c r="D87" s="180"/>
-      <c r="E87" s="180"/>
+      <c r="B87" s="181"/>
+      <c r="C87" s="181"/>
+      <c r="D87" s="181"/>
+      <c r="E87" s="181"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="186" t="s">
+      <c r="A88" s="187" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="186"/>
-      <c r="C88" s="186"/>
-      <c r="D88" s="186"/>
-      <c r="E88" s="186"/>
-      <c r="F88" s="186"/>
+      <c r="B88" s="187"/>
+      <c r="C88" s="187"/>
+      <c r="D88" s="187"/>
+      <c r="E88" s="187"/>
+      <c r="F88" s="187"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="177"/>
-      <c r="C90" s="178"/>
-      <c r="D90" s="178"/>
+      <c r="B90" s="178"/>
+      <c r="C90" s="179"/>
+      <c r="D90" s="179"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -13338,14 +15301,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="184" t="s">
+      <c r="A30" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="184"/>
-      <c r="C30" s="184"/>
-      <c r="D30" s="184"/>
-      <c r="E30" s="184"/>
-      <c r="F30" s="184"/>
+      <c r="B30" s="185"/>
+      <c r="C30" s="185"/>
+      <c r="D30" s="185"/>
+      <c r="E30" s="185"/>
+      <c r="F30" s="185"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -13366,267 +15329,267 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="181"/>
-      <c r="C33" s="181"/>
-      <c r="D33" s="181"/>
+      <c r="B33" s="182"/>
+      <c r="C33" s="182"/>
+      <c r="D33" s="182"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="181"/>
-      <c r="C34" s="181"/>
-      <c r="D34" s="181"/>
+      <c r="B34" s="182"/>
+      <c r="C34" s="182"/>
+      <c r="D34" s="182"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="181" t="s">
+      <c r="B35" s="182" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="181"/>
-      <c r="D35" s="181"/>
+      <c r="C35" s="182"/>
+      <c r="D35" s="182"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="181"/>
-      <c r="C36" s="181"/>
-      <c r="D36" s="181"/>
+      <c r="B36" s="182"/>
+      <c r="C36" s="182"/>
+      <c r="D36" s="182"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="181" t="s">
+      <c r="B37" s="182" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="181"/>
-      <c r="D37" s="181"/>
+      <c r="C37" s="182"/>
+      <c r="D37" s="182"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="181"/>
-      <c r="C38" s="181"/>
-      <c r="D38" s="181"/>
+      <c r="B38" s="182"/>
+      <c r="C38" s="182"/>
+      <c r="D38" s="182"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="181" t="s">
+      <c r="B39" s="182" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="181"/>
-      <c r="D39" s="181"/>
+      <c r="C39" s="182"/>
+      <c r="D39" s="182"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="181"/>
-      <c r="C40" s="181"/>
-      <c r="D40" s="181"/>
+      <c r="B40" s="182"/>
+      <c r="C40" s="182"/>
+      <c r="D40" s="182"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="181" t="s">
+      <c r="B41" s="182" t="s">
         <v>93</v>
       </c>
-      <c r="C41" s="181"/>
-      <c r="D41" s="181"/>
+      <c r="C41" s="182"/>
+      <c r="D41" s="182"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="181"/>
-      <c r="C42" s="181"/>
-      <c r="D42" s="181"/>
+      <c r="B42" s="182"/>
+      <c r="C42" s="182"/>
+      <c r="D42" s="182"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="181" t="s">
+      <c r="B43" s="182" t="s">
         <v>94</v>
       </c>
-      <c r="C43" s="181"/>
-      <c r="D43" s="181"/>
+      <c r="C43" s="182"/>
+      <c r="D43" s="182"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="181"/>
-      <c r="C44" s="181"/>
-      <c r="D44" s="181"/>
+      <c r="B44" s="182"/>
+      <c r="C44" s="182"/>
+      <c r="D44" s="182"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="181" t="s">
+      <c r="B45" s="182" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="181"/>
-      <c r="D45" s="181"/>
+      <c r="C45" s="182"/>
+      <c r="D45" s="182"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="181"/>
-      <c r="C46" s="181"/>
-      <c r="D46" s="181"/>
+      <c r="B46" s="182"/>
+      <c r="C46" s="182"/>
+      <c r="D46" s="182"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="181" t="s">
+      <c r="B47" s="182" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="181"/>
-      <c r="D47" s="181"/>
+      <c r="C47" s="182"/>
+      <c r="D47" s="182"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="181"/>
-      <c r="C48" s="181"/>
-      <c r="D48" s="181"/>
+      <c r="B48" s="182"/>
+      <c r="C48" s="182"/>
+      <c r="D48" s="182"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="181" t="s">
+      <c r="B49" s="182" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="181"/>
-      <c r="D49" s="181"/>
+      <c r="C49" s="182"/>
+      <c r="D49" s="182"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="181"/>
-      <c r="C50" s="181"/>
-      <c r="D50" s="181"/>
+      <c r="B50" s="182"/>
+      <c r="C50" s="182"/>
+      <c r="D50" s="182"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="181" t="s">
+      <c r="B51" s="182" t="s">
         <v>86</v>
       </c>
-      <c r="C51" s="181"/>
-      <c r="D51" s="181"/>
+      <c r="C51" s="182"/>
+      <c r="D51" s="182"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="181"/>
-      <c r="C52" s="181"/>
-      <c r="D52" s="181"/>
+      <c r="B52" s="182"/>
+      <c r="C52" s="182"/>
+      <c r="D52" s="182"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="181"/>
-      <c r="C53" s="181"/>
-      <c r="D53" s="181"/>
+      <c r="B53" s="182"/>
+      <c r="C53" s="182"/>
+      <c r="D53" s="182"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="181"/>
-      <c r="C54" s="181"/>
-      <c r="D54" s="181"/>
+      <c r="B54" s="182"/>
+      <c r="C54" s="182"/>
+      <c r="D54" s="182"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="181"/>
-      <c r="C55" s="181"/>
-      <c r="D55" s="181"/>
+      <c r="B55" s="182"/>
+      <c r="C55" s="182"/>
+      <c r="D55" s="182"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="181"/>
-      <c r="C56" s="181"/>
-      <c r="D56" s="181"/>
+      <c r="B56" s="182"/>
+      <c r="C56" s="182"/>
+      <c r="D56" s="182"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="181"/>
-      <c r="C57" s="181"/>
-      <c r="D57" s="181"/>
+      <c r="B57" s="182"/>
+      <c r="C57" s="182"/>
+      <c r="D57" s="182"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="181"/>
-      <c r="C58" s="181"/>
-      <c r="D58" s="181"/>
+      <c r="B58" s="182"/>
+      <c r="C58" s="182"/>
+      <c r="D58" s="182"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="181"/>
-      <c r="C59" s="181"/>
-      <c r="D59" s="181"/>
+      <c r="B59" s="182"/>
+      <c r="C59" s="182"/>
+      <c r="D59" s="182"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="181"/>
-      <c r="C60" s="181"/>
-      <c r="D60" s="181"/>
+      <c r="B60" s="182"/>
+      <c r="C60" s="182"/>
+      <c r="D60" s="182"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="181"/>
-      <c r="C61" s="181"/>
-      <c r="D61" s="181"/>
+      <c r="B61" s="182"/>
+      <c r="C61" s="182"/>
+      <c r="D61" s="182"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="181"/>
-      <c r="C62" s="181"/>
-      <c r="D62" s="181"/>
+      <c r="B62" s="182"/>
+      <c r="C62" s="182"/>
+      <c r="D62" s="182"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="181"/>
-      <c r="C63" s="181"/>
-      <c r="D63" s="181"/>
+      <c r="B63" s="182"/>
+      <c r="C63" s="182"/>
+      <c r="D63" s="182"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
@@ -13656,17 +15619,17 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="181"/>
-      <c r="C66" s="181"/>
-      <c r="D66" s="181"/>
+      <c r="B66" s="182"/>
+      <c r="C66" s="182"/>
+      <c r="D66" s="182"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="181"/>
-      <c r="C67" s="181"/>
-      <c r="D67" s="181"/>
+      <c r="B67" s="182"/>
+      <c r="C67" s="182"/>
+      <c r="D67" s="182"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
@@ -13773,19 +15736,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="185"/>
-      <c r="C76" s="185"/>
-      <c r="D76" s="185"/>
+      <c r="B76" s="186"/>
+      <c r="C76" s="186"/>
+      <c r="D76" s="186"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="182" t="s">
+      <c r="B77" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="182"/>
-      <c r="D77" s="182"/>
+      <c r="C77" s="183"/>
+      <c r="D77" s="183"/>
       <c r="E77" s="36">
         <v>0</v>
       </c>
@@ -13793,9 +15756,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="185"/>
-      <c r="C78" s="185"/>
-      <c r="D78" s="185"/>
+      <c r="B78" s="186"/>
+      <c r="C78" s="186"/>
+      <c r="D78" s="186"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
@@ -13830,31 +15793,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="179"/>
-      <c r="C82" s="179"/>
-      <c r="D82" s="179"/>
-      <c r="E82" s="179"/>
+      <c r="B82" s="180"/>
+      <c r="C82" s="180"/>
+      <c r="D82" s="180"/>
+      <c r="E82" s="180"/>
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="187" t="s">
+      <c r="A83" s="188" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="187"/>
-      <c r="C83" s="187"/>
-      <c r="D83" s="187"/>
-      <c r="E83" s="187"/>
-      <c r="F83" s="187"/>
+      <c r="B83" s="188"/>
+      <c r="C83" s="188"/>
+      <c r="D83" s="188"/>
+      <c r="E83" s="188"/>
+      <c r="F83" s="188"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="183" t="s">
+      <c r="A84" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="183"/>
-      <c r="C84" s="183"/>
-      <c r="D84" s="183"/>
-      <c r="E84" s="183"/>
-      <c r="F84" s="183"/>
+      <c r="B84" s="184"/>
+      <c r="C84" s="184"/>
+      <c r="D84" s="184"/>
+      <c r="E84" s="184"/>
+      <c r="F84" s="184"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
@@ -13866,26 +15829,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="180"/>
-      <c r="C86" s="180"/>
-      <c r="D86" s="180"/>
-      <c r="E86" s="180"/>
+      <c r="B86" s="181"/>
+      <c r="C86" s="181"/>
+      <c r="D86" s="181"/>
+      <c r="E86" s="181"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="186" t="s">
+      <c r="A87" s="187" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="186"/>
-      <c r="C87" s="186"/>
-      <c r="D87" s="186"/>
-      <c r="E87" s="186"/>
-      <c r="F87" s="186"/>
+      <c r="B87" s="187"/>
+      <c r="C87" s="187"/>
+      <c r="D87" s="187"/>
+      <c r="E87" s="187"/>
+      <c r="F87" s="187"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="177"/>
-      <c r="C89" s="178"/>
-      <c r="D89" s="178"/>
+      <c r="B89" s="178"/>
+      <c r="C89" s="179"/>
+      <c r="D89" s="179"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -14095,14 +16058,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="184" t="s">
+      <c r="A30" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="184"/>
-      <c r="C30" s="184"/>
-      <c r="D30" s="184"/>
-      <c r="E30" s="184"/>
-      <c r="F30" s="184"/>
+      <c r="B30" s="185"/>
+      <c r="C30" s="185"/>
+      <c r="D30" s="185"/>
+      <c r="E30" s="185"/>
+      <c r="F30" s="185"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -14123,283 +16086,283 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="181"/>
-      <c r="C33" s="181"/>
-      <c r="D33" s="181"/>
+      <c r="B33" s="182"/>
+      <c r="C33" s="182"/>
+      <c r="D33" s="182"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="181" t="s">
+      <c r="B34" s="182" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="181"/>
-      <c r="D34" s="181"/>
+      <c r="C34" s="182"/>
+      <c r="D34" s="182"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="181"/>
-      <c r="C35" s="181"/>
-      <c r="D35" s="181"/>
+      <c r="B35" s="182"/>
+      <c r="C35" s="182"/>
+      <c r="D35" s="182"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="181" t="s">
+      <c r="B36" s="182" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="181"/>
-      <c r="D36" s="181"/>
+      <c r="C36" s="182"/>
+      <c r="D36" s="182"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="181"/>
-      <c r="C37" s="181"/>
-      <c r="D37" s="181"/>
+      <c r="B37" s="182"/>
+      <c r="C37" s="182"/>
+      <c r="D37" s="182"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="181" t="s">
+      <c r="B38" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="181"/>
-      <c r="D38" s="181"/>
+      <c r="C38" s="182"/>
+      <c r="D38" s="182"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="181"/>
-      <c r="C39" s="181"/>
-      <c r="D39" s="181"/>
+      <c r="B39" s="182"/>
+      <c r="C39" s="182"/>
+      <c r="D39" s="182"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="181" t="s">
+      <c r="B40" s="182" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="181"/>
-      <c r="D40" s="181"/>
+      <c r="C40" s="182"/>
+      <c r="D40" s="182"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="181"/>
-      <c r="C41" s="181"/>
-      <c r="D41" s="181"/>
+      <c r="B41" s="182"/>
+      <c r="C41" s="182"/>
+      <c r="D41" s="182"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="181" t="s">
+      <c r="B42" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="181"/>
-      <c r="D42" s="181"/>
+      <c r="C42" s="182"/>
+      <c r="D42" s="182"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="181"/>
-      <c r="C43" s="181"/>
-      <c r="D43" s="181"/>
+      <c r="B43" s="182"/>
+      <c r="C43" s="182"/>
+      <c r="D43" s="182"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="181" t="s">
+      <c r="B44" s="182" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="181"/>
-      <c r="D44" s="181"/>
+      <c r="C44" s="182"/>
+      <c r="D44" s="182"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="181"/>
-      <c r="C45" s="181"/>
-      <c r="D45" s="181"/>
+      <c r="B45" s="182"/>
+      <c r="C45" s="182"/>
+      <c r="D45" s="182"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="181" t="s">
+      <c r="B46" s="182" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="181"/>
-      <c r="D46" s="181"/>
+      <c r="C46" s="182"/>
+      <c r="D46" s="182"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="181"/>
-      <c r="C47" s="181"/>
-      <c r="D47" s="181"/>
+      <c r="B47" s="182"/>
+      <c r="C47" s="182"/>
+      <c r="D47" s="182"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="181" t="s">
+      <c r="B48" s="182" t="s">
         <v>20</v>
       </c>
-      <c r="C48" s="181"/>
-      <c r="D48" s="181"/>
+      <c r="C48" s="182"/>
+      <c r="D48" s="182"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="181"/>
-      <c r="C49" s="181"/>
-      <c r="D49" s="181"/>
+      <c r="B49" s="182"/>
+      <c r="C49" s="182"/>
+      <c r="D49" s="182"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="181" t="s">
+      <c r="B50" s="182" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="181"/>
-      <c r="D50" s="181"/>
+      <c r="C50" s="182"/>
+      <c r="D50" s="182"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="181"/>
-      <c r="C51" s="181"/>
-      <c r="D51" s="181"/>
+      <c r="B51" s="182"/>
+      <c r="C51" s="182"/>
+      <c r="D51" s="182"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="181" t="s">
+      <c r="B52" s="182" t="s">
         <v>100</v>
       </c>
-      <c r="C52" s="181"/>
-      <c r="D52" s="181"/>
+      <c r="C52" s="182"/>
+      <c r="D52" s="182"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="181"/>
-      <c r="C53" s="181"/>
-      <c r="D53" s="181"/>
+      <c r="B53" s="182"/>
+      <c r="C53" s="182"/>
+      <c r="D53" s="182"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="181" t="s">
+      <c r="B54" s="182" t="s">
         <v>33</v>
       </c>
-      <c r="C54" s="181"/>
-      <c r="D54" s="181"/>
+      <c r="C54" s="182"/>
+      <c r="D54" s="182"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="181"/>
-      <c r="C55" s="181"/>
-      <c r="D55" s="181"/>
+      <c r="B55" s="182"/>
+      <c r="C55" s="182"/>
+      <c r="D55" s="182"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="181" t="s">
+      <c r="B56" s="182" t="s">
         <v>35</v>
       </c>
-      <c r="C56" s="181"/>
-      <c r="D56" s="181"/>
+      <c r="C56" s="182"/>
+      <c r="D56" s="182"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="181"/>
-      <c r="C57" s="181"/>
-      <c r="D57" s="181"/>
+      <c r="B57" s="182"/>
+      <c r="C57" s="182"/>
+      <c r="D57" s="182"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="181" t="s">
+      <c r="B58" s="182" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="181"/>
-      <c r="D58" s="181"/>
+      <c r="C58" s="182"/>
+      <c r="D58" s="182"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="181"/>
-      <c r="C59" s="181"/>
-      <c r="D59" s="181"/>
+      <c r="B59" s="182"/>
+      <c r="C59" s="182"/>
+      <c r="D59" s="182"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="181"/>
-      <c r="C60" s="181"/>
-      <c r="D60" s="181"/>
+      <c r="B60" s="182"/>
+      <c r="C60" s="182"/>
+      <c r="D60" s="182"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="181"/>
-      <c r="C61" s="181"/>
-      <c r="D61" s="181"/>
+      <c r="B61" s="182"/>
+      <c r="C61" s="182"/>
+      <c r="D61" s="182"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="181"/>
-      <c r="C62" s="181"/>
-      <c r="D62" s="181"/>
+      <c r="B62" s="182"/>
+      <c r="C62" s="182"/>
+      <c r="D62" s="182"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="181"/>
-      <c r="C63" s="181"/>
-      <c r="D63" s="181"/>
+      <c r="B63" s="182"/>
+      <c r="C63" s="182"/>
+      <c r="D63" s="182"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="181"/>
-      <c r="C64" s="181"/>
-      <c r="D64" s="181"/>
+      <c r="B64" s="182"/>
+      <c r="C64" s="182"/>
+      <c r="D64" s="182"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -14429,17 +16392,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="181"/>
-      <c r="C67" s="181"/>
-      <c r="D67" s="181"/>
+      <c r="B67" s="182"/>
+      <c r="C67" s="182"/>
+      <c r="D67" s="182"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="181"/>
-      <c r="C68" s="181"/>
-      <c r="D68" s="181"/>
+      <c r="B68" s="182"/>
+      <c r="C68" s="182"/>
+      <c r="D68" s="182"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -14546,19 +16509,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="185"/>
-      <c r="C77" s="185"/>
-      <c r="D77" s="185"/>
+      <c r="B77" s="186"/>
+      <c r="C77" s="186"/>
+      <c r="D77" s="186"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="182" t="s">
+      <c r="B78" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="182"/>
-      <c r="D78" s="182"/>
+      <c r="C78" s="183"/>
+      <c r="D78" s="183"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -14566,9 +16529,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="185"/>
-      <c r="C79" s="185"/>
-      <c r="D79" s="185"/>
+      <c r="B79" s="186"/>
+      <c r="C79" s="186"/>
+      <c r="D79" s="186"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -14603,31 +16566,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="179"/>
-      <c r="C83" s="179"/>
-      <c r="D83" s="179"/>
-      <c r="E83" s="179"/>
+      <c r="B83" s="180"/>
+      <c r="C83" s="180"/>
+      <c r="D83" s="180"/>
+      <c r="E83" s="180"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="187" t="s">
+      <c r="A84" s="188" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="187"/>
-      <c r="C84" s="187"/>
-      <c r="D84" s="187"/>
-      <c r="E84" s="187"/>
-      <c r="F84" s="187"/>
+      <c r="B84" s="188"/>
+      <c r="C84" s="188"/>
+      <c r="D84" s="188"/>
+      <c r="E84" s="188"/>
+      <c r="F84" s="188"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="183" t="s">
+      <c r="A85" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="183"/>
-      <c r="C85" s="183"/>
-      <c r="D85" s="183"/>
-      <c r="E85" s="183"/>
-      <c r="F85" s="183"/>
+      <c r="B85" s="184"/>
+      <c r="C85" s="184"/>
+      <c r="D85" s="184"/>
+      <c r="E85" s="184"/>
+      <c r="F85" s="184"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -14639,26 +16602,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="180"/>
-      <c r="C87" s="180"/>
-      <c r="D87" s="180"/>
-      <c r="E87" s="180"/>
+      <c r="B87" s="181"/>
+      <c r="C87" s="181"/>
+      <c r="D87" s="181"/>
+      <c r="E87" s="181"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="186" t="s">
+      <c r="A88" s="187" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="186"/>
-      <c r="C88" s="186"/>
-      <c r="D88" s="186"/>
-      <c r="E88" s="186"/>
-      <c r="F88" s="186"/>
+      <c r="B88" s="187"/>
+      <c r="C88" s="187"/>
+      <c r="D88" s="187"/>
+      <c r="E88" s="187"/>
+      <c r="F88" s="187"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="177"/>
-      <c r="C90" s="178"/>
-      <c r="D90" s="178"/>
+      <c r="B90" s="178"/>
+      <c r="C90" s="179"/>
+      <c r="D90" s="179"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -14869,14 +16832,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="184" t="s">
+      <c r="A30" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="184"/>
-      <c r="C30" s="184"/>
-      <c r="D30" s="184"/>
-      <c r="E30" s="184"/>
-      <c r="F30" s="184"/>
+      <c r="B30" s="185"/>
+      <c r="C30" s="185"/>
+      <c r="D30" s="185"/>
+      <c r="E30" s="185"/>
+      <c r="F30" s="185"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -14897,259 +16860,259 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="181"/>
-      <c r="C33" s="181"/>
-      <c r="D33" s="181"/>
+      <c r="B33" s="182"/>
+      <c r="C33" s="182"/>
+      <c r="D33" s="182"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="181" t="s">
+      <c r="B34" s="182" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="181"/>
-      <c r="D34" s="181"/>
+      <c r="C34" s="182"/>
+      <c r="D34" s="182"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="181"/>
-      <c r="C35" s="181"/>
-      <c r="D35" s="181"/>
+      <c r="B35" s="182"/>
+      <c r="C35" s="182"/>
+      <c r="D35" s="182"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="181" t="s">
+      <c r="B36" s="182" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="181"/>
-      <c r="D36" s="181"/>
+      <c r="C36" s="182"/>
+      <c r="D36" s="182"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="181"/>
-      <c r="C37" s="181"/>
-      <c r="D37" s="181"/>
+      <c r="B37" s="182"/>
+      <c r="C37" s="182"/>
+      <c r="D37" s="182"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="181" t="s">
+      <c r="B38" s="182" t="s">
         <v>105</v>
       </c>
-      <c r="C38" s="181"/>
-      <c r="D38" s="181"/>
+      <c r="C38" s="182"/>
+      <c r="D38" s="182"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="181"/>
-      <c r="C39" s="181"/>
-      <c r="D39" s="181"/>
+      <c r="B39" s="182"/>
+      <c r="C39" s="182"/>
+      <c r="D39" s="182"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="181" t="s">
+      <c r="B40" s="182" t="s">
         <v>106</v>
       </c>
-      <c r="C40" s="181"/>
-      <c r="D40" s="181"/>
+      <c r="C40" s="182"/>
+      <c r="D40" s="182"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="181"/>
-      <c r="C41" s="181"/>
-      <c r="D41" s="181"/>
+      <c r="B41" s="182"/>
+      <c r="C41" s="182"/>
+      <c r="D41" s="182"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="181" t="s">
+      <c r="B42" s="182" t="s">
         <v>107</v>
       </c>
-      <c r="C42" s="181"/>
-      <c r="D42" s="181"/>
+      <c r="C42" s="182"/>
+      <c r="D42" s="182"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="181"/>
-      <c r="C43" s="181"/>
-      <c r="D43" s="181"/>
+      <c r="B43" s="182"/>
+      <c r="C43" s="182"/>
+      <c r="D43" s="182"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="181"/>
-      <c r="C44" s="181"/>
-      <c r="D44" s="181"/>
+      <c r="B44" s="182"/>
+      <c r="C44" s="182"/>
+      <c r="D44" s="182"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="181"/>
-      <c r="C45" s="181"/>
-      <c r="D45" s="181"/>
+      <c r="B45" s="182"/>
+      <c r="C45" s="182"/>
+      <c r="D45" s="182"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="181"/>
-      <c r="C46" s="181"/>
-      <c r="D46" s="181"/>
+      <c r="B46" s="182"/>
+      <c r="C46" s="182"/>
+      <c r="D46" s="182"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="181"/>
-      <c r="C47" s="181"/>
-      <c r="D47" s="181"/>
+      <c r="B47" s="182"/>
+      <c r="C47" s="182"/>
+      <c r="D47" s="182"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="181"/>
-      <c r="C48" s="181"/>
-      <c r="D48" s="181"/>
+      <c r="B48" s="182"/>
+      <c r="C48" s="182"/>
+      <c r="D48" s="182"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="181"/>
-      <c r="C49" s="181"/>
-      <c r="D49" s="181"/>
+      <c r="B49" s="182"/>
+      <c r="C49" s="182"/>
+      <c r="D49" s="182"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="181"/>
-      <c r="C50" s="181"/>
-      <c r="D50" s="181"/>
+      <c r="B50" s="182"/>
+      <c r="C50" s="182"/>
+      <c r="D50" s="182"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="181"/>
-      <c r="C51" s="181"/>
-      <c r="D51" s="181"/>
+      <c r="B51" s="182"/>
+      <c r="C51" s="182"/>
+      <c r="D51" s="182"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="181"/>
-      <c r="C52" s="181"/>
-      <c r="D52" s="181"/>
+      <c r="B52" s="182"/>
+      <c r="C52" s="182"/>
+      <c r="D52" s="182"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="181"/>
-      <c r="C53" s="181"/>
-      <c r="D53" s="181"/>
+      <c r="B53" s="182"/>
+      <c r="C53" s="182"/>
+      <c r="D53" s="182"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="181"/>
-      <c r="C54" s="181"/>
-      <c r="D54" s="181"/>
+      <c r="B54" s="182"/>
+      <c r="C54" s="182"/>
+      <c r="D54" s="182"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="181"/>
-      <c r="C55" s="181"/>
-      <c r="D55" s="181"/>
+      <c r="B55" s="182"/>
+      <c r="C55" s="182"/>
+      <c r="D55" s="182"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="181"/>
-      <c r="C56" s="181"/>
-      <c r="D56" s="181"/>
+      <c r="B56" s="182"/>
+      <c r="C56" s="182"/>
+      <c r="D56" s="182"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="181"/>
-      <c r="C57" s="181"/>
-      <c r="D57" s="181"/>
+      <c r="B57" s="182"/>
+      <c r="C57" s="182"/>
+      <c r="D57" s="182"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="181"/>
-      <c r="C58" s="181"/>
-      <c r="D58" s="181"/>
+      <c r="B58" s="182"/>
+      <c r="C58" s="182"/>
+      <c r="D58" s="182"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="181"/>
-      <c r="C59" s="181"/>
-      <c r="D59" s="181"/>
+      <c r="B59" s="182"/>
+      <c r="C59" s="182"/>
+      <c r="D59" s="182"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="181"/>
-      <c r="C60" s="181"/>
-      <c r="D60" s="181"/>
+      <c r="B60" s="182"/>
+      <c r="C60" s="182"/>
+      <c r="D60" s="182"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="181"/>
-      <c r="C61" s="181"/>
-      <c r="D61" s="181"/>
+      <c r="B61" s="182"/>
+      <c r="C61" s="182"/>
+      <c r="D61" s="182"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="181"/>
-      <c r="C62" s="181"/>
-      <c r="D62" s="181"/>
+      <c r="B62" s="182"/>
+      <c r="C62" s="182"/>
+      <c r="D62" s="182"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="181"/>
-      <c r="C63" s="181"/>
-      <c r="D63" s="181"/>
+      <c r="B63" s="182"/>
+      <c r="C63" s="182"/>
+      <c r="D63" s="182"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
@@ -15179,17 +17142,17 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="181"/>
-      <c r="C66" s="181"/>
-      <c r="D66" s="181"/>
+      <c r="B66" s="182"/>
+      <c r="C66" s="182"/>
+      <c r="D66" s="182"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="181"/>
-      <c r="C67" s="181"/>
-      <c r="D67" s="181"/>
+      <c r="B67" s="182"/>
+      <c r="C67" s="182"/>
+      <c r="D67" s="182"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
@@ -15296,19 +17259,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="185"/>
-      <c r="C76" s="185"/>
-      <c r="D76" s="185"/>
+      <c r="B76" s="186"/>
+      <c r="C76" s="186"/>
+      <c r="D76" s="186"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="182" t="s">
+      <c r="B77" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="182"/>
-      <c r="D77" s="182"/>
+      <c r="C77" s="183"/>
+      <c r="D77" s="183"/>
       <c r="E77" s="36">
         <v>0</v>
       </c>
@@ -15316,9 +17279,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="185"/>
-      <c r="C78" s="185"/>
-      <c r="D78" s="185"/>
+      <c r="B78" s="186"/>
+      <c r="C78" s="186"/>
+      <c r="D78" s="186"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
@@ -15353,31 +17316,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="179"/>
-      <c r="C82" s="179"/>
-      <c r="D82" s="179"/>
-      <c r="E82" s="179"/>
+      <c r="B82" s="180"/>
+      <c r="C82" s="180"/>
+      <c r="D82" s="180"/>
+      <c r="E82" s="180"/>
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="187" t="s">
+      <c r="A83" s="188" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="187"/>
-      <c r="C83" s="187"/>
-      <c r="D83" s="187"/>
-      <c r="E83" s="187"/>
-      <c r="F83" s="187"/>
+      <c r="B83" s="188"/>
+      <c r="C83" s="188"/>
+      <c r="D83" s="188"/>
+      <c r="E83" s="188"/>
+      <c r="F83" s="188"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="183" t="s">
+      <c r="A84" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="183"/>
-      <c r="C84" s="183"/>
-      <c r="D84" s="183"/>
-      <c r="E84" s="183"/>
-      <c r="F84" s="183"/>
+      <c r="B84" s="184"/>
+      <c r="C84" s="184"/>
+      <c r="D84" s="184"/>
+      <c r="E84" s="184"/>
+      <c r="F84" s="184"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
@@ -15389,26 +17352,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="180"/>
-      <c r="C86" s="180"/>
-      <c r="D86" s="180"/>
-      <c r="E86" s="180"/>
+      <c r="B86" s="181"/>
+      <c r="C86" s="181"/>
+      <c r="D86" s="181"/>
+      <c r="E86" s="181"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="186" t="s">
+      <c r="A87" s="187" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="186"/>
-      <c r="C87" s="186"/>
-      <c r="D87" s="186"/>
-      <c r="E87" s="186"/>
-      <c r="F87" s="186"/>
+      <c r="B87" s="187"/>
+      <c r="C87" s="187"/>
+      <c r="D87" s="187"/>
+      <c r="E87" s="187"/>
+      <c r="F87" s="187"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="177"/>
-      <c r="C89" s="178"/>
-      <c r="D89" s="178"/>
+      <c r="B89" s="178"/>
+      <c r="C89" s="179"/>
+      <c r="D89" s="179"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -15618,14 +17581,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="184" t="s">
+      <c r="A30" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="184"/>
-      <c r="C30" s="184"/>
-      <c r="D30" s="184"/>
-      <c r="E30" s="184"/>
-      <c r="F30" s="184"/>
+      <c r="B30" s="185"/>
+      <c r="C30" s="185"/>
+      <c r="D30" s="185"/>
+      <c r="E30" s="185"/>
+      <c r="F30" s="185"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -15646,269 +17609,269 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="181"/>
-      <c r="C33" s="181"/>
-      <c r="D33" s="181"/>
+      <c r="B33" s="182"/>
+      <c r="C33" s="182"/>
+      <c r="D33" s="182"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="181" t="s">
+      <c r="B34" s="182" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="181"/>
-      <c r="D34" s="181"/>
+      <c r="C34" s="182"/>
+      <c r="D34" s="182"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="181"/>
-      <c r="C35" s="181"/>
-      <c r="D35" s="181"/>
+      <c r="B35" s="182"/>
+      <c r="C35" s="182"/>
+      <c r="D35" s="182"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="181" t="s">
+      <c r="B36" s="182" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="181"/>
-      <c r="D36" s="181"/>
+      <c r="C36" s="182"/>
+      <c r="D36" s="182"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="181"/>
-      <c r="C37" s="181"/>
-      <c r="D37" s="181"/>
+      <c r="B37" s="182"/>
+      <c r="C37" s="182"/>
+      <c r="D37" s="182"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="181" t="s">
+      <c r="B38" s="182" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="181"/>
-      <c r="D38" s="181"/>
+      <c r="C38" s="182"/>
+      <c r="D38" s="182"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="181"/>
-      <c r="C39" s="181"/>
-      <c r="D39" s="181"/>
+      <c r="B39" s="182"/>
+      <c r="C39" s="182"/>
+      <c r="D39" s="182"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="181" t="s">
+      <c r="B40" s="182" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="181"/>
-      <c r="D40" s="181"/>
+      <c r="C40" s="182"/>
+      <c r="D40" s="182"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="181"/>
-      <c r="C41" s="181"/>
-      <c r="D41" s="181"/>
+      <c r="B41" s="182"/>
+      <c r="C41" s="182"/>
+      <c r="D41" s="182"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="181" t="s">
+      <c r="B42" s="182" t="s">
         <v>114</v>
       </c>
-      <c r="C42" s="181"/>
-      <c r="D42" s="181"/>
+      <c r="C42" s="182"/>
+      <c r="D42" s="182"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="181"/>
-      <c r="C43" s="181"/>
-      <c r="D43" s="181"/>
+      <c r="B43" s="182"/>
+      <c r="C43" s="182"/>
+      <c r="D43" s="182"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="181" t="s">
+      <c r="B44" s="182" t="s">
         <v>113</v>
       </c>
-      <c r="C44" s="181"/>
-      <c r="D44" s="181"/>
+      <c r="C44" s="182"/>
+      <c r="D44" s="182"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="181"/>
-      <c r="C45" s="181"/>
-      <c r="D45" s="181"/>
+      <c r="B45" s="182"/>
+      <c r="C45" s="182"/>
+      <c r="D45" s="182"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="181"/>
-      <c r="C46" s="181"/>
-      <c r="D46" s="181"/>
+      <c r="B46" s="182"/>
+      <c r="C46" s="182"/>
+      <c r="D46" s="182"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="181"/>
-      <c r="C47" s="181"/>
-      <c r="D47" s="181"/>
+      <c r="B47" s="182"/>
+      <c r="C47" s="182"/>
+      <c r="D47" s="182"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="181"/>
-      <c r="C48" s="181"/>
-      <c r="D48" s="181"/>
+      <c r="B48" s="182"/>
+      <c r="C48" s="182"/>
+      <c r="D48" s="182"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="181"/>
-      <c r="C49" s="181"/>
-      <c r="D49" s="181"/>
+      <c r="B49" s="182"/>
+      <c r="C49" s="182"/>
+      <c r="D49" s="182"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="181"/>
-      <c r="C50" s="181"/>
-      <c r="D50" s="181"/>
+      <c r="B50" s="182"/>
+      <c r="C50" s="182"/>
+      <c r="D50" s="182"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="181"/>
-      <c r="C51" s="181"/>
-      <c r="D51" s="181"/>
+      <c r="B51" s="182"/>
+      <c r="C51" s="182"/>
+      <c r="D51" s="182"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="181"/>
-      <c r="C52" s="181"/>
-      <c r="D52" s="181"/>
+      <c r="B52" s="182"/>
+      <c r="C52" s="182"/>
+      <c r="D52" s="182"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="181"/>
-      <c r="C53" s="181"/>
-      <c r="D53" s="181"/>
+      <c r="B53" s="182"/>
+      <c r="C53" s="182"/>
+      <c r="D53" s="182"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="181"/>
-      <c r="C54" s="181"/>
-      <c r="D54" s="181"/>
+      <c r="B54" s="182"/>
+      <c r="C54" s="182"/>
+      <c r="D54" s="182"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="181"/>
-      <c r="C55" s="181"/>
-      <c r="D55" s="181"/>
+      <c r="B55" s="182"/>
+      <c r="C55" s="182"/>
+      <c r="D55" s="182"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="181"/>
-      <c r="C56" s="181"/>
-      <c r="D56" s="181"/>
+      <c r="B56" s="182"/>
+      <c r="C56" s="182"/>
+      <c r="D56" s="182"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="181"/>
-      <c r="C57" s="181"/>
-      <c r="D57" s="181"/>
+      <c r="B57" s="182"/>
+      <c r="C57" s="182"/>
+      <c r="D57" s="182"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="181"/>
-      <c r="C58" s="181"/>
-      <c r="D58" s="181"/>
+      <c r="B58" s="182"/>
+      <c r="C58" s="182"/>
+      <c r="D58" s="182"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="181"/>
-      <c r="C59" s="181"/>
-      <c r="D59" s="181"/>
+      <c r="B59" s="182"/>
+      <c r="C59" s="182"/>
+      <c r="D59" s="182"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="181"/>
-      <c r="C60" s="181"/>
-      <c r="D60" s="181"/>
+      <c r="B60" s="182"/>
+      <c r="C60" s="182"/>
+      <c r="D60" s="182"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="181"/>
-      <c r="C61" s="181"/>
-      <c r="D61" s="181"/>
+      <c r="B61" s="182"/>
+      <c r="C61" s="182"/>
+      <c r="D61" s="182"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="181"/>
-      <c r="C62" s="181"/>
-      <c r="D62" s="181"/>
+      <c r="B62" s="182"/>
+      <c r="C62" s="182"/>
+      <c r="D62" s="182"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="181"/>
-      <c r="C63" s="181"/>
-      <c r="D63" s="181"/>
+      <c r="B63" s="182"/>
+      <c r="C63" s="182"/>
+      <c r="D63" s="182"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="181"/>
-      <c r="C64" s="181"/>
-      <c r="D64" s="181"/>
+      <c r="B64" s="182"/>
+      <c r="C64" s="182"/>
+      <c r="D64" s="182"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -15938,17 +17901,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="181"/>
-      <c r="C67" s="181"/>
-      <c r="D67" s="181"/>
+      <c r="B67" s="182"/>
+      <c r="C67" s="182"/>
+      <c r="D67" s="182"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="181"/>
-      <c r="C68" s="181"/>
-      <c r="D68" s="181"/>
+      <c r="B68" s="182"/>
+      <c r="C68" s="182"/>
+      <c r="D68" s="182"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -16055,19 +18018,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="185"/>
-      <c r="C77" s="185"/>
-      <c r="D77" s="185"/>
+      <c r="B77" s="186"/>
+      <c r="C77" s="186"/>
+      <c r="D77" s="186"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="182" t="s">
+      <c r="B78" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="182"/>
-      <c r="D78" s="182"/>
+      <c r="C78" s="183"/>
+      <c r="D78" s="183"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -16075,9 +18038,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="185"/>
-      <c r="C79" s="185"/>
-      <c r="D79" s="185"/>
+      <c r="B79" s="186"/>
+      <c r="C79" s="186"/>
+      <c r="D79" s="186"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -16112,31 +18075,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="179"/>
-      <c r="C83" s="179"/>
-      <c r="D83" s="179"/>
-      <c r="E83" s="179"/>
+      <c r="B83" s="180"/>
+      <c r="C83" s="180"/>
+      <c r="D83" s="180"/>
+      <c r="E83" s="180"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="187" t="s">
+      <c r="A84" s="188" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="187"/>
-      <c r="C84" s="187"/>
-      <c r="D84" s="187"/>
-      <c r="E84" s="187"/>
-      <c r="F84" s="187"/>
+      <c r="B84" s="188"/>
+      <c r="C84" s="188"/>
+      <c r="D84" s="188"/>
+      <c r="E84" s="188"/>
+      <c r="F84" s="188"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="183" t="s">
+      <c r="A85" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="183"/>
-      <c r="C85" s="183"/>
-      <c r="D85" s="183"/>
-      <c r="E85" s="183"/>
-      <c r="F85" s="183"/>
+      <c r="B85" s="184"/>
+      <c r="C85" s="184"/>
+      <c r="D85" s="184"/>
+      <c r="E85" s="184"/>
+      <c r="F85" s="184"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -16148,26 +18111,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="180"/>
-      <c r="C87" s="180"/>
-      <c r="D87" s="180"/>
-      <c r="E87" s="180"/>
+      <c r="B87" s="181"/>
+      <c r="C87" s="181"/>
+      <c r="D87" s="181"/>
+      <c r="E87" s="181"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="186" t="s">
+      <c r="A88" s="187" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="186"/>
-      <c r="C88" s="186"/>
-      <c r="D88" s="186"/>
-      <c r="E88" s="186"/>
-      <c r="F88" s="186"/>
+      <c r="B88" s="187"/>
+      <c r="C88" s="187"/>
+      <c r="D88" s="187"/>
+      <c r="E88" s="187"/>
+      <c r="F88" s="187"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="177"/>
-      <c r="C90" s="178"/>
-      <c r="D90" s="178"/>
+      <c r="B90" s="178"/>
+      <c r="C90" s="179"/>
+      <c r="D90" s="179"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -16378,14 +18341,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="184" t="s">
+      <c r="A30" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="184"/>
-      <c r="C30" s="184"/>
-      <c r="D30" s="184"/>
-      <c r="E30" s="184"/>
-      <c r="F30" s="184"/>
+      <c r="B30" s="185"/>
+      <c r="C30" s="185"/>
+      <c r="D30" s="185"/>
+      <c r="E30" s="185"/>
+      <c r="F30" s="185"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -16406,267 +18369,267 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="181"/>
-      <c r="C33" s="181"/>
-      <c r="D33" s="181"/>
+      <c r="B33" s="182"/>
+      <c r="C33" s="182"/>
+      <c r="D33" s="182"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="181"/>
-      <c r="C34" s="181"/>
-      <c r="D34" s="181"/>
+      <c r="B34" s="182"/>
+      <c r="C34" s="182"/>
+      <c r="D34" s="182"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="181" t="s">
+      <c r="B35" s="182" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="181"/>
-      <c r="D35" s="181"/>
+      <c r="C35" s="182"/>
+      <c r="D35" s="182"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="181"/>
-      <c r="C36" s="181"/>
-      <c r="D36" s="181"/>
+      <c r="B36" s="182"/>
+      <c r="C36" s="182"/>
+      <c r="D36" s="182"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="181" t="s">
+      <c r="B37" s="182" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="181"/>
-      <c r="D37" s="181"/>
+      <c r="C37" s="182"/>
+      <c r="D37" s="182"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="181"/>
-      <c r="C38" s="181"/>
-      <c r="D38" s="181"/>
+      <c r="B38" s="182"/>
+      <c r="C38" s="182"/>
+      <c r="D38" s="182"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="181" t="s">
+      <c r="B39" s="182" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="181"/>
-      <c r="D39" s="181"/>
+      <c r="C39" s="182"/>
+      <c r="D39" s="182"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="181"/>
-      <c r="C40" s="181"/>
-      <c r="D40" s="181"/>
+      <c r="B40" s="182"/>
+      <c r="C40" s="182"/>
+      <c r="D40" s="182"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="181" t="s">
+      <c r="B41" s="182" t="s">
         <v>93</v>
       </c>
-      <c r="C41" s="181"/>
-      <c r="D41" s="181"/>
+      <c r="C41" s="182"/>
+      <c r="D41" s="182"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="181"/>
-      <c r="C42" s="181"/>
-      <c r="D42" s="181"/>
+      <c r="B42" s="182"/>
+      <c r="C42" s="182"/>
+      <c r="D42" s="182"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="181" t="s">
+      <c r="B43" s="182" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="181"/>
-      <c r="D43" s="181"/>
+      <c r="C43" s="182"/>
+      <c r="D43" s="182"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="181"/>
-      <c r="C44" s="181"/>
-      <c r="D44" s="181"/>
+      <c r="B44" s="182"/>
+      <c r="C44" s="182"/>
+      <c r="D44" s="182"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="181" t="s">
+      <c r="B45" s="182" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="181"/>
-      <c r="D45" s="181"/>
+      <c r="C45" s="182"/>
+      <c r="D45" s="182"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="181"/>
-      <c r="C46" s="181"/>
-      <c r="D46" s="181"/>
+      <c r="B46" s="182"/>
+      <c r="C46" s="182"/>
+      <c r="D46" s="182"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="181" t="s">
+      <c r="B47" s="182" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="181"/>
-      <c r="D47" s="181"/>
+      <c r="C47" s="182"/>
+      <c r="D47" s="182"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="181"/>
-      <c r="C48" s="181"/>
-      <c r="D48" s="181"/>
+      <c r="B48" s="182"/>
+      <c r="C48" s="182"/>
+      <c r="D48" s="182"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="181" t="s">
+      <c r="B49" s="182" t="s">
         <v>118</v>
       </c>
-      <c r="C49" s="181"/>
-      <c r="D49" s="181"/>
+      <c r="C49" s="182"/>
+      <c r="D49" s="182"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="181"/>
-      <c r="C50" s="181"/>
-      <c r="D50" s="181"/>
+      <c r="B50" s="182"/>
+      <c r="C50" s="182"/>
+      <c r="D50" s="182"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="181" t="s">
+      <c r="B51" s="182" t="s">
         <v>119</v>
       </c>
-      <c r="C51" s="181"/>
-      <c r="D51" s="181"/>
+      <c r="C51" s="182"/>
+      <c r="D51" s="182"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="181"/>
-      <c r="C52" s="181"/>
-      <c r="D52" s="181"/>
+      <c r="B52" s="182"/>
+      <c r="C52" s="182"/>
+      <c r="D52" s="182"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="181"/>
-      <c r="C53" s="181"/>
-      <c r="D53" s="181"/>
+      <c r="B53" s="182"/>
+      <c r="C53" s="182"/>
+      <c r="D53" s="182"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="181"/>
-      <c r="C54" s="181"/>
-      <c r="D54" s="181"/>
+      <c r="B54" s="182"/>
+      <c r="C54" s="182"/>
+      <c r="D54" s="182"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="181"/>
-      <c r="C55" s="181"/>
-      <c r="D55" s="181"/>
+      <c r="B55" s="182"/>
+      <c r="C55" s="182"/>
+      <c r="D55" s="182"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="181"/>
-      <c r="C56" s="181"/>
-      <c r="D56" s="181"/>
+      <c r="B56" s="182"/>
+      <c r="C56" s="182"/>
+      <c r="D56" s="182"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="181"/>
-      <c r="C57" s="181"/>
-      <c r="D57" s="181"/>
+      <c r="B57" s="182"/>
+      <c r="C57" s="182"/>
+      <c r="D57" s="182"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="181"/>
-      <c r="C58" s="181"/>
-      <c r="D58" s="181"/>
+      <c r="B58" s="182"/>
+      <c r="C58" s="182"/>
+      <c r="D58" s="182"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="181"/>
-      <c r="C59" s="181"/>
-      <c r="D59" s="181"/>
+      <c r="B59" s="182"/>
+      <c r="C59" s="182"/>
+      <c r="D59" s="182"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="181"/>
-      <c r="C60" s="181"/>
-      <c r="D60" s="181"/>
+      <c r="B60" s="182"/>
+      <c r="C60" s="182"/>
+      <c r="D60" s="182"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="181"/>
-      <c r="C61" s="181"/>
-      <c r="D61" s="181"/>
+      <c r="B61" s="182"/>
+      <c r="C61" s="182"/>
+      <c r="D61" s="182"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="181"/>
-      <c r="C62" s="181"/>
-      <c r="D62" s="181"/>
+      <c r="B62" s="182"/>
+      <c r="C62" s="182"/>
+      <c r="D62" s="182"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="181"/>
-      <c r="C63" s="181"/>
-      <c r="D63" s="181"/>
+      <c r="B63" s="182"/>
+      <c r="C63" s="182"/>
+      <c r="D63" s="182"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
@@ -16696,17 +18659,17 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="181"/>
-      <c r="C66" s="181"/>
-      <c r="D66" s="181"/>
+      <c r="B66" s="182"/>
+      <c r="C66" s="182"/>
+      <c r="D66" s="182"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="181"/>
-      <c r="C67" s="181"/>
-      <c r="D67" s="181"/>
+      <c r="B67" s="182"/>
+      <c r="C67" s="182"/>
+      <c r="D67" s="182"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
@@ -16813,19 +18776,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="185"/>
-      <c r="C76" s="185"/>
-      <c r="D76" s="185"/>
+      <c r="B76" s="186"/>
+      <c r="C76" s="186"/>
+      <c r="D76" s="186"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="182" t="s">
+      <c r="B77" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="182"/>
-      <c r="D77" s="182"/>
+      <c r="C77" s="183"/>
+      <c r="D77" s="183"/>
       <c r="E77" s="36">
         <v>0</v>
       </c>
@@ -16833,9 +18796,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="185"/>
-      <c r="C78" s="185"/>
-      <c r="D78" s="185"/>
+      <c r="B78" s="186"/>
+      <c r="C78" s="186"/>
+      <c r="D78" s="186"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
@@ -16870,31 +18833,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="179"/>
-      <c r="C82" s="179"/>
-      <c r="D82" s="179"/>
-      <c r="E82" s="179"/>
+      <c r="B82" s="180"/>
+      <c r="C82" s="180"/>
+      <c r="D82" s="180"/>
+      <c r="E82" s="180"/>
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="187" t="s">
+      <c r="A83" s="188" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="187"/>
-      <c r="C83" s="187"/>
-      <c r="D83" s="187"/>
-      <c r="E83" s="187"/>
-      <c r="F83" s="187"/>
+      <c r="B83" s="188"/>
+      <c r="C83" s="188"/>
+      <c r="D83" s="188"/>
+      <c r="E83" s="188"/>
+      <c r="F83" s="188"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="183" t="s">
+      <c r="A84" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="183"/>
-      <c r="C84" s="183"/>
-      <c r="D84" s="183"/>
-      <c r="E84" s="183"/>
-      <c r="F84" s="183"/>
+      <c r="B84" s="184"/>
+      <c r="C84" s="184"/>
+      <c r="D84" s="184"/>
+      <c r="E84" s="184"/>
+      <c r="F84" s="184"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
@@ -16906,26 +18869,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="180"/>
-      <c r="C86" s="180"/>
-      <c r="D86" s="180"/>
-      <c r="E86" s="180"/>
+      <c r="B86" s="181"/>
+      <c r="C86" s="181"/>
+      <c r="D86" s="181"/>
+      <c r="E86" s="181"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="186" t="s">
+      <c r="A87" s="187" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="186"/>
-      <c r="C87" s="186"/>
-      <c r="D87" s="186"/>
-      <c r="E87" s="186"/>
-      <c r="F87" s="186"/>
+      <c r="B87" s="187"/>
+      <c r="C87" s="187"/>
+      <c r="D87" s="187"/>
+      <c r="E87" s="187"/>
+      <c r="F87" s="187"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="177"/>
-      <c r="C89" s="178"/>
-      <c r="D89" s="178"/>
+      <c r="B89" s="178"/>
+      <c r="C89" s="179"/>
+      <c r="D89" s="179"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
